--- a/data/excel_tables/2.2_other_party_orgs_info.xlsx
+++ b/data/excel_tables/2.2_other_party_orgs_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="109">
   <si>
     <t>other_party_org_name</t>
   </si>
@@ -329,6 +329,18 @@
   </si>
   <si>
     <t>425c96b0-eaad-11ee-bce9-638f8e04ad34</t>
+  </si>
+  <si>
+    <t>9032f690-0182-11ef-938a-5514903835ea</t>
+  </si>
+  <si>
+    <t>a38ae5e0-0182-11ef-95c4-e7bfad33aba2</t>
+  </si>
+  <si>
+    <t>b2cb7830-0182-11ef-ae0a-87878d7061af</t>
+  </si>
+  <si>
+    <t>c5f838d0-0182-11ef-95c4-e7bfad33aba2</t>
   </si>
 </sst>
 </file>
@@ -686,7 +698,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2417,6 +2429,282 @@
         <v>104</v>
       </c>
     </row>
+    <row r="76" spans="1:7">
+      <c r="A76" t="s">
+        <v>42</v>
+      </c>
+      <c r="B76" t="s">
+        <v>79</v>
+      </c>
+      <c r="C76" t="s">
+        <v>84</v>
+      </c>
+      <c r="D76" t="s">
+        <v>86</v>
+      </c>
+      <c r="E76" t="s">
+        <v>92</v>
+      </c>
+      <c r="F76" t="s">
+        <v>96</v>
+      </c>
+      <c r="G76" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" t="s">
+        <v>42</v>
+      </c>
+      <c r="B77" t="s">
+        <v>79</v>
+      </c>
+      <c r="C77" t="s">
+        <v>84</v>
+      </c>
+      <c r="D77" t="s">
+        <v>86</v>
+      </c>
+      <c r="E77" t="s">
+        <v>92</v>
+      </c>
+      <c r="F77" t="s">
+        <v>96</v>
+      </c>
+      <c r="G77" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" t="s">
+        <v>43</v>
+      </c>
+      <c r="B78" t="s">
+        <v>80</v>
+      </c>
+      <c r="C78" t="s">
+        <v>84</v>
+      </c>
+      <c r="D78" t="s">
+        <v>86</v>
+      </c>
+      <c r="E78" t="s">
+        <v>92</v>
+      </c>
+      <c r="F78" t="s">
+        <v>96</v>
+      </c>
+      <c r="G78" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" t="s">
+        <v>43</v>
+      </c>
+      <c r="B79" t="s">
+        <v>80</v>
+      </c>
+      <c r="C79" t="s">
+        <v>84</v>
+      </c>
+      <c r="D79" t="s">
+        <v>86</v>
+      </c>
+      <c r="E79" t="s">
+        <v>92</v>
+      </c>
+      <c r="F79" t="s">
+        <v>96</v>
+      </c>
+      <c r="G79" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" t="s">
+        <v>43</v>
+      </c>
+      <c r="B80" t="s">
+        <v>80</v>
+      </c>
+      <c r="C80" t="s">
+        <v>82</v>
+      </c>
+      <c r="D80" t="s">
+        <v>86</v>
+      </c>
+      <c r="E80" t="s">
+        <v>92</v>
+      </c>
+      <c r="F80" t="s">
+        <v>96</v>
+      </c>
+      <c r="G80" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" t="s">
+        <v>43</v>
+      </c>
+      <c r="B81" t="s">
+        <v>80</v>
+      </c>
+      <c r="C81" t="s">
+        <v>82</v>
+      </c>
+      <c r="D81" t="s">
+        <v>86</v>
+      </c>
+      <c r="E81" t="s">
+        <v>92</v>
+      </c>
+      <c r="F81" t="s">
+        <v>96</v>
+      </c>
+      <c r="G81" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" t="s">
+        <v>42</v>
+      </c>
+      <c r="B82" t="s">
+        <v>79</v>
+      </c>
+      <c r="C82" t="s">
+        <v>82</v>
+      </c>
+      <c r="D82" t="s">
+        <v>86</v>
+      </c>
+      <c r="E82" t="s">
+        <v>92</v>
+      </c>
+      <c r="F82" t="s">
+        <v>96</v>
+      </c>
+      <c r="G82" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" t="s">
+        <v>42</v>
+      </c>
+      <c r="B83" t="s">
+        <v>79</v>
+      </c>
+      <c r="C83" t="s">
+        <v>82</v>
+      </c>
+      <c r="D83" t="s">
+        <v>86</v>
+      </c>
+      <c r="E83" t="s">
+        <v>92</v>
+      </c>
+      <c r="F83" t="s">
+        <v>96</v>
+      </c>
+      <c r="G83" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" t="s">
+        <v>42</v>
+      </c>
+      <c r="B84" t="s">
+        <v>79</v>
+      </c>
+      <c r="C84" t="s">
+        <v>81</v>
+      </c>
+      <c r="D84" t="s">
+        <v>86</v>
+      </c>
+      <c r="E84" t="s">
+        <v>92</v>
+      </c>
+      <c r="F84" t="s">
+        <v>96</v>
+      </c>
+      <c r="G84" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" t="s">
+        <v>43</v>
+      </c>
+      <c r="B85" t="s">
+        <v>80</v>
+      </c>
+      <c r="C85" t="s">
+        <v>81</v>
+      </c>
+      <c r="D85" t="s">
+        <v>86</v>
+      </c>
+      <c r="E85" t="s">
+        <v>92</v>
+      </c>
+      <c r="F85" t="s">
+        <v>96</v>
+      </c>
+      <c r="G85" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" t="s">
+        <v>42</v>
+      </c>
+      <c r="B86" t="s">
+        <v>79</v>
+      </c>
+      <c r="C86" t="s">
+        <v>83</v>
+      </c>
+      <c r="D86" t="s">
+        <v>86</v>
+      </c>
+      <c r="E86" t="s">
+        <v>92</v>
+      </c>
+      <c r="F86" t="s">
+        <v>96</v>
+      </c>
+      <c r="G86" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" t="s">
+        <v>43</v>
+      </c>
+      <c r="B87" t="s">
+        <v>80</v>
+      </c>
+      <c r="C87" t="s">
+        <v>83</v>
+      </c>
+      <c r="D87" t="s">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>92</v>
+      </c>
+      <c r="F87" t="s">
+        <v>96</v>
+      </c>
+      <c r="G87" t="s">
+        <v>108</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/excel_tables/2.2_other_party_orgs_info.xlsx
+++ b/data/excel_tables/2.2_other_party_orgs_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="109">
   <si>
     <t>other_party_org_name</t>
   </si>
@@ -148,108 +148,108 @@
     <t>Смілянська міська організація Партії Зелених України</t>
   </si>
   <si>
+    <t>33959120</t>
+  </si>
+  <si>
+    <t>34051854</t>
+  </si>
+  <si>
+    <t>33183342</t>
+  </si>
+  <si>
+    <t>33959267</t>
+  </si>
+  <si>
+    <t>34058963</t>
+  </si>
+  <si>
+    <t>34004893</t>
+  </si>
+  <si>
+    <t>32909042</t>
+  </si>
+  <si>
+    <t>33975535</t>
+  </si>
+  <si>
+    <t>34159955</t>
+  </si>
+  <si>
+    <t>33958739</t>
+  </si>
+  <si>
+    <t>37262747</t>
+  </si>
+  <si>
+    <t>33434730</t>
+  </si>
+  <si>
+    <t>33928438</t>
+  </si>
+  <si>
+    <t>33245450</t>
+  </si>
+  <si>
+    <t>33895848</t>
+  </si>
+  <si>
+    <t>33826837</t>
+  </si>
+  <si>
+    <t>33826863</t>
+  </si>
+  <si>
+    <t>33761026</t>
+  </si>
+  <si>
+    <t>33987891</t>
+  </si>
+  <si>
+    <t>33615837</t>
+  </si>
+  <si>
+    <t>33969867</t>
+  </si>
+  <si>
+    <t>33176712</t>
+  </si>
+  <si>
+    <t>33964172</t>
+  </si>
+  <si>
+    <t>33861507</t>
+  </si>
+  <si>
+    <t>33850896</t>
+  </si>
+  <si>
+    <t>37280326</t>
+  </si>
+  <si>
+    <t>39250398</t>
+  </si>
+  <si>
+    <t>38549759</t>
+  </si>
+  <si>
+    <t>33810256</t>
+  </si>
+  <si>
+    <t>34090411</t>
+  </si>
+  <si>
+    <t>25999654</t>
+  </si>
+  <si>
+    <t>33937442</t>
+  </si>
+  <si>
+    <t>33884904</t>
+  </si>
+  <si>
     <t>32110582</t>
   </si>
   <si>
-    <t>33959120</t>
-  </si>
-  <si>
-    <t>34051854</t>
-  </si>
-  <si>
-    <t>33183342</t>
-  </si>
-  <si>
-    <t>33959267</t>
-  </si>
-  <si>
-    <t>34058963</t>
-  </si>
-  <si>
-    <t>34004893</t>
-  </si>
-  <si>
-    <t>32909042</t>
-  </si>
-  <si>
-    <t>33975535</t>
-  </si>
-  <si>
-    <t>34159955</t>
-  </si>
-  <si>
-    <t>33958739</t>
-  </si>
-  <si>
-    <t>37262747</t>
-  </si>
-  <si>
-    <t>33434730</t>
-  </si>
-  <si>
-    <t>33928438</t>
-  </si>
-  <si>
-    <t>33245450</t>
-  </si>
-  <si>
-    <t>33895848</t>
-  </si>
-  <si>
-    <t>33826837</t>
-  </si>
-  <si>
-    <t>33826863</t>
-  </si>
-  <si>
-    <t>33761026</t>
-  </si>
-  <si>
-    <t>33987891</t>
-  </si>
-  <si>
-    <t>33615837</t>
-  </si>
-  <si>
-    <t>33969867</t>
-  </si>
-  <si>
-    <t>33176712</t>
-  </si>
-  <si>
-    <t>33964172</t>
-  </si>
-  <si>
-    <t>33861507</t>
-  </si>
-  <si>
-    <t>33850896</t>
-  </si>
-  <si>
-    <t>37280326</t>
-  </si>
-  <si>
-    <t>39250398</t>
-  </si>
-  <si>
-    <t>38549759</t>
-  </si>
-  <si>
-    <t>33810256</t>
-  </si>
-  <si>
-    <t>34090411</t>
-  </si>
-  <si>
-    <t>25999654</t>
-  </si>
-  <si>
-    <t>33937442</t>
-  </si>
-  <si>
-    <t>33884904</t>
-  </si>
-  <si>
     <t>31451445</t>
   </si>
   <si>
@@ -277,12 +277,12 @@
     <t>2021</t>
   </si>
   <si>
+    <t>2023</t>
+  </si>
+  <si>
     <t>2022</t>
   </si>
   <si>
-    <t>2023</t>
-  </si>
-  <si>
     <t>ПРОГРЕСИВНА СОЦІАЛІСТИЧНА ПАРТІЯ УКРАЇНИ</t>
   </si>
   <si>
@@ -295,10 +295,10 @@
     <t>ПАРТІЯ ЗЕЛЕНИХ УКРАЇНИ</t>
   </si>
   <si>
+    <t>21721653</t>
+  </si>
+  <si>
     <t>00013497</t>
-  </si>
-  <si>
-    <t>21721653</t>
   </si>
   <si>
     <t>21710533</t>
@@ -698,7 +698,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G87"/>
+  <dimension ref="A1:G138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -731,20 +731,20 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>44</v>
+      <c r="B2">
+        <v>32110582</v>
       </c>
       <c r="C2" t="s">
         <v>81</v>
       </c>
-      <c r="D2" t="s">
-        <v>86</v>
+      <c r="D2">
+        <v>2021</v>
       </c>
       <c r="E2" t="s">
         <v>89</v>
       </c>
-      <c r="F2" t="s">
-        <v>93</v>
+      <c r="F2">
+        <v>13497</v>
       </c>
       <c r="G2" t="s">
         <v>97</v>
@@ -754,20 +754,20 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>45</v>
+      <c r="B3">
+        <v>33959120</v>
       </c>
       <c r="C3" t="s">
         <v>82</v>
       </c>
-      <c r="D3" t="s">
-        <v>87</v>
+      <c r="D3">
+        <v>2022</v>
       </c>
       <c r="E3" t="s">
         <v>90</v>
       </c>
-      <c r="F3" t="s">
-        <v>94</v>
+      <c r="F3">
+        <v>21721653</v>
       </c>
       <c r="G3" t="s">
         <v>98</v>
@@ -777,20 +777,20 @@
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>46</v>
+      <c r="B4">
+        <v>34051854</v>
       </c>
       <c r="C4" t="s">
         <v>82</v>
       </c>
-      <c r="D4" t="s">
-        <v>87</v>
+      <c r="D4">
+        <v>2022</v>
       </c>
       <c r="E4" t="s">
         <v>90</v>
       </c>
-      <c r="F4" t="s">
-        <v>94</v>
+      <c r="F4">
+        <v>21721653</v>
       </c>
       <c r="G4" t="s">
         <v>98</v>
@@ -800,20 +800,20 @@
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
-        <v>47</v>
+      <c r="B5">
+        <v>33183342</v>
       </c>
       <c r="C5" t="s">
         <v>82</v>
       </c>
-      <c r="D5" t="s">
-        <v>87</v>
+      <c r="D5">
+        <v>2022</v>
       </c>
       <c r="E5" t="s">
         <v>90</v>
       </c>
-      <c r="F5" t="s">
-        <v>94</v>
+      <c r="F5">
+        <v>21721653</v>
       </c>
       <c r="G5" t="s">
         <v>98</v>
@@ -823,20 +823,20 @@
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
-        <v>48</v>
+      <c r="B6">
+        <v>33959267</v>
       </c>
       <c r="C6" t="s">
         <v>82</v>
       </c>
-      <c r="D6" t="s">
-        <v>87</v>
+      <c r="D6">
+        <v>2022</v>
       </c>
       <c r="E6" t="s">
         <v>90</v>
       </c>
-      <c r="F6" t="s">
-        <v>94</v>
+      <c r="F6">
+        <v>21721653</v>
       </c>
       <c r="G6" t="s">
         <v>98</v>
@@ -846,20 +846,20 @@
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
-        <v>49</v>
+      <c r="B7">
+        <v>34058963</v>
       </c>
       <c r="C7" t="s">
         <v>82</v>
       </c>
-      <c r="D7" t="s">
-        <v>87</v>
+      <c r="D7">
+        <v>2022</v>
       </c>
       <c r="E7" t="s">
         <v>90</v>
       </c>
-      <c r="F7" t="s">
-        <v>94</v>
+      <c r="F7">
+        <v>21721653</v>
       </c>
       <c r="G7" t="s">
         <v>98</v>
@@ -869,20 +869,20 @@
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
-        <v>50</v>
+      <c r="B8">
+        <v>34004893</v>
       </c>
       <c r="C8" t="s">
         <v>82</v>
       </c>
-      <c r="D8" t="s">
-        <v>87</v>
+      <c r="D8">
+        <v>2022</v>
       </c>
       <c r="E8" t="s">
         <v>90</v>
       </c>
-      <c r="F8" t="s">
-        <v>94</v>
+      <c r="F8">
+        <v>21721653</v>
       </c>
       <c r="G8" t="s">
         <v>98</v>
@@ -892,20 +892,20 @@
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
-        <v>51</v>
+      <c r="B9">
+        <v>32909042</v>
       </c>
       <c r="C9" t="s">
         <v>82</v>
       </c>
-      <c r="D9" t="s">
-        <v>87</v>
+      <c r="D9">
+        <v>2022</v>
       </c>
       <c r="E9" t="s">
         <v>90</v>
       </c>
-      <c r="F9" t="s">
-        <v>94</v>
+      <c r="F9">
+        <v>21721653</v>
       </c>
       <c r="G9" t="s">
         <v>98</v>
@@ -915,20 +915,20 @@
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="s">
-        <v>52</v>
+      <c r="B10">
+        <v>33975535</v>
       </c>
       <c r="C10" t="s">
         <v>82</v>
       </c>
-      <c r="D10" t="s">
-        <v>87</v>
+      <c r="D10">
+        <v>2022</v>
       </c>
       <c r="E10" t="s">
         <v>90</v>
       </c>
-      <c r="F10" t="s">
-        <v>94</v>
+      <c r="F10">
+        <v>21721653</v>
       </c>
       <c r="G10" t="s">
         <v>98</v>
@@ -938,20 +938,20 @@
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" t="s">
-        <v>53</v>
+      <c r="B11">
+        <v>34159955</v>
       </c>
       <c r="C11" t="s">
         <v>82</v>
       </c>
-      <c r="D11" t="s">
-        <v>87</v>
+      <c r="D11">
+        <v>2022</v>
       </c>
       <c r="E11" t="s">
         <v>90</v>
       </c>
-      <c r="F11" t="s">
-        <v>94</v>
+      <c r="F11">
+        <v>21721653</v>
       </c>
       <c r="G11" t="s">
         <v>98</v>
@@ -961,20 +961,20 @@
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="s">
-        <v>54</v>
+      <c r="B12">
+        <v>33958739</v>
       </c>
       <c r="C12" t="s">
         <v>82</v>
       </c>
-      <c r="D12" t="s">
-        <v>87</v>
+      <c r="D12">
+        <v>2022</v>
       </c>
       <c r="E12" t="s">
         <v>90</v>
       </c>
-      <c r="F12" t="s">
-        <v>94</v>
+      <c r="F12">
+        <v>21721653</v>
       </c>
       <c r="G12" t="s">
         <v>98</v>
@@ -984,20 +984,20 @@
       <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" t="s">
-        <v>55</v>
+      <c r="B13">
+        <v>37262747</v>
       </c>
       <c r="C13" t="s">
         <v>82</v>
       </c>
-      <c r="D13" t="s">
-        <v>87</v>
+      <c r="D13">
+        <v>2022</v>
       </c>
       <c r="E13" t="s">
         <v>90</v>
       </c>
-      <c r="F13" t="s">
-        <v>94</v>
+      <c r="F13">
+        <v>21721653</v>
       </c>
       <c r="G13" t="s">
         <v>98</v>
@@ -1007,20 +1007,20 @@
       <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B14" t="s">
-        <v>56</v>
+      <c r="B14">
+        <v>33434730</v>
       </c>
       <c r="C14" t="s">
         <v>82</v>
       </c>
-      <c r="D14" t="s">
-        <v>87</v>
+      <c r="D14">
+        <v>2022</v>
       </c>
       <c r="E14" t="s">
         <v>90</v>
       </c>
-      <c r="F14" t="s">
-        <v>94</v>
+      <c r="F14">
+        <v>21721653</v>
       </c>
       <c r="G14" t="s">
         <v>98</v>
@@ -1030,20 +1030,20 @@
       <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B15" t="s">
-        <v>57</v>
+      <c r="B15">
+        <v>33928438</v>
       </c>
       <c r="C15" t="s">
         <v>82</v>
       </c>
-      <c r="D15" t="s">
-        <v>87</v>
+      <c r="D15">
+        <v>2022</v>
       </c>
       <c r="E15" t="s">
         <v>90</v>
       </c>
-      <c r="F15" t="s">
-        <v>94</v>
+      <c r="F15">
+        <v>21721653</v>
       </c>
       <c r="G15" t="s">
         <v>98</v>
@@ -1053,20 +1053,20 @@
       <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="B16" t="s">
-        <v>58</v>
+      <c r="B16">
+        <v>33245450</v>
       </c>
       <c r="C16" t="s">
         <v>82</v>
       </c>
-      <c r="D16" t="s">
-        <v>87</v>
+      <c r="D16">
+        <v>2022</v>
       </c>
       <c r="E16" t="s">
         <v>90</v>
       </c>
-      <c r="F16" t="s">
-        <v>94</v>
+      <c r="F16">
+        <v>21721653</v>
       </c>
       <c r="G16" t="s">
         <v>98</v>
@@ -1076,20 +1076,20 @@
       <c r="A17" t="s">
         <v>22</v>
       </c>
-      <c r="B17" t="s">
-        <v>59</v>
+      <c r="B17">
+        <v>33895848</v>
       </c>
       <c r="C17" t="s">
         <v>82</v>
       </c>
-      <c r="D17" t="s">
-        <v>87</v>
+      <c r="D17">
+        <v>2022</v>
       </c>
       <c r="E17" t="s">
         <v>90</v>
       </c>
-      <c r="F17" t="s">
-        <v>94</v>
+      <c r="F17">
+        <v>21721653</v>
       </c>
       <c r="G17" t="s">
         <v>98</v>
@@ -1099,20 +1099,20 @@
       <c r="A18" t="s">
         <v>23</v>
       </c>
-      <c r="B18" t="s">
-        <v>60</v>
+      <c r="B18">
+        <v>33826837</v>
       </c>
       <c r="C18" t="s">
         <v>82</v>
       </c>
-      <c r="D18" t="s">
-        <v>87</v>
+      <c r="D18">
+        <v>2022</v>
       </c>
       <c r="E18" t="s">
         <v>90</v>
       </c>
-      <c r="F18" t="s">
-        <v>94</v>
+      <c r="F18">
+        <v>21721653</v>
       </c>
       <c r="G18" t="s">
         <v>98</v>
@@ -1122,20 +1122,20 @@
       <c r="A19" t="s">
         <v>24</v>
       </c>
-      <c r="B19" t="s">
-        <v>61</v>
+      <c r="B19">
+        <v>33826863</v>
       </c>
       <c r="C19" t="s">
         <v>82</v>
       </c>
-      <c r="D19" t="s">
-        <v>87</v>
+      <c r="D19">
+        <v>2022</v>
       </c>
       <c r="E19" t="s">
         <v>90</v>
       </c>
-      <c r="F19" t="s">
-        <v>94</v>
+      <c r="F19">
+        <v>21721653</v>
       </c>
       <c r="G19" t="s">
         <v>98</v>
@@ -1145,20 +1145,20 @@
       <c r="A20" t="s">
         <v>25</v>
       </c>
-      <c r="B20" t="s">
-        <v>62</v>
+      <c r="B20">
+        <v>33761026</v>
       </c>
       <c r="C20" t="s">
         <v>82</v>
       </c>
-      <c r="D20" t="s">
-        <v>87</v>
+      <c r="D20">
+        <v>2022</v>
       </c>
       <c r="E20" t="s">
         <v>90</v>
       </c>
-      <c r="F20" t="s">
-        <v>94</v>
+      <c r="F20">
+        <v>21721653</v>
       </c>
       <c r="G20" t="s">
         <v>98</v>
@@ -1168,20 +1168,20 @@
       <c r="A21" t="s">
         <v>26</v>
       </c>
-      <c r="B21" t="s">
-        <v>63</v>
+      <c r="B21">
+        <v>33987891</v>
       </c>
       <c r="C21" t="s">
         <v>82</v>
       </c>
-      <c r="D21" t="s">
-        <v>87</v>
+      <c r="D21">
+        <v>2022</v>
       </c>
       <c r="E21" t="s">
         <v>90</v>
       </c>
-      <c r="F21" t="s">
-        <v>94</v>
+      <c r="F21">
+        <v>21721653</v>
       </c>
       <c r="G21" t="s">
         <v>98</v>
@@ -1191,20 +1191,20 @@
       <c r="A22" t="s">
         <v>27</v>
       </c>
-      <c r="B22" t="s">
-        <v>64</v>
+      <c r="B22">
+        <v>33615837</v>
       </c>
       <c r="C22" t="s">
         <v>82</v>
       </c>
-      <c r="D22" t="s">
-        <v>87</v>
+      <c r="D22">
+        <v>2022</v>
       </c>
       <c r="E22" t="s">
         <v>90</v>
       </c>
-      <c r="F22" t="s">
-        <v>94</v>
+      <c r="F22">
+        <v>21721653</v>
       </c>
       <c r="G22" t="s">
         <v>98</v>
@@ -1214,20 +1214,20 @@
       <c r="A23" t="s">
         <v>28</v>
       </c>
-      <c r="B23" t="s">
-        <v>65</v>
+      <c r="B23">
+        <v>33969867</v>
       </c>
       <c r="C23" t="s">
         <v>82</v>
       </c>
-      <c r="D23" t="s">
-        <v>87</v>
+      <c r="D23">
+        <v>2022</v>
       </c>
       <c r="E23" t="s">
         <v>90</v>
       </c>
-      <c r="F23" t="s">
-        <v>94</v>
+      <c r="F23">
+        <v>21721653</v>
       </c>
       <c r="G23" t="s">
         <v>98</v>
@@ -1237,20 +1237,20 @@
       <c r="A24" t="s">
         <v>29</v>
       </c>
-      <c r="B24" t="s">
-        <v>66</v>
+      <c r="B24">
+        <v>33176712</v>
       </c>
       <c r="C24" t="s">
         <v>82</v>
       </c>
-      <c r="D24" t="s">
-        <v>87</v>
+      <c r="D24">
+        <v>2022</v>
       </c>
       <c r="E24" t="s">
         <v>90</v>
       </c>
-      <c r="F24" t="s">
-        <v>94</v>
+      <c r="F24">
+        <v>21721653</v>
       </c>
       <c r="G24" t="s">
         <v>98</v>
@@ -1260,20 +1260,20 @@
       <c r="A25" t="s">
         <v>30</v>
       </c>
-      <c r="B25" t="s">
-        <v>67</v>
+      <c r="B25">
+        <v>33964172</v>
       </c>
       <c r="C25" t="s">
         <v>82</v>
       </c>
-      <c r="D25" t="s">
-        <v>87</v>
+      <c r="D25">
+        <v>2022</v>
       </c>
       <c r="E25" t="s">
         <v>90</v>
       </c>
-      <c r="F25" t="s">
-        <v>94</v>
+      <c r="F25">
+        <v>21721653</v>
       </c>
       <c r="G25" t="s">
         <v>98</v>
@@ -1283,20 +1283,20 @@
       <c r="A26" t="s">
         <v>31</v>
       </c>
-      <c r="B26" t="s">
-        <v>68</v>
+      <c r="B26">
+        <v>33861507</v>
       </c>
       <c r="C26" t="s">
         <v>82</v>
       </c>
-      <c r="D26" t="s">
-        <v>87</v>
+      <c r="D26">
+        <v>2022</v>
       </c>
       <c r="E26" t="s">
         <v>90</v>
       </c>
-      <c r="F26" t="s">
-        <v>94</v>
+      <c r="F26">
+        <v>21721653</v>
       </c>
       <c r="G26" t="s">
         <v>98</v>
@@ -1306,20 +1306,20 @@
       <c r="A27" t="s">
         <v>32</v>
       </c>
-      <c r="B27" t="s">
-        <v>69</v>
+      <c r="B27">
+        <v>33850896</v>
       </c>
       <c r="C27" t="s">
         <v>82</v>
       </c>
-      <c r="D27" t="s">
-        <v>87</v>
+      <c r="D27">
+        <v>2022</v>
       </c>
       <c r="E27" t="s">
         <v>90</v>
       </c>
-      <c r="F27" t="s">
-        <v>94</v>
+      <c r="F27">
+        <v>21721653</v>
       </c>
       <c r="G27" t="s">
         <v>98</v>
@@ -1329,20 +1329,20 @@
       <c r="A28" t="s">
         <v>33</v>
       </c>
-      <c r="B28" t="s">
-        <v>70</v>
+      <c r="B28">
+        <v>37280326</v>
       </c>
       <c r="C28" t="s">
         <v>82</v>
       </c>
-      <c r="D28" t="s">
-        <v>87</v>
+      <c r="D28">
+        <v>2022</v>
       </c>
       <c r="E28" t="s">
         <v>90</v>
       </c>
-      <c r="F28" t="s">
-        <v>94</v>
+      <c r="F28">
+        <v>21721653</v>
       </c>
       <c r="G28" t="s">
         <v>98</v>
@@ -1352,20 +1352,20 @@
       <c r="A29" t="s">
         <v>34</v>
       </c>
-      <c r="B29" t="s">
-        <v>71</v>
+      <c r="B29">
+        <v>39250398</v>
       </c>
       <c r="C29" t="s">
         <v>82</v>
       </c>
-      <c r="D29" t="s">
-        <v>87</v>
+      <c r="D29">
+        <v>2022</v>
       </c>
       <c r="E29" t="s">
         <v>90</v>
       </c>
-      <c r="F29" t="s">
-        <v>94</v>
+      <c r="F29">
+        <v>21721653</v>
       </c>
       <c r="G29" t="s">
         <v>98</v>
@@ -1375,20 +1375,20 @@
       <c r="A30" t="s">
         <v>35</v>
       </c>
-      <c r="B30" t="s">
-        <v>72</v>
+      <c r="B30">
+        <v>38549759</v>
       </c>
       <c r="C30" t="s">
         <v>82</v>
       </c>
-      <c r="D30" t="s">
-        <v>87</v>
+      <c r="D30">
+        <v>2022</v>
       </c>
       <c r="E30" t="s">
         <v>90</v>
       </c>
-      <c r="F30" t="s">
-        <v>94</v>
+      <c r="F30">
+        <v>21721653</v>
       </c>
       <c r="G30" t="s">
         <v>98</v>
@@ -1398,20 +1398,20 @@
       <c r="A31" t="s">
         <v>36</v>
       </c>
-      <c r="B31" t="s">
-        <v>73</v>
+      <c r="B31">
+        <v>33810256</v>
       </c>
       <c r="C31" t="s">
         <v>82</v>
       </c>
-      <c r="D31" t="s">
-        <v>87</v>
+      <c r="D31">
+        <v>2022</v>
       </c>
       <c r="E31" t="s">
         <v>90</v>
       </c>
-      <c r="F31" t="s">
-        <v>94</v>
+      <c r="F31">
+        <v>21721653</v>
       </c>
       <c r="G31" t="s">
         <v>98</v>
@@ -1421,20 +1421,20 @@
       <c r="A32" t="s">
         <v>37</v>
       </c>
-      <c r="B32" t="s">
-        <v>74</v>
+      <c r="B32">
+        <v>34090411</v>
       </c>
       <c r="C32" t="s">
         <v>82</v>
       </c>
-      <c r="D32" t="s">
-        <v>87</v>
+      <c r="D32">
+        <v>2022</v>
       </c>
       <c r="E32" t="s">
         <v>90</v>
       </c>
-      <c r="F32" t="s">
-        <v>94</v>
+      <c r="F32">
+        <v>21721653</v>
       </c>
       <c r="G32" t="s">
         <v>98</v>
@@ -1444,20 +1444,20 @@
       <c r="A33" t="s">
         <v>38</v>
       </c>
-      <c r="B33" t="s">
-        <v>75</v>
+      <c r="B33">
+        <v>25999654</v>
       </c>
       <c r="C33" t="s">
         <v>82</v>
       </c>
-      <c r="D33" t="s">
-        <v>87</v>
+      <c r="D33">
+        <v>2022</v>
       </c>
       <c r="E33" t="s">
         <v>90</v>
       </c>
-      <c r="F33" t="s">
-        <v>94</v>
+      <c r="F33">
+        <v>21721653</v>
       </c>
       <c r="G33" t="s">
         <v>98</v>
@@ -1467,20 +1467,20 @@
       <c r="A34" t="s">
         <v>39</v>
       </c>
-      <c r="B34" t="s">
-        <v>76</v>
+      <c r="B34">
+        <v>33937442</v>
       </c>
       <c r="C34" t="s">
         <v>82</v>
       </c>
-      <c r="D34" t="s">
-        <v>87</v>
+      <c r="D34">
+        <v>2022</v>
       </c>
       <c r="E34" t="s">
         <v>90</v>
       </c>
-      <c r="F34" t="s">
-        <v>94</v>
+      <c r="F34">
+        <v>21721653</v>
       </c>
       <c r="G34" t="s">
         <v>98</v>
@@ -1490,20 +1490,20 @@
       <c r="A35" t="s">
         <v>40</v>
       </c>
-      <c r="B35" t="s">
-        <v>77</v>
+      <c r="B35">
+        <v>33884904</v>
       </c>
       <c r="C35" t="s">
         <v>82</v>
       </c>
-      <c r="D35" t="s">
-        <v>87</v>
+      <c r="D35">
+        <v>2022</v>
       </c>
       <c r="E35" t="s">
         <v>90</v>
       </c>
-      <c r="F35" t="s">
-        <v>94</v>
+      <c r="F35">
+        <v>21721653</v>
       </c>
       <c r="G35" t="s">
         <v>98</v>
@@ -1513,20 +1513,20 @@
       <c r="A36" t="s">
         <v>7</v>
       </c>
-      <c r="B36" t="s">
-        <v>44</v>
+      <c r="B36">
+        <v>32110582</v>
       </c>
       <c r="C36" t="s">
         <v>83</v>
       </c>
-      <c r="D36" t="s">
-        <v>86</v>
+      <c r="D36">
+        <v>2021</v>
       </c>
       <c r="E36" t="s">
         <v>89</v>
       </c>
-      <c r="F36" t="s">
-        <v>93</v>
+      <c r="F36">
+        <v>13497</v>
       </c>
       <c r="G36" t="s">
         <v>99</v>
@@ -1536,20 +1536,20 @@
       <c r="A37" t="s">
         <v>8</v>
       </c>
-      <c r="B37" t="s">
-        <v>45</v>
+      <c r="B37">
+        <v>33959120</v>
       </c>
       <c r="C37" t="s">
         <v>84</v>
       </c>
-      <c r="D37" t="s">
-        <v>86</v>
+      <c r="D37">
+        <v>2021</v>
       </c>
       <c r="E37" t="s">
         <v>90</v>
       </c>
-      <c r="F37" t="s">
-        <v>94</v>
+      <c r="F37">
+        <v>21721653</v>
       </c>
       <c r="G37" t="s">
         <v>100</v>
@@ -1559,20 +1559,20 @@
       <c r="A38" t="s">
         <v>9</v>
       </c>
-      <c r="B38" t="s">
-        <v>46</v>
+      <c r="B38">
+        <v>34051854</v>
       </c>
       <c r="C38" t="s">
         <v>84</v>
       </c>
-      <c r="D38" t="s">
-        <v>86</v>
+      <c r="D38">
+        <v>2021</v>
       </c>
       <c r="E38" t="s">
         <v>90</v>
       </c>
-      <c r="F38" t="s">
-        <v>94</v>
+      <c r="F38">
+        <v>21721653</v>
       </c>
       <c r="G38" t="s">
         <v>100</v>
@@ -1582,20 +1582,20 @@
       <c r="A39" t="s">
         <v>10</v>
       </c>
-      <c r="B39" t="s">
-        <v>47</v>
+      <c r="B39">
+        <v>33183342</v>
       </c>
       <c r="C39" t="s">
         <v>84</v>
       </c>
-      <c r="D39" t="s">
-        <v>86</v>
+      <c r="D39">
+        <v>2021</v>
       </c>
       <c r="E39" t="s">
         <v>90</v>
       </c>
-      <c r="F39" t="s">
-        <v>94</v>
+      <c r="F39">
+        <v>21721653</v>
       </c>
       <c r="G39" t="s">
         <v>100</v>
@@ -1605,20 +1605,20 @@
       <c r="A40" t="s">
         <v>11</v>
       </c>
-      <c r="B40" t="s">
-        <v>48</v>
+      <c r="B40">
+        <v>33959267</v>
       </c>
       <c r="C40" t="s">
         <v>84</v>
       </c>
-      <c r="D40" t="s">
-        <v>86</v>
+      <c r="D40">
+        <v>2021</v>
       </c>
       <c r="E40" t="s">
         <v>90</v>
       </c>
-      <c r="F40" t="s">
-        <v>94</v>
+      <c r="F40">
+        <v>21721653</v>
       </c>
       <c r="G40" t="s">
         <v>100</v>
@@ -1628,20 +1628,20 @@
       <c r="A41" t="s">
         <v>12</v>
       </c>
-      <c r="B41" t="s">
-        <v>49</v>
+      <c r="B41">
+        <v>34058963</v>
       </c>
       <c r="C41" t="s">
         <v>84</v>
       </c>
-      <c r="D41" t="s">
-        <v>86</v>
+      <c r="D41">
+        <v>2021</v>
       </c>
       <c r="E41" t="s">
         <v>90</v>
       </c>
-      <c r="F41" t="s">
-        <v>94</v>
+      <c r="F41">
+        <v>21721653</v>
       </c>
       <c r="G41" t="s">
         <v>100</v>
@@ -1651,20 +1651,20 @@
       <c r="A42" t="s">
         <v>13</v>
       </c>
-      <c r="B42" t="s">
-        <v>50</v>
+      <c r="B42">
+        <v>34004893</v>
       </c>
       <c r="C42" t="s">
         <v>84</v>
       </c>
-      <c r="D42" t="s">
-        <v>86</v>
+      <c r="D42">
+        <v>2021</v>
       </c>
       <c r="E42" t="s">
         <v>90</v>
       </c>
-      <c r="F42" t="s">
-        <v>94</v>
+      <c r="F42">
+        <v>21721653</v>
       </c>
       <c r="G42" t="s">
         <v>100</v>
@@ -1674,20 +1674,20 @@
       <c r="A43" t="s">
         <v>14</v>
       </c>
-      <c r="B43" t="s">
-        <v>51</v>
+      <c r="B43">
+        <v>32909042</v>
       </c>
       <c r="C43" t="s">
         <v>84</v>
       </c>
-      <c r="D43" t="s">
-        <v>86</v>
+      <c r="D43">
+        <v>2021</v>
       </c>
       <c r="E43" t="s">
         <v>90</v>
       </c>
-      <c r="F43" t="s">
-        <v>94</v>
+      <c r="F43">
+        <v>21721653</v>
       </c>
       <c r="G43" t="s">
         <v>100</v>
@@ -1697,20 +1697,20 @@
       <c r="A44" t="s">
         <v>15</v>
       </c>
-      <c r="B44" t="s">
-        <v>52</v>
+      <c r="B44">
+        <v>33975535</v>
       </c>
       <c r="C44" t="s">
         <v>84</v>
       </c>
-      <c r="D44" t="s">
-        <v>86</v>
+      <c r="D44">
+        <v>2021</v>
       </c>
       <c r="E44" t="s">
         <v>90</v>
       </c>
-      <c r="F44" t="s">
-        <v>94</v>
+      <c r="F44">
+        <v>21721653</v>
       </c>
       <c r="G44" t="s">
         <v>100</v>
@@ -1720,20 +1720,20 @@
       <c r="A45" t="s">
         <v>16</v>
       </c>
-      <c r="B45" t="s">
-        <v>53</v>
+      <c r="B45">
+        <v>34159955</v>
       </c>
       <c r="C45" t="s">
         <v>84</v>
       </c>
-      <c r="D45" t="s">
-        <v>86</v>
+      <c r="D45">
+        <v>2021</v>
       </c>
       <c r="E45" t="s">
         <v>90</v>
       </c>
-      <c r="F45" t="s">
-        <v>94</v>
+      <c r="F45">
+        <v>21721653</v>
       </c>
       <c r="G45" t="s">
         <v>100</v>
@@ -1743,20 +1743,20 @@
       <c r="A46" t="s">
         <v>17</v>
       </c>
-      <c r="B46" t="s">
-        <v>54</v>
+      <c r="B46">
+        <v>33958739</v>
       </c>
       <c r="C46" t="s">
         <v>84</v>
       </c>
-      <c r="D46" t="s">
-        <v>86</v>
+      <c r="D46">
+        <v>2021</v>
       </c>
       <c r="E46" t="s">
         <v>90</v>
       </c>
-      <c r="F46" t="s">
-        <v>94</v>
+      <c r="F46">
+        <v>21721653</v>
       </c>
       <c r="G46" t="s">
         <v>100</v>
@@ -1766,20 +1766,20 @@
       <c r="A47" t="s">
         <v>18</v>
       </c>
-      <c r="B47" t="s">
-        <v>55</v>
+      <c r="B47">
+        <v>37262747</v>
       </c>
       <c r="C47" t="s">
         <v>84</v>
       </c>
-      <c r="D47" t="s">
-        <v>86</v>
+      <c r="D47">
+        <v>2021</v>
       </c>
       <c r="E47" t="s">
         <v>90</v>
       </c>
-      <c r="F47" t="s">
-        <v>94</v>
+      <c r="F47">
+        <v>21721653</v>
       </c>
       <c r="G47" t="s">
         <v>100</v>
@@ -1789,20 +1789,20 @@
       <c r="A48" t="s">
         <v>19</v>
       </c>
-      <c r="B48" t="s">
-        <v>56</v>
+      <c r="B48">
+        <v>33434730</v>
       </c>
       <c r="C48" t="s">
         <v>84</v>
       </c>
-      <c r="D48" t="s">
-        <v>86</v>
+      <c r="D48">
+        <v>2021</v>
       </c>
       <c r="E48" t="s">
         <v>90</v>
       </c>
-      <c r="F48" t="s">
-        <v>94</v>
+      <c r="F48">
+        <v>21721653</v>
       </c>
       <c r="G48" t="s">
         <v>100</v>
@@ -1812,20 +1812,20 @@
       <c r="A49" t="s">
         <v>20</v>
       </c>
-      <c r="B49" t="s">
-        <v>57</v>
+      <c r="B49">
+        <v>33928438</v>
       </c>
       <c r="C49" t="s">
         <v>84</v>
       </c>
-      <c r="D49" t="s">
-        <v>86</v>
+      <c r="D49">
+        <v>2021</v>
       </c>
       <c r="E49" t="s">
         <v>90</v>
       </c>
-      <c r="F49" t="s">
-        <v>94</v>
+      <c r="F49">
+        <v>21721653</v>
       </c>
       <c r="G49" t="s">
         <v>100</v>
@@ -1835,20 +1835,20 @@
       <c r="A50" t="s">
         <v>21</v>
       </c>
-      <c r="B50" t="s">
-        <v>58</v>
+      <c r="B50">
+        <v>33245450</v>
       </c>
       <c r="C50" t="s">
         <v>84</v>
       </c>
-      <c r="D50" t="s">
-        <v>86</v>
+      <c r="D50">
+        <v>2021</v>
       </c>
       <c r="E50" t="s">
         <v>90</v>
       </c>
-      <c r="F50" t="s">
-        <v>94</v>
+      <c r="F50">
+        <v>21721653</v>
       </c>
       <c r="G50" t="s">
         <v>100</v>
@@ -1858,20 +1858,20 @@
       <c r="A51" t="s">
         <v>22</v>
       </c>
-      <c r="B51" t="s">
-        <v>59</v>
+      <c r="B51">
+        <v>33895848</v>
       </c>
       <c r="C51" t="s">
         <v>84</v>
       </c>
-      <c r="D51" t="s">
-        <v>86</v>
+      <c r="D51">
+        <v>2021</v>
       </c>
       <c r="E51" t="s">
         <v>90</v>
       </c>
-      <c r="F51" t="s">
-        <v>94</v>
+      <c r="F51">
+        <v>21721653</v>
       </c>
       <c r="G51" t="s">
         <v>100</v>
@@ -1881,20 +1881,20 @@
       <c r="A52" t="s">
         <v>23</v>
       </c>
-      <c r="B52" t="s">
-        <v>60</v>
+      <c r="B52">
+        <v>33826837</v>
       </c>
       <c r="C52" t="s">
         <v>84</v>
       </c>
-      <c r="D52" t="s">
-        <v>86</v>
+      <c r="D52">
+        <v>2021</v>
       </c>
       <c r="E52" t="s">
         <v>90</v>
       </c>
-      <c r="F52" t="s">
-        <v>94</v>
+      <c r="F52">
+        <v>21721653</v>
       </c>
       <c r="G52" t="s">
         <v>100</v>
@@ -1904,20 +1904,20 @@
       <c r="A53" t="s">
         <v>24</v>
       </c>
-      <c r="B53" t="s">
-        <v>61</v>
+      <c r="B53">
+        <v>33826863</v>
       </c>
       <c r="C53" t="s">
         <v>84</v>
       </c>
-      <c r="D53" t="s">
-        <v>86</v>
+      <c r="D53">
+        <v>2021</v>
       </c>
       <c r="E53" t="s">
         <v>90</v>
       </c>
-      <c r="F53" t="s">
-        <v>94</v>
+      <c r="F53">
+        <v>21721653</v>
       </c>
       <c r="G53" t="s">
         <v>100</v>
@@ -1927,20 +1927,20 @@
       <c r="A54" t="s">
         <v>25</v>
       </c>
-      <c r="B54" t="s">
-        <v>62</v>
+      <c r="B54">
+        <v>33761026</v>
       </c>
       <c r="C54" t="s">
         <v>84</v>
       </c>
-      <c r="D54" t="s">
-        <v>86</v>
+      <c r="D54">
+        <v>2021</v>
       </c>
       <c r="E54" t="s">
         <v>90</v>
       </c>
-      <c r="F54" t="s">
-        <v>94</v>
+      <c r="F54">
+        <v>21721653</v>
       </c>
       <c r="G54" t="s">
         <v>100</v>
@@ -1950,20 +1950,20 @@
       <c r="A55" t="s">
         <v>26</v>
       </c>
-      <c r="B55" t="s">
-        <v>63</v>
+      <c r="B55">
+        <v>33987891</v>
       </c>
       <c r="C55" t="s">
         <v>84</v>
       </c>
-      <c r="D55" t="s">
-        <v>86</v>
+      <c r="D55">
+        <v>2021</v>
       </c>
       <c r="E55" t="s">
         <v>90</v>
       </c>
-      <c r="F55" t="s">
-        <v>94</v>
+      <c r="F55">
+        <v>21721653</v>
       </c>
       <c r="G55" t="s">
         <v>100</v>
@@ -1973,20 +1973,20 @@
       <c r="A56" t="s">
         <v>27</v>
       </c>
-      <c r="B56" t="s">
-        <v>64</v>
+      <c r="B56">
+        <v>33615837</v>
       </c>
       <c r="C56" t="s">
         <v>84</v>
       </c>
-      <c r="D56" t="s">
-        <v>86</v>
+      <c r="D56">
+        <v>2021</v>
       </c>
       <c r="E56" t="s">
         <v>90</v>
       </c>
-      <c r="F56" t="s">
-        <v>94</v>
+      <c r="F56">
+        <v>21721653</v>
       </c>
       <c r="G56" t="s">
         <v>100</v>
@@ -1996,20 +1996,20 @@
       <c r="A57" t="s">
         <v>28</v>
       </c>
-      <c r="B57" t="s">
-        <v>65</v>
+      <c r="B57">
+        <v>33969867</v>
       </c>
       <c r="C57" t="s">
         <v>84</v>
       </c>
-      <c r="D57" t="s">
-        <v>86</v>
+      <c r="D57">
+        <v>2021</v>
       </c>
       <c r="E57" t="s">
         <v>90</v>
       </c>
-      <c r="F57" t="s">
-        <v>94</v>
+      <c r="F57">
+        <v>21721653</v>
       </c>
       <c r="G57" t="s">
         <v>100</v>
@@ -2019,20 +2019,20 @@
       <c r="A58" t="s">
         <v>29</v>
       </c>
-      <c r="B58" t="s">
-        <v>66</v>
+      <c r="B58">
+        <v>33176712</v>
       </c>
       <c r="C58" t="s">
         <v>84</v>
       </c>
-      <c r="D58" t="s">
-        <v>86</v>
+      <c r="D58">
+        <v>2021</v>
       </c>
       <c r="E58" t="s">
         <v>90</v>
       </c>
-      <c r="F58" t="s">
-        <v>94</v>
+      <c r="F58">
+        <v>21721653</v>
       </c>
       <c r="G58" t="s">
         <v>100</v>
@@ -2042,20 +2042,20 @@
       <c r="A59" t="s">
         <v>30</v>
       </c>
-      <c r="B59" t="s">
-        <v>67</v>
+      <c r="B59">
+        <v>33964172</v>
       </c>
       <c r="C59" t="s">
         <v>84</v>
       </c>
-      <c r="D59" t="s">
-        <v>86</v>
+      <c r="D59">
+        <v>2021</v>
       </c>
       <c r="E59" t="s">
         <v>90</v>
       </c>
-      <c r="F59" t="s">
-        <v>94</v>
+      <c r="F59">
+        <v>21721653</v>
       </c>
       <c r="G59" t="s">
         <v>100</v>
@@ -2065,20 +2065,20 @@
       <c r="A60" t="s">
         <v>31</v>
       </c>
-      <c r="B60" t="s">
-        <v>68</v>
+      <c r="B60">
+        <v>33861507</v>
       </c>
       <c r="C60" t="s">
         <v>84</v>
       </c>
-      <c r="D60" t="s">
-        <v>86</v>
+      <c r="D60">
+        <v>2021</v>
       </c>
       <c r="E60" t="s">
         <v>90</v>
       </c>
-      <c r="F60" t="s">
-        <v>94</v>
+      <c r="F60">
+        <v>21721653</v>
       </c>
       <c r="G60" t="s">
         <v>100</v>
@@ -2088,20 +2088,20 @@
       <c r="A61" t="s">
         <v>32</v>
       </c>
-      <c r="B61" t="s">
-        <v>69</v>
+      <c r="B61">
+        <v>33850896</v>
       </c>
       <c r="C61" t="s">
         <v>84</v>
       </c>
-      <c r="D61" t="s">
-        <v>86</v>
+      <c r="D61">
+        <v>2021</v>
       </c>
       <c r="E61" t="s">
         <v>90</v>
       </c>
-      <c r="F61" t="s">
-        <v>94</v>
+      <c r="F61">
+        <v>21721653</v>
       </c>
       <c r="G61" t="s">
         <v>100</v>
@@ -2111,20 +2111,20 @@
       <c r="A62" t="s">
         <v>33</v>
       </c>
-      <c r="B62" t="s">
-        <v>70</v>
+      <c r="B62">
+        <v>37280326</v>
       </c>
       <c r="C62" t="s">
         <v>84</v>
       </c>
-      <c r="D62" t="s">
-        <v>86</v>
+      <c r="D62">
+        <v>2021</v>
       </c>
       <c r="E62" t="s">
         <v>90</v>
       </c>
-      <c r="F62" t="s">
-        <v>94</v>
+      <c r="F62">
+        <v>21721653</v>
       </c>
       <c r="G62" t="s">
         <v>100</v>
@@ -2134,20 +2134,20 @@
       <c r="A63" t="s">
         <v>34</v>
       </c>
-      <c r="B63" t="s">
-        <v>71</v>
+      <c r="B63">
+        <v>39250398</v>
       </c>
       <c r="C63" t="s">
         <v>84</v>
       </c>
-      <c r="D63" t="s">
-        <v>86</v>
+      <c r="D63">
+        <v>2021</v>
       </c>
       <c r="E63" t="s">
         <v>90</v>
       </c>
-      <c r="F63" t="s">
-        <v>94</v>
+      <c r="F63">
+        <v>21721653</v>
       </c>
       <c r="G63" t="s">
         <v>100</v>
@@ -2157,20 +2157,20 @@
       <c r="A64" t="s">
         <v>35</v>
       </c>
-      <c r="B64" t="s">
-        <v>72</v>
+      <c r="B64">
+        <v>38549759</v>
       </c>
       <c r="C64" t="s">
         <v>84</v>
       </c>
-      <c r="D64" t="s">
-        <v>86</v>
+      <c r="D64">
+        <v>2021</v>
       </c>
       <c r="E64" t="s">
         <v>90</v>
       </c>
-      <c r="F64" t="s">
-        <v>94</v>
+      <c r="F64">
+        <v>21721653</v>
       </c>
       <c r="G64" t="s">
         <v>100</v>
@@ -2180,20 +2180,20 @@
       <c r="A65" t="s">
         <v>36</v>
       </c>
-      <c r="B65" t="s">
-        <v>73</v>
+      <c r="B65">
+        <v>33810256</v>
       </c>
       <c r="C65" t="s">
         <v>84</v>
       </c>
-      <c r="D65" t="s">
-        <v>86</v>
+      <c r="D65">
+        <v>2021</v>
       </c>
       <c r="E65" t="s">
         <v>90</v>
       </c>
-      <c r="F65" t="s">
-        <v>94</v>
+      <c r="F65">
+        <v>21721653</v>
       </c>
       <c r="G65" t="s">
         <v>100</v>
@@ -2203,20 +2203,20 @@
       <c r="A66" t="s">
         <v>37</v>
       </c>
-      <c r="B66" t="s">
-        <v>74</v>
+      <c r="B66">
+        <v>34090411</v>
       </c>
       <c r="C66" t="s">
         <v>84</v>
       </c>
-      <c r="D66" t="s">
-        <v>86</v>
+      <c r="D66">
+        <v>2021</v>
       </c>
       <c r="E66" t="s">
         <v>90</v>
       </c>
-      <c r="F66" t="s">
-        <v>94</v>
+      <c r="F66">
+        <v>21721653</v>
       </c>
       <c r="G66" t="s">
         <v>100</v>
@@ -2226,20 +2226,20 @@
       <c r="A67" t="s">
         <v>38</v>
       </c>
-      <c r="B67" t="s">
-        <v>75</v>
+      <c r="B67">
+        <v>25999654</v>
       </c>
       <c r="C67" t="s">
         <v>84</v>
       </c>
-      <c r="D67" t="s">
-        <v>86</v>
+      <c r="D67">
+        <v>2021</v>
       </c>
       <c r="E67" t="s">
         <v>90</v>
       </c>
-      <c r="F67" t="s">
-        <v>94</v>
+      <c r="F67">
+        <v>21721653</v>
       </c>
       <c r="G67" t="s">
         <v>100</v>
@@ -2249,20 +2249,20 @@
       <c r="A68" t="s">
         <v>39</v>
       </c>
-      <c r="B68" t="s">
-        <v>76</v>
+      <c r="B68">
+        <v>33937442</v>
       </c>
       <c r="C68" t="s">
         <v>84</v>
       </c>
-      <c r="D68" t="s">
-        <v>86</v>
+      <c r="D68">
+        <v>2021</v>
       </c>
       <c r="E68" t="s">
         <v>90</v>
       </c>
-      <c r="F68" t="s">
-        <v>94</v>
+      <c r="F68">
+        <v>21721653</v>
       </c>
       <c r="G68" t="s">
         <v>100</v>
@@ -2272,20 +2272,20 @@
       <c r="A69" t="s">
         <v>40</v>
       </c>
-      <c r="B69" t="s">
-        <v>77</v>
+      <c r="B69">
+        <v>33884904</v>
       </c>
       <c r="C69" t="s">
         <v>84</v>
       </c>
-      <c r="D69" t="s">
-        <v>86</v>
+      <c r="D69">
+        <v>2021</v>
       </c>
       <c r="E69" t="s">
         <v>90</v>
       </c>
-      <c r="F69" t="s">
-        <v>94</v>
+      <c r="F69">
+        <v>21721653</v>
       </c>
       <c r="G69" t="s">
         <v>100</v>
@@ -2295,20 +2295,20 @@
       <c r="A70" t="s">
         <v>7</v>
       </c>
-      <c r="B70" t="s">
-        <v>44</v>
+      <c r="B70">
+        <v>32110582</v>
       </c>
       <c r="C70" t="s">
         <v>82</v>
       </c>
-      <c r="D70" t="s">
-        <v>86</v>
+      <c r="D70">
+        <v>2021</v>
       </c>
       <c r="E70" t="s">
         <v>89</v>
       </c>
-      <c r="F70" t="s">
-        <v>93</v>
+      <c r="F70">
+        <v>13497</v>
       </c>
       <c r="G70" t="s">
         <v>101</v>
@@ -2318,20 +2318,20 @@
       <c r="A71" t="s">
         <v>41</v>
       </c>
-      <c r="B71" t="s">
-        <v>78</v>
+      <c r="B71">
+        <v>31451445</v>
       </c>
       <c r="C71" t="s">
         <v>85</v>
       </c>
-      <c r="D71" t="s">
-        <v>88</v>
+      <c r="D71">
+        <v>2023</v>
       </c>
       <c r="E71" t="s">
         <v>91</v>
       </c>
-      <c r="F71" t="s">
-        <v>95</v>
+      <c r="F71">
+        <v>21710533</v>
       </c>
       <c r="G71" t="s">
         <v>102</v>
@@ -2341,20 +2341,20 @@
       <c r="A72" t="s">
         <v>42</v>
       </c>
-      <c r="B72" t="s">
-        <v>79</v>
+      <c r="B72">
+        <v>36463324</v>
       </c>
       <c r="C72" t="s">
         <v>85</v>
       </c>
-      <c r="D72" t="s">
-        <v>88</v>
+      <c r="D72">
+        <v>2023</v>
       </c>
       <c r="E72" t="s">
         <v>92</v>
       </c>
-      <c r="F72" t="s">
-        <v>96</v>
+      <c r="F72">
+        <v>47728</v>
       </c>
       <c r="G72" t="s">
         <v>103</v>
@@ -2364,20 +2364,20 @@
       <c r="A73" t="s">
         <v>43</v>
       </c>
-      <c r="B73" t="s">
-        <v>80</v>
+      <c r="B73">
+        <v>26043372</v>
       </c>
       <c r="C73" t="s">
         <v>85</v>
       </c>
-      <c r="D73" t="s">
-        <v>88</v>
+      <c r="D73">
+        <v>2023</v>
       </c>
       <c r="E73" t="s">
         <v>92</v>
       </c>
-      <c r="F73" t="s">
-        <v>96</v>
+      <c r="F73">
+        <v>47728</v>
       </c>
       <c r="G73" t="s">
         <v>103</v>
@@ -2387,20 +2387,20 @@
       <c r="A74" t="s">
         <v>43</v>
       </c>
-      <c r="B74" t="s">
-        <v>80</v>
+      <c r="B74">
+        <v>26043372</v>
       </c>
       <c r="C74" t="s">
         <v>85</v>
       </c>
-      <c r="D74" t="s">
-        <v>87</v>
+      <c r="D74">
+        <v>2022</v>
       </c>
       <c r="E74" t="s">
         <v>92</v>
       </c>
-      <c r="F74" t="s">
-        <v>96</v>
+      <c r="F74">
+        <v>47728</v>
       </c>
       <c r="G74" t="s">
         <v>104</v>
@@ -2410,20 +2410,20 @@
       <c r="A75" t="s">
         <v>42</v>
       </c>
-      <c r="B75" t="s">
-        <v>79</v>
+      <c r="B75">
+        <v>36463324</v>
       </c>
       <c r="C75" t="s">
         <v>85</v>
       </c>
-      <c r="D75" t="s">
-        <v>87</v>
+      <c r="D75">
+        <v>2022</v>
       </c>
       <c r="E75" t="s">
         <v>92</v>
       </c>
-      <c r="F75" t="s">
-        <v>96</v>
+      <c r="F75">
+        <v>47728</v>
       </c>
       <c r="G75" t="s">
         <v>104</v>
@@ -2433,20 +2433,20 @@
       <c r="A76" t="s">
         <v>42</v>
       </c>
-      <c r="B76" t="s">
-        <v>79</v>
+      <c r="B76">
+        <v>36463324</v>
       </c>
       <c r="C76" t="s">
         <v>84</v>
       </c>
-      <c r="D76" t="s">
-        <v>86</v>
+      <c r="D76">
+        <v>2021</v>
       </c>
       <c r="E76" t="s">
         <v>92</v>
       </c>
-      <c r="F76" t="s">
-        <v>96</v>
+      <c r="F76">
+        <v>47728</v>
       </c>
       <c r="G76" t="s">
         <v>105</v>
@@ -2456,20 +2456,20 @@
       <c r="A77" t="s">
         <v>42</v>
       </c>
-      <c r="B77" t="s">
-        <v>79</v>
+      <c r="B77">
+        <v>36463324</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
       </c>
-      <c r="D77" t="s">
-        <v>86</v>
+      <c r="D77">
+        <v>2021</v>
       </c>
       <c r="E77" t="s">
         <v>92</v>
       </c>
-      <c r="F77" t="s">
-        <v>96</v>
+      <c r="F77">
+        <v>47728</v>
       </c>
       <c r="G77" t="s">
         <v>105</v>
@@ -2479,20 +2479,20 @@
       <c r="A78" t="s">
         <v>43</v>
       </c>
-      <c r="B78" t="s">
-        <v>80</v>
+      <c r="B78">
+        <v>26043372</v>
       </c>
       <c r="C78" t="s">
         <v>84</v>
       </c>
-      <c r="D78" t="s">
-        <v>86</v>
+      <c r="D78">
+        <v>2021</v>
       </c>
       <c r="E78" t="s">
         <v>92</v>
       </c>
-      <c r="F78" t="s">
-        <v>96</v>
+      <c r="F78">
+        <v>47728</v>
       </c>
       <c r="G78" t="s">
         <v>105</v>
@@ -2502,20 +2502,20 @@
       <c r="A79" t="s">
         <v>43</v>
       </c>
-      <c r="B79" t="s">
-        <v>80</v>
+      <c r="B79">
+        <v>26043372</v>
       </c>
       <c r="C79" t="s">
         <v>84</v>
       </c>
-      <c r="D79" t="s">
-        <v>86</v>
+      <c r="D79">
+        <v>2021</v>
       </c>
       <c r="E79" t="s">
         <v>92</v>
       </c>
-      <c r="F79" t="s">
-        <v>96</v>
+      <c r="F79">
+        <v>47728</v>
       </c>
       <c r="G79" t="s">
         <v>105</v>
@@ -2525,20 +2525,20 @@
       <c r="A80" t="s">
         <v>43</v>
       </c>
-      <c r="B80" t="s">
-        <v>80</v>
+      <c r="B80">
+        <v>26043372</v>
       </c>
       <c r="C80" t="s">
         <v>82</v>
       </c>
-      <c r="D80" t="s">
-        <v>86</v>
+      <c r="D80">
+        <v>2021</v>
       </c>
       <c r="E80" t="s">
         <v>92</v>
       </c>
-      <c r="F80" t="s">
-        <v>96</v>
+      <c r="F80">
+        <v>47728</v>
       </c>
       <c r="G80" t="s">
         <v>106</v>
@@ -2548,20 +2548,20 @@
       <c r="A81" t="s">
         <v>43</v>
       </c>
-      <c r="B81" t="s">
-        <v>80</v>
+      <c r="B81">
+        <v>26043372</v>
       </c>
       <c r="C81" t="s">
         <v>82</v>
       </c>
-      <c r="D81" t="s">
-        <v>86</v>
+      <c r="D81">
+        <v>2021</v>
       </c>
       <c r="E81" t="s">
         <v>92</v>
       </c>
-      <c r="F81" t="s">
-        <v>96</v>
+      <c r="F81">
+        <v>47728</v>
       </c>
       <c r="G81" t="s">
         <v>106</v>
@@ -2571,20 +2571,20 @@
       <c r="A82" t="s">
         <v>42</v>
       </c>
-      <c r="B82" t="s">
-        <v>79</v>
+      <c r="B82">
+        <v>36463324</v>
       </c>
       <c r="C82" t="s">
         <v>82</v>
       </c>
-      <c r="D82" t="s">
-        <v>86</v>
+      <c r="D82">
+        <v>2021</v>
       </c>
       <c r="E82" t="s">
         <v>92</v>
       </c>
-      <c r="F82" t="s">
-        <v>96</v>
+      <c r="F82">
+        <v>47728</v>
       </c>
       <c r="G82" t="s">
         <v>106</v>
@@ -2594,20 +2594,20 @@
       <c r="A83" t="s">
         <v>42</v>
       </c>
-      <c r="B83" t="s">
-        <v>79</v>
+      <c r="B83">
+        <v>36463324</v>
       </c>
       <c r="C83" t="s">
         <v>82</v>
       </c>
-      <c r="D83" t="s">
-        <v>86</v>
+      <c r="D83">
+        <v>2021</v>
       </c>
       <c r="E83" t="s">
         <v>92</v>
       </c>
-      <c r="F83" t="s">
-        <v>96</v>
+      <c r="F83">
+        <v>47728</v>
       </c>
       <c r="G83" t="s">
         <v>106</v>
@@ -2617,20 +2617,20 @@
       <c r="A84" t="s">
         <v>42</v>
       </c>
-      <c r="B84" t="s">
-        <v>79</v>
+      <c r="B84">
+        <v>36463324</v>
       </c>
       <c r="C84" t="s">
         <v>81</v>
       </c>
-      <c r="D84" t="s">
-        <v>86</v>
+      <c r="D84">
+        <v>2021</v>
       </c>
       <c r="E84" t="s">
         <v>92</v>
       </c>
-      <c r="F84" t="s">
-        <v>96</v>
+      <c r="F84">
+        <v>47728</v>
       </c>
       <c r="G84" t="s">
         <v>107</v>
@@ -2640,20 +2640,20 @@
       <c r="A85" t="s">
         <v>43</v>
       </c>
-      <c r="B85" t="s">
-        <v>80</v>
+      <c r="B85">
+        <v>26043372</v>
       </c>
       <c r="C85" t="s">
         <v>81</v>
       </c>
-      <c r="D85" t="s">
-        <v>86</v>
+      <c r="D85">
+        <v>2021</v>
       </c>
       <c r="E85" t="s">
         <v>92</v>
       </c>
-      <c r="F85" t="s">
-        <v>96</v>
+      <c r="F85">
+        <v>47728</v>
       </c>
       <c r="G85" t="s">
         <v>107</v>
@@ -2663,20 +2663,20 @@
       <c r="A86" t="s">
         <v>42</v>
       </c>
-      <c r="B86" t="s">
-        <v>79</v>
+      <c r="B86">
+        <v>36463324</v>
       </c>
       <c r="C86" t="s">
         <v>83</v>
       </c>
-      <c r="D86" t="s">
-        <v>86</v>
+      <c r="D86">
+        <v>2021</v>
       </c>
       <c r="E86" t="s">
         <v>92</v>
       </c>
-      <c r="F86" t="s">
-        <v>96</v>
+      <c r="F86">
+        <v>47728</v>
       </c>
       <c r="G86" t="s">
         <v>108</v>
@@ -2686,22 +2686,1195 @@
       <c r="A87" t="s">
         <v>43</v>
       </c>
-      <c r="B87" t="s">
-        <v>80</v>
+      <c r="B87">
+        <v>26043372</v>
       </c>
       <c r="C87" t="s">
         <v>83</v>
       </c>
-      <c r="D87" t="s">
-        <v>86</v>
+      <c r="D87">
+        <v>2021</v>
       </c>
       <c r="E87" t="s">
         <v>92</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F87">
+        <v>47728</v>
+      </c>
+      <c r="G87" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" t="s">
+        <v>44</v>
+      </c>
+      <c r="C88" t="s">
+        <v>84</v>
+      </c>
+      <c r="D88" t="s">
+        <v>86</v>
+      </c>
+      <c r="E88" t="s">
+        <v>90</v>
+      </c>
+      <c r="F88" t="s">
+        <v>93</v>
+      </c>
+      <c r="G88" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89" t="s">
+        <v>45</v>
+      </c>
+      <c r="C89" t="s">
+        <v>84</v>
+      </c>
+      <c r="D89" t="s">
+        <v>86</v>
+      </c>
+      <c r="E89" t="s">
+        <v>90</v>
+      </c>
+      <c r="F89" t="s">
+        <v>93</v>
+      </c>
+      <c r="G89" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" t="s">
+        <v>10</v>
+      </c>
+      <c r="B90" t="s">
+        <v>46</v>
+      </c>
+      <c r="C90" t="s">
+        <v>84</v>
+      </c>
+      <c r="D90" t="s">
+        <v>86</v>
+      </c>
+      <c r="E90" t="s">
+        <v>90</v>
+      </c>
+      <c r="F90" t="s">
+        <v>93</v>
+      </c>
+      <c r="G90" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" t="s">
+        <v>11</v>
+      </c>
+      <c r="B91" t="s">
+        <v>47</v>
+      </c>
+      <c r="C91" t="s">
+        <v>84</v>
+      </c>
+      <c r="D91" t="s">
+        <v>86</v>
+      </c>
+      <c r="E91" t="s">
+        <v>90</v>
+      </c>
+      <c r="F91" t="s">
+        <v>93</v>
+      </c>
+      <c r="G91" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" t="s">
+        <v>12</v>
+      </c>
+      <c r="B92" t="s">
+        <v>48</v>
+      </c>
+      <c r="C92" t="s">
+        <v>84</v>
+      </c>
+      <c r="D92" t="s">
+        <v>86</v>
+      </c>
+      <c r="E92" t="s">
+        <v>90</v>
+      </c>
+      <c r="F92" t="s">
+        <v>93</v>
+      </c>
+      <c r="G92" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" t="s">
+        <v>13</v>
+      </c>
+      <c r="B93" t="s">
+        <v>49</v>
+      </c>
+      <c r="C93" t="s">
+        <v>84</v>
+      </c>
+      <c r="D93" t="s">
+        <v>86</v>
+      </c>
+      <c r="E93" t="s">
+        <v>90</v>
+      </c>
+      <c r="F93" t="s">
+        <v>93</v>
+      </c>
+      <c r="G93" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" t="s">
+        <v>14</v>
+      </c>
+      <c r="B94" t="s">
+        <v>50</v>
+      </c>
+      <c r="C94" t="s">
+        <v>84</v>
+      </c>
+      <c r="D94" t="s">
+        <v>86</v>
+      </c>
+      <c r="E94" t="s">
+        <v>90</v>
+      </c>
+      <c r="F94" t="s">
+        <v>93</v>
+      </c>
+      <c r="G94" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" t="s">
+        <v>15</v>
+      </c>
+      <c r="B95" t="s">
+        <v>51</v>
+      </c>
+      <c r="C95" t="s">
+        <v>84</v>
+      </c>
+      <c r="D95" t="s">
+        <v>86</v>
+      </c>
+      <c r="E95" t="s">
+        <v>90</v>
+      </c>
+      <c r="F95" t="s">
+        <v>93</v>
+      </c>
+      <c r="G95" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" t="s">
+        <v>16</v>
+      </c>
+      <c r="B96" t="s">
+        <v>52</v>
+      </c>
+      <c r="C96" t="s">
+        <v>84</v>
+      </c>
+      <c r="D96" t="s">
+        <v>86</v>
+      </c>
+      <c r="E96" t="s">
+        <v>90</v>
+      </c>
+      <c r="F96" t="s">
+        <v>93</v>
+      </c>
+      <c r="G96" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" t="s">
+        <v>17</v>
+      </c>
+      <c r="B97" t="s">
+        <v>53</v>
+      </c>
+      <c r="C97" t="s">
+        <v>84</v>
+      </c>
+      <c r="D97" t="s">
+        <v>86</v>
+      </c>
+      <c r="E97" t="s">
+        <v>90</v>
+      </c>
+      <c r="F97" t="s">
+        <v>93</v>
+      </c>
+      <c r="G97" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" t="s">
+        <v>18</v>
+      </c>
+      <c r="B98" t="s">
+        <v>54</v>
+      </c>
+      <c r="C98" t="s">
+        <v>84</v>
+      </c>
+      <c r="D98" t="s">
+        <v>86</v>
+      </c>
+      <c r="E98" t="s">
+        <v>90</v>
+      </c>
+      <c r="F98" t="s">
+        <v>93</v>
+      </c>
+      <c r="G98" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" t="s">
+        <v>19</v>
+      </c>
+      <c r="B99" t="s">
+        <v>55</v>
+      </c>
+      <c r="C99" t="s">
+        <v>84</v>
+      </c>
+      <c r="D99" t="s">
+        <v>86</v>
+      </c>
+      <c r="E99" t="s">
+        <v>90</v>
+      </c>
+      <c r="F99" t="s">
+        <v>93</v>
+      </c>
+      <c r="G99" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" t="s">
+        <v>20</v>
+      </c>
+      <c r="B100" t="s">
+        <v>56</v>
+      </c>
+      <c r="C100" t="s">
+        <v>84</v>
+      </c>
+      <c r="D100" t="s">
+        <v>86</v>
+      </c>
+      <c r="E100" t="s">
+        <v>90</v>
+      </c>
+      <c r="F100" t="s">
+        <v>93</v>
+      </c>
+      <c r="G100" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" t="s">
+        <v>21</v>
+      </c>
+      <c r="B101" t="s">
+        <v>57</v>
+      </c>
+      <c r="C101" t="s">
+        <v>84</v>
+      </c>
+      <c r="D101" t="s">
+        <v>86</v>
+      </c>
+      <c r="E101" t="s">
+        <v>90</v>
+      </c>
+      <c r="F101" t="s">
+        <v>93</v>
+      </c>
+      <c r="G101" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" t="s">
+        <v>22</v>
+      </c>
+      <c r="B102" t="s">
+        <v>58</v>
+      </c>
+      <c r="C102" t="s">
+        <v>84</v>
+      </c>
+      <c r="D102" t="s">
+        <v>86</v>
+      </c>
+      <c r="E102" t="s">
+        <v>90</v>
+      </c>
+      <c r="F102" t="s">
+        <v>93</v>
+      </c>
+      <c r="G102" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" t="s">
+        <v>23</v>
+      </c>
+      <c r="B103" t="s">
+        <v>59</v>
+      </c>
+      <c r="C103" t="s">
+        <v>84</v>
+      </c>
+      <c r="D103" t="s">
+        <v>86</v>
+      </c>
+      <c r="E103" t="s">
+        <v>90</v>
+      </c>
+      <c r="F103" t="s">
+        <v>93</v>
+      </c>
+      <c r="G103" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" t="s">
+        <v>24</v>
+      </c>
+      <c r="B104" t="s">
+        <v>60</v>
+      </c>
+      <c r="C104" t="s">
+        <v>84</v>
+      </c>
+      <c r="D104" t="s">
+        <v>86</v>
+      </c>
+      <c r="E104" t="s">
+        <v>90</v>
+      </c>
+      <c r="F104" t="s">
+        <v>93</v>
+      </c>
+      <c r="G104" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" t="s">
+        <v>25</v>
+      </c>
+      <c r="B105" t="s">
+        <v>61</v>
+      </c>
+      <c r="C105" t="s">
+        <v>84</v>
+      </c>
+      <c r="D105" t="s">
+        <v>86</v>
+      </c>
+      <c r="E105" t="s">
+        <v>90</v>
+      </c>
+      <c r="F105" t="s">
+        <v>93</v>
+      </c>
+      <c r="G105" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" t="s">
+        <v>26</v>
+      </c>
+      <c r="B106" t="s">
+        <v>62</v>
+      </c>
+      <c r="C106" t="s">
+        <v>84</v>
+      </c>
+      <c r="D106" t="s">
+        <v>86</v>
+      </c>
+      <c r="E106" t="s">
+        <v>90</v>
+      </c>
+      <c r="F106" t="s">
+        <v>93</v>
+      </c>
+      <c r="G106" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" t="s">
+        <v>27</v>
+      </c>
+      <c r="B107" t="s">
+        <v>63</v>
+      </c>
+      <c r="C107" t="s">
+        <v>84</v>
+      </c>
+      <c r="D107" t="s">
+        <v>86</v>
+      </c>
+      <c r="E107" t="s">
+        <v>90</v>
+      </c>
+      <c r="F107" t="s">
+        <v>93</v>
+      </c>
+      <c r="G107" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" t="s">
+        <v>28</v>
+      </c>
+      <c r="B108" t="s">
+        <v>64</v>
+      </c>
+      <c r="C108" t="s">
+        <v>84</v>
+      </c>
+      <c r="D108" t="s">
+        <v>86</v>
+      </c>
+      <c r="E108" t="s">
+        <v>90</v>
+      </c>
+      <c r="F108" t="s">
+        <v>93</v>
+      </c>
+      <c r="G108" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" t="s">
+        <v>29</v>
+      </c>
+      <c r="B109" t="s">
+        <v>65</v>
+      </c>
+      <c r="C109" t="s">
+        <v>84</v>
+      </c>
+      <c r="D109" t="s">
+        <v>86</v>
+      </c>
+      <c r="E109" t="s">
+        <v>90</v>
+      </c>
+      <c r="F109" t="s">
+        <v>93</v>
+      </c>
+      <c r="G109" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" t="s">
+        <v>30</v>
+      </c>
+      <c r="B110" t="s">
+        <v>66</v>
+      </c>
+      <c r="C110" t="s">
+        <v>84</v>
+      </c>
+      <c r="D110" t="s">
+        <v>86</v>
+      </c>
+      <c r="E110" t="s">
+        <v>90</v>
+      </c>
+      <c r="F110" t="s">
+        <v>93</v>
+      </c>
+      <c r="G110" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" t="s">
+        <v>31</v>
+      </c>
+      <c r="B111" t="s">
+        <v>67</v>
+      </c>
+      <c r="C111" t="s">
+        <v>84</v>
+      </c>
+      <c r="D111" t="s">
+        <v>86</v>
+      </c>
+      <c r="E111" t="s">
+        <v>90</v>
+      </c>
+      <c r="F111" t="s">
+        <v>93</v>
+      </c>
+      <c r="G111" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" t="s">
+        <v>32</v>
+      </c>
+      <c r="B112" t="s">
+        <v>68</v>
+      </c>
+      <c r="C112" t="s">
+        <v>84</v>
+      </c>
+      <c r="D112" t="s">
+        <v>86</v>
+      </c>
+      <c r="E112" t="s">
+        <v>90</v>
+      </c>
+      <c r="F112" t="s">
+        <v>93</v>
+      </c>
+      <c r="G112" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" t="s">
+        <v>33</v>
+      </c>
+      <c r="B113" t="s">
+        <v>69</v>
+      </c>
+      <c r="C113" t="s">
+        <v>84</v>
+      </c>
+      <c r="D113" t="s">
+        <v>86</v>
+      </c>
+      <c r="E113" t="s">
+        <v>90</v>
+      </c>
+      <c r="F113" t="s">
+        <v>93</v>
+      </c>
+      <c r="G113" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" t="s">
+        <v>34</v>
+      </c>
+      <c r="B114" t="s">
+        <v>70</v>
+      </c>
+      <c r="C114" t="s">
+        <v>84</v>
+      </c>
+      <c r="D114" t="s">
+        <v>86</v>
+      </c>
+      <c r="E114" t="s">
+        <v>90</v>
+      </c>
+      <c r="F114" t="s">
+        <v>93</v>
+      </c>
+      <c r="G114" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" t="s">
+        <v>35</v>
+      </c>
+      <c r="B115" t="s">
+        <v>71</v>
+      </c>
+      <c r="C115" t="s">
+        <v>84</v>
+      </c>
+      <c r="D115" t="s">
+        <v>86</v>
+      </c>
+      <c r="E115" t="s">
+        <v>90</v>
+      </c>
+      <c r="F115" t="s">
+        <v>93</v>
+      </c>
+      <c r="G115" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" t="s">
+        <v>36</v>
+      </c>
+      <c r="B116" t="s">
+        <v>72</v>
+      </c>
+      <c r="C116" t="s">
+        <v>84</v>
+      </c>
+      <c r="D116" t="s">
+        <v>86</v>
+      </c>
+      <c r="E116" t="s">
+        <v>90</v>
+      </c>
+      <c r="F116" t="s">
+        <v>93</v>
+      </c>
+      <c r="G116" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" t="s">
+        <v>37</v>
+      </c>
+      <c r="B117" t="s">
+        <v>73</v>
+      </c>
+      <c r="C117" t="s">
+        <v>84</v>
+      </c>
+      <c r="D117" t="s">
+        <v>86</v>
+      </c>
+      <c r="E117" t="s">
+        <v>90</v>
+      </c>
+      <c r="F117" t="s">
+        <v>93</v>
+      </c>
+      <c r="G117" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" t="s">
+        <v>38</v>
+      </c>
+      <c r="B118" t="s">
+        <v>74</v>
+      </c>
+      <c r="C118" t="s">
+        <v>84</v>
+      </c>
+      <c r="D118" t="s">
+        <v>86</v>
+      </c>
+      <c r="E118" t="s">
+        <v>90</v>
+      </c>
+      <c r="F118" t="s">
+        <v>93</v>
+      </c>
+      <c r="G118" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" t="s">
+        <v>39</v>
+      </c>
+      <c r="B119" t="s">
+        <v>75</v>
+      </c>
+      <c r="C119" t="s">
+        <v>84</v>
+      </c>
+      <c r="D119" t="s">
+        <v>86</v>
+      </c>
+      <c r="E119" t="s">
+        <v>90</v>
+      </c>
+      <c r="F119" t="s">
+        <v>93</v>
+      </c>
+      <c r="G119" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" t="s">
+        <v>40</v>
+      </c>
+      <c r="B120" t="s">
+        <v>76</v>
+      </c>
+      <c r="C120" t="s">
+        <v>84</v>
+      </c>
+      <c r="D120" t="s">
+        <v>86</v>
+      </c>
+      <c r="E120" t="s">
+        <v>90</v>
+      </c>
+      <c r="F120" t="s">
+        <v>93</v>
+      </c>
+      <c r="G120" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" t="s">
+        <v>7</v>
+      </c>
+      <c r="B121" t="s">
+        <v>77</v>
+      </c>
+      <c r="C121" t="s">
+        <v>82</v>
+      </c>
+      <c r="D121" t="s">
+        <v>86</v>
+      </c>
+      <c r="E121" t="s">
+        <v>89</v>
+      </c>
+      <c r="F121" t="s">
+        <v>94</v>
+      </c>
+      <c r="G121" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" t="s">
+        <v>41</v>
+      </c>
+      <c r="B122" t="s">
+        <v>78</v>
+      </c>
+      <c r="C122" t="s">
+        <v>85</v>
+      </c>
+      <c r="D122" t="s">
+        <v>87</v>
+      </c>
+      <c r="E122" t="s">
+        <v>91</v>
+      </c>
+      <c r="F122" t="s">
+        <v>95</v>
+      </c>
+      <c r="G122" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" t="s">
+        <v>42</v>
+      </c>
+      <c r="B123" t="s">
+        <v>79</v>
+      </c>
+      <c r="C123" t="s">
+        <v>85</v>
+      </c>
+      <c r="D123" t="s">
+        <v>87</v>
+      </c>
+      <c r="E123" t="s">
+        <v>92</v>
+      </c>
+      <c r="F123" t="s">
         <v>96</v>
       </c>
-      <c r="G87" t="s">
+      <c r="G123" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" t="s">
+        <v>43</v>
+      </c>
+      <c r="B124" t="s">
+        <v>80</v>
+      </c>
+      <c r="C124" t="s">
+        <v>85</v>
+      </c>
+      <c r="D124" t="s">
+        <v>87</v>
+      </c>
+      <c r="E124" t="s">
+        <v>92</v>
+      </c>
+      <c r="F124" t="s">
+        <v>96</v>
+      </c>
+      <c r="G124" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" t="s">
+        <v>43</v>
+      </c>
+      <c r="B125" t="s">
+        <v>80</v>
+      </c>
+      <c r="C125" t="s">
+        <v>85</v>
+      </c>
+      <c r="D125" t="s">
+        <v>88</v>
+      </c>
+      <c r="E125" t="s">
+        <v>92</v>
+      </c>
+      <c r="F125" t="s">
+        <v>96</v>
+      </c>
+      <c r="G125" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" t="s">
+        <v>42</v>
+      </c>
+      <c r="B126" t="s">
+        <v>79</v>
+      </c>
+      <c r="C126" t="s">
+        <v>85</v>
+      </c>
+      <c r="D126" t="s">
+        <v>88</v>
+      </c>
+      <c r="E126" t="s">
+        <v>92</v>
+      </c>
+      <c r="F126" t="s">
+        <v>96</v>
+      </c>
+      <c r="G126" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" t="s">
+        <v>42</v>
+      </c>
+      <c r="B127" t="s">
+        <v>79</v>
+      </c>
+      <c r="C127" t="s">
+        <v>84</v>
+      </c>
+      <c r="D127" t="s">
+        <v>86</v>
+      </c>
+      <c r="E127" t="s">
+        <v>92</v>
+      </c>
+      <c r="F127" t="s">
+        <v>96</v>
+      </c>
+      <c r="G127" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" t="s">
+        <v>42</v>
+      </c>
+      <c r="B128" t="s">
+        <v>79</v>
+      </c>
+      <c r="C128" t="s">
+        <v>84</v>
+      </c>
+      <c r="D128" t="s">
+        <v>86</v>
+      </c>
+      <c r="E128" t="s">
+        <v>92</v>
+      </c>
+      <c r="F128" t="s">
+        <v>96</v>
+      </c>
+      <c r="G128" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" t="s">
+        <v>43</v>
+      </c>
+      <c r="B129" t="s">
+        <v>80</v>
+      </c>
+      <c r="C129" t="s">
+        <v>84</v>
+      </c>
+      <c r="D129" t="s">
+        <v>86</v>
+      </c>
+      <c r="E129" t="s">
+        <v>92</v>
+      </c>
+      <c r="F129" t="s">
+        <v>96</v>
+      </c>
+      <c r="G129" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" t="s">
+        <v>43</v>
+      </c>
+      <c r="B130" t="s">
+        <v>80</v>
+      </c>
+      <c r="C130" t="s">
+        <v>84</v>
+      </c>
+      <c r="D130" t="s">
+        <v>86</v>
+      </c>
+      <c r="E130" t="s">
+        <v>92</v>
+      </c>
+      <c r="F130" t="s">
+        <v>96</v>
+      </c>
+      <c r="G130" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" t="s">
+        <v>43</v>
+      </c>
+      <c r="B131" t="s">
+        <v>80</v>
+      </c>
+      <c r="C131" t="s">
+        <v>82</v>
+      </c>
+      <c r="D131" t="s">
+        <v>86</v>
+      </c>
+      <c r="E131" t="s">
+        <v>92</v>
+      </c>
+      <c r="F131" t="s">
+        <v>96</v>
+      </c>
+      <c r="G131" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" t="s">
+        <v>43</v>
+      </c>
+      <c r="B132" t="s">
+        <v>80</v>
+      </c>
+      <c r="C132" t="s">
+        <v>82</v>
+      </c>
+      <c r="D132" t="s">
+        <v>86</v>
+      </c>
+      <c r="E132" t="s">
+        <v>92</v>
+      </c>
+      <c r="F132" t="s">
+        <v>96</v>
+      </c>
+      <c r="G132" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" t="s">
+        <v>42</v>
+      </c>
+      <c r="B133" t="s">
+        <v>79</v>
+      </c>
+      <c r="C133" t="s">
+        <v>82</v>
+      </c>
+      <c r="D133" t="s">
+        <v>86</v>
+      </c>
+      <c r="E133" t="s">
+        <v>92</v>
+      </c>
+      <c r="F133" t="s">
+        <v>96</v>
+      </c>
+      <c r="G133" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" t="s">
+        <v>42</v>
+      </c>
+      <c r="B134" t="s">
+        <v>79</v>
+      </c>
+      <c r="C134" t="s">
+        <v>82</v>
+      </c>
+      <c r="D134" t="s">
+        <v>86</v>
+      </c>
+      <c r="E134" t="s">
+        <v>92</v>
+      </c>
+      <c r="F134" t="s">
+        <v>96</v>
+      </c>
+      <c r="G134" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" t="s">
+        <v>42</v>
+      </c>
+      <c r="B135" t="s">
+        <v>79</v>
+      </c>
+      <c r="C135" t="s">
+        <v>81</v>
+      </c>
+      <c r="D135" t="s">
+        <v>86</v>
+      </c>
+      <c r="E135" t="s">
+        <v>92</v>
+      </c>
+      <c r="F135" t="s">
+        <v>96</v>
+      </c>
+      <c r="G135" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" t="s">
+        <v>43</v>
+      </c>
+      <c r="B136" t="s">
+        <v>80</v>
+      </c>
+      <c r="C136" t="s">
+        <v>81</v>
+      </c>
+      <c r="D136" t="s">
+        <v>86</v>
+      </c>
+      <c r="E136" t="s">
+        <v>92</v>
+      </c>
+      <c r="F136" t="s">
+        <v>96</v>
+      </c>
+      <c r="G136" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" t="s">
+        <v>42</v>
+      </c>
+      <c r="B137" t="s">
+        <v>79</v>
+      </c>
+      <c r="C137" t="s">
+        <v>83</v>
+      </c>
+      <c r="D137" t="s">
+        <v>86</v>
+      </c>
+      <c r="E137" t="s">
+        <v>92</v>
+      </c>
+      <c r="F137" t="s">
+        <v>96</v>
+      </c>
+      <c r="G137" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" t="s">
+        <v>43</v>
+      </c>
+      <c r="B138" t="s">
+        <v>80</v>
+      </c>
+      <c r="C138" t="s">
+        <v>83</v>
+      </c>
+      <c r="D138" t="s">
+        <v>86</v>
+      </c>
+      <c r="E138" t="s">
+        <v>92</v>
+      </c>
+      <c r="F138" t="s">
+        <v>96</v>
+      </c>
+      <c r="G138" t="s">
         <v>108</v>
       </c>
     </row>

--- a/data/excel_tables/2.2_other_party_orgs_info.xlsx
+++ b/data/excel_tables/2.2_other_party_orgs_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="109">
   <si>
     <t>other_party_org_name</t>
   </si>
@@ -148,6 +148,9 @@
     <t>Смілянська міська організація Партії Зелених України</t>
   </si>
   <si>
+    <t>32110582</t>
+  </si>
+  <si>
     <t>33959120</t>
   </si>
   <si>
@@ -247,9 +250,6 @@
     <t>33884904</t>
   </si>
   <si>
-    <t>32110582</t>
-  </si>
-  <si>
     <t>31451445</t>
   </si>
   <si>
@@ -277,12 +277,12 @@
     <t>2021</t>
   </si>
   <si>
+    <t>2022</t>
+  </si>
+  <si>
     <t>2023</t>
   </si>
   <si>
-    <t>2022</t>
-  </si>
-  <si>
     <t>ПРОГРЕСИВНА СОЦІАЛІСТИЧНА ПАРТІЯ УКРАЇНИ</t>
   </si>
   <si>
@@ -295,10 +295,10 @@
     <t>ПАРТІЯ ЗЕЛЕНИХ УКРАЇНИ</t>
   </si>
   <si>
+    <t>00013497</t>
+  </si>
+  <si>
     <t>21721653</t>
-  </si>
-  <si>
-    <t>00013497</t>
   </si>
   <si>
     <t>21710533</t>
@@ -698,7 +698,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G138"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -731,20 +731,20 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
-        <v>32110582</v>
+      <c r="B2" t="s">
+        <v>44</v>
       </c>
       <c r="C2" t="s">
         <v>81</v>
       </c>
-      <c r="D2">
-        <v>2021</v>
+      <c r="D2" t="s">
+        <v>86</v>
       </c>
       <c r="E2" t="s">
         <v>89</v>
       </c>
-      <c r="F2">
-        <v>13497</v>
+      <c r="F2" t="s">
+        <v>93</v>
       </c>
       <c r="G2" t="s">
         <v>97</v>
@@ -754,20 +754,20 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
-        <v>33959120</v>
+      <c r="B3" t="s">
+        <v>45</v>
       </c>
       <c r="C3" t="s">
         <v>82</v>
       </c>
-      <c r="D3">
-        <v>2022</v>
+      <c r="D3" t="s">
+        <v>87</v>
       </c>
       <c r="E3" t="s">
         <v>90</v>
       </c>
-      <c r="F3">
-        <v>21721653</v>
+      <c r="F3" t="s">
+        <v>94</v>
       </c>
       <c r="G3" t="s">
         <v>98</v>
@@ -777,20 +777,20 @@
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
-        <v>34051854</v>
+      <c r="B4" t="s">
+        <v>46</v>
       </c>
       <c r="C4" t="s">
         <v>82</v>
       </c>
-      <c r="D4">
-        <v>2022</v>
+      <c r="D4" t="s">
+        <v>87</v>
       </c>
       <c r="E4" t="s">
         <v>90</v>
       </c>
-      <c r="F4">
-        <v>21721653</v>
+      <c r="F4" t="s">
+        <v>94</v>
       </c>
       <c r="G4" t="s">
         <v>98</v>
@@ -800,20 +800,20 @@
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5">
-        <v>33183342</v>
+      <c r="B5" t="s">
+        <v>47</v>
       </c>
       <c r="C5" t="s">
         <v>82</v>
       </c>
-      <c r="D5">
-        <v>2022</v>
+      <c r="D5" t="s">
+        <v>87</v>
       </c>
       <c r="E5" t="s">
         <v>90</v>
       </c>
-      <c r="F5">
-        <v>21721653</v>
+      <c r="F5" t="s">
+        <v>94</v>
       </c>
       <c r="G5" t="s">
         <v>98</v>
@@ -823,20 +823,20 @@
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6">
-        <v>33959267</v>
+      <c r="B6" t="s">
+        <v>48</v>
       </c>
       <c r="C6" t="s">
         <v>82</v>
       </c>
-      <c r="D6">
-        <v>2022</v>
+      <c r="D6" t="s">
+        <v>87</v>
       </c>
       <c r="E6" t="s">
         <v>90</v>
       </c>
-      <c r="F6">
-        <v>21721653</v>
+      <c r="F6" t="s">
+        <v>94</v>
       </c>
       <c r="G6" t="s">
         <v>98</v>
@@ -846,20 +846,20 @@
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7">
-        <v>34058963</v>
+      <c r="B7" t="s">
+        <v>49</v>
       </c>
       <c r="C7" t="s">
         <v>82</v>
       </c>
-      <c r="D7">
-        <v>2022</v>
+      <c r="D7" t="s">
+        <v>87</v>
       </c>
       <c r="E7" t="s">
         <v>90</v>
       </c>
-      <c r="F7">
-        <v>21721653</v>
+      <c r="F7" t="s">
+        <v>94</v>
       </c>
       <c r="G7" t="s">
         <v>98</v>
@@ -869,20 +869,20 @@
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8">
-        <v>34004893</v>
+      <c r="B8" t="s">
+        <v>50</v>
       </c>
       <c r="C8" t="s">
         <v>82</v>
       </c>
-      <c r="D8">
-        <v>2022</v>
+      <c r="D8" t="s">
+        <v>87</v>
       </c>
       <c r="E8" t="s">
         <v>90</v>
       </c>
-      <c r="F8">
-        <v>21721653</v>
+      <c r="F8" t="s">
+        <v>94</v>
       </c>
       <c r="G8" t="s">
         <v>98</v>
@@ -892,20 +892,20 @@
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9">
-        <v>32909042</v>
+      <c r="B9" t="s">
+        <v>51</v>
       </c>
       <c r="C9" t="s">
         <v>82</v>
       </c>
-      <c r="D9">
-        <v>2022</v>
+      <c r="D9" t="s">
+        <v>87</v>
       </c>
       <c r="E9" t="s">
         <v>90</v>
       </c>
-      <c r="F9">
-        <v>21721653</v>
+      <c r="F9" t="s">
+        <v>94</v>
       </c>
       <c r="G9" t="s">
         <v>98</v>
@@ -915,20 +915,20 @@
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10">
-        <v>33975535</v>
+      <c r="B10" t="s">
+        <v>52</v>
       </c>
       <c r="C10" t="s">
         <v>82</v>
       </c>
-      <c r="D10">
-        <v>2022</v>
+      <c r="D10" t="s">
+        <v>87</v>
       </c>
       <c r="E10" t="s">
         <v>90</v>
       </c>
-      <c r="F10">
-        <v>21721653</v>
+      <c r="F10" t="s">
+        <v>94</v>
       </c>
       <c r="G10" t="s">
         <v>98</v>
@@ -938,20 +938,20 @@
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11">
-        <v>34159955</v>
+      <c r="B11" t="s">
+        <v>53</v>
       </c>
       <c r="C11" t="s">
         <v>82</v>
       </c>
-      <c r="D11">
-        <v>2022</v>
+      <c r="D11" t="s">
+        <v>87</v>
       </c>
       <c r="E11" t="s">
         <v>90</v>
       </c>
-      <c r="F11">
-        <v>21721653</v>
+      <c r="F11" t="s">
+        <v>94</v>
       </c>
       <c r="G11" t="s">
         <v>98</v>
@@ -961,20 +961,20 @@
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12">
-        <v>33958739</v>
+      <c r="B12" t="s">
+        <v>54</v>
       </c>
       <c r="C12" t="s">
         <v>82</v>
       </c>
-      <c r="D12">
-        <v>2022</v>
+      <c r="D12" t="s">
+        <v>87</v>
       </c>
       <c r="E12" t="s">
         <v>90</v>
       </c>
-      <c r="F12">
-        <v>21721653</v>
+      <c r="F12" t="s">
+        <v>94</v>
       </c>
       <c r="G12" t="s">
         <v>98</v>
@@ -984,20 +984,20 @@
       <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B13">
-        <v>37262747</v>
+      <c r="B13" t="s">
+        <v>55</v>
       </c>
       <c r="C13" t="s">
         <v>82</v>
       </c>
-      <c r="D13">
-        <v>2022</v>
+      <c r="D13" t="s">
+        <v>87</v>
       </c>
       <c r="E13" t="s">
         <v>90</v>
       </c>
-      <c r="F13">
-        <v>21721653</v>
+      <c r="F13" t="s">
+        <v>94</v>
       </c>
       <c r="G13" t="s">
         <v>98</v>
@@ -1007,20 +1007,20 @@
       <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B14">
-        <v>33434730</v>
+      <c r="B14" t="s">
+        <v>56</v>
       </c>
       <c r="C14" t="s">
         <v>82</v>
       </c>
-      <c r="D14">
-        <v>2022</v>
+      <c r="D14" t="s">
+        <v>87</v>
       </c>
       <c r="E14" t="s">
         <v>90</v>
       </c>
-      <c r="F14">
-        <v>21721653</v>
+      <c r="F14" t="s">
+        <v>94</v>
       </c>
       <c r="G14" t="s">
         <v>98</v>
@@ -1030,20 +1030,20 @@
       <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B15">
-        <v>33928438</v>
+      <c r="B15" t="s">
+        <v>57</v>
       </c>
       <c r="C15" t="s">
         <v>82</v>
       </c>
-      <c r="D15">
-        <v>2022</v>
+      <c r="D15" t="s">
+        <v>87</v>
       </c>
       <c r="E15" t="s">
         <v>90</v>
       </c>
-      <c r="F15">
-        <v>21721653</v>
+      <c r="F15" t="s">
+        <v>94</v>
       </c>
       <c r="G15" t="s">
         <v>98</v>
@@ -1053,20 +1053,20 @@
       <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="B16">
-        <v>33245450</v>
+      <c r="B16" t="s">
+        <v>58</v>
       </c>
       <c r="C16" t="s">
         <v>82</v>
       </c>
-      <c r="D16">
-        <v>2022</v>
+      <c r="D16" t="s">
+        <v>87</v>
       </c>
       <c r="E16" t="s">
         <v>90</v>
       </c>
-      <c r="F16">
-        <v>21721653</v>
+      <c r="F16" t="s">
+        <v>94</v>
       </c>
       <c r="G16" t="s">
         <v>98</v>
@@ -1076,20 +1076,20 @@
       <c r="A17" t="s">
         <v>22</v>
       </c>
-      <c r="B17">
-        <v>33895848</v>
+      <c r="B17" t="s">
+        <v>59</v>
       </c>
       <c r="C17" t="s">
         <v>82</v>
       </c>
-      <c r="D17">
-        <v>2022</v>
+      <c r="D17" t="s">
+        <v>87</v>
       </c>
       <c r="E17" t="s">
         <v>90</v>
       </c>
-      <c r="F17">
-        <v>21721653</v>
+      <c r="F17" t="s">
+        <v>94</v>
       </c>
       <c r="G17" t="s">
         <v>98</v>
@@ -1099,20 +1099,20 @@
       <c r="A18" t="s">
         <v>23</v>
       </c>
-      <c r="B18">
-        <v>33826837</v>
+      <c r="B18" t="s">
+        <v>60</v>
       </c>
       <c r="C18" t="s">
         <v>82</v>
       </c>
-      <c r="D18">
-        <v>2022</v>
+      <c r="D18" t="s">
+        <v>87</v>
       </c>
       <c r="E18" t="s">
         <v>90</v>
       </c>
-      <c r="F18">
-        <v>21721653</v>
+      <c r="F18" t="s">
+        <v>94</v>
       </c>
       <c r="G18" t="s">
         <v>98</v>
@@ -1122,20 +1122,20 @@
       <c r="A19" t="s">
         <v>24</v>
       </c>
-      <c r="B19">
-        <v>33826863</v>
+      <c r="B19" t="s">
+        <v>61</v>
       </c>
       <c r="C19" t="s">
         <v>82</v>
       </c>
-      <c r="D19">
-        <v>2022</v>
+      <c r="D19" t="s">
+        <v>87</v>
       </c>
       <c r="E19" t="s">
         <v>90</v>
       </c>
-      <c r="F19">
-        <v>21721653</v>
+      <c r="F19" t="s">
+        <v>94</v>
       </c>
       <c r="G19" t="s">
         <v>98</v>
@@ -1145,20 +1145,20 @@
       <c r="A20" t="s">
         <v>25</v>
       </c>
-      <c r="B20">
-        <v>33761026</v>
+      <c r="B20" t="s">
+        <v>62</v>
       </c>
       <c r="C20" t="s">
         <v>82</v>
       </c>
-      <c r="D20">
-        <v>2022</v>
+      <c r="D20" t="s">
+        <v>87</v>
       </c>
       <c r="E20" t="s">
         <v>90</v>
       </c>
-      <c r="F20">
-        <v>21721653</v>
+      <c r="F20" t="s">
+        <v>94</v>
       </c>
       <c r="G20" t="s">
         <v>98</v>
@@ -1168,20 +1168,20 @@
       <c r="A21" t="s">
         <v>26</v>
       </c>
-      <c r="B21">
-        <v>33987891</v>
+      <c r="B21" t="s">
+        <v>63</v>
       </c>
       <c r="C21" t="s">
         <v>82</v>
       </c>
-      <c r="D21">
-        <v>2022</v>
+      <c r="D21" t="s">
+        <v>87</v>
       </c>
       <c r="E21" t="s">
         <v>90</v>
       </c>
-      <c r="F21">
-        <v>21721653</v>
+      <c r="F21" t="s">
+        <v>94</v>
       </c>
       <c r="G21" t="s">
         <v>98</v>
@@ -1191,20 +1191,20 @@
       <c r="A22" t="s">
         <v>27</v>
       </c>
-      <c r="B22">
-        <v>33615837</v>
+      <c r="B22" t="s">
+        <v>64</v>
       </c>
       <c r="C22" t="s">
         <v>82</v>
       </c>
-      <c r="D22">
-        <v>2022</v>
+      <c r="D22" t="s">
+        <v>87</v>
       </c>
       <c r="E22" t="s">
         <v>90</v>
       </c>
-      <c r="F22">
-        <v>21721653</v>
+      <c r="F22" t="s">
+        <v>94</v>
       </c>
       <c r="G22" t="s">
         <v>98</v>
@@ -1214,20 +1214,20 @@
       <c r="A23" t="s">
         <v>28</v>
       </c>
-      <c r="B23">
-        <v>33969867</v>
+      <c r="B23" t="s">
+        <v>65</v>
       </c>
       <c r="C23" t="s">
         <v>82</v>
       </c>
-      <c r="D23">
-        <v>2022</v>
+      <c r="D23" t="s">
+        <v>87</v>
       </c>
       <c r="E23" t="s">
         <v>90</v>
       </c>
-      <c r="F23">
-        <v>21721653</v>
+      <c r="F23" t="s">
+        <v>94</v>
       </c>
       <c r="G23" t="s">
         <v>98</v>
@@ -1237,20 +1237,20 @@
       <c r="A24" t="s">
         <v>29</v>
       </c>
-      <c r="B24">
-        <v>33176712</v>
+      <c r="B24" t="s">
+        <v>66</v>
       </c>
       <c r="C24" t="s">
         <v>82</v>
       </c>
-      <c r="D24">
-        <v>2022</v>
+      <c r="D24" t="s">
+        <v>87</v>
       </c>
       <c r="E24" t="s">
         <v>90</v>
       </c>
-      <c r="F24">
-        <v>21721653</v>
+      <c r="F24" t="s">
+        <v>94</v>
       </c>
       <c r="G24" t="s">
         <v>98</v>
@@ -1260,20 +1260,20 @@
       <c r="A25" t="s">
         <v>30</v>
       </c>
-      <c r="B25">
-        <v>33964172</v>
+      <c r="B25" t="s">
+        <v>67</v>
       </c>
       <c r="C25" t="s">
         <v>82</v>
       </c>
-      <c r="D25">
-        <v>2022</v>
+      <c r="D25" t="s">
+        <v>87</v>
       </c>
       <c r="E25" t="s">
         <v>90</v>
       </c>
-      <c r="F25">
-        <v>21721653</v>
+      <c r="F25" t="s">
+        <v>94</v>
       </c>
       <c r="G25" t="s">
         <v>98</v>
@@ -1283,20 +1283,20 @@
       <c r="A26" t="s">
         <v>31</v>
       </c>
-      <c r="B26">
-        <v>33861507</v>
+      <c r="B26" t="s">
+        <v>68</v>
       </c>
       <c r="C26" t="s">
         <v>82</v>
       </c>
-      <c r="D26">
-        <v>2022</v>
+      <c r="D26" t="s">
+        <v>87</v>
       </c>
       <c r="E26" t="s">
         <v>90</v>
       </c>
-      <c r="F26">
-        <v>21721653</v>
+      <c r="F26" t="s">
+        <v>94</v>
       </c>
       <c r="G26" t="s">
         <v>98</v>
@@ -1306,20 +1306,20 @@
       <c r="A27" t="s">
         <v>32</v>
       </c>
-      <c r="B27">
-        <v>33850896</v>
+      <c r="B27" t="s">
+        <v>69</v>
       </c>
       <c r="C27" t="s">
         <v>82</v>
       </c>
-      <c r="D27">
-        <v>2022</v>
+      <c r="D27" t="s">
+        <v>87</v>
       </c>
       <c r="E27" t="s">
         <v>90</v>
       </c>
-      <c r="F27">
-        <v>21721653</v>
+      <c r="F27" t="s">
+        <v>94</v>
       </c>
       <c r="G27" t="s">
         <v>98</v>
@@ -1329,20 +1329,20 @@
       <c r="A28" t="s">
         <v>33</v>
       </c>
-      <c r="B28">
-        <v>37280326</v>
+      <c r="B28" t="s">
+        <v>70</v>
       </c>
       <c r="C28" t="s">
         <v>82</v>
       </c>
-      <c r="D28">
-        <v>2022</v>
+      <c r="D28" t="s">
+        <v>87</v>
       </c>
       <c r="E28" t="s">
         <v>90</v>
       </c>
-      <c r="F28">
-        <v>21721653</v>
+      <c r="F28" t="s">
+        <v>94</v>
       </c>
       <c r="G28" t="s">
         <v>98</v>
@@ -1352,20 +1352,20 @@
       <c r="A29" t="s">
         <v>34</v>
       </c>
-      <c r="B29">
-        <v>39250398</v>
+      <c r="B29" t="s">
+        <v>71</v>
       </c>
       <c r="C29" t="s">
         <v>82</v>
       </c>
-      <c r="D29">
-        <v>2022</v>
+      <c r="D29" t="s">
+        <v>87</v>
       </c>
       <c r="E29" t="s">
         <v>90</v>
       </c>
-      <c r="F29">
-        <v>21721653</v>
+      <c r="F29" t="s">
+        <v>94</v>
       </c>
       <c r="G29" t="s">
         <v>98</v>
@@ -1375,20 +1375,20 @@
       <c r="A30" t="s">
         <v>35</v>
       </c>
-      <c r="B30">
-        <v>38549759</v>
+      <c r="B30" t="s">
+        <v>72</v>
       </c>
       <c r="C30" t="s">
         <v>82</v>
       </c>
-      <c r="D30">
-        <v>2022</v>
+      <c r="D30" t="s">
+        <v>87</v>
       </c>
       <c r="E30" t="s">
         <v>90</v>
       </c>
-      <c r="F30">
-        <v>21721653</v>
+      <c r="F30" t="s">
+        <v>94</v>
       </c>
       <c r="G30" t="s">
         <v>98</v>
@@ -1398,20 +1398,20 @@
       <c r="A31" t="s">
         <v>36</v>
       </c>
-      <c r="B31">
-        <v>33810256</v>
+      <c r="B31" t="s">
+        <v>73</v>
       </c>
       <c r="C31" t="s">
         <v>82</v>
       </c>
-      <c r="D31">
-        <v>2022</v>
+      <c r="D31" t="s">
+        <v>87</v>
       </c>
       <c r="E31" t="s">
         <v>90</v>
       </c>
-      <c r="F31">
-        <v>21721653</v>
+      <c r="F31" t="s">
+        <v>94</v>
       </c>
       <c r="G31" t="s">
         <v>98</v>
@@ -1421,20 +1421,20 @@
       <c r="A32" t="s">
         <v>37</v>
       </c>
-      <c r="B32">
-        <v>34090411</v>
+      <c r="B32" t="s">
+        <v>74</v>
       </c>
       <c r="C32" t="s">
         <v>82</v>
       </c>
-      <c r="D32">
-        <v>2022</v>
+      <c r="D32" t="s">
+        <v>87</v>
       </c>
       <c r="E32" t="s">
         <v>90</v>
       </c>
-      <c r="F32">
-        <v>21721653</v>
+      <c r="F32" t="s">
+        <v>94</v>
       </c>
       <c r="G32" t="s">
         <v>98</v>
@@ -1444,20 +1444,20 @@
       <c r="A33" t="s">
         <v>38</v>
       </c>
-      <c r="B33">
-        <v>25999654</v>
+      <c r="B33" t="s">
+        <v>75</v>
       </c>
       <c r="C33" t="s">
         <v>82</v>
       </c>
-      <c r="D33">
-        <v>2022</v>
+      <c r="D33" t="s">
+        <v>87</v>
       </c>
       <c r="E33" t="s">
         <v>90</v>
       </c>
-      <c r="F33">
-        <v>21721653</v>
+      <c r="F33" t="s">
+        <v>94</v>
       </c>
       <c r="G33" t="s">
         <v>98</v>
@@ -1467,20 +1467,20 @@
       <c r="A34" t="s">
         <v>39</v>
       </c>
-      <c r="B34">
-        <v>33937442</v>
+      <c r="B34" t="s">
+        <v>76</v>
       </c>
       <c r="C34" t="s">
         <v>82</v>
       </c>
-      <c r="D34">
-        <v>2022</v>
+      <c r="D34" t="s">
+        <v>87</v>
       </c>
       <c r="E34" t="s">
         <v>90</v>
       </c>
-      <c r="F34">
-        <v>21721653</v>
+      <c r="F34" t="s">
+        <v>94</v>
       </c>
       <c r="G34" t="s">
         <v>98</v>
@@ -1490,20 +1490,20 @@
       <c r="A35" t="s">
         <v>40</v>
       </c>
-      <c r="B35">
-        <v>33884904</v>
+      <c r="B35" t="s">
+        <v>77</v>
       </c>
       <c r="C35" t="s">
         <v>82</v>
       </c>
-      <c r="D35">
-        <v>2022</v>
+      <c r="D35" t="s">
+        <v>87</v>
       </c>
       <c r="E35" t="s">
         <v>90</v>
       </c>
-      <c r="F35">
-        <v>21721653</v>
+      <c r="F35" t="s">
+        <v>94</v>
       </c>
       <c r="G35" t="s">
         <v>98</v>
@@ -1513,20 +1513,20 @@
       <c r="A36" t="s">
         <v>7</v>
       </c>
-      <c r="B36">
-        <v>32110582</v>
+      <c r="B36" t="s">
+        <v>44</v>
       </c>
       <c r="C36" t="s">
         <v>83</v>
       </c>
-      <c r="D36">
-        <v>2021</v>
+      <c r="D36" t="s">
+        <v>86</v>
       </c>
       <c r="E36" t="s">
         <v>89</v>
       </c>
-      <c r="F36">
-        <v>13497</v>
+      <c r="F36" t="s">
+        <v>93</v>
       </c>
       <c r="G36" t="s">
         <v>99</v>
@@ -1536,20 +1536,20 @@
       <c r="A37" t="s">
         <v>8</v>
       </c>
-      <c r="B37">
-        <v>33959120</v>
+      <c r="B37" t="s">
+        <v>45</v>
       </c>
       <c r="C37" t="s">
         <v>84</v>
       </c>
-      <c r="D37">
-        <v>2021</v>
+      <c r="D37" t="s">
+        <v>86</v>
       </c>
       <c r="E37" t="s">
         <v>90</v>
       </c>
-      <c r="F37">
-        <v>21721653</v>
+      <c r="F37" t="s">
+        <v>94</v>
       </c>
       <c r="G37" t="s">
         <v>100</v>
@@ -1559,20 +1559,20 @@
       <c r="A38" t="s">
         <v>9</v>
       </c>
-      <c r="B38">
-        <v>34051854</v>
+      <c r="B38" t="s">
+        <v>46</v>
       </c>
       <c r="C38" t="s">
         <v>84</v>
       </c>
-      <c r="D38">
-        <v>2021</v>
+      <c r="D38" t="s">
+        <v>86</v>
       </c>
       <c r="E38" t="s">
         <v>90</v>
       </c>
-      <c r="F38">
-        <v>21721653</v>
+      <c r="F38" t="s">
+        <v>94</v>
       </c>
       <c r="G38" t="s">
         <v>100</v>
@@ -1582,20 +1582,20 @@
       <c r="A39" t="s">
         <v>10</v>
       </c>
-      <c r="B39">
-        <v>33183342</v>
+      <c r="B39" t="s">
+        <v>47</v>
       </c>
       <c r="C39" t="s">
         <v>84</v>
       </c>
-      <c r="D39">
-        <v>2021</v>
+      <c r="D39" t="s">
+        <v>86</v>
       </c>
       <c r="E39" t="s">
         <v>90</v>
       </c>
-      <c r="F39">
-        <v>21721653</v>
+      <c r="F39" t="s">
+        <v>94</v>
       </c>
       <c r="G39" t="s">
         <v>100</v>
@@ -1605,20 +1605,20 @@
       <c r="A40" t="s">
         <v>11</v>
       </c>
-      <c r="B40">
-        <v>33959267</v>
+      <c r="B40" t="s">
+        <v>48</v>
       </c>
       <c r="C40" t="s">
         <v>84</v>
       </c>
-      <c r="D40">
-        <v>2021</v>
+      <c r="D40" t="s">
+        <v>86</v>
       </c>
       <c r="E40" t="s">
         <v>90</v>
       </c>
-      <c r="F40">
-        <v>21721653</v>
+      <c r="F40" t="s">
+        <v>94</v>
       </c>
       <c r="G40" t="s">
         <v>100</v>
@@ -1628,20 +1628,20 @@
       <c r="A41" t="s">
         <v>12</v>
       </c>
-      <c r="B41">
-        <v>34058963</v>
+      <c r="B41" t="s">
+        <v>49</v>
       </c>
       <c r="C41" t="s">
         <v>84</v>
       </c>
-      <c r="D41">
-        <v>2021</v>
+      <c r="D41" t="s">
+        <v>86</v>
       </c>
       <c r="E41" t="s">
         <v>90</v>
       </c>
-      <c r="F41">
-        <v>21721653</v>
+      <c r="F41" t="s">
+        <v>94</v>
       </c>
       <c r="G41" t="s">
         <v>100</v>
@@ -1651,20 +1651,20 @@
       <c r="A42" t="s">
         <v>13</v>
       </c>
-      <c r="B42">
-        <v>34004893</v>
+      <c r="B42" t="s">
+        <v>50</v>
       </c>
       <c r="C42" t="s">
         <v>84</v>
       </c>
-      <c r="D42">
-        <v>2021</v>
+      <c r="D42" t="s">
+        <v>86</v>
       </c>
       <c r="E42" t="s">
         <v>90</v>
       </c>
-      <c r="F42">
-        <v>21721653</v>
+      <c r="F42" t="s">
+        <v>94</v>
       </c>
       <c r="G42" t="s">
         <v>100</v>
@@ -1674,20 +1674,20 @@
       <c r="A43" t="s">
         <v>14</v>
       </c>
-      <c r="B43">
-        <v>32909042</v>
+      <c r="B43" t="s">
+        <v>51</v>
       </c>
       <c r="C43" t="s">
         <v>84</v>
       </c>
-      <c r="D43">
-        <v>2021</v>
+      <c r="D43" t="s">
+        <v>86</v>
       </c>
       <c r="E43" t="s">
         <v>90</v>
       </c>
-      <c r="F43">
-        <v>21721653</v>
+      <c r="F43" t="s">
+        <v>94</v>
       </c>
       <c r="G43" t="s">
         <v>100</v>
@@ -1697,20 +1697,20 @@
       <c r="A44" t="s">
         <v>15</v>
       </c>
-      <c r="B44">
-        <v>33975535</v>
+      <c r="B44" t="s">
+        <v>52</v>
       </c>
       <c r="C44" t="s">
         <v>84</v>
       </c>
-      <c r="D44">
-        <v>2021</v>
+      <c r="D44" t="s">
+        <v>86</v>
       </c>
       <c r="E44" t="s">
         <v>90</v>
       </c>
-      <c r="F44">
-        <v>21721653</v>
+      <c r="F44" t="s">
+        <v>94</v>
       </c>
       <c r="G44" t="s">
         <v>100</v>
@@ -1720,20 +1720,20 @@
       <c r="A45" t="s">
         <v>16</v>
       </c>
-      <c r="B45">
-        <v>34159955</v>
+      <c r="B45" t="s">
+        <v>53</v>
       </c>
       <c r="C45" t="s">
         <v>84</v>
       </c>
-      <c r="D45">
-        <v>2021</v>
+      <c r="D45" t="s">
+        <v>86</v>
       </c>
       <c r="E45" t="s">
         <v>90</v>
       </c>
-      <c r="F45">
-        <v>21721653</v>
+      <c r="F45" t="s">
+        <v>94</v>
       </c>
       <c r="G45" t="s">
         <v>100</v>
@@ -1743,20 +1743,20 @@
       <c r="A46" t="s">
         <v>17</v>
       </c>
-      <c r="B46">
-        <v>33958739</v>
+      <c r="B46" t="s">
+        <v>54</v>
       </c>
       <c r="C46" t="s">
         <v>84</v>
       </c>
-      <c r="D46">
-        <v>2021</v>
+      <c r="D46" t="s">
+        <v>86</v>
       </c>
       <c r="E46" t="s">
         <v>90</v>
       </c>
-      <c r="F46">
-        <v>21721653</v>
+      <c r="F46" t="s">
+        <v>94</v>
       </c>
       <c r="G46" t="s">
         <v>100</v>
@@ -1766,20 +1766,20 @@
       <c r="A47" t="s">
         <v>18</v>
       </c>
-      <c r="B47">
-        <v>37262747</v>
+      <c r="B47" t="s">
+        <v>55</v>
       </c>
       <c r="C47" t="s">
         <v>84</v>
       </c>
-      <c r="D47">
-        <v>2021</v>
+      <c r="D47" t="s">
+        <v>86</v>
       </c>
       <c r="E47" t="s">
         <v>90</v>
       </c>
-      <c r="F47">
-        <v>21721653</v>
+      <c r="F47" t="s">
+        <v>94</v>
       </c>
       <c r="G47" t="s">
         <v>100</v>
@@ -1789,20 +1789,20 @@
       <c r="A48" t="s">
         <v>19</v>
       </c>
-      <c r="B48">
-        <v>33434730</v>
+      <c r="B48" t="s">
+        <v>56</v>
       </c>
       <c r="C48" t="s">
         <v>84</v>
       </c>
-      <c r="D48">
-        <v>2021</v>
+      <c r="D48" t="s">
+        <v>86</v>
       </c>
       <c r="E48" t="s">
         <v>90</v>
       </c>
-      <c r="F48">
-        <v>21721653</v>
+      <c r="F48" t="s">
+        <v>94</v>
       </c>
       <c r="G48" t="s">
         <v>100</v>
@@ -1812,20 +1812,20 @@
       <c r="A49" t="s">
         <v>20</v>
       </c>
-      <c r="B49">
-        <v>33928438</v>
+      <c r="B49" t="s">
+        <v>57</v>
       </c>
       <c r="C49" t="s">
         <v>84</v>
       </c>
-      <c r="D49">
-        <v>2021</v>
+      <c r="D49" t="s">
+        <v>86</v>
       </c>
       <c r="E49" t="s">
         <v>90</v>
       </c>
-      <c r="F49">
-        <v>21721653</v>
+      <c r="F49" t="s">
+        <v>94</v>
       </c>
       <c r="G49" t="s">
         <v>100</v>
@@ -1835,20 +1835,20 @@
       <c r="A50" t="s">
         <v>21</v>
       </c>
-      <c r="B50">
-        <v>33245450</v>
+      <c r="B50" t="s">
+        <v>58</v>
       </c>
       <c r="C50" t="s">
         <v>84</v>
       </c>
-      <c r="D50">
-        <v>2021</v>
+      <c r="D50" t="s">
+        <v>86</v>
       </c>
       <c r="E50" t="s">
         <v>90</v>
       </c>
-      <c r="F50">
-        <v>21721653</v>
+      <c r="F50" t="s">
+        <v>94</v>
       </c>
       <c r="G50" t="s">
         <v>100</v>
@@ -1858,20 +1858,20 @@
       <c r="A51" t="s">
         <v>22</v>
       </c>
-      <c r="B51">
-        <v>33895848</v>
+      <c r="B51" t="s">
+        <v>59</v>
       </c>
       <c r="C51" t="s">
         <v>84</v>
       </c>
-      <c r="D51">
-        <v>2021</v>
+      <c r="D51" t="s">
+        <v>86</v>
       </c>
       <c r="E51" t="s">
         <v>90</v>
       </c>
-      <c r="F51">
-        <v>21721653</v>
+      <c r="F51" t="s">
+        <v>94</v>
       </c>
       <c r="G51" t="s">
         <v>100</v>
@@ -1881,20 +1881,20 @@
       <c r="A52" t="s">
         <v>23</v>
       </c>
-      <c r="B52">
-        <v>33826837</v>
+      <c r="B52" t="s">
+        <v>60</v>
       </c>
       <c r="C52" t="s">
         <v>84</v>
       </c>
-      <c r="D52">
-        <v>2021</v>
+      <c r="D52" t="s">
+        <v>86</v>
       </c>
       <c r="E52" t="s">
         <v>90</v>
       </c>
-      <c r="F52">
-        <v>21721653</v>
+      <c r="F52" t="s">
+        <v>94</v>
       </c>
       <c r="G52" t="s">
         <v>100</v>
@@ -1904,20 +1904,20 @@
       <c r="A53" t="s">
         <v>24</v>
       </c>
-      <c r="B53">
-        <v>33826863</v>
+      <c r="B53" t="s">
+        <v>61</v>
       </c>
       <c r="C53" t="s">
         <v>84</v>
       </c>
-      <c r="D53">
-        <v>2021</v>
+      <c r="D53" t="s">
+        <v>86</v>
       </c>
       <c r="E53" t="s">
         <v>90</v>
       </c>
-      <c r="F53">
-        <v>21721653</v>
+      <c r="F53" t="s">
+        <v>94</v>
       </c>
       <c r="G53" t="s">
         <v>100</v>
@@ -1927,20 +1927,20 @@
       <c r="A54" t="s">
         <v>25</v>
       </c>
-      <c r="B54">
-        <v>33761026</v>
+      <c r="B54" t="s">
+        <v>62</v>
       </c>
       <c r="C54" t="s">
         <v>84</v>
       </c>
-      <c r="D54">
-        <v>2021</v>
+      <c r="D54" t="s">
+        <v>86</v>
       </c>
       <c r="E54" t="s">
         <v>90</v>
       </c>
-      <c r="F54">
-        <v>21721653</v>
+      <c r="F54" t="s">
+        <v>94</v>
       </c>
       <c r="G54" t="s">
         <v>100</v>
@@ -1950,20 +1950,20 @@
       <c r="A55" t="s">
         <v>26</v>
       </c>
-      <c r="B55">
-        <v>33987891</v>
+      <c r="B55" t="s">
+        <v>63</v>
       </c>
       <c r="C55" t="s">
         <v>84</v>
       </c>
-      <c r="D55">
-        <v>2021</v>
+      <c r="D55" t="s">
+        <v>86</v>
       </c>
       <c r="E55" t="s">
         <v>90</v>
       </c>
-      <c r="F55">
-        <v>21721653</v>
+      <c r="F55" t="s">
+        <v>94</v>
       </c>
       <c r="G55" t="s">
         <v>100</v>
@@ -1973,20 +1973,20 @@
       <c r="A56" t="s">
         <v>27</v>
       </c>
-      <c r="B56">
-        <v>33615837</v>
+      <c r="B56" t="s">
+        <v>64</v>
       </c>
       <c r="C56" t="s">
         <v>84</v>
       </c>
-      <c r="D56">
-        <v>2021</v>
+      <c r="D56" t="s">
+        <v>86</v>
       </c>
       <c r="E56" t="s">
         <v>90</v>
       </c>
-      <c r="F56">
-        <v>21721653</v>
+      <c r="F56" t="s">
+        <v>94</v>
       </c>
       <c r="G56" t="s">
         <v>100</v>
@@ -1996,20 +1996,20 @@
       <c r="A57" t="s">
         <v>28</v>
       </c>
-      <c r="B57">
-        <v>33969867</v>
+      <c r="B57" t="s">
+        <v>65</v>
       </c>
       <c r="C57" t="s">
         <v>84</v>
       </c>
-      <c r="D57">
-        <v>2021</v>
+      <c r="D57" t="s">
+        <v>86</v>
       </c>
       <c r="E57" t="s">
         <v>90</v>
       </c>
-      <c r="F57">
-        <v>21721653</v>
+      <c r="F57" t="s">
+        <v>94</v>
       </c>
       <c r="G57" t="s">
         <v>100</v>
@@ -2019,20 +2019,20 @@
       <c r="A58" t="s">
         <v>29</v>
       </c>
-      <c r="B58">
-        <v>33176712</v>
+      <c r="B58" t="s">
+        <v>66</v>
       </c>
       <c r="C58" t="s">
         <v>84</v>
       </c>
-      <c r="D58">
-        <v>2021</v>
+      <c r="D58" t="s">
+        <v>86</v>
       </c>
       <c r="E58" t="s">
         <v>90</v>
       </c>
-      <c r="F58">
-        <v>21721653</v>
+      <c r="F58" t="s">
+        <v>94</v>
       </c>
       <c r="G58" t="s">
         <v>100</v>
@@ -2042,20 +2042,20 @@
       <c r="A59" t="s">
         <v>30</v>
       </c>
-      <c r="B59">
-        <v>33964172</v>
+      <c r="B59" t="s">
+        <v>67</v>
       </c>
       <c r="C59" t="s">
         <v>84</v>
       </c>
-      <c r="D59">
-        <v>2021</v>
+      <c r="D59" t="s">
+        <v>86</v>
       </c>
       <c r="E59" t="s">
         <v>90</v>
       </c>
-      <c r="F59">
-        <v>21721653</v>
+      <c r="F59" t="s">
+        <v>94</v>
       </c>
       <c r="G59" t="s">
         <v>100</v>
@@ -2065,20 +2065,20 @@
       <c r="A60" t="s">
         <v>31</v>
       </c>
-      <c r="B60">
-        <v>33861507</v>
+      <c r="B60" t="s">
+        <v>68</v>
       </c>
       <c r="C60" t="s">
         <v>84</v>
       </c>
-      <c r="D60">
-        <v>2021</v>
+      <c r="D60" t="s">
+        <v>86</v>
       </c>
       <c r="E60" t="s">
         <v>90</v>
       </c>
-      <c r="F60">
-        <v>21721653</v>
+      <c r="F60" t="s">
+        <v>94</v>
       </c>
       <c r="G60" t="s">
         <v>100</v>
@@ -2088,20 +2088,20 @@
       <c r="A61" t="s">
         <v>32</v>
       </c>
-      <c r="B61">
-        <v>33850896</v>
+      <c r="B61" t="s">
+        <v>69</v>
       </c>
       <c r="C61" t="s">
         <v>84</v>
       </c>
-      <c r="D61">
-        <v>2021</v>
+      <c r="D61" t="s">
+        <v>86</v>
       </c>
       <c r="E61" t="s">
         <v>90</v>
       </c>
-      <c r="F61">
-        <v>21721653</v>
+      <c r="F61" t="s">
+        <v>94</v>
       </c>
       <c r="G61" t="s">
         <v>100</v>
@@ -2111,20 +2111,20 @@
       <c r="A62" t="s">
         <v>33</v>
       </c>
-      <c r="B62">
-        <v>37280326</v>
+      <c r="B62" t="s">
+        <v>70</v>
       </c>
       <c r="C62" t="s">
         <v>84</v>
       </c>
-      <c r="D62">
-        <v>2021</v>
+      <c r="D62" t="s">
+        <v>86</v>
       </c>
       <c r="E62" t="s">
         <v>90</v>
       </c>
-      <c r="F62">
-        <v>21721653</v>
+      <c r="F62" t="s">
+        <v>94</v>
       </c>
       <c r="G62" t="s">
         <v>100</v>
@@ -2134,20 +2134,20 @@
       <c r="A63" t="s">
         <v>34</v>
       </c>
-      <c r="B63">
-        <v>39250398</v>
+      <c r="B63" t="s">
+        <v>71</v>
       </c>
       <c r="C63" t="s">
         <v>84</v>
       </c>
-      <c r="D63">
-        <v>2021</v>
+      <c r="D63" t="s">
+        <v>86</v>
       </c>
       <c r="E63" t="s">
         <v>90</v>
       </c>
-      <c r="F63">
-        <v>21721653</v>
+      <c r="F63" t="s">
+        <v>94</v>
       </c>
       <c r="G63" t="s">
         <v>100</v>
@@ -2157,20 +2157,20 @@
       <c r="A64" t="s">
         <v>35</v>
       </c>
-      <c r="B64">
-        <v>38549759</v>
+      <c r="B64" t="s">
+        <v>72</v>
       </c>
       <c r="C64" t="s">
         <v>84</v>
       </c>
-      <c r="D64">
-        <v>2021</v>
+      <c r="D64" t="s">
+        <v>86</v>
       </c>
       <c r="E64" t="s">
         <v>90</v>
       </c>
-      <c r="F64">
-        <v>21721653</v>
+      <c r="F64" t="s">
+        <v>94</v>
       </c>
       <c r="G64" t="s">
         <v>100</v>
@@ -2180,20 +2180,20 @@
       <c r="A65" t="s">
         <v>36</v>
       </c>
-      <c r="B65">
-        <v>33810256</v>
+      <c r="B65" t="s">
+        <v>73</v>
       </c>
       <c r="C65" t="s">
         <v>84</v>
       </c>
-      <c r="D65">
-        <v>2021</v>
+      <c r="D65" t="s">
+        <v>86</v>
       </c>
       <c r="E65" t="s">
         <v>90</v>
       </c>
-      <c r="F65">
-        <v>21721653</v>
+      <c r="F65" t="s">
+        <v>94</v>
       </c>
       <c r="G65" t="s">
         <v>100</v>
@@ -2203,20 +2203,20 @@
       <c r="A66" t="s">
         <v>37</v>
       </c>
-      <c r="B66">
-        <v>34090411</v>
+      <c r="B66" t="s">
+        <v>74</v>
       </c>
       <c r="C66" t="s">
         <v>84</v>
       </c>
-      <c r="D66">
-        <v>2021</v>
+      <c r="D66" t="s">
+        <v>86</v>
       </c>
       <c r="E66" t="s">
         <v>90</v>
       </c>
-      <c r="F66">
-        <v>21721653</v>
+      <c r="F66" t="s">
+        <v>94</v>
       </c>
       <c r="G66" t="s">
         <v>100</v>
@@ -2226,20 +2226,20 @@
       <c r="A67" t="s">
         <v>38</v>
       </c>
-      <c r="B67">
-        <v>25999654</v>
+      <c r="B67" t="s">
+        <v>75</v>
       </c>
       <c r="C67" t="s">
         <v>84</v>
       </c>
-      <c r="D67">
-        <v>2021</v>
+      <c r="D67" t="s">
+        <v>86</v>
       </c>
       <c r="E67" t="s">
         <v>90</v>
       </c>
-      <c r="F67">
-        <v>21721653</v>
+      <c r="F67" t="s">
+        <v>94</v>
       </c>
       <c r="G67" t="s">
         <v>100</v>
@@ -2249,20 +2249,20 @@
       <c r="A68" t="s">
         <v>39</v>
       </c>
-      <c r="B68">
-        <v>33937442</v>
+      <c r="B68" t="s">
+        <v>76</v>
       </c>
       <c r="C68" t="s">
         <v>84</v>
       </c>
-      <c r="D68">
-        <v>2021</v>
+      <c r="D68" t="s">
+        <v>86</v>
       </c>
       <c r="E68" t="s">
         <v>90</v>
       </c>
-      <c r="F68">
-        <v>21721653</v>
+      <c r="F68" t="s">
+        <v>94</v>
       </c>
       <c r="G68" t="s">
         <v>100</v>
@@ -2272,20 +2272,20 @@
       <c r="A69" t="s">
         <v>40</v>
       </c>
-      <c r="B69">
-        <v>33884904</v>
+      <c r="B69" t="s">
+        <v>77</v>
       </c>
       <c r="C69" t="s">
         <v>84</v>
       </c>
-      <c r="D69">
-        <v>2021</v>
+      <c r="D69" t="s">
+        <v>86</v>
       </c>
       <c r="E69" t="s">
         <v>90</v>
       </c>
-      <c r="F69">
-        <v>21721653</v>
+      <c r="F69" t="s">
+        <v>94</v>
       </c>
       <c r="G69" t="s">
         <v>100</v>
@@ -2295,20 +2295,20 @@
       <c r="A70" t="s">
         <v>7</v>
       </c>
-      <c r="B70">
-        <v>32110582</v>
+      <c r="B70" t="s">
+        <v>44</v>
       </c>
       <c r="C70" t="s">
         <v>82</v>
       </c>
-      <c r="D70">
-        <v>2021</v>
+      <c r="D70" t="s">
+        <v>86</v>
       </c>
       <c r="E70" t="s">
         <v>89</v>
       </c>
-      <c r="F70">
-        <v>13497</v>
+      <c r="F70" t="s">
+        <v>93</v>
       </c>
       <c r="G70" t="s">
         <v>101</v>
@@ -2318,20 +2318,20 @@
       <c r="A71" t="s">
         <v>41</v>
       </c>
-      <c r="B71">
-        <v>31451445</v>
+      <c r="B71" t="s">
+        <v>78</v>
       </c>
       <c r="C71" t="s">
         <v>85</v>
       </c>
-      <c r="D71">
-        <v>2023</v>
+      <c r="D71" t="s">
+        <v>88</v>
       </c>
       <c r="E71" t="s">
         <v>91</v>
       </c>
-      <c r="F71">
-        <v>21710533</v>
+      <c r="F71" t="s">
+        <v>95</v>
       </c>
       <c r="G71" t="s">
         <v>102</v>
@@ -2341,20 +2341,20 @@
       <c r="A72" t="s">
         <v>42</v>
       </c>
-      <c r="B72">
-        <v>36463324</v>
+      <c r="B72" t="s">
+        <v>79</v>
       </c>
       <c r="C72" t="s">
         <v>85</v>
       </c>
-      <c r="D72">
-        <v>2023</v>
+      <c r="D72" t="s">
+        <v>88</v>
       </c>
       <c r="E72" t="s">
         <v>92</v>
       </c>
-      <c r="F72">
-        <v>47728</v>
+      <c r="F72" t="s">
+        <v>96</v>
       </c>
       <c r="G72" t="s">
         <v>103</v>
@@ -2364,20 +2364,20 @@
       <c r="A73" t="s">
         <v>43</v>
       </c>
-      <c r="B73">
-        <v>26043372</v>
+      <c r="B73" t="s">
+        <v>80</v>
       </c>
       <c r="C73" t="s">
         <v>85</v>
       </c>
-      <c r="D73">
-        <v>2023</v>
+      <c r="D73" t="s">
+        <v>88</v>
       </c>
       <c r="E73" t="s">
         <v>92</v>
       </c>
-      <c r="F73">
-        <v>47728</v>
+      <c r="F73" t="s">
+        <v>96</v>
       </c>
       <c r="G73" t="s">
         <v>103</v>
@@ -2387,20 +2387,20 @@
       <c r="A74" t="s">
         <v>43</v>
       </c>
-      <c r="B74">
-        <v>26043372</v>
+      <c r="B74" t="s">
+        <v>80</v>
       </c>
       <c r="C74" t="s">
         <v>85</v>
       </c>
-      <c r="D74">
-        <v>2022</v>
+      <c r="D74" t="s">
+        <v>87</v>
       </c>
       <c r="E74" t="s">
         <v>92</v>
       </c>
-      <c r="F74">
-        <v>47728</v>
+      <c r="F74" t="s">
+        <v>96</v>
       </c>
       <c r="G74" t="s">
         <v>104</v>
@@ -2410,20 +2410,20 @@
       <c r="A75" t="s">
         <v>42</v>
       </c>
-      <c r="B75">
-        <v>36463324</v>
+      <c r="B75" t="s">
+        <v>79</v>
       </c>
       <c r="C75" t="s">
         <v>85</v>
       </c>
-      <c r="D75">
-        <v>2022</v>
+      <c r="D75" t="s">
+        <v>87</v>
       </c>
       <c r="E75" t="s">
         <v>92</v>
       </c>
-      <c r="F75">
-        <v>47728</v>
+      <c r="F75" t="s">
+        <v>96</v>
       </c>
       <c r="G75" t="s">
         <v>104</v>
@@ -2433,20 +2433,20 @@
       <c r="A76" t="s">
         <v>42</v>
       </c>
-      <c r="B76">
-        <v>36463324</v>
+      <c r="B76" t="s">
+        <v>79</v>
       </c>
       <c r="C76" t="s">
         <v>84</v>
       </c>
-      <c r="D76">
-        <v>2021</v>
+      <c r="D76" t="s">
+        <v>86</v>
       </c>
       <c r="E76" t="s">
         <v>92</v>
       </c>
-      <c r="F76">
-        <v>47728</v>
+      <c r="F76" t="s">
+        <v>96</v>
       </c>
       <c r="G76" t="s">
         <v>105</v>
@@ -2456,20 +2456,20 @@
       <c r="A77" t="s">
         <v>42</v>
       </c>
-      <c r="B77">
-        <v>36463324</v>
+      <c r="B77" t="s">
+        <v>79</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
       </c>
-      <c r="D77">
-        <v>2021</v>
+      <c r="D77" t="s">
+        <v>86</v>
       </c>
       <c r="E77" t="s">
         <v>92</v>
       </c>
-      <c r="F77">
-        <v>47728</v>
+      <c r="F77" t="s">
+        <v>96</v>
       </c>
       <c r="G77" t="s">
         <v>105</v>
@@ -2479,20 +2479,20 @@
       <c r="A78" t="s">
         <v>43</v>
       </c>
-      <c r="B78">
-        <v>26043372</v>
+      <c r="B78" t="s">
+        <v>80</v>
       </c>
       <c r="C78" t="s">
         <v>84</v>
       </c>
-      <c r="D78">
-        <v>2021</v>
+      <c r="D78" t="s">
+        <v>86</v>
       </c>
       <c r="E78" t="s">
         <v>92</v>
       </c>
-      <c r="F78">
-        <v>47728</v>
+      <c r="F78" t="s">
+        <v>96</v>
       </c>
       <c r="G78" t="s">
         <v>105</v>
@@ -2502,20 +2502,20 @@
       <c r="A79" t="s">
         <v>43</v>
       </c>
-      <c r="B79">
-        <v>26043372</v>
+      <c r="B79" t="s">
+        <v>80</v>
       </c>
       <c r="C79" t="s">
         <v>84</v>
       </c>
-      <c r="D79">
-        <v>2021</v>
+      <c r="D79" t="s">
+        <v>86</v>
       </c>
       <c r="E79" t="s">
         <v>92</v>
       </c>
-      <c r="F79">
-        <v>47728</v>
+      <c r="F79" t="s">
+        <v>96</v>
       </c>
       <c r="G79" t="s">
         <v>105</v>
@@ -2525,20 +2525,20 @@
       <c r="A80" t="s">
         <v>43</v>
       </c>
-      <c r="B80">
-        <v>26043372</v>
+      <c r="B80" t="s">
+        <v>80</v>
       </c>
       <c r="C80" t="s">
         <v>82</v>
       </c>
-      <c r="D80">
-        <v>2021</v>
+      <c r="D80" t="s">
+        <v>86</v>
       </c>
       <c r="E80" t="s">
         <v>92</v>
       </c>
-      <c r="F80">
-        <v>47728</v>
+      <c r="F80" t="s">
+        <v>96</v>
       </c>
       <c r="G80" t="s">
         <v>106</v>
@@ -2548,20 +2548,20 @@
       <c r="A81" t="s">
         <v>43</v>
       </c>
-      <c r="B81">
-        <v>26043372</v>
+      <c r="B81" t="s">
+        <v>80</v>
       </c>
       <c r="C81" t="s">
         <v>82</v>
       </c>
-      <c r="D81">
-        <v>2021</v>
+      <c r="D81" t="s">
+        <v>86</v>
       </c>
       <c r="E81" t="s">
         <v>92</v>
       </c>
-      <c r="F81">
-        <v>47728</v>
+      <c r="F81" t="s">
+        <v>96</v>
       </c>
       <c r="G81" t="s">
         <v>106</v>
@@ -2571,20 +2571,20 @@
       <c r="A82" t="s">
         <v>42</v>
       </c>
-      <c r="B82">
-        <v>36463324</v>
+      <c r="B82" t="s">
+        <v>79</v>
       </c>
       <c r="C82" t="s">
         <v>82</v>
       </c>
-      <c r="D82">
-        <v>2021</v>
+      <c r="D82" t="s">
+        <v>86</v>
       </c>
       <c r="E82" t="s">
         <v>92</v>
       </c>
-      <c r="F82">
-        <v>47728</v>
+      <c r="F82" t="s">
+        <v>96</v>
       </c>
       <c r="G82" t="s">
         <v>106</v>
@@ -2594,20 +2594,20 @@
       <c r="A83" t="s">
         <v>42</v>
       </c>
-      <c r="B83">
-        <v>36463324</v>
+      <c r="B83" t="s">
+        <v>79</v>
       </c>
       <c r="C83" t="s">
         <v>82</v>
       </c>
-      <c r="D83">
-        <v>2021</v>
+      <c r="D83" t="s">
+        <v>86</v>
       </c>
       <c r="E83" t="s">
         <v>92</v>
       </c>
-      <c r="F83">
-        <v>47728</v>
+      <c r="F83" t="s">
+        <v>96</v>
       </c>
       <c r="G83" t="s">
         <v>106</v>
@@ -2617,20 +2617,20 @@
       <c r="A84" t="s">
         <v>42</v>
       </c>
-      <c r="B84">
-        <v>36463324</v>
+      <c r="B84" t="s">
+        <v>79</v>
       </c>
       <c r="C84" t="s">
         <v>81</v>
       </c>
-      <c r="D84">
-        <v>2021</v>
+      <c r="D84" t="s">
+        <v>86</v>
       </c>
       <c r="E84" t="s">
         <v>92</v>
       </c>
-      <c r="F84">
-        <v>47728</v>
+      <c r="F84" t="s">
+        <v>96</v>
       </c>
       <c r="G84" t="s">
         <v>107</v>
@@ -2640,20 +2640,20 @@
       <c r="A85" t="s">
         <v>43</v>
       </c>
-      <c r="B85">
-        <v>26043372</v>
+      <c r="B85" t="s">
+        <v>80</v>
       </c>
       <c r="C85" t="s">
         <v>81</v>
       </c>
-      <c r="D85">
-        <v>2021</v>
+      <c r="D85" t="s">
+        <v>86</v>
       </c>
       <c r="E85" t="s">
         <v>92</v>
       </c>
-      <c r="F85">
-        <v>47728</v>
+      <c r="F85" t="s">
+        <v>96</v>
       </c>
       <c r="G85" t="s">
         <v>107</v>
@@ -2663,20 +2663,20 @@
       <c r="A86" t="s">
         <v>42</v>
       </c>
-      <c r="B86">
-        <v>36463324</v>
+      <c r="B86" t="s">
+        <v>79</v>
       </c>
       <c r="C86" t="s">
         <v>83</v>
       </c>
-      <c r="D86">
-        <v>2021</v>
+      <c r="D86" t="s">
+        <v>86</v>
       </c>
       <c r="E86" t="s">
         <v>92</v>
       </c>
-      <c r="F86">
-        <v>47728</v>
+      <c r="F86" t="s">
+        <v>96</v>
       </c>
       <c r="G86" t="s">
         <v>108</v>
@@ -2686,1195 +2686,22 @@
       <c r="A87" t="s">
         <v>43</v>
       </c>
-      <c r="B87">
-        <v>26043372</v>
+      <c r="B87" t="s">
+        <v>80</v>
       </c>
       <c r="C87" t="s">
         <v>83</v>
       </c>
-      <c r="D87">
-        <v>2021</v>
+      <c r="D87" t="s">
+        <v>86</v>
       </c>
       <c r="E87" t="s">
         <v>92</v>
       </c>
-      <c r="F87">
-        <v>47728</v>
+      <c r="F87" t="s">
+        <v>96</v>
       </c>
       <c r="G87" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
-      <c r="A88" t="s">
-        <v>8</v>
-      </c>
-      <c r="B88" t="s">
-        <v>44</v>
-      </c>
-      <c r="C88" t="s">
-        <v>84</v>
-      </c>
-      <c r="D88" t="s">
-        <v>86</v>
-      </c>
-      <c r="E88" t="s">
-        <v>90</v>
-      </c>
-      <c r="F88" t="s">
-        <v>93</v>
-      </c>
-      <c r="G88" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="A89" t="s">
-        <v>9</v>
-      </c>
-      <c r="B89" t="s">
-        <v>45</v>
-      </c>
-      <c r="C89" t="s">
-        <v>84</v>
-      </c>
-      <c r="D89" t="s">
-        <v>86</v>
-      </c>
-      <c r="E89" t="s">
-        <v>90</v>
-      </c>
-      <c r="F89" t="s">
-        <v>93</v>
-      </c>
-      <c r="G89" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="A90" t="s">
-        <v>10</v>
-      </c>
-      <c r="B90" t="s">
-        <v>46</v>
-      </c>
-      <c r="C90" t="s">
-        <v>84</v>
-      </c>
-      <c r="D90" t="s">
-        <v>86</v>
-      </c>
-      <c r="E90" t="s">
-        <v>90</v>
-      </c>
-      <c r="F90" t="s">
-        <v>93</v>
-      </c>
-      <c r="G90" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
-      <c r="A91" t="s">
-        <v>11</v>
-      </c>
-      <c r="B91" t="s">
-        <v>47</v>
-      </c>
-      <c r="C91" t="s">
-        <v>84</v>
-      </c>
-      <c r="D91" t="s">
-        <v>86</v>
-      </c>
-      <c r="E91" t="s">
-        <v>90</v>
-      </c>
-      <c r="F91" t="s">
-        <v>93</v>
-      </c>
-      <c r="G91" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="A92" t="s">
-        <v>12</v>
-      </c>
-      <c r="B92" t="s">
-        <v>48</v>
-      </c>
-      <c r="C92" t="s">
-        <v>84</v>
-      </c>
-      <c r="D92" t="s">
-        <v>86</v>
-      </c>
-      <c r="E92" t="s">
-        <v>90</v>
-      </c>
-      <c r="F92" t="s">
-        <v>93</v>
-      </c>
-      <c r="G92" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
-      <c r="A93" t="s">
-        <v>13</v>
-      </c>
-      <c r="B93" t="s">
-        <v>49</v>
-      </c>
-      <c r="C93" t="s">
-        <v>84</v>
-      </c>
-      <c r="D93" t="s">
-        <v>86</v>
-      </c>
-      <c r="E93" t="s">
-        <v>90</v>
-      </c>
-      <c r="F93" t="s">
-        <v>93</v>
-      </c>
-      <c r="G93" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="A94" t="s">
-        <v>14</v>
-      </c>
-      <c r="B94" t="s">
-        <v>50</v>
-      </c>
-      <c r="C94" t="s">
-        <v>84</v>
-      </c>
-      <c r="D94" t="s">
-        <v>86</v>
-      </c>
-      <c r="E94" t="s">
-        <v>90</v>
-      </c>
-      <c r="F94" t="s">
-        <v>93</v>
-      </c>
-      <c r="G94" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
-      <c r="A95" t="s">
-        <v>15</v>
-      </c>
-      <c r="B95" t="s">
-        <v>51</v>
-      </c>
-      <c r="C95" t="s">
-        <v>84</v>
-      </c>
-      <c r="D95" t="s">
-        <v>86</v>
-      </c>
-      <c r="E95" t="s">
-        <v>90</v>
-      </c>
-      <c r="F95" t="s">
-        <v>93</v>
-      </c>
-      <c r="G95" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
-      <c r="A96" t="s">
-        <v>16</v>
-      </c>
-      <c r="B96" t="s">
-        <v>52</v>
-      </c>
-      <c r="C96" t="s">
-        <v>84</v>
-      </c>
-      <c r="D96" t="s">
-        <v>86</v>
-      </c>
-      <c r="E96" t="s">
-        <v>90</v>
-      </c>
-      <c r="F96" t="s">
-        <v>93</v>
-      </c>
-      <c r="G96" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
-      <c r="A97" t="s">
-        <v>17</v>
-      </c>
-      <c r="B97" t="s">
-        <v>53</v>
-      </c>
-      <c r="C97" t="s">
-        <v>84</v>
-      </c>
-      <c r="D97" t="s">
-        <v>86</v>
-      </c>
-      <c r="E97" t="s">
-        <v>90</v>
-      </c>
-      <c r="F97" t="s">
-        <v>93</v>
-      </c>
-      <c r="G97" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
-      <c r="A98" t="s">
-        <v>18</v>
-      </c>
-      <c r="B98" t="s">
-        <v>54</v>
-      </c>
-      <c r="C98" t="s">
-        <v>84</v>
-      </c>
-      <c r="D98" t="s">
-        <v>86</v>
-      </c>
-      <c r="E98" t="s">
-        <v>90</v>
-      </c>
-      <c r="F98" t="s">
-        <v>93</v>
-      </c>
-      <c r="G98" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
-      <c r="A99" t="s">
-        <v>19</v>
-      </c>
-      <c r="B99" t="s">
-        <v>55</v>
-      </c>
-      <c r="C99" t="s">
-        <v>84</v>
-      </c>
-      <c r="D99" t="s">
-        <v>86</v>
-      </c>
-      <c r="E99" t="s">
-        <v>90</v>
-      </c>
-      <c r="F99" t="s">
-        <v>93</v>
-      </c>
-      <c r="G99" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="A100" t="s">
-        <v>20</v>
-      </c>
-      <c r="B100" t="s">
-        <v>56</v>
-      </c>
-      <c r="C100" t="s">
-        <v>84</v>
-      </c>
-      <c r="D100" t="s">
-        <v>86</v>
-      </c>
-      <c r="E100" t="s">
-        <v>90</v>
-      </c>
-      <c r="F100" t="s">
-        <v>93</v>
-      </c>
-      <c r="G100" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
-      <c r="A101" t="s">
-        <v>21</v>
-      </c>
-      <c r="B101" t="s">
-        <v>57</v>
-      </c>
-      <c r="C101" t="s">
-        <v>84</v>
-      </c>
-      <c r="D101" t="s">
-        <v>86</v>
-      </c>
-      <c r="E101" t="s">
-        <v>90</v>
-      </c>
-      <c r="F101" t="s">
-        <v>93</v>
-      </c>
-      <c r="G101" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
-      <c r="A102" t="s">
-        <v>22</v>
-      </c>
-      <c r="B102" t="s">
-        <v>58</v>
-      </c>
-      <c r="C102" t="s">
-        <v>84</v>
-      </c>
-      <c r="D102" t="s">
-        <v>86</v>
-      </c>
-      <c r="E102" t="s">
-        <v>90</v>
-      </c>
-      <c r="F102" t="s">
-        <v>93</v>
-      </c>
-      <c r="G102" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
-      <c r="A103" t="s">
-        <v>23</v>
-      </c>
-      <c r="B103" t="s">
-        <v>59</v>
-      </c>
-      <c r="C103" t="s">
-        <v>84</v>
-      </c>
-      <c r="D103" t="s">
-        <v>86</v>
-      </c>
-      <c r="E103" t="s">
-        <v>90</v>
-      </c>
-      <c r="F103" t="s">
-        <v>93</v>
-      </c>
-      <c r="G103" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
-      <c r="A104" t="s">
-        <v>24</v>
-      </c>
-      <c r="B104" t="s">
-        <v>60</v>
-      </c>
-      <c r="C104" t="s">
-        <v>84</v>
-      </c>
-      <c r="D104" t="s">
-        <v>86</v>
-      </c>
-      <c r="E104" t="s">
-        <v>90</v>
-      </c>
-      <c r="F104" t="s">
-        <v>93</v>
-      </c>
-      <c r="G104" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
-      <c r="A105" t="s">
-        <v>25</v>
-      </c>
-      <c r="B105" t="s">
-        <v>61</v>
-      </c>
-      <c r="C105" t="s">
-        <v>84</v>
-      </c>
-      <c r="D105" t="s">
-        <v>86</v>
-      </c>
-      <c r="E105" t="s">
-        <v>90</v>
-      </c>
-      <c r="F105" t="s">
-        <v>93</v>
-      </c>
-      <c r="G105" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
-      <c r="A106" t="s">
-        <v>26</v>
-      </c>
-      <c r="B106" t="s">
-        <v>62</v>
-      </c>
-      <c r="C106" t="s">
-        <v>84</v>
-      </c>
-      <c r="D106" t="s">
-        <v>86</v>
-      </c>
-      <c r="E106" t="s">
-        <v>90</v>
-      </c>
-      <c r="F106" t="s">
-        <v>93</v>
-      </c>
-      <c r="G106" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
-      <c r="A107" t="s">
-        <v>27</v>
-      </c>
-      <c r="B107" t="s">
-        <v>63</v>
-      </c>
-      <c r="C107" t="s">
-        <v>84</v>
-      </c>
-      <c r="D107" t="s">
-        <v>86</v>
-      </c>
-      <c r="E107" t="s">
-        <v>90</v>
-      </c>
-      <c r="F107" t="s">
-        <v>93</v>
-      </c>
-      <c r="G107" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
-      <c r="A108" t="s">
-        <v>28</v>
-      </c>
-      <c r="B108" t="s">
-        <v>64</v>
-      </c>
-      <c r="C108" t="s">
-        <v>84</v>
-      </c>
-      <c r="D108" t="s">
-        <v>86</v>
-      </c>
-      <c r="E108" t="s">
-        <v>90</v>
-      </c>
-      <c r="F108" t="s">
-        <v>93</v>
-      </c>
-      <c r="G108" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
-      <c r="A109" t="s">
-        <v>29</v>
-      </c>
-      <c r="B109" t="s">
-        <v>65</v>
-      </c>
-      <c r="C109" t="s">
-        <v>84</v>
-      </c>
-      <c r="D109" t="s">
-        <v>86</v>
-      </c>
-      <c r="E109" t="s">
-        <v>90</v>
-      </c>
-      <c r="F109" t="s">
-        <v>93</v>
-      </c>
-      <c r="G109" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
-      <c r="A110" t="s">
-        <v>30</v>
-      </c>
-      <c r="B110" t="s">
-        <v>66</v>
-      </c>
-      <c r="C110" t="s">
-        <v>84</v>
-      </c>
-      <c r="D110" t="s">
-        <v>86</v>
-      </c>
-      <c r="E110" t="s">
-        <v>90</v>
-      </c>
-      <c r="F110" t="s">
-        <v>93</v>
-      </c>
-      <c r="G110" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
-      <c r="A111" t="s">
-        <v>31</v>
-      </c>
-      <c r="B111" t="s">
-        <v>67</v>
-      </c>
-      <c r="C111" t="s">
-        <v>84</v>
-      </c>
-      <c r="D111" t="s">
-        <v>86</v>
-      </c>
-      <c r="E111" t="s">
-        <v>90</v>
-      </c>
-      <c r="F111" t="s">
-        <v>93</v>
-      </c>
-      <c r="G111" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
-      <c r="A112" t="s">
-        <v>32</v>
-      </c>
-      <c r="B112" t="s">
-        <v>68</v>
-      </c>
-      <c r="C112" t="s">
-        <v>84</v>
-      </c>
-      <c r="D112" t="s">
-        <v>86</v>
-      </c>
-      <c r="E112" t="s">
-        <v>90</v>
-      </c>
-      <c r="F112" t="s">
-        <v>93</v>
-      </c>
-      <c r="G112" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
-      <c r="A113" t="s">
-        <v>33</v>
-      </c>
-      <c r="B113" t="s">
-        <v>69</v>
-      </c>
-      <c r="C113" t="s">
-        <v>84</v>
-      </c>
-      <c r="D113" t="s">
-        <v>86</v>
-      </c>
-      <c r="E113" t="s">
-        <v>90</v>
-      </c>
-      <c r="F113" t="s">
-        <v>93</v>
-      </c>
-      <c r="G113" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
-      <c r="A114" t="s">
-        <v>34</v>
-      </c>
-      <c r="B114" t="s">
-        <v>70</v>
-      </c>
-      <c r="C114" t="s">
-        <v>84</v>
-      </c>
-      <c r="D114" t="s">
-        <v>86</v>
-      </c>
-      <c r="E114" t="s">
-        <v>90</v>
-      </c>
-      <c r="F114" t="s">
-        <v>93</v>
-      </c>
-      <c r="G114" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
-      <c r="A115" t="s">
-        <v>35</v>
-      </c>
-      <c r="B115" t="s">
-        <v>71</v>
-      </c>
-      <c r="C115" t="s">
-        <v>84</v>
-      </c>
-      <c r="D115" t="s">
-        <v>86</v>
-      </c>
-      <c r="E115" t="s">
-        <v>90</v>
-      </c>
-      <c r="F115" t="s">
-        <v>93</v>
-      </c>
-      <c r="G115" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
-      <c r="A116" t="s">
-        <v>36</v>
-      </c>
-      <c r="B116" t="s">
-        <v>72</v>
-      </c>
-      <c r="C116" t="s">
-        <v>84</v>
-      </c>
-      <c r="D116" t="s">
-        <v>86</v>
-      </c>
-      <c r="E116" t="s">
-        <v>90</v>
-      </c>
-      <c r="F116" t="s">
-        <v>93</v>
-      </c>
-      <c r="G116" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
-      <c r="A117" t="s">
-        <v>37</v>
-      </c>
-      <c r="B117" t="s">
-        <v>73</v>
-      </c>
-      <c r="C117" t="s">
-        <v>84</v>
-      </c>
-      <c r="D117" t="s">
-        <v>86</v>
-      </c>
-      <c r="E117" t="s">
-        <v>90</v>
-      </c>
-      <c r="F117" t="s">
-        <v>93</v>
-      </c>
-      <c r="G117" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
-      <c r="A118" t="s">
-        <v>38</v>
-      </c>
-      <c r="B118" t="s">
-        <v>74</v>
-      </c>
-      <c r="C118" t="s">
-        <v>84</v>
-      </c>
-      <c r="D118" t="s">
-        <v>86</v>
-      </c>
-      <c r="E118" t="s">
-        <v>90</v>
-      </c>
-      <c r="F118" t="s">
-        <v>93</v>
-      </c>
-      <c r="G118" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
-      <c r="A119" t="s">
-        <v>39</v>
-      </c>
-      <c r="B119" t="s">
-        <v>75</v>
-      </c>
-      <c r="C119" t="s">
-        <v>84</v>
-      </c>
-      <c r="D119" t="s">
-        <v>86</v>
-      </c>
-      <c r="E119" t="s">
-        <v>90</v>
-      </c>
-      <c r="F119" t="s">
-        <v>93</v>
-      </c>
-      <c r="G119" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
-      <c r="A120" t="s">
-        <v>40</v>
-      </c>
-      <c r="B120" t="s">
-        <v>76</v>
-      </c>
-      <c r="C120" t="s">
-        <v>84</v>
-      </c>
-      <c r="D120" t="s">
-        <v>86</v>
-      </c>
-      <c r="E120" t="s">
-        <v>90</v>
-      </c>
-      <c r="F120" t="s">
-        <v>93</v>
-      </c>
-      <c r="G120" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
-      <c r="A121" t="s">
-        <v>7</v>
-      </c>
-      <c r="B121" t="s">
-        <v>77</v>
-      </c>
-      <c r="C121" t="s">
-        <v>82</v>
-      </c>
-      <c r="D121" t="s">
-        <v>86</v>
-      </c>
-      <c r="E121" t="s">
-        <v>89</v>
-      </c>
-      <c r="F121" t="s">
-        <v>94</v>
-      </c>
-      <c r="G121" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
-      <c r="A122" t="s">
-        <v>41</v>
-      </c>
-      <c r="B122" t="s">
-        <v>78</v>
-      </c>
-      <c r="C122" t="s">
-        <v>85</v>
-      </c>
-      <c r="D122" t="s">
-        <v>87</v>
-      </c>
-      <c r="E122" t="s">
-        <v>91</v>
-      </c>
-      <c r="F122" t="s">
-        <v>95</v>
-      </c>
-      <c r="G122" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
-      <c r="A123" t="s">
-        <v>42</v>
-      </c>
-      <c r="B123" t="s">
-        <v>79</v>
-      </c>
-      <c r="C123" t="s">
-        <v>85</v>
-      </c>
-      <c r="D123" t="s">
-        <v>87</v>
-      </c>
-      <c r="E123" t="s">
-        <v>92</v>
-      </c>
-      <c r="F123" t="s">
-        <v>96</v>
-      </c>
-      <c r="G123" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
-      <c r="A124" t="s">
-        <v>43</v>
-      </c>
-      <c r="B124" t="s">
-        <v>80</v>
-      </c>
-      <c r="C124" t="s">
-        <v>85</v>
-      </c>
-      <c r="D124" t="s">
-        <v>87</v>
-      </c>
-      <c r="E124" t="s">
-        <v>92</v>
-      </c>
-      <c r="F124" t="s">
-        <v>96</v>
-      </c>
-      <c r="G124" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
-      <c r="A125" t="s">
-        <v>43</v>
-      </c>
-      <c r="B125" t="s">
-        <v>80</v>
-      </c>
-      <c r="C125" t="s">
-        <v>85</v>
-      </c>
-      <c r="D125" t="s">
-        <v>88</v>
-      </c>
-      <c r="E125" t="s">
-        <v>92</v>
-      </c>
-      <c r="F125" t="s">
-        <v>96</v>
-      </c>
-      <c r="G125" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
-      <c r="A126" t="s">
-        <v>42</v>
-      </c>
-      <c r="B126" t="s">
-        <v>79</v>
-      </c>
-      <c r="C126" t="s">
-        <v>85</v>
-      </c>
-      <c r="D126" t="s">
-        <v>88</v>
-      </c>
-      <c r="E126" t="s">
-        <v>92</v>
-      </c>
-      <c r="F126" t="s">
-        <v>96</v>
-      </c>
-      <c r="G126" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7">
-      <c r="A127" t="s">
-        <v>42</v>
-      </c>
-      <c r="B127" t="s">
-        <v>79</v>
-      </c>
-      <c r="C127" t="s">
-        <v>84</v>
-      </c>
-      <c r="D127" t="s">
-        <v>86</v>
-      </c>
-      <c r="E127" t="s">
-        <v>92</v>
-      </c>
-      <c r="F127" t="s">
-        <v>96</v>
-      </c>
-      <c r="G127" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7">
-      <c r="A128" t="s">
-        <v>42</v>
-      </c>
-      <c r="B128" t="s">
-        <v>79</v>
-      </c>
-      <c r="C128" t="s">
-        <v>84</v>
-      </c>
-      <c r="D128" t="s">
-        <v>86</v>
-      </c>
-      <c r="E128" t="s">
-        <v>92</v>
-      </c>
-      <c r="F128" t="s">
-        <v>96</v>
-      </c>
-      <c r="G128" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7">
-      <c r="A129" t="s">
-        <v>43</v>
-      </c>
-      <c r="B129" t="s">
-        <v>80</v>
-      </c>
-      <c r="C129" t="s">
-        <v>84</v>
-      </c>
-      <c r="D129" t="s">
-        <v>86</v>
-      </c>
-      <c r="E129" t="s">
-        <v>92</v>
-      </c>
-      <c r="F129" t="s">
-        <v>96</v>
-      </c>
-      <c r="G129" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7">
-      <c r="A130" t="s">
-        <v>43</v>
-      </c>
-      <c r="B130" t="s">
-        <v>80</v>
-      </c>
-      <c r="C130" t="s">
-        <v>84</v>
-      </c>
-      <c r="D130" t="s">
-        <v>86</v>
-      </c>
-      <c r="E130" t="s">
-        <v>92</v>
-      </c>
-      <c r="F130" t="s">
-        <v>96</v>
-      </c>
-      <c r="G130" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
-      <c r="A131" t="s">
-        <v>43</v>
-      </c>
-      <c r="B131" t="s">
-        <v>80</v>
-      </c>
-      <c r="C131" t="s">
-        <v>82</v>
-      </c>
-      <c r="D131" t="s">
-        <v>86</v>
-      </c>
-      <c r="E131" t="s">
-        <v>92</v>
-      </c>
-      <c r="F131" t="s">
-        <v>96</v>
-      </c>
-      <c r="G131" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7">
-      <c r="A132" t="s">
-        <v>43</v>
-      </c>
-      <c r="B132" t="s">
-        <v>80</v>
-      </c>
-      <c r="C132" t="s">
-        <v>82</v>
-      </c>
-      <c r="D132" t="s">
-        <v>86</v>
-      </c>
-      <c r="E132" t="s">
-        <v>92</v>
-      </c>
-      <c r="F132" t="s">
-        <v>96</v>
-      </c>
-      <c r="G132" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7">
-      <c r="A133" t="s">
-        <v>42</v>
-      </c>
-      <c r="B133" t="s">
-        <v>79</v>
-      </c>
-      <c r="C133" t="s">
-        <v>82</v>
-      </c>
-      <c r="D133" t="s">
-        <v>86</v>
-      </c>
-      <c r="E133" t="s">
-        <v>92</v>
-      </c>
-      <c r="F133" t="s">
-        <v>96</v>
-      </c>
-      <c r="G133" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7">
-      <c r="A134" t="s">
-        <v>42</v>
-      </c>
-      <c r="B134" t="s">
-        <v>79</v>
-      </c>
-      <c r="C134" t="s">
-        <v>82</v>
-      </c>
-      <c r="D134" t="s">
-        <v>86</v>
-      </c>
-      <c r="E134" t="s">
-        <v>92</v>
-      </c>
-      <c r="F134" t="s">
-        <v>96</v>
-      </c>
-      <c r="G134" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7">
-      <c r="A135" t="s">
-        <v>42</v>
-      </c>
-      <c r="B135" t="s">
-        <v>79</v>
-      </c>
-      <c r="C135" t="s">
-        <v>81</v>
-      </c>
-      <c r="D135" t="s">
-        <v>86</v>
-      </c>
-      <c r="E135" t="s">
-        <v>92</v>
-      </c>
-      <c r="F135" t="s">
-        <v>96</v>
-      </c>
-      <c r="G135" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7">
-      <c r="A136" t="s">
-        <v>43</v>
-      </c>
-      <c r="B136" t="s">
-        <v>80</v>
-      </c>
-      <c r="C136" t="s">
-        <v>81</v>
-      </c>
-      <c r="D136" t="s">
-        <v>86</v>
-      </c>
-      <c r="E136" t="s">
-        <v>92</v>
-      </c>
-      <c r="F136" t="s">
-        <v>96</v>
-      </c>
-      <c r="G136" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7">
-      <c r="A137" t="s">
-        <v>42</v>
-      </c>
-      <c r="B137" t="s">
-        <v>79</v>
-      </c>
-      <c r="C137" t="s">
-        <v>83</v>
-      </c>
-      <c r="D137" t="s">
-        <v>86</v>
-      </c>
-      <c r="E137" t="s">
-        <v>92</v>
-      </c>
-      <c r="F137" t="s">
-        <v>96</v>
-      </c>
-      <c r="G137" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7">
-      <c r="A138" t="s">
-        <v>43</v>
-      </c>
-      <c r="B138" t="s">
-        <v>80</v>
-      </c>
-      <c r="C138" t="s">
-        <v>83</v>
-      </c>
-      <c r="D138" t="s">
-        <v>86</v>
-      </c>
-      <c r="E138" t="s">
-        <v>92</v>
-      </c>
-      <c r="F138" t="s">
-        <v>96</v>
-      </c>
-      <c r="G138" t="s">
         <v>108</v>
       </c>
     </row>

--- a/data/excel_tables/2.2_other_party_orgs_info.xlsx
+++ b/data/excel_tables/2.2_other_party_orgs_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="118">
   <si>
     <t>other_party_org_name</t>
   </si>
@@ -148,6 +148,9 @@
     <t>Смілянська міська організація Партії Зелених України</t>
   </si>
   <si>
+    <t>Підприємство Набат</t>
+  </si>
+  <si>
     <t>32110582</t>
   </si>
   <si>
@@ -259,6 +262,9 @@
     <t>26043372</t>
   </si>
   <si>
+    <t>30699474</t>
+  </si>
+  <si>
     <t>3 квартал</t>
   </si>
   <si>
@@ -295,6 +301,9 @@
     <t>ПАРТІЯ ЗЕЛЕНИХ УКРАЇНИ</t>
   </si>
   <si>
+    <t>СОЮЗ АНАРХІСТІВ УКРАЇНИ</t>
+  </si>
+  <si>
     <t>00013497</t>
   </si>
   <si>
@@ -307,6 +316,9 @@
     <t>00047728</t>
   </si>
   <si>
+    <t>26343565</t>
+  </si>
+  <si>
     <t>e1fad670-81bc-11ec-bdbe-3bf689b2cb33</t>
   </si>
   <si>
@@ -341,6 +353,21 @@
   </si>
   <si>
     <t>c5f838d0-0182-11ef-95c4-e7bfad33aba2</t>
+  </si>
+  <si>
+    <t>1da92b80-02ef-11ef-ae0a-87878d7061af</t>
+  </si>
+  <si>
+    <t>a8224490-0380-11ef-bce9-638f8e04ad34</t>
+  </si>
+  <si>
+    <t>a2d97000-03ce-11ef-bce9-638f8e04ad34</t>
+  </si>
+  <si>
+    <t>8b11f3c0-03dd-11ef-938a-5514903835ea</t>
+  </si>
+  <si>
+    <t>22527c80-03e5-11ef-a826-5536b50ce648</t>
   </si>
 </sst>
 </file>
@@ -698,7 +725,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G87"/>
+  <dimension ref="A1:G92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -732,22 +759,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -755,22 +782,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -778,22 +805,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -801,22 +828,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G5" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -824,22 +851,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G6" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -847,22 +874,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -870,22 +897,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G8" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -893,22 +920,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G9" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -916,22 +943,22 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G10" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -939,22 +966,22 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F11" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G11" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -962,22 +989,22 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F12" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G12" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -985,22 +1012,22 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D13" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F13" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G13" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1008,22 +1035,22 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E14" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F14" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G14" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1031,22 +1058,22 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F15" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G15" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1054,22 +1081,22 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D16" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E16" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F16" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G16" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1077,22 +1104,22 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E17" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F17" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G17" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1100,22 +1127,22 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E18" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F18" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G18" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1123,22 +1150,22 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E19" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F19" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G19" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1146,22 +1173,22 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E20" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F20" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G20" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1169,22 +1196,22 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D21" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E21" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F21" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G21" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1192,22 +1219,22 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D22" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E22" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F22" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G22" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1215,22 +1242,22 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E23" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F23" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G23" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1238,22 +1265,22 @@
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D24" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E24" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F24" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G24" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1261,22 +1288,22 @@
         <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D25" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E25" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F25" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G25" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1284,22 +1311,22 @@
         <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C26" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D26" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E26" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F26" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G26" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1307,22 +1334,22 @@
         <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D27" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E27" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F27" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G27" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1330,22 +1357,22 @@
         <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D28" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E28" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F28" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G28" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1353,22 +1380,22 @@
         <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C29" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D29" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E29" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F29" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G29" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1376,22 +1403,22 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C30" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D30" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E30" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F30" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G30" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1399,22 +1426,22 @@
         <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C31" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D31" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E31" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F31" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G31" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1422,22 +1449,22 @@
         <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C32" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D32" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E32" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F32" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G32" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1445,22 +1472,22 @@
         <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C33" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D33" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E33" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F33" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G33" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1468,22 +1495,22 @@
         <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D34" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E34" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F34" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G34" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1491,22 +1518,22 @@
         <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C35" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D35" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E35" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F35" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G35" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1514,22 +1541,22 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D36" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E36" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F36" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G36" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1537,22 +1564,22 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C37" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D37" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E37" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F37" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G37" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1560,22 +1587,22 @@
         <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C38" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D38" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E38" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F38" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G38" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1583,22 +1610,22 @@
         <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C39" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D39" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E39" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F39" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G39" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1606,22 +1633,22 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C40" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D40" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E40" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F40" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G40" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1629,22 +1656,22 @@
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C41" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D41" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E41" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F41" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G41" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1652,22 +1679,22 @@
         <v>13</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C42" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D42" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E42" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F42" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G42" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1675,22 +1702,22 @@
         <v>14</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C43" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D43" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E43" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F43" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G43" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1698,22 +1725,22 @@
         <v>15</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C44" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D44" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E44" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F44" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G44" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1721,22 +1748,22 @@
         <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C45" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D45" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E45" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F45" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G45" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1744,22 +1771,22 @@
         <v>17</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C46" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D46" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E46" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F46" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G46" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1767,22 +1794,22 @@
         <v>18</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C47" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D47" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E47" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F47" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G47" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1790,22 +1817,22 @@
         <v>19</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C48" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D48" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E48" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F48" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G48" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1813,22 +1840,22 @@
         <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C49" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D49" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E49" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F49" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G49" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1836,22 +1863,22 @@
         <v>21</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C50" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D50" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E50" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F50" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G50" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1859,22 +1886,22 @@
         <v>22</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C51" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D51" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E51" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F51" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G51" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1882,22 +1909,22 @@
         <v>23</v>
       </c>
       <c r="B52" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C52" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D52" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E52" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F52" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G52" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1905,22 +1932,22 @@
         <v>24</v>
       </c>
       <c r="B53" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C53" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E53" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F53" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G53" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1928,22 +1955,22 @@
         <v>25</v>
       </c>
       <c r="B54" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C54" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D54" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E54" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F54" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G54" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1951,22 +1978,22 @@
         <v>26</v>
       </c>
       <c r="B55" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C55" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D55" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E55" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F55" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G55" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1974,22 +2001,22 @@
         <v>27</v>
       </c>
       <c r="B56" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C56" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D56" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E56" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F56" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G56" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1997,22 +2024,22 @@
         <v>28</v>
       </c>
       <c r="B57" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C57" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D57" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E57" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F57" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G57" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2020,22 +2047,22 @@
         <v>29</v>
       </c>
       <c r="B58" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C58" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D58" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E58" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F58" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G58" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2043,22 +2070,22 @@
         <v>30</v>
       </c>
       <c r="B59" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C59" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D59" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E59" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F59" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G59" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2066,22 +2093,22 @@
         <v>31</v>
       </c>
       <c r="B60" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C60" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D60" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E60" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F60" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G60" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2089,22 +2116,22 @@
         <v>32</v>
       </c>
       <c r="B61" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C61" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D61" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E61" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F61" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G61" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2112,22 +2139,22 @@
         <v>33</v>
       </c>
       <c r="B62" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C62" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D62" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E62" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F62" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G62" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2135,22 +2162,22 @@
         <v>34</v>
       </c>
       <c r="B63" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C63" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D63" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E63" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F63" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G63" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2158,22 +2185,22 @@
         <v>35</v>
       </c>
       <c r="B64" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C64" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D64" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E64" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F64" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G64" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2181,22 +2208,22 @@
         <v>36</v>
       </c>
       <c r="B65" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C65" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D65" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E65" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F65" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G65" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2204,22 +2231,22 @@
         <v>37</v>
       </c>
       <c r="B66" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C66" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D66" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E66" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F66" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G66" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2227,22 +2254,22 @@
         <v>38</v>
       </c>
       <c r="B67" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C67" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D67" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E67" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F67" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G67" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2250,22 +2277,22 @@
         <v>39</v>
       </c>
       <c r="B68" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C68" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D68" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E68" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F68" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G68" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2273,22 +2300,22 @@
         <v>40</v>
       </c>
       <c r="B69" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C69" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D69" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E69" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F69" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G69" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2296,22 +2323,22 @@
         <v>7</v>
       </c>
       <c r="B70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C70" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D70" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E70" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F70" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G70" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2319,22 +2346,22 @@
         <v>41</v>
       </c>
       <c r="B71" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C71" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D71" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E71" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F71" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G71" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2342,22 +2369,22 @@
         <v>42</v>
       </c>
       <c r="B72" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C72" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D72" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E72" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F72" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G72" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2365,22 +2392,22 @@
         <v>43</v>
       </c>
       <c r="B73" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C73" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D73" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E73" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F73" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G73" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2388,22 +2415,22 @@
         <v>43</v>
       </c>
       <c r="B74" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C74" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D74" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E74" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F74" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G74" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2411,22 +2438,22 @@
         <v>42</v>
       </c>
       <c r="B75" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C75" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D75" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E75" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F75" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G75" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2434,22 +2461,22 @@
         <v>42</v>
       </c>
       <c r="B76" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C76" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D76" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E76" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F76" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G76" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2457,22 +2484,22 @@
         <v>42</v>
       </c>
       <c r="B77" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D77" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E77" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F77" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G77" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2480,22 +2507,22 @@
         <v>43</v>
       </c>
       <c r="B78" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D78" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E78" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F78" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G78" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2503,22 +2530,22 @@
         <v>43</v>
       </c>
       <c r="B79" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D79" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E79" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F79" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G79" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2526,22 +2553,22 @@
         <v>43</v>
       </c>
       <c r="B80" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C80" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D80" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E80" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F80" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G80" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2549,22 +2576,22 @@
         <v>43</v>
       </c>
       <c r="B81" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C81" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D81" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E81" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F81" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G81" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2572,22 +2599,22 @@
         <v>42</v>
       </c>
       <c r="B82" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C82" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D82" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E82" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F82" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G82" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2595,22 +2622,22 @@
         <v>42</v>
       </c>
       <c r="B83" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C83" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D83" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E83" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F83" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G83" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2618,22 +2645,22 @@
         <v>42</v>
       </c>
       <c r="B84" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C84" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D84" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E84" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F84" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G84" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2641,22 +2668,22 @@
         <v>43</v>
       </c>
       <c r="B85" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C85" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D85" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E85" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F85" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G85" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2664,22 +2691,22 @@
         <v>42</v>
       </c>
       <c r="B86" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C86" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D86" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E86" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F86" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G86" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2687,22 +2714,137 @@
         <v>43</v>
       </c>
       <c r="B87" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C87" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D87" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E87" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F87" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G87" t="s">
-        <v>108</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" t="s">
+        <v>41</v>
+      </c>
+      <c r="B88" t="s">
+        <v>79</v>
+      </c>
+      <c r="C88" t="s">
+        <v>87</v>
+      </c>
+      <c r="D88" t="s">
+        <v>88</v>
+      </c>
+      <c r="E88" t="s">
+        <v>93</v>
+      </c>
+      <c r="F88" t="s">
+        <v>98</v>
+      </c>
+      <c r="G88" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" t="s">
+        <v>41</v>
+      </c>
+      <c r="B89" t="s">
+        <v>79</v>
+      </c>
+      <c r="C89" t="s">
+        <v>87</v>
+      </c>
+      <c r="D89" t="s">
+        <v>89</v>
+      </c>
+      <c r="E89" t="s">
+        <v>93</v>
+      </c>
+      <c r="F89" t="s">
+        <v>98</v>
+      </c>
+      <c r="G89" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" t="s">
+        <v>44</v>
+      </c>
+      <c r="B90" t="s">
+        <v>82</v>
+      </c>
+      <c r="C90" t="s">
+        <v>87</v>
+      </c>
+      <c r="D90" t="s">
+        <v>90</v>
+      </c>
+      <c r="E90" t="s">
+        <v>95</v>
+      </c>
+      <c r="F90" t="s">
+        <v>100</v>
+      </c>
+      <c r="G90" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" t="s">
+        <v>44</v>
+      </c>
+      <c r="B91" t="s">
+        <v>82</v>
+      </c>
+      <c r="C91" t="s">
+        <v>87</v>
+      </c>
+      <c r="D91" t="s">
+        <v>88</v>
+      </c>
+      <c r="E91" t="s">
+        <v>95</v>
+      </c>
+      <c r="F91" t="s">
+        <v>100</v>
+      </c>
+      <c r="G91" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" t="s">
+        <v>44</v>
+      </c>
+      <c r="B92" t="s">
+        <v>82</v>
+      </c>
+      <c r="C92" t="s">
+        <v>87</v>
+      </c>
+      <c r="D92" t="s">
+        <v>89</v>
+      </c>
+      <c r="E92" t="s">
+        <v>95</v>
+      </c>
+      <c r="F92" t="s">
+        <v>100</v>
+      </c>
+      <c r="G92" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/data/excel_tables/2.2_other_party_orgs_info.xlsx
+++ b/data/excel_tables/2.2_other_party_orgs_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="120">
   <si>
     <t>other_party_org_name</t>
   </si>
@@ -289,6 +289,9 @@
     <t>2023</t>
   </si>
   <si>
+    <t>2024</t>
+  </si>
+  <si>
     <t>ПРОГРЕСИВНА СОЦІАЛІСТИЧНА ПАРТІЯ УКРАЇНИ</t>
   </si>
   <si>
@@ -368,6 +371,9 @@
   </si>
   <si>
     <t>22527c80-03e5-11ef-a826-5536b50ce648</t>
+  </si>
+  <si>
+    <t>5ee7c530-062c-11ef-938a-5514903835ea</t>
   </si>
 </sst>
 </file>
@@ -725,7 +731,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G92"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -768,13 +774,13 @@
         <v>88</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -791,13 +797,13 @@
         <v>89</v>
       </c>
       <c r="E3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -814,13 +820,13 @@
         <v>89</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -837,13 +843,13 @@
         <v>89</v>
       </c>
       <c r="E5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -860,13 +866,13 @@
         <v>89</v>
       </c>
       <c r="E6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -883,13 +889,13 @@
         <v>89</v>
       </c>
       <c r="E7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -906,13 +912,13 @@
         <v>89</v>
       </c>
       <c r="E8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -929,13 +935,13 @@
         <v>89</v>
       </c>
       <c r="E9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -952,13 +958,13 @@
         <v>89</v>
       </c>
       <c r="E10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -975,13 +981,13 @@
         <v>89</v>
       </c>
       <c r="E11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -998,13 +1004,13 @@
         <v>89</v>
       </c>
       <c r="E12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1021,13 +1027,13 @@
         <v>89</v>
       </c>
       <c r="E13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1044,13 +1050,13 @@
         <v>89</v>
       </c>
       <c r="E14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1067,13 +1073,13 @@
         <v>89</v>
       </c>
       <c r="E15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1090,13 +1096,13 @@
         <v>89</v>
       </c>
       <c r="E16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1113,13 +1119,13 @@
         <v>89</v>
       </c>
       <c r="E17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1136,13 +1142,13 @@
         <v>89</v>
       </c>
       <c r="E18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1159,13 +1165,13 @@
         <v>89</v>
       </c>
       <c r="E19" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1182,13 +1188,13 @@
         <v>89</v>
       </c>
       <c r="E20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1205,13 +1211,13 @@
         <v>89</v>
       </c>
       <c r="E21" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1228,13 +1234,13 @@
         <v>89</v>
       </c>
       <c r="E22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F22" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G22" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1251,13 +1257,13 @@
         <v>89</v>
       </c>
       <c r="E23" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F23" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1274,13 +1280,13 @@
         <v>89</v>
       </c>
       <c r="E24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1297,13 +1303,13 @@
         <v>89</v>
       </c>
       <c r="E25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F25" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1320,13 +1326,13 @@
         <v>89</v>
       </c>
       <c r="E26" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F26" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G26" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1343,13 +1349,13 @@
         <v>89</v>
       </c>
       <c r="E27" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F27" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1366,13 +1372,13 @@
         <v>89</v>
       </c>
       <c r="E28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1389,13 +1395,13 @@
         <v>89</v>
       </c>
       <c r="E29" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F29" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1412,13 +1418,13 @@
         <v>89</v>
       </c>
       <c r="E30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F30" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G30" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1435,13 +1441,13 @@
         <v>89</v>
       </c>
       <c r="E31" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F31" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G31" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1458,13 +1464,13 @@
         <v>89</v>
       </c>
       <c r="E32" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F32" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1481,13 +1487,13 @@
         <v>89</v>
       </c>
       <c r="E33" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F33" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G33" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1504,13 +1510,13 @@
         <v>89</v>
       </c>
       <c r="E34" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F34" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G34" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1527,13 +1533,13 @@
         <v>89</v>
       </c>
       <c r="E35" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F35" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G35" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1550,13 +1556,13 @@
         <v>88</v>
       </c>
       <c r="E36" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F36" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G36" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1573,13 +1579,13 @@
         <v>88</v>
       </c>
       <c r="E37" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F37" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G37" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1596,13 +1602,13 @@
         <v>88</v>
       </c>
       <c r="E38" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F38" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G38" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1619,13 +1625,13 @@
         <v>88</v>
       </c>
       <c r="E39" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F39" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G39" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1642,13 +1648,13 @@
         <v>88</v>
       </c>
       <c r="E40" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F40" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G40" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1665,13 +1671,13 @@
         <v>88</v>
       </c>
       <c r="E41" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F41" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G41" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1688,13 +1694,13 @@
         <v>88</v>
       </c>
       <c r="E42" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F42" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G42" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1711,13 +1717,13 @@
         <v>88</v>
       </c>
       <c r="E43" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F43" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G43" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1734,13 +1740,13 @@
         <v>88</v>
       </c>
       <c r="E44" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F44" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G44" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1757,13 +1763,13 @@
         <v>88</v>
       </c>
       <c r="E45" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F45" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G45" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1780,13 +1786,13 @@
         <v>88</v>
       </c>
       <c r="E46" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F46" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G46" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1803,13 +1809,13 @@
         <v>88</v>
       </c>
       <c r="E47" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F47" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G47" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1826,13 +1832,13 @@
         <v>88</v>
       </c>
       <c r="E48" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F48" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G48" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1849,13 +1855,13 @@
         <v>88</v>
       </c>
       <c r="E49" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F49" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G49" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1872,13 +1878,13 @@
         <v>88</v>
       </c>
       <c r="E50" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F50" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G50" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1895,13 +1901,13 @@
         <v>88</v>
       </c>
       <c r="E51" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F51" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G51" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1918,13 +1924,13 @@
         <v>88</v>
       </c>
       <c r="E52" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F52" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G52" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1941,13 +1947,13 @@
         <v>88</v>
       </c>
       <c r="E53" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F53" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G53" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1964,13 +1970,13 @@
         <v>88</v>
       </c>
       <c r="E54" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F54" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G54" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1987,13 +1993,13 @@
         <v>88</v>
       </c>
       <c r="E55" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F55" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G55" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2010,13 +2016,13 @@
         <v>88</v>
       </c>
       <c r="E56" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F56" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G56" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2033,13 +2039,13 @@
         <v>88</v>
       </c>
       <c r="E57" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F57" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G57" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2056,13 +2062,13 @@
         <v>88</v>
       </c>
       <c r="E58" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F58" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G58" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2079,13 +2085,13 @@
         <v>88</v>
       </c>
       <c r="E59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F59" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G59" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2102,13 +2108,13 @@
         <v>88</v>
       </c>
       <c r="E60" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F60" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G60" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2125,13 +2131,13 @@
         <v>88</v>
       </c>
       <c r="E61" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F61" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G61" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2148,13 +2154,13 @@
         <v>88</v>
       </c>
       <c r="E62" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F62" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G62" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2171,13 +2177,13 @@
         <v>88</v>
       </c>
       <c r="E63" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F63" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G63" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2194,13 +2200,13 @@
         <v>88</v>
       </c>
       <c r="E64" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F64" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G64" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2217,13 +2223,13 @@
         <v>88</v>
       </c>
       <c r="E65" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F65" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G65" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2240,13 +2246,13 @@
         <v>88</v>
       </c>
       <c r="E66" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F66" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G66" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2263,13 +2269,13 @@
         <v>88</v>
       </c>
       <c r="E67" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F67" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G67" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2286,13 +2292,13 @@
         <v>88</v>
       </c>
       <c r="E68" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F68" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G68" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2309,13 +2315,13 @@
         <v>88</v>
       </c>
       <c r="E69" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F69" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G69" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2332,13 +2338,13 @@
         <v>88</v>
       </c>
       <c r="E70" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F70" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G70" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2355,13 +2361,13 @@
         <v>90</v>
       </c>
       <c r="E71" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F71" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G71" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2378,13 +2384,13 @@
         <v>90</v>
       </c>
       <c r="E72" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F72" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G72" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2401,13 +2407,13 @@
         <v>90</v>
       </c>
       <c r="E73" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F73" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G73" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2424,13 +2430,13 @@
         <v>89</v>
       </c>
       <c r="E74" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F74" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G74" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2447,13 +2453,13 @@
         <v>89</v>
       </c>
       <c r="E75" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F75" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G75" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2470,13 +2476,13 @@
         <v>88</v>
       </c>
       <c r="E76" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F76" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G76" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2493,13 +2499,13 @@
         <v>88</v>
       </c>
       <c r="E77" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F77" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G77" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2516,13 +2522,13 @@
         <v>88</v>
       </c>
       <c r="E78" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F78" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G78" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2539,13 +2545,13 @@
         <v>88</v>
       </c>
       <c r="E79" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F79" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G79" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2562,13 +2568,13 @@
         <v>88</v>
       </c>
       <c r="E80" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F80" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G80" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2585,13 +2591,13 @@
         <v>88</v>
       </c>
       <c r="E81" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F81" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G81" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2608,13 +2614,13 @@
         <v>88</v>
       </c>
       <c r="E82" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F82" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G82" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2631,13 +2637,13 @@
         <v>88</v>
       </c>
       <c r="E83" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F83" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G83" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2654,13 +2660,13 @@
         <v>88</v>
       </c>
       <c r="E84" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F84" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G84" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2677,13 +2683,13 @@
         <v>88</v>
       </c>
       <c r="E85" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F85" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G85" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2700,13 +2706,13 @@
         <v>88</v>
       </c>
       <c r="E86" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F86" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G86" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2723,13 +2729,13 @@
         <v>88</v>
       </c>
       <c r="E87" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F87" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G87" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2746,13 +2752,13 @@
         <v>88</v>
       </c>
       <c r="E88" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F88" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G88" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2769,13 +2775,13 @@
         <v>89</v>
       </c>
       <c r="E89" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F89" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G89" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2792,13 +2798,13 @@
         <v>90</v>
       </c>
       <c r="E90" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F90" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G90" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2815,13 +2821,13 @@
         <v>88</v>
       </c>
       <c r="E91" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F91" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G91" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2838,13 +2844,36 @@
         <v>89</v>
       </c>
       <c r="E92" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F92" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G92" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" t="s">
+        <v>44</v>
+      </c>
+      <c r="B93" t="s">
+        <v>82</v>
+      </c>
+      <c r="C93" t="s">
+        <v>86</v>
+      </c>
+      <c r="D93" t="s">
+        <v>91</v>
+      </c>
+      <c r="E93" t="s">
+        <v>96</v>
+      </c>
+      <c r="F93" t="s">
+        <v>101</v>
+      </c>
+      <c r="G93" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/data/excel_tables/2.2_other_party_orgs_info.xlsx
+++ b/data/excel_tables/2.2_other_party_orgs_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="81">
   <si>
     <t>other_party_org_name</t>
   </si>
@@ -151,120 +151,15 @@
     <t>Підприємство Набат</t>
   </si>
   <si>
-    <t>32110582</t>
-  </si>
-  <si>
-    <t>33959120</t>
-  </si>
-  <si>
-    <t>34051854</t>
-  </si>
-  <si>
-    <t>33183342</t>
-  </si>
-  <si>
-    <t>33959267</t>
-  </si>
-  <si>
-    <t>34058963</t>
-  </si>
-  <si>
-    <t>34004893</t>
-  </si>
-  <si>
-    <t>32909042</t>
-  </si>
-  <si>
-    <t>33975535</t>
-  </si>
-  <si>
-    <t>34159955</t>
-  </si>
-  <si>
-    <t>33958739</t>
-  </si>
-  <si>
-    <t>37262747</t>
-  </si>
-  <si>
-    <t>33434730</t>
-  </si>
-  <si>
-    <t>33928438</t>
-  </si>
-  <si>
-    <t>33245450</t>
-  </si>
-  <si>
-    <t>33895848</t>
-  </si>
-  <si>
-    <t>33826837</t>
-  </si>
-  <si>
-    <t>33826863</t>
-  </si>
-  <si>
-    <t>33761026</t>
-  </si>
-  <si>
-    <t>33987891</t>
-  </si>
-  <si>
-    <t>33615837</t>
-  </si>
-  <si>
-    <t>33969867</t>
-  </si>
-  <si>
-    <t>33176712</t>
-  </si>
-  <si>
-    <t>33964172</t>
-  </si>
-  <si>
-    <t>33861507</t>
-  </si>
-  <si>
-    <t>33850896</t>
-  </si>
-  <si>
-    <t>37280326</t>
-  </si>
-  <si>
-    <t>39250398</t>
-  </si>
-  <si>
-    <t>38549759</t>
-  </si>
-  <si>
-    <t>33810256</t>
-  </si>
-  <si>
-    <t>34090411</t>
-  </si>
-  <si>
-    <t>25999654</t>
-  </si>
-  <si>
-    <t>33937442</t>
-  </si>
-  <si>
-    <t>33884904</t>
-  </si>
-  <si>
     <t>31451445</t>
   </si>
   <si>
+    <t>26043372</t>
+  </si>
+  <si>
     <t>36463324</t>
   </si>
   <si>
-    <t>26043372</t>
-  </si>
-  <si>
-    <t>30699474</t>
-  </si>
-  <si>
     <t>3 квартал</t>
   </si>
   <si>
@@ -280,15 +175,6 @@
     <t>рік</t>
   </si>
   <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
     <t>2024</t>
   </si>
   <si>
@@ -307,21 +193,12 @@
     <t>СОЮЗ АНАРХІСТІВ УКРАЇНИ</t>
   </si>
   <si>
-    <t>00013497</t>
-  </si>
-  <si>
-    <t>21721653</t>
-  </si>
-  <si>
     <t>21710533</t>
   </si>
   <si>
     <t>00047728</t>
   </si>
   <si>
-    <t>26343565</t>
-  </si>
-  <si>
     <t>e1fad670-81bc-11ec-bdbe-3bf689b2cb33</t>
   </si>
   <si>
@@ -374,6 +251,12 @@
   </si>
   <si>
     <t>5ee7c530-062c-11ef-938a-5514903835ea</t>
+  </si>
+  <si>
+    <t>2d8673f0-0d6c-11ef-ae0a-87878d7061af</t>
+  </si>
+  <si>
+    <t>26a72960-0e95-11ef-a826-5536b50ce648</t>
   </si>
 </sst>
 </file>
@@ -731,7 +614,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G93"/>
+  <dimension ref="A1:G96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -764,2116 +647,2185 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>45</v>
+      <c r="B2">
+        <v>32110582</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" t="s">
-        <v>88</v>
+        <v>48</v>
+      </c>
+      <c r="D2">
+        <v>2021</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F2" t="s">
-        <v>97</v>
+        <v>54</v>
+      </c>
+      <c r="F2">
+        <v>13497</v>
       </c>
       <c r="G2" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>46</v>
+      <c r="B3">
+        <v>33959120</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" t="s">
-        <v>89</v>
+        <v>49</v>
+      </c>
+      <c r="D3">
+        <v>2022</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F3" t="s">
-        <v>98</v>
+        <v>55</v>
+      </c>
+      <c r="F3">
+        <v>21721653</v>
       </c>
       <c r="G3" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>47</v>
+      <c r="B4">
+        <v>34051854</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" t="s">
-        <v>89</v>
+        <v>49</v>
+      </c>
+      <c r="D4">
+        <v>2022</v>
       </c>
       <c r="E4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F4" t="s">
-        <v>98</v>
+        <v>55</v>
+      </c>
+      <c r="F4">
+        <v>21721653</v>
       </c>
       <c r="G4" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
-        <v>48</v>
+      <c r="B5">
+        <v>33183342</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" t="s">
-        <v>89</v>
+        <v>49</v>
+      </c>
+      <c r="D5">
+        <v>2022</v>
       </c>
       <c r="E5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F5" t="s">
-        <v>98</v>
+        <v>55</v>
+      </c>
+      <c r="F5">
+        <v>21721653</v>
       </c>
       <c r="G5" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
-        <v>49</v>
+      <c r="B6">
+        <v>33959267</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" t="s">
-        <v>89</v>
+        <v>49</v>
+      </c>
+      <c r="D6">
+        <v>2022</v>
       </c>
       <c r="E6" t="s">
-        <v>93</v>
-      </c>
-      <c r="F6" t="s">
-        <v>98</v>
+        <v>55</v>
+      </c>
+      <c r="F6">
+        <v>21721653</v>
       </c>
       <c r="G6" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
-        <v>50</v>
+      <c r="B7">
+        <v>34058963</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" t="s">
-        <v>89</v>
+        <v>49</v>
+      </c>
+      <c r="D7">
+        <v>2022</v>
       </c>
       <c r="E7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F7" t="s">
-        <v>98</v>
+        <v>55</v>
+      </c>
+      <c r="F7">
+        <v>21721653</v>
       </c>
       <c r="G7" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
-        <v>51</v>
+      <c r="B8">
+        <v>34004893</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" t="s">
-        <v>89</v>
+        <v>49</v>
+      </c>
+      <c r="D8">
+        <v>2022</v>
       </c>
       <c r="E8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F8" t="s">
-        <v>98</v>
+        <v>55</v>
+      </c>
+      <c r="F8">
+        <v>21721653</v>
       </c>
       <c r="G8" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
-        <v>52</v>
+      <c r="B9">
+        <v>32909042</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" t="s">
-        <v>89</v>
+        <v>49</v>
+      </c>
+      <c r="D9">
+        <v>2022</v>
       </c>
       <c r="E9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F9" t="s">
-        <v>98</v>
+        <v>55</v>
+      </c>
+      <c r="F9">
+        <v>21721653</v>
       </c>
       <c r="G9" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="s">
-        <v>53</v>
+      <c r="B10">
+        <v>33975535</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" t="s">
-        <v>89</v>
+        <v>49</v>
+      </c>
+      <c r="D10">
+        <v>2022</v>
       </c>
       <c r="E10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10" t="s">
-        <v>98</v>
+        <v>55</v>
+      </c>
+      <c r="F10">
+        <v>21721653</v>
       </c>
       <c r="G10" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" t="s">
-        <v>54</v>
+      <c r="B11">
+        <v>34159955</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" t="s">
-        <v>89</v>
+        <v>49</v>
+      </c>
+      <c r="D11">
+        <v>2022</v>
       </c>
       <c r="E11" t="s">
-        <v>93</v>
-      </c>
-      <c r="F11" t="s">
-        <v>98</v>
+        <v>55</v>
+      </c>
+      <c r="F11">
+        <v>21721653</v>
       </c>
       <c r="G11" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="s">
-        <v>55</v>
+      <c r="B12">
+        <v>33958739</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" t="s">
-        <v>89</v>
+        <v>49</v>
+      </c>
+      <c r="D12">
+        <v>2022</v>
       </c>
       <c r="E12" t="s">
-        <v>93</v>
-      </c>
-      <c r="F12" t="s">
-        <v>98</v>
+        <v>55</v>
+      </c>
+      <c r="F12">
+        <v>21721653</v>
       </c>
       <c r="G12" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" t="s">
-        <v>56</v>
+      <c r="B13">
+        <v>37262747</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" t="s">
-        <v>89</v>
+        <v>49</v>
+      </c>
+      <c r="D13">
+        <v>2022</v>
       </c>
       <c r="E13" t="s">
-        <v>93</v>
-      </c>
-      <c r="F13" t="s">
-        <v>98</v>
+        <v>55</v>
+      </c>
+      <c r="F13">
+        <v>21721653</v>
       </c>
       <c r="G13" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B14" t="s">
-        <v>57</v>
+      <c r="B14">
+        <v>33434730</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" t="s">
-        <v>89</v>
+        <v>49</v>
+      </c>
+      <c r="D14">
+        <v>2022</v>
       </c>
       <c r="E14" t="s">
-        <v>93</v>
-      </c>
-      <c r="F14" t="s">
-        <v>98</v>
+        <v>55</v>
+      </c>
+      <c r="F14">
+        <v>21721653</v>
       </c>
       <c r="G14" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B15" t="s">
-        <v>58</v>
+      <c r="B15">
+        <v>33928438</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" t="s">
-        <v>89</v>
+        <v>49</v>
+      </c>
+      <c r="D15">
+        <v>2022</v>
       </c>
       <c r="E15" t="s">
-        <v>93</v>
-      </c>
-      <c r="F15" t="s">
-        <v>98</v>
+        <v>55</v>
+      </c>
+      <c r="F15">
+        <v>21721653</v>
       </c>
       <c r="G15" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="B16" t="s">
-        <v>59</v>
+      <c r="B16">
+        <v>33245450</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" t="s">
-        <v>89</v>
+        <v>49</v>
+      </c>
+      <c r="D16">
+        <v>2022</v>
       </c>
       <c r="E16" t="s">
-        <v>93</v>
-      </c>
-      <c r="F16" t="s">
-        <v>98</v>
+        <v>55</v>
+      </c>
+      <c r="F16">
+        <v>21721653</v>
       </c>
       <c r="G16" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>22</v>
       </c>
-      <c r="B17" t="s">
-        <v>60</v>
+      <c r="B17">
+        <v>33895848</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" t="s">
-        <v>89</v>
+        <v>49</v>
+      </c>
+      <c r="D17">
+        <v>2022</v>
       </c>
       <c r="E17" t="s">
-        <v>93</v>
-      </c>
-      <c r="F17" t="s">
-        <v>98</v>
+        <v>55</v>
+      </c>
+      <c r="F17">
+        <v>21721653</v>
       </c>
       <c r="G17" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>23</v>
       </c>
-      <c r="B18" t="s">
-        <v>61</v>
+      <c r="B18">
+        <v>33826837</v>
       </c>
       <c r="C18" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" t="s">
-        <v>89</v>
+        <v>49</v>
+      </c>
+      <c r="D18">
+        <v>2022</v>
       </c>
       <c r="E18" t="s">
-        <v>93</v>
-      </c>
-      <c r="F18" t="s">
-        <v>98</v>
+        <v>55</v>
+      </c>
+      <c r="F18">
+        <v>21721653</v>
       </c>
       <c r="G18" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>24</v>
       </c>
-      <c r="B19" t="s">
-        <v>62</v>
+      <c r="B19">
+        <v>33826863</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" t="s">
-        <v>89</v>
+        <v>49</v>
+      </c>
+      <c r="D19">
+        <v>2022</v>
       </c>
       <c r="E19" t="s">
-        <v>93</v>
-      </c>
-      <c r="F19" t="s">
-        <v>98</v>
+        <v>55</v>
+      </c>
+      <c r="F19">
+        <v>21721653</v>
       </c>
       <c r="G19" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>25</v>
       </c>
-      <c r="B20" t="s">
-        <v>63</v>
+      <c r="B20">
+        <v>33761026</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" t="s">
-        <v>89</v>
+        <v>49</v>
+      </c>
+      <c r="D20">
+        <v>2022</v>
       </c>
       <c r="E20" t="s">
-        <v>93</v>
-      </c>
-      <c r="F20" t="s">
-        <v>98</v>
+        <v>55</v>
+      </c>
+      <c r="F20">
+        <v>21721653</v>
       </c>
       <c r="G20" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>26</v>
       </c>
-      <c r="B21" t="s">
-        <v>64</v>
+      <c r="B21">
+        <v>33987891</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" t="s">
-        <v>89</v>
+        <v>49</v>
+      </c>
+      <c r="D21">
+        <v>2022</v>
       </c>
       <c r="E21" t="s">
-        <v>93</v>
-      </c>
-      <c r="F21" t="s">
-        <v>98</v>
+        <v>55</v>
+      </c>
+      <c r="F21">
+        <v>21721653</v>
       </c>
       <c r="G21" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>27</v>
       </c>
-      <c r="B22" t="s">
-        <v>65</v>
+      <c r="B22">
+        <v>33615837</v>
       </c>
       <c r="C22" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" t="s">
-        <v>89</v>
+        <v>49</v>
+      </c>
+      <c r="D22">
+        <v>2022</v>
       </c>
       <c r="E22" t="s">
-        <v>93</v>
-      </c>
-      <c r="F22" t="s">
-        <v>98</v>
+        <v>55</v>
+      </c>
+      <c r="F22">
+        <v>21721653</v>
       </c>
       <c r="G22" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>28</v>
       </c>
-      <c r="B23" t="s">
-        <v>66</v>
+      <c r="B23">
+        <v>33969867</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" t="s">
-        <v>89</v>
+        <v>49</v>
+      </c>
+      <c r="D23">
+        <v>2022</v>
       </c>
       <c r="E23" t="s">
-        <v>93</v>
-      </c>
-      <c r="F23" t="s">
-        <v>98</v>
+        <v>55</v>
+      </c>
+      <c r="F23">
+        <v>21721653</v>
       </c>
       <c r="G23" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>29</v>
       </c>
-      <c r="B24" t="s">
-        <v>67</v>
+      <c r="B24">
+        <v>33176712</v>
       </c>
       <c r="C24" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" t="s">
-        <v>89</v>
+        <v>49</v>
+      </c>
+      <c r="D24">
+        <v>2022</v>
       </c>
       <c r="E24" t="s">
-        <v>93</v>
-      </c>
-      <c r="F24" t="s">
-        <v>98</v>
+        <v>55</v>
+      </c>
+      <c r="F24">
+        <v>21721653</v>
       </c>
       <c r="G24" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>30</v>
       </c>
-      <c r="B25" t="s">
-        <v>68</v>
+      <c r="B25">
+        <v>33964172</v>
       </c>
       <c r="C25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D25" t="s">
-        <v>89</v>
+        <v>49</v>
+      </c>
+      <c r="D25">
+        <v>2022</v>
       </c>
       <c r="E25" t="s">
-        <v>93</v>
-      </c>
-      <c r="F25" t="s">
-        <v>98</v>
+        <v>55</v>
+      </c>
+      <c r="F25">
+        <v>21721653</v>
       </c>
       <c r="G25" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>31</v>
       </c>
-      <c r="B26" t="s">
-        <v>69</v>
+      <c r="B26">
+        <v>33861507</v>
       </c>
       <c r="C26" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" t="s">
-        <v>89</v>
+        <v>49</v>
+      </c>
+      <c r="D26">
+        <v>2022</v>
       </c>
       <c r="E26" t="s">
-        <v>93</v>
-      </c>
-      <c r="F26" t="s">
-        <v>98</v>
+        <v>55</v>
+      </c>
+      <c r="F26">
+        <v>21721653</v>
       </c>
       <c r="G26" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>32</v>
       </c>
-      <c r="B27" t="s">
-        <v>70</v>
+      <c r="B27">
+        <v>33850896</v>
       </c>
       <c r="C27" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" t="s">
-        <v>89</v>
+        <v>49</v>
+      </c>
+      <c r="D27">
+        <v>2022</v>
       </c>
       <c r="E27" t="s">
-        <v>93</v>
-      </c>
-      <c r="F27" t="s">
-        <v>98</v>
+        <v>55</v>
+      </c>
+      <c r="F27">
+        <v>21721653</v>
       </c>
       <c r="G27" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>33</v>
       </c>
-      <c r="B28" t="s">
-        <v>71</v>
+      <c r="B28">
+        <v>37280326</v>
       </c>
       <c r="C28" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28" t="s">
-        <v>89</v>
+        <v>49</v>
+      </c>
+      <c r="D28">
+        <v>2022</v>
       </c>
       <c r="E28" t="s">
-        <v>93</v>
-      </c>
-      <c r="F28" t="s">
-        <v>98</v>
+        <v>55</v>
+      </c>
+      <c r="F28">
+        <v>21721653</v>
       </c>
       <c r="G28" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>34</v>
       </c>
-      <c r="B29" t="s">
-        <v>72</v>
+      <c r="B29">
+        <v>39250398</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
-      </c>
-      <c r="D29" t="s">
-        <v>89</v>
+        <v>49</v>
+      </c>
+      <c r="D29">
+        <v>2022</v>
       </c>
       <c r="E29" t="s">
-        <v>93</v>
-      </c>
-      <c r="F29" t="s">
-        <v>98</v>
+        <v>55</v>
+      </c>
+      <c r="F29">
+        <v>21721653</v>
       </c>
       <c r="G29" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>35</v>
       </c>
-      <c r="B30" t="s">
-        <v>73</v>
+      <c r="B30">
+        <v>38549759</v>
       </c>
       <c r="C30" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" t="s">
-        <v>89</v>
+        <v>49</v>
+      </c>
+      <c r="D30">
+        <v>2022</v>
       </c>
       <c r="E30" t="s">
-        <v>93</v>
-      </c>
-      <c r="F30" t="s">
-        <v>98</v>
+        <v>55</v>
+      </c>
+      <c r="F30">
+        <v>21721653</v>
       </c>
       <c r="G30" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>36</v>
       </c>
-      <c r="B31" t="s">
-        <v>74</v>
+      <c r="B31">
+        <v>33810256</v>
       </c>
       <c r="C31" t="s">
-        <v>84</v>
-      </c>
-      <c r="D31" t="s">
-        <v>89</v>
+        <v>49</v>
+      </c>
+      <c r="D31">
+        <v>2022</v>
       </c>
       <c r="E31" t="s">
-        <v>93</v>
-      </c>
-      <c r="F31" t="s">
-        <v>98</v>
+        <v>55</v>
+      </c>
+      <c r="F31">
+        <v>21721653</v>
       </c>
       <c r="G31" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>37</v>
       </c>
-      <c r="B32" t="s">
-        <v>75</v>
+      <c r="B32">
+        <v>34090411</v>
       </c>
       <c r="C32" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" t="s">
-        <v>89</v>
+        <v>49</v>
+      </c>
+      <c r="D32">
+        <v>2022</v>
       </c>
       <c r="E32" t="s">
-        <v>93</v>
-      </c>
-      <c r="F32" t="s">
-        <v>98</v>
+        <v>55</v>
+      </c>
+      <c r="F32">
+        <v>21721653</v>
       </c>
       <c r="G32" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>38</v>
       </c>
-      <c r="B33" t="s">
-        <v>76</v>
+      <c r="B33">
+        <v>25999654</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
-      </c>
-      <c r="D33" t="s">
-        <v>89</v>
+        <v>49</v>
+      </c>
+      <c r="D33">
+        <v>2022</v>
       </c>
       <c r="E33" t="s">
-        <v>93</v>
-      </c>
-      <c r="F33" t="s">
-        <v>98</v>
+        <v>55</v>
+      </c>
+      <c r="F33">
+        <v>21721653</v>
       </c>
       <c r="G33" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>39</v>
       </c>
-      <c r="B34" t="s">
-        <v>77</v>
+      <c r="B34">
+        <v>33937442</v>
       </c>
       <c r="C34" t="s">
-        <v>84</v>
-      </c>
-      <c r="D34" t="s">
-        <v>89</v>
+        <v>49</v>
+      </c>
+      <c r="D34">
+        <v>2022</v>
       </c>
       <c r="E34" t="s">
-        <v>93</v>
-      </c>
-      <c r="F34" t="s">
-        <v>98</v>
+        <v>55</v>
+      </c>
+      <c r="F34">
+        <v>21721653</v>
       </c>
       <c r="G34" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>40</v>
       </c>
-      <c r="B35" t="s">
-        <v>78</v>
+      <c r="B35">
+        <v>33884904</v>
       </c>
       <c r="C35" t="s">
-        <v>84</v>
-      </c>
-      <c r="D35" t="s">
-        <v>89</v>
+        <v>49</v>
+      </c>
+      <c r="D35">
+        <v>2022</v>
       </c>
       <c r="E35" t="s">
-        <v>93</v>
-      </c>
-      <c r="F35" t="s">
-        <v>98</v>
+        <v>55</v>
+      </c>
+      <c r="F35">
+        <v>21721653</v>
       </c>
       <c r="G35" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>7</v>
       </c>
-      <c r="B36" t="s">
-        <v>45</v>
+      <c r="B36">
+        <v>32110582</v>
       </c>
       <c r="C36" t="s">
-        <v>85</v>
-      </c>
-      <c r="D36" t="s">
-        <v>88</v>
+        <v>50</v>
+      </c>
+      <c r="D36">
+        <v>2021</v>
       </c>
       <c r="E36" t="s">
-        <v>92</v>
-      </c>
-      <c r="F36" t="s">
-        <v>97</v>
+        <v>54</v>
+      </c>
+      <c r="F36">
+        <v>13497</v>
       </c>
       <c r="G36" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>8</v>
       </c>
-      <c r="B37" t="s">
-        <v>46</v>
+      <c r="B37">
+        <v>33959120</v>
       </c>
       <c r="C37" t="s">
-        <v>86</v>
-      </c>
-      <c r="D37" t="s">
-        <v>88</v>
+        <v>51</v>
+      </c>
+      <c r="D37">
+        <v>2021</v>
       </c>
       <c r="E37" t="s">
-        <v>93</v>
-      </c>
-      <c r="F37" t="s">
-        <v>98</v>
+        <v>55</v>
+      </c>
+      <c r="F37">
+        <v>21721653</v>
       </c>
       <c r="G37" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>9</v>
       </c>
-      <c r="B38" t="s">
-        <v>47</v>
+      <c r="B38">
+        <v>34051854</v>
       </c>
       <c r="C38" t="s">
-        <v>86</v>
-      </c>
-      <c r="D38" t="s">
-        <v>88</v>
+        <v>51</v>
+      </c>
+      <c r="D38">
+        <v>2021</v>
       </c>
       <c r="E38" t="s">
-        <v>93</v>
-      </c>
-      <c r="F38" t="s">
-        <v>98</v>
+        <v>55</v>
+      </c>
+      <c r="F38">
+        <v>21721653</v>
       </c>
       <c r="G38" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>10</v>
       </c>
-      <c r="B39" t="s">
-        <v>48</v>
+      <c r="B39">
+        <v>33183342</v>
       </c>
       <c r="C39" t="s">
-        <v>86</v>
-      </c>
-      <c r="D39" t="s">
-        <v>88</v>
+        <v>51</v>
+      </c>
+      <c r="D39">
+        <v>2021</v>
       </c>
       <c r="E39" t="s">
-        <v>93</v>
-      </c>
-      <c r="F39" t="s">
-        <v>98</v>
+        <v>55</v>
+      </c>
+      <c r="F39">
+        <v>21721653</v>
       </c>
       <c r="G39" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>11</v>
       </c>
-      <c r="B40" t="s">
-        <v>49</v>
+      <c r="B40">
+        <v>33959267</v>
       </c>
       <c r="C40" t="s">
-        <v>86</v>
-      </c>
-      <c r="D40" t="s">
-        <v>88</v>
+        <v>51</v>
+      </c>
+      <c r="D40">
+        <v>2021</v>
       </c>
       <c r="E40" t="s">
-        <v>93</v>
-      </c>
-      <c r="F40" t="s">
-        <v>98</v>
+        <v>55</v>
+      </c>
+      <c r="F40">
+        <v>21721653</v>
       </c>
       <c r="G40" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>12</v>
       </c>
-      <c r="B41" t="s">
-        <v>50</v>
+      <c r="B41">
+        <v>34058963</v>
       </c>
       <c r="C41" t="s">
-        <v>86</v>
-      </c>
-      <c r="D41" t="s">
-        <v>88</v>
+        <v>51</v>
+      </c>
+      <c r="D41">
+        <v>2021</v>
       </c>
       <c r="E41" t="s">
-        <v>93</v>
-      </c>
-      <c r="F41" t="s">
-        <v>98</v>
+        <v>55</v>
+      </c>
+      <c r="F41">
+        <v>21721653</v>
       </c>
       <c r="G41" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>13</v>
       </c>
-      <c r="B42" t="s">
-        <v>51</v>
+      <c r="B42">
+        <v>34004893</v>
       </c>
       <c r="C42" t="s">
-        <v>86</v>
-      </c>
-      <c r="D42" t="s">
-        <v>88</v>
+        <v>51</v>
+      </c>
+      <c r="D42">
+        <v>2021</v>
       </c>
       <c r="E42" t="s">
-        <v>93</v>
-      </c>
-      <c r="F42" t="s">
-        <v>98</v>
+        <v>55</v>
+      </c>
+      <c r="F42">
+        <v>21721653</v>
       </c>
       <c r="G42" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>14</v>
       </c>
-      <c r="B43" t="s">
-        <v>52</v>
+      <c r="B43">
+        <v>32909042</v>
       </c>
       <c r="C43" t="s">
-        <v>86</v>
-      </c>
-      <c r="D43" t="s">
-        <v>88</v>
+        <v>51</v>
+      </c>
+      <c r="D43">
+        <v>2021</v>
       </c>
       <c r="E43" t="s">
-        <v>93</v>
-      </c>
-      <c r="F43" t="s">
-        <v>98</v>
+        <v>55</v>
+      </c>
+      <c r="F43">
+        <v>21721653</v>
       </c>
       <c r="G43" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>15</v>
       </c>
-      <c r="B44" t="s">
-        <v>53</v>
+      <c r="B44">
+        <v>33975535</v>
       </c>
       <c r="C44" t="s">
-        <v>86</v>
-      </c>
-      <c r="D44" t="s">
-        <v>88</v>
+        <v>51</v>
+      </c>
+      <c r="D44">
+        <v>2021</v>
       </c>
       <c r="E44" t="s">
-        <v>93</v>
-      </c>
-      <c r="F44" t="s">
-        <v>98</v>
+        <v>55</v>
+      </c>
+      <c r="F44">
+        <v>21721653</v>
       </c>
       <c r="G44" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>16</v>
       </c>
-      <c r="B45" t="s">
-        <v>54</v>
+      <c r="B45">
+        <v>34159955</v>
       </c>
       <c r="C45" t="s">
-        <v>86</v>
-      </c>
-      <c r="D45" t="s">
-        <v>88</v>
+        <v>51</v>
+      </c>
+      <c r="D45">
+        <v>2021</v>
       </c>
       <c r="E45" t="s">
-        <v>93</v>
-      </c>
-      <c r="F45" t="s">
-        <v>98</v>
+        <v>55</v>
+      </c>
+      <c r="F45">
+        <v>21721653</v>
       </c>
       <c r="G45" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>17</v>
       </c>
-      <c r="B46" t="s">
-        <v>55</v>
+      <c r="B46">
+        <v>33958739</v>
       </c>
       <c r="C46" t="s">
-        <v>86</v>
-      </c>
-      <c r="D46" t="s">
-        <v>88</v>
+        <v>51</v>
+      </c>
+      <c r="D46">
+        <v>2021</v>
       </c>
       <c r="E46" t="s">
-        <v>93</v>
-      </c>
-      <c r="F46" t="s">
-        <v>98</v>
+        <v>55</v>
+      </c>
+      <c r="F46">
+        <v>21721653</v>
       </c>
       <c r="G46" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>18</v>
       </c>
-      <c r="B47" t="s">
-        <v>56</v>
+      <c r="B47">
+        <v>37262747</v>
       </c>
       <c r="C47" t="s">
-        <v>86</v>
-      </c>
-      <c r="D47" t="s">
-        <v>88</v>
+        <v>51</v>
+      </c>
+      <c r="D47">
+        <v>2021</v>
       </c>
       <c r="E47" t="s">
-        <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>98</v>
+        <v>55</v>
+      </c>
+      <c r="F47">
+        <v>21721653</v>
       </c>
       <c r="G47" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>19</v>
       </c>
-      <c r="B48" t="s">
-        <v>57</v>
+      <c r="B48">
+        <v>33434730</v>
       </c>
       <c r="C48" t="s">
-        <v>86</v>
-      </c>
-      <c r="D48" t="s">
-        <v>88</v>
+        <v>51</v>
+      </c>
+      <c r="D48">
+        <v>2021</v>
       </c>
       <c r="E48" t="s">
-        <v>93</v>
-      </c>
-      <c r="F48" t="s">
-        <v>98</v>
+        <v>55</v>
+      </c>
+      <c r="F48">
+        <v>21721653</v>
       </c>
       <c r="G48" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>20</v>
       </c>
-      <c r="B49" t="s">
-        <v>58</v>
+      <c r="B49">
+        <v>33928438</v>
       </c>
       <c r="C49" t="s">
-        <v>86</v>
-      </c>
-      <c r="D49" t="s">
-        <v>88</v>
+        <v>51</v>
+      </c>
+      <c r="D49">
+        <v>2021</v>
       </c>
       <c r="E49" t="s">
-        <v>93</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
+        <v>55</v>
+      </c>
+      <c r="F49">
+        <v>21721653</v>
       </c>
       <c r="G49" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>21</v>
       </c>
-      <c r="B50" t="s">
-        <v>59</v>
+      <c r="B50">
+        <v>33245450</v>
       </c>
       <c r="C50" t="s">
-        <v>86</v>
-      </c>
-      <c r="D50" t="s">
-        <v>88</v>
+        <v>51</v>
+      </c>
+      <c r="D50">
+        <v>2021</v>
       </c>
       <c r="E50" t="s">
-        <v>93</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
+        <v>55</v>
+      </c>
+      <c r="F50">
+        <v>21721653</v>
       </c>
       <c r="G50" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>22</v>
       </c>
-      <c r="B51" t="s">
-        <v>60</v>
+      <c r="B51">
+        <v>33895848</v>
       </c>
       <c r="C51" t="s">
-        <v>86</v>
-      </c>
-      <c r="D51" t="s">
-        <v>88</v>
+        <v>51</v>
+      </c>
+      <c r="D51">
+        <v>2021</v>
       </c>
       <c r="E51" t="s">
-        <v>93</v>
-      </c>
-      <c r="F51" t="s">
-        <v>98</v>
+        <v>55</v>
+      </c>
+      <c r="F51">
+        <v>21721653</v>
       </c>
       <c r="G51" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>23</v>
       </c>
-      <c r="B52" t="s">
-        <v>61</v>
+      <c r="B52">
+        <v>33826837</v>
       </c>
       <c r="C52" t="s">
-        <v>86</v>
-      </c>
-      <c r="D52" t="s">
-        <v>88</v>
+        <v>51</v>
+      </c>
+      <c r="D52">
+        <v>2021</v>
       </c>
       <c r="E52" t="s">
-        <v>93</v>
-      </c>
-      <c r="F52" t="s">
-        <v>98</v>
+        <v>55</v>
+      </c>
+      <c r="F52">
+        <v>21721653</v>
       </c>
       <c r="G52" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>24</v>
       </c>
-      <c r="B53" t="s">
-        <v>62</v>
+      <c r="B53">
+        <v>33826863</v>
       </c>
       <c r="C53" t="s">
-        <v>86</v>
-      </c>
-      <c r="D53" t="s">
-        <v>88</v>
+        <v>51</v>
+      </c>
+      <c r="D53">
+        <v>2021</v>
       </c>
       <c r="E53" t="s">
-        <v>93</v>
-      </c>
-      <c r="F53" t="s">
-        <v>98</v>
+        <v>55</v>
+      </c>
+      <c r="F53">
+        <v>21721653</v>
       </c>
       <c r="G53" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>25</v>
       </c>
-      <c r="B54" t="s">
-        <v>63</v>
+      <c r="B54">
+        <v>33761026</v>
       </c>
       <c r="C54" t="s">
-        <v>86</v>
-      </c>
-      <c r="D54" t="s">
-        <v>88</v>
+        <v>51</v>
+      </c>
+      <c r="D54">
+        <v>2021</v>
       </c>
       <c r="E54" t="s">
-        <v>93</v>
-      </c>
-      <c r="F54" t="s">
-        <v>98</v>
+        <v>55</v>
+      </c>
+      <c r="F54">
+        <v>21721653</v>
       </c>
       <c r="G54" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>26</v>
       </c>
-      <c r="B55" t="s">
-        <v>64</v>
+      <c r="B55">
+        <v>33987891</v>
       </c>
       <c r="C55" t="s">
-        <v>86</v>
-      </c>
-      <c r="D55" t="s">
-        <v>88</v>
+        <v>51</v>
+      </c>
+      <c r="D55">
+        <v>2021</v>
       </c>
       <c r="E55" t="s">
-        <v>93</v>
-      </c>
-      <c r="F55" t="s">
-        <v>98</v>
+        <v>55</v>
+      </c>
+      <c r="F55">
+        <v>21721653</v>
       </c>
       <c r="G55" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>27</v>
       </c>
-      <c r="B56" t="s">
-        <v>65</v>
+      <c r="B56">
+        <v>33615837</v>
       </c>
       <c r="C56" t="s">
-        <v>86</v>
-      </c>
-      <c r="D56" t="s">
-        <v>88</v>
+        <v>51</v>
+      </c>
+      <c r="D56">
+        <v>2021</v>
       </c>
       <c r="E56" t="s">
-        <v>93</v>
-      </c>
-      <c r="F56" t="s">
-        <v>98</v>
+        <v>55</v>
+      </c>
+      <c r="F56">
+        <v>21721653</v>
       </c>
       <c r="G56" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>28</v>
       </c>
-      <c r="B57" t="s">
-        <v>66</v>
+      <c r="B57">
+        <v>33969867</v>
       </c>
       <c r="C57" t="s">
-        <v>86</v>
-      </c>
-      <c r="D57" t="s">
-        <v>88</v>
+        <v>51</v>
+      </c>
+      <c r="D57">
+        <v>2021</v>
       </c>
       <c r="E57" t="s">
-        <v>93</v>
-      </c>
-      <c r="F57" t="s">
-        <v>98</v>
+        <v>55</v>
+      </c>
+      <c r="F57">
+        <v>21721653</v>
       </c>
       <c r="G57" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
         <v>29</v>
       </c>
-      <c r="B58" t="s">
-        <v>67</v>
+      <c r="B58">
+        <v>33176712</v>
       </c>
       <c r="C58" t="s">
-        <v>86</v>
-      </c>
-      <c r="D58" t="s">
-        <v>88</v>
+        <v>51</v>
+      </c>
+      <c r="D58">
+        <v>2021</v>
       </c>
       <c r="E58" t="s">
-        <v>93</v>
-      </c>
-      <c r="F58" t="s">
-        <v>98</v>
+        <v>55</v>
+      </c>
+      <c r="F58">
+        <v>21721653</v>
       </c>
       <c r="G58" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
         <v>30</v>
       </c>
-      <c r="B59" t="s">
-        <v>68</v>
+      <c r="B59">
+        <v>33964172</v>
       </c>
       <c r="C59" t="s">
-        <v>86</v>
-      </c>
-      <c r="D59" t="s">
-        <v>88</v>
+        <v>51</v>
+      </c>
+      <c r="D59">
+        <v>2021</v>
       </c>
       <c r="E59" t="s">
-        <v>93</v>
-      </c>
-      <c r="F59" t="s">
-        <v>98</v>
+        <v>55</v>
+      </c>
+      <c r="F59">
+        <v>21721653</v>
       </c>
       <c r="G59" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>31</v>
       </c>
-      <c r="B60" t="s">
-        <v>69</v>
+      <c r="B60">
+        <v>33861507</v>
       </c>
       <c r="C60" t="s">
-        <v>86</v>
-      </c>
-      <c r="D60" t="s">
-        <v>88</v>
+        <v>51</v>
+      </c>
+      <c r="D60">
+        <v>2021</v>
       </c>
       <c r="E60" t="s">
-        <v>93</v>
-      </c>
-      <c r="F60" t="s">
-        <v>98</v>
+        <v>55</v>
+      </c>
+      <c r="F60">
+        <v>21721653</v>
       </c>
       <c r="G60" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>32</v>
       </c>
-      <c r="B61" t="s">
-        <v>70</v>
+      <c r="B61">
+        <v>33850896</v>
       </c>
       <c r="C61" t="s">
-        <v>86</v>
-      </c>
-      <c r="D61" t="s">
-        <v>88</v>
+        <v>51</v>
+      </c>
+      <c r="D61">
+        <v>2021</v>
       </c>
       <c r="E61" t="s">
-        <v>93</v>
-      </c>
-      <c r="F61" t="s">
-        <v>98</v>
+        <v>55</v>
+      </c>
+      <c r="F61">
+        <v>21721653</v>
       </c>
       <c r="G61" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>33</v>
       </c>
-      <c r="B62" t="s">
-        <v>71</v>
+      <c r="B62">
+        <v>37280326</v>
       </c>
       <c r="C62" t="s">
-        <v>86</v>
-      </c>
-      <c r="D62" t="s">
-        <v>88</v>
+        <v>51</v>
+      </c>
+      <c r="D62">
+        <v>2021</v>
       </c>
       <c r="E62" t="s">
-        <v>93</v>
-      </c>
-      <c r="F62" t="s">
-        <v>98</v>
+        <v>55</v>
+      </c>
+      <c r="F62">
+        <v>21721653</v>
       </c>
       <c r="G62" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>34</v>
       </c>
-      <c r="B63" t="s">
-        <v>72</v>
+      <c r="B63">
+        <v>39250398</v>
       </c>
       <c r="C63" t="s">
-        <v>86</v>
-      </c>
-      <c r="D63" t="s">
-        <v>88</v>
+        <v>51</v>
+      </c>
+      <c r="D63">
+        <v>2021</v>
       </c>
       <c r="E63" t="s">
-        <v>93</v>
-      </c>
-      <c r="F63" t="s">
-        <v>98</v>
+        <v>55</v>
+      </c>
+      <c r="F63">
+        <v>21721653</v>
       </c>
       <c r="G63" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>35</v>
       </c>
-      <c r="B64" t="s">
-        <v>73</v>
+      <c r="B64">
+        <v>38549759</v>
       </c>
       <c r="C64" t="s">
-        <v>86</v>
-      </c>
-      <c r="D64" t="s">
-        <v>88</v>
+        <v>51</v>
+      </c>
+      <c r="D64">
+        <v>2021</v>
       </c>
       <c r="E64" t="s">
-        <v>93</v>
-      </c>
-      <c r="F64" t="s">
-        <v>98</v>
+        <v>55</v>
+      </c>
+      <c r="F64">
+        <v>21721653</v>
       </c>
       <c r="G64" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
         <v>36</v>
       </c>
-      <c r="B65" t="s">
-        <v>74</v>
+      <c r="B65">
+        <v>33810256</v>
       </c>
       <c r="C65" t="s">
-        <v>86</v>
-      </c>
-      <c r="D65" t="s">
-        <v>88</v>
+        <v>51</v>
+      </c>
+      <c r="D65">
+        <v>2021</v>
       </c>
       <c r="E65" t="s">
-        <v>93</v>
-      </c>
-      <c r="F65" t="s">
-        <v>98</v>
+        <v>55</v>
+      </c>
+      <c r="F65">
+        <v>21721653</v>
       </c>
       <c r="G65" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
         <v>37</v>
       </c>
-      <c r="B66" t="s">
-        <v>75</v>
+      <c r="B66">
+        <v>34090411</v>
       </c>
       <c r="C66" t="s">
-        <v>86</v>
-      </c>
-      <c r="D66" t="s">
-        <v>88</v>
+        <v>51</v>
+      </c>
+      <c r="D66">
+        <v>2021</v>
       </c>
       <c r="E66" t="s">
-        <v>93</v>
-      </c>
-      <c r="F66" t="s">
-        <v>98</v>
+        <v>55</v>
+      </c>
+      <c r="F66">
+        <v>21721653</v>
       </c>
       <c r="G66" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
         <v>38</v>
       </c>
-      <c r="B67" t="s">
-        <v>76</v>
+      <c r="B67">
+        <v>25999654</v>
       </c>
       <c r="C67" t="s">
-        <v>86</v>
-      </c>
-      <c r="D67" t="s">
-        <v>88</v>
+        <v>51</v>
+      </c>
+      <c r="D67">
+        <v>2021</v>
       </c>
       <c r="E67" t="s">
-        <v>93</v>
-      </c>
-      <c r="F67" t="s">
-        <v>98</v>
+        <v>55</v>
+      </c>
+      <c r="F67">
+        <v>21721653</v>
       </c>
       <c r="G67" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
         <v>39</v>
       </c>
-      <c r="B68" t="s">
-        <v>77</v>
+      <c r="B68">
+        <v>33937442</v>
       </c>
       <c r="C68" t="s">
-        <v>86</v>
-      </c>
-      <c r="D68" t="s">
-        <v>88</v>
+        <v>51</v>
+      </c>
+      <c r="D68">
+        <v>2021</v>
       </c>
       <c r="E68" t="s">
-        <v>93</v>
-      </c>
-      <c r="F68" t="s">
-        <v>98</v>
+        <v>55</v>
+      </c>
+      <c r="F68">
+        <v>21721653</v>
       </c>
       <c r="G68" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
         <v>40</v>
       </c>
-      <c r="B69" t="s">
-        <v>78</v>
+      <c r="B69">
+        <v>33884904</v>
       </c>
       <c r="C69" t="s">
-        <v>86</v>
-      </c>
-      <c r="D69" t="s">
-        <v>88</v>
+        <v>51</v>
+      </c>
+      <c r="D69">
+        <v>2021</v>
       </c>
       <c r="E69" t="s">
-        <v>93</v>
-      </c>
-      <c r="F69" t="s">
-        <v>98</v>
+        <v>55</v>
+      </c>
+      <c r="F69">
+        <v>21721653</v>
       </c>
       <c r="G69" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
         <v>7</v>
       </c>
-      <c r="B70" t="s">
-        <v>45</v>
+      <c r="B70">
+        <v>32110582</v>
       </c>
       <c r="C70" t="s">
-        <v>84</v>
-      </c>
-      <c r="D70" t="s">
-        <v>88</v>
+        <v>49</v>
+      </c>
+      <c r="D70">
+        <v>2021</v>
       </c>
       <c r="E70" t="s">
-        <v>92</v>
-      </c>
-      <c r="F70" t="s">
-        <v>97</v>
+        <v>54</v>
+      </c>
+      <c r="F70">
+        <v>13497</v>
       </c>
       <c r="G70" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
         <v>41</v>
       </c>
-      <c r="B71" t="s">
-        <v>79</v>
+      <c r="B71">
+        <v>31451445</v>
       </c>
       <c r="C71" t="s">
-        <v>87</v>
-      </c>
-      <c r="D71" t="s">
-        <v>90</v>
+        <v>52</v>
+      </c>
+      <c r="D71">
+        <v>2023</v>
       </c>
       <c r="E71" t="s">
-        <v>94</v>
-      </c>
-      <c r="F71" t="s">
-        <v>99</v>
+        <v>56</v>
+      </c>
+      <c r="F71">
+        <v>21710533</v>
       </c>
       <c r="G71" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
         <v>42</v>
       </c>
-      <c r="B72" t="s">
-        <v>80</v>
+      <c r="B72">
+        <v>36463324</v>
       </c>
       <c r="C72" t="s">
-        <v>87</v>
-      </c>
-      <c r="D72" t="s">
-        <v>90</v>
+        <v>52</v>
+      </c>
+      <c r="D72">
+        <v>2023</v>
       </c>
       <c r="E72" t="s">
-        <v>95</v>
-      </c>
-      <c r="F72" t="s">
-        <v>100</v>
+        <v>57</v>
+      </c>
+      <c r="F72">
+        <v>47728</v>
       </c>
       <c r="G72" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
         <v>43</v>
       </c>
-      <c r="B73" t="s">
-        <v>81</v>
+      <c r="B73">
+        <v>26043372</v>
       </c>
       <c r="C73" t="s">
-        <v>87</v>
-      </c>
-      <c r="D73" t="s">
-        <v>90</v>
+        <v>52</v>
+      </c>
+      <c r="D73">
+        <v>2023</v>
       </c>
       <c r="E73" t="s">
-        <v>95</v>
-      </c>
-      <c r="F73" t="s">
-        <v>100</v>
+        <v>57</v>
+      </c>
+      <c r="F73">
+        <v>47728</v>
       </c>
       <c r="G73" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
         <v>43</v>
       </c>
-      <c r="B74" t="s">
-        <v>81</v>
+      <c r="B74">
+        <v>26043372</v>
       </c>
       <c r="C74" t="s">
-        <v>87</v>
-      </c>
-      <c r="D74" t="s">
-        <v>89</v>
+        <v>52</v>
+      </c>
+      <c r="D74">
+        <v>2022</v>
       </c>
       <c r="E74" t="s">
-        <v>95</v>
-      </c>
-      <c r="F74" t="s">
-        <v>100</v>
+        <v>57</v>
+      </c>
+      <c r="F74">
+        <v>47728</v>
       </c>
       <c r="G74" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
         <v>42</v>
       </c>
-      <c r="B75" t="s">
-        <v>80</v>
+      <c r="B75">
+        <v>36463324</v>
       </c>
       <c r="C75" t="s">
-        <v>87</v>
-      </c>
-      <c r="D75" t="s">
-        <v>89</v>
+        <v>52</v>
+      </c>
+      <c r="D75">
+        <v>2022</v>
       </c>
       <c r="E75" t="s">
-        <v>95</v>
-      </c>
-      <c r="F75" t="s">
-        <v>100</v>
+        <v>57</v>
+      </c>
+      <c r="F75">
+        <v>47728</v>
       </c>
       <c r="G75" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
         <v>42</v>
       </c>
-      <c r="B76" t="s">
-        <v>80</v>
+      <c r="B76">
+        <v>36463324</v>
       </c>
       <c r="C76" t="s">
-        <v>86</v>
-      </c>
-      <c r="D76" t="s">
-        <v>88</v>
+        <v>51</v>
+      </c>
+      <c r="D76">
+        <v>2021</v>
       </c>
       <c r="E76" t="s">
-        <v>95</v>
-      </c>
-      <c r="F76" t="s">
-        <v>100</v>
+        <v>57</v>
+      </c>
+      <c r="F76">
+        <v>47728</v>
       </c>
       <c r="G76" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
         <v>42</v>
       </c>
-      <c r="B77" t="s">
-        <v>80</v>
+      <c r="B77">
+        <v>36463324</v>
       </c>
       <c r="C77" t="s">
-        <v>86</v>
-      </c>
-      <c r="D77" t="s">
-        <v>88</v>
+        <v>51</v>
+      </c>
+      <c r="D77">
+        <v>2021</v>
       </c>
       <c r="E77" t="s">
-        <v>95</v>
-      </c>
-      <c r="F77" t="s">
-        <v>100</v>
+        <v>57</v>
+      </c>
+      <c r="F77">
+        <v>47728</v>
       </c>
       <c r="G77" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
         <v>43</v>
       </c>
-      <c r="B78" t="s">
-        <v>81</v>
+      <c r="B78">
+        <v>26043372</v>
       </c>
       <c r="C78" t="s">
-        <v>86</v>
-      </c>
-      <c r="D78" t="s">
-        <v>88</v>
+        <v>51</v>
+      </c>
+      <c r="D78">
+        <v>2021</v>
       </c>
       <c r="E78" t="s">
-        <v>95</v>
-      </c>
-      <c r="F78" t="s">
-        <v>100</v>
+        <v>57</v>
+      </c>
+      <c r="F78">
+        <v>47728</v>
       </c>
       <c r="G78" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
         <v>43</v>
       </c>
-      <c r="B79" t="s">
-        <v>81</v>
+      <c r="B79">
+        <v>26043372</v>
       </c>
       <c r="C79" t="s">
-        <v>86</v>
-      </c>
-      <c r="D79" t="s">
-        <v>88</v>
+        <v>51</v>
+      </c>
+      <c r="D79">
+        <v>2021</v>
       </c>
       <c r="E79" t="s">
-        <v>95</v>
-      </c>
-      <c r="F79" t="s">
-        <v>100</v>
+        <v>57</v>
+      </c>
+      <c r="F79">
+        <v>47728</v>
       </c>
       <c r="G79" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
         <v>43</v>
       </c>
-      <c r="B80" t="s">
-        <v>81</v>
+      <c r="B80">
+        <v>26043372</v>
       </c>
       <c r="C80" t="s">
-        <v>84</v>
-      </c>
-      <c r="D80" t="s">
-        <v>88</v>
+        <v>49</v>
+      </c>
+      <c r="D80">
+        <v>2021</v>
       </c>
       <c r="E80" t="s">
-        <v>95</v>
-      </c>
-      <c r="F80" t="s">
-        <v>100</v>
+        <v>57</v>
+      </c>
+      <c r="F80">
+        <v>47728</v>
       </c>
       <c r="G80" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
         <v>43</v>
       </c>
-      <c r="B81" t="s">
-        <v>81</v>
+      <c r="B81">
+        <v>26043372</v>
       </c>
       <c r="C81" t="s">
-        <v>84</v>
-      </c>
-      <c r="D81" t="s">
-        <v>88</v>
+        <v>49</v>
+      </c>
+      <c r="D81">
+        <v>2021</v>
       </c>
       <c r="E81" t="s">
-        <v>95</v>
-      </c>
-      <c r="F81" t="s">
-        <v>100</v>
+        <v>57</v>
+      </c>
+      <c r="F81">
+        <v>47728</v>
       </c>
       <c r="G81" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
         <v>42</v>
       </c>
-      <c r="B82" t="s">
-        <v>80</v>
+      <c r="B82">
+        <v>36463324</v>
       </c>
       <c r="C82" t="s">
-        <v>84</v>
-      </c>
-      <c r="D82" t="s">
-        <v>88</v>
+        <v>49</v>
+      </c>
+      <c r="D82">
+        <v>2021</v>
       </c>
       <c r="E82" t="s">
-        <v>95</v>
-      </c>
-      <c r="F82" t="s">
-        <v>100</v>
+        <v>57</v>
+      </c>
+      <c r="F82">
+        <v>47728</v>
       </c>
       <c r="G82" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
         <v>42</v>
       </c>
-      <c r="B83" t="s">
-        <v>80</v>
+      <c r="B83">
+        <v>36463324</v>
       </c>
       <c r="C83" t="s">
-        <v>84</v>
-      </c>
-      <c r="D83" t="s">
-        <v>88</v>
+        <v>49</v>
+      </c>
+      <c r="D83">
+        <v>2021</v>
       </c>
       <c r="E83" t="s">
-        <v>95</v>
-      </c>
-      <c r="F83" t="s">
-        <v>100</v>
+        <v>57</v>
+      </c>
+      <c r="F83">
+        <v>47728</v>
       </c>
       <c r="G83" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
         <v>42</v>
       </c>
-      <c r="B84" t="s">
-        <v>80</v>
+      <c r="B84">
+        <v>36463324</v>
       </c>
       <c r="C84" t="s">
-        <v>83</v>
-      </c>
-      <c r="D84" t="s">
-        <v>88</v>
+        <v>48</v>
+      </c>
+      <c r="D84">
+        <v>2021</v>
       </c>
       <c r="E84" t="s">
-        <v>95</v>
-      </c>
-      <c r="F84" t="s">
-        <v>100</v>
+        <v>57</v>
+      </c>
+      <c r="F84">
+        <v>47728</v>
       </c>
       <c r="G84" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
         <v>43</v>
       </c>
-      <c r="B85" t="s">
-        <v>81</v>
+      <c r="B85">
+        <v>26043372</v>
       </c>
       <c r="C85" t="s">
-        <v>83</v>
-      </c>
-      <c r="D85" t="s">
-        <v>88</v>
+        <v>48</v>
+      </c>
+      <c r="D85">
+        <v>2021</v>
       </c>
       <c r="E85" t="s">
-        <v>95</v>
-      </c>
-      <c r="F85" t="s">
-        <v>100</v>
+        <v>57</v>
+      </c>
+      <c r="F85">
+        <v>47728</v>
       </c>
       <c r="G85" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
         <v>42</v>
       </c>
-      <c r="B86" t="s">
-        <v>80</v>
+      <c r="B86">
+        <v>36463324</v>
       </c>
       <c r="C86" t="s">
-        <v>85</v>
-      </c>
-      <c r="D86" t="s">
-        <v>88</v>
+        <v>50</v>
+      </c>
+      <c r="D86">
+        <v>2021</v>
       </c>
       <c r="E86" t="s">
-        <v>95</v>
-      </c>
-      <c r="F86" t="s">
-        <v>100</v>
+        <v>57</v>
+      </c>
+      <c r="F86">
+        <v>47728</v>
       </c>
       <c r="G86" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
         <v>43</v>
       </c>
-      <c r="B87" t="s">
-        <v>81</v>
+      <c r="B87">
+        <v>26043372</v>
       </c>
       <c r="C87" t="s">
-        <v>85</v>
-      </c>
-      <c r="D87" t="s">
-        <v>88</v>
+        <v>50</v>
+      </c>
+      <c r="D87">
+        <v>2021</v>
       </c>
       <c r="E87" t="s">
-        <v>95</v>
-      </c>
-      <c r="F87" t="s">
-        <v>100</v>
+        <v>57</v>
+      </c>
+      <c r="F87">
+        <v>47728</v>
       </c>
       <c r="G87" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
         <v>41</v>
       </c>
-      <c r="B88" t="s">
-        <v>79</v>
+      <c r="B88">
+        <v>31451445</v>
       </c>
       <c r="C88" t="s">
-        <v>87</v>
-      </c>
-      <c r="D88" t="s">
-        <v>88</v>
+        <v>52</v>
+      </c>
+      <c r="D88">
+        <v>2021</v>
       </c>
       <c r="E88" t="s">
-        <v>94</v>
-      </c>
-      <c r="F88" t="s">
-        <v>99</v>
+        <v>56</v>
+      </c>
+      <c r="F88">
+        <v>21710533</v>
       </c>
       <c r="G88" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
         <v>41</v>
       </c>
-      <c r="B89" t="s">
-        <v>79</v>
+      <c r="B89">
+        <v>31451445</v>
       </c>
       <c r="C89" t="s">
-        <v>87</v>
-      </c>
-      <c r="D89" t="s">
-        <v>89</v>
+        <v>52</v>
+      </c>
+      <c r="D89">
+        <v>2022</v>
       </c>
       <c r="E89" t="s">
-        <v>94</v>
-      </c>
-      <c r="F89" t="s">
-        <v>99</v>
+        <v>56</v>
+      </c>
+      <c r="F89">
+        <v>21710533</v>
       </c>
       <c r="G89" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
         <v>44</v>
       </c>
-      <c r="B90" t="s">
-        <v>82</v>
+      <c r="B90">
+        <v>30699474</v>
       </c>
       <c r="C90" t="s">
-        <v>87</v>
-      </c>
-      <c r="D90" t="s">
-        <v>90</v>
+        <v>52</v>
+      </c>
+      <c r="D90">
+        <v>2023</v>
       </c>
       <c r="E90" t="s">
-        <v>96</v>
-      </c>
-      <c r="F90" t="s">
-        <v>101</v>
+        <v>58</v>
+      </c>
+      <c r="F90">
+        <v>26343565</v>
       </c>
       <c r="G90" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
         <v>44</v>
       </c>
-      <c r="B91" t="s">
-        <v>82</v>
+      <c r="B91">
+        <v>30699474</v>
       </c>
       <c r="C91" t="s">
-        <v>87</v>
-      </c>
-      <c r="D91" t="s">
-        <v>88</v>
+        <v>52</v>
+      </c>
+      <c r="D91">
+        <v>2021</v>
       </c>
       <c r="E91" t="s">
-        <v>96</v>
-      </c>
-      <c r="F91" t="s">
-        <v>101</v>
+        <v>58</v>
+      </c>
+      <c r="F91">
+        <v>26343565</v>
       </c>
       <c r="G91" t="s">
-        <v>117</v>
+        <v>76</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
         <v>44</v>
       </c>
-      <c r="B92" t="s">
-        <v>82</v>
+      <c r="B92">
+        <v>30699474</v>
       </c>
       <c r="C92" t="s">
-        <v>87</v>
-      </c>
-      <c r="D92" t="s">
-        <v>89</v>
+        <v>52</v>
+      </c>
+      <c r="D92">
+        <v>2022</v>
       </c>
       <c r="E92" t="s">
-        <v>96</v>
-      </c>
-      <c r="F92" t="s">
-        <v>101</v>
+        <v>58</v>
+      </c>
+      <c r="F92">
+        <v>26343565</v>
       </c>
       <c r="G92" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
         <v>44</v>
       </c>
-      <c r="B93" t="s">
-        <v>82</v>
+      <c r="B93">
+        <v>30699474</v>
       </c>
       <c r="C93" t="s">
-        <v>86</v>
-      </c>
-      <c r="D93" t="s">
-        <v>91</v>
+        <v>51</v>
+      </c>
+      <c r="D93">
+        <v>2024</v>
       </c>
       <c r="E93" t="s">
-        <v>96</v>
-      </c>
-      <c r="F93" t="s">
-        <v>101</v>
+        <v>58</v>
+      </c>
+      <c r="F93">
+        <v>26343565</v>
       </c>
       <c r="G93" t="s">
-        <v>119</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" t="s">
+        <v>41</v>
+      </c>
+      <c r="B94" t="s">
+        <v>45</v>
+      </c>
+      <c r="C94" t="s">
+        <v>51</v>
+      </c>
+      <c r="D94" t="s">
+        <v>53</v>
+      </c>
+      <c r="E94" t="s">
+        <v>56</v>
+      </c>
+      <c r="F94" t="s">
+        <v>59</v>
+      </c>
+      <c r="G94" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" t="s">
+        <v>43</v>
+      </c>
+      <c r="B95" t="s">
+        <v>46</v>
+      </c>
+      <c r="C95" t="s">
+        <v>51</v>
+      </c>
+      <c r="D95" t="s">
+        <v>53</v>
+      </c>
+      <c r="E95" t="s">
+        <v>57</v>
+      </c>
+      <c r="F95" t="s">
+        <v>60</v>
+      </c>
+      <c r="G95" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" t="s">
+        <v>42</v>
+      </c>
+      <c r="B96" t="s">
+        <v>47</v>
+      </c>
+      <c r="C96" t="s">
+        <v>51</v>
+      </c>
+      <c r="D96" t="s">
+        <v>53</v>
+      </c>
+      <c r="E96" t="s">
+        <v>57</v>
+      </c>
+      <c r="F96" t="s">
+        <v>60</v>
+      </c>
+      <c r="G96" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/data/excel_tables/2.2_other_party_orgs_info.xlsx
+++ b/data/excel_tables/2.2_other_party_orgs_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="122">
   <si>
     <t>other_party_org_name</t>
   </si>
@@ -151,13 +151,118 @@
     <t>Підприємство Набат</t>
   </si>
   <si>
+    <t>32110582</t>
+  </si>
+  <si>
+    <t>33959120</t>
+  </si>
+  <si>
+    <t>34051854</t>
+  </si>
+  <si>
+    <t>33183342</t>
+  </si>
+  <si>
+    <t>33959267</t>
+  </si>
+  <si>
+    <t>34058963</t>
+  </si>
+  <si>
+    <t>34004893</t>
+  </si>
+  <si>
+    <t>32909042</t>
+  </si>
+  <si>
+    <t>33975535</t>
+  </si>
+  <si>
+    <t>34159955</t>
+  </si>
+  <si>
+    <t>33958739</t>
+  </si>
+  <si>
+    <t>37262747</t>
+  </si>
+  <si>
+    <t>33434730</t>
+  </si>
+  <si>
+    <t>33928438</t>
+  </si>
+  <si>
+    <t>33245450</t>
+  </si>
+  <si>
+    <t>33895848</t>
+  </si>
+  <si>
+    <t>33826837</t>
+  </si>
+  <si>
+    <t>33826863</t>
+  </si>
+  <si>
+    <t>33761026</t>
+  </si>
+  <si>
+    <t>33987891</t>
+  </si>
+  <si>
+    <t>33615837</t>
+  </si>
+  <si>
+    <t>33969867</t>
+  </si>
+  <si>
+    <t>33176712</t>
+  </si>
+  <si>
+    <t>33964172</t>
+  </si>
+  <si>
+    <t>33861507</t>
+  </si>
+  <si>
+    <t>33850896</t>
+  </si>
+  <si>
+    <t>37280326</t>
+  </si>
+  <si>
+    <t>39250398</t>
+  </si>
+  <si>
+    <t>38549759</t>
+  </si>
+  <si>
+    <t>33810256</t>
+  </si>
+  <si>
+    <t>34090411</t>
+  </si>
+  <si>
+    <t>25999654</t>
+  </si>
+  <si>
+    <t>33937442</t>
+  </si>
+  <si>
+    <t>33884904</t>
+  </si>
+  <si>
     <t>31451445</t>
   </si>
   <si>
+    <t>36463324</t>
+  </si>
+  <si>
     <t>26043372</t>
   </si>
   <si>
-    <t>36463324</t>
+    <t>30699474</t>
   </si>
   <si>
     <t>3 квартал</t>
@@ -175,6 +280,15 @@
     <t>рік</t>
   </si>
   <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
     <t>2024</t>
   </si>
   <si>
@@ -193,10 +307,19 @@
     <t>СОЮЗ АНАРХІСТІВ УКРАЇНИ</t>
   </si>
   <si>
+    <t>00013497</t>
+  </si>
+  <si>
+    <t>21721653</t>
+  </si>
+  <si>
     <t>21710533</t>
   </si>
   <si>
     <t>00047728</t>
+  </si>
+  <si>
+    <t>26343565</t>
   </si>
   <si>
     <t>e1fad670-81bc-11ec-bdbe-3bf689b2cb33</t>
@@ -647,2116 +770,2116 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
-        <v>32110582</v>
+      <c r="B2" t="s">
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2">
-        <v>2021</v>
+        <v>83</v>
+      </c>
+      <c r="D2" t="s">
+        <v>88</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2">
-        <v>13497</v>
+        <v>92</v>
+      </c>
+      <c r="F2" t="s">
+        <v>97</v>
       </c>
       <c r="G2" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
-        <v>33959120</v>
+      <c r="B3" t="s">
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3">
-        <v>2022</v>
+        <v>84</v>
+      </c>
+      <c r="D3" t="s">
+        <v>89</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3">
-        <v>21721653</v>
+        <v>93</v>
+      </c>
+      <c r="F3" t="s">
+        <v>98</v>
       </c>
       <c r="G3" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
-        <v>34051854</v>
+      <c r="B4" t="s">
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4">
-        <v>2022</v>
+        <v>84</v>
+      </c>
+      <c r="D4" t="s">
+        <v>89</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4">
-        <v>21721653</v>
+        <v>93</v>
+      </c>
+      <c r="F4" t="s">
+        <v>98</v>
       </c>
       <c r="G4" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5">
-        <v>33183342</v>
+      <c r="B5" t="s">
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5">
-        <v>2022</v>
+        <v>84</v>
+      </c>
+      <c r="D5" t="s">
+        <v>89</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5">
-        <v>21721653</v>
+        <v>93</v>
+      </c>
+      <c r="F5" t="s">
+        <v>98</v>
       </c>
       <c r="G5" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6">
-        <v>33959267</v>
+      <c r="B6" t="s">
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6">
-        <v>2022</v>
+        <v>84</v>
+      </c>
+      <c r="D6" t="s">
+        <v>89</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6">
-        <v>21721653</v>
+        <v>93</v>
+      </c>
+      <c r="F6" t="s">
+        <v>98</v>
       </c>
       <c r="G6" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7">
-        <v>34058963</v>
+      <c r="B7" t="s">
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7">
-        <v>2022</v>
+        <v>84</v>
+      </c>
+      <c r="D7" t="s">
+        <v>89</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7">
-        <v>21721653</v>
+        <v>93</v>
+      </c>
+      <c r="F7" t="s">
+        <v>98</v>
       </c>
       <c r="G7" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8">
-        <v>34004893</v>
+      <c r="B8" t="s">
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8">
-        <v>2022</v>
+        <v>84</v>
+      </c>
+      <c r="D8" t="s">
+        <v>89</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8">
-        <v>21721653</v>
+        <v>93</v>
+      </c>
+      <c r="F8" t="s">
+        <v>98</v>
       </c>
       <c r="G8" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9">
-        <v>32909042</v>
+      <c r="B9" t="s">
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9">
-        <v>2022</v>
+        <v>84</v>
+      </c>
+      <c r="D9" t="s">
+        <v>89</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9">
-        <v>21721653</v>
+        <v>93</v>
+      </c>
+      <c r="F9" t="s">
+        <v>98</v>
       </c>
       <c r="G9" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10">
-        <v>33975535</v>
+      <c r="B10" t="s">
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10">
-        <v>2022</v>
+        <v>84</v>
+      </c>
+      <c r="D10" t="s">
+        <v>89</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10">
-        <v>21721653</v>
+        <v>93</v>
+      </c>
+      <c r="F10" t="s">
+        <v>98</v>
       </c>
       <c r="G10" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11">
-        <v>34159955</v>
+      <c r="B11" t="s">
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11">
-        <v>2022</v>
+        <v>84</v>
+      </c>
+      <c r="D11" t="s">
+        <v>89</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11">
-        <v>21721653</v>
+        <v>93</v>
+      </c>
+      <c r="F11" t="s">
+        <v>98</v>
       </c>
       <c r="G11" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12">
-        <v>33958739</v>
+      <c r="B12" t="s">
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12">
-        <v>2022</v>
+        <v>84</v>
+      </c>
+      <c r="D12" t="s">
+        <v>89</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12">
-        <v>21721653</v>
+        <v>93</v>
+      </c>
+      <c r="F12" t="s">
+        <v>98</v>
       </c>
       <c r="G12" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B13">
-        <v>37262747</v>
+      <c r="B13" t="s">
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13">
-        <v>2022</v>
+        <v>84</v>
+      </c>
+      <c r="D13" t="s">
+        <v>89</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13">
-        <v>21721653</v>
+        <v>93</v>
+      </c>
+      <c r="F13" t="s">
+        <v>98</v>
       </c>
       <c r="G13" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B14">
-        <v>33434730</v>
+      <c r="B14" t="s">
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14">
-        <v>2022</v>
+        <v>84</v>
+      </c>
+      <c r="D14" t="s">
+        <v>89</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14">
-        <v>21721653</v>
+        <v>93</v>
+      </c>
+      <c r="F14" t="s">
+        <v>98</v>
       </c>
       <c r="G14" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B15">
-        <v>33928438</v>
+      <c r="B15" t="s">
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15">
-        <v>2022</v>
+        <v>84</v>
+      </c>
+      <c r="D15" t="s">
+        <v>89</v>
       </c>
       <c r="E15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15">
-        <v>21721653</v>
+        <v>93</v>
+      </c>
+      <c r="F15" t="s">
+        <v>98</v>
       </c>
       <c r="G15" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="B16">
-        <v>33245450</v>
+      <c r="B16" t="s">
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16">
-        <v>2022</v>
+        <v>84</v>
+      </c>
+      <c r="D16" t="s">
+        <v>89</v>
       </c>
       <c r="E16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16">
-        <v>21721653</v>
+        <v>93</v>
+      </c>
+      <c r="F16" t="s">
+        <v>98</v>
       </c>
       <c r="G16" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>22</v>
       </c>
-      <c r="B17">
-        <v>33895848</v>
+      <c r="B17" t="s">
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17">
-        <v>2022</v>
+        <v>84</v>
+      </c>
+      <c r="D17" t="s">
+        <v>89</v>
       </c>
       <c r="E17" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17">
-        <v>21721653</v>
+        <v>93</v>
+      </c>
+      <c r="F17" t="s">
+        <v>98</v>
       </c>
       <c r="G17" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>23</v>
       </c>
-      <c r="B18">
-        <v>33826837</v>
+      <c r="B18" t="s">
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18">
-        <v>2022</v>
+        <v>84</v>
+      </c>
+      <c r="D18" t="s">
+        <v>89</v>
       </c>
       <c r="E18" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18">
-        <v>21721653</v>
+        <v>93</v>
+      </c>
+      <c r="F18" t="s">
+        <v>98</v>
       </c>
       <c r="G18" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>24</v>
       </c>
-      <c r="B19">
-        <v>33826863</v>
+      <c r="B19" t="s">
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19">
-        <v>2022</v>
+        <v>84</v>
+      </c>
+      <c r="D19" t="s">
+        <v>89</v>
       </c>
       <c r="E19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19">
-        <v>21721653</v>
+        <v>93</v>
+      </c>
+      <c r="F19" t="s">
+        <v>98</v>
       </c>
       <c r="G19" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>25</v>
       </c>
-      <c r="B20">
-        <v>33761026</v>
+      <c r="B20" t="s">
+        <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20">
-        <v>2022</v>
+        <v>84</v>
+      </c>
+      <c r="D20" t="s">
+        <v>89</v>
       </c>
       <c r="E20" t="s">
-        <v>55</v>
-      </c>
-      <c r="F20">
-        <v>21721653</v>
+        <v>93</v>
+      </c>
+      <c r="F20" t="s">
+        <v>98</v>
       </c>
       <c r="G20" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>26</v>
       </c>
-      <c r="B21">
-        <v>33987891</v>
+      <c r="B21" t="s">
+        <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21">
-        <v>2022</v>
+        <v>84</v>
+      </c>
+      <c r="D21" t="s">
+        <v>89</v>
       </c>
       <c r="E21" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21">
-        <v>21721653</v>
+        <v>93</v>
+      </c>
+      <c r="F21" t="s">
+        <v>98</v>
       </c>
       <c r="G21" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>27</v>
       </c>
-      <c r="B22">
-        <v>33615837</v>
+      <c r="B22" t="s">
+        <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22">
-        <v>2022</v>
+        <v>84</v>
+      </c>
+      <c r="D22" t="s">
+        <v>89</v>
       </c>
       <c r="E22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F22">
-        <v>21721653</v>
+        <v>93</v>
+      </c>
+      <c r="F22" t="s">
+        <v>98</v>
       </c>
       <c r="G22" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>28</v>
       </c>
-      <c r="B23">
-        <v>33969867</v>
+      <c r="B23" t="s">
+        <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23">
-        <v>2022</v>
+        <v>84</v>
+      </c>
+      <c r="D23" t="s">
+        <v>89</v>
       </c>
       <c r="E23" t="s">
-        <v>55</v>
-      </c>
-      <c r="F23">
-        <v>21721653</v>
+        <v>93</v>
+      </c>
+      <c r="F23" t="s">
+        <v>98</v>
       </c>
       <c r="G23" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>29</v>
       </c>
-      <c r="B24">
-        <v>33176712</v>
+      <c r="B24" t="s">
+        <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24">
-        <v>2022</v>
+        <v>84</v>
+      </c>
+      <c r="D24" t="s">
+        <v>89</v>
       </c>
       <c r="E24" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24">
-        <v>21721653</v>
+        <v>93</v>
+      </c>
+      <c r="F24" t="s">
+        <v>98</v>
       </c>
       <c r="G24" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>30</v>
       </c>
-      <c r="B25">
-        <v>33964172</v>
+      <c r="B25" t="s">
+        <v>68</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25">
-        <v>2022</v>
+        <v>84</v>
+      </c>
+      <c r="D25" t="s">
+        <v>89</v>
       </c>
       <c r="E25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F25">
-        <v>21721653</v>
+        <v>93</v>
+      </c>
+      <c r="F25" t="s">
+        <v>98</v>
       </c>
       <c r="G25" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>31</v>
       </c>
-      <c r="B26">
-        <v>33861507</v>
+      <c r="B26" t="s">
+        <v>69</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26">
-        <v>2022</v>
+        <v>84</v>
+      </c>
+      <c r="D26" t="s">
+        <v>89</v>
       </c>
       <c r="E26" t="s">
-        <v>55</v>
-      </c>
-      <c r="F26">
-        <v>21721653</v>
+        <v>93</v>
+      </c>
+      <c r="F26" t="s">
+        <v>98</v>
       </c>
       <c r="G26" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>32</v>
       </c>
-      <c r="B27">
-        <v>33850896</v>
+      <c r="B27" t="s">
+        <v>70</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27">
-        <v>2022</v>
+        <v>84</v>
+      </c>
+      <c r="D27" t="s">
+        <v>89</v>
       </c>
       <c r="E27" t="s">
-        <v>55</v>
-      </c>
-      <c r="F27">
-        <v>21721653</v>
+        <v>93</v>
+      </c>
+      <c r="F27" t="s">
+        <v>98</v>
       </c>
       <c r="G27" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>33</v>
       </c>
-      <c r="B28">
-        <v>37280326</v>
+      <c r="B28" t="s">
+        <v>71</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28">
-        <v>2022</v>
+        <v>84</v>
+      </c>
+      <c r="D28" t="s">
+        <v>89</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
-      </c>
-      <c r="F28">
-        <v>21721653</v>
+        <v>93</v>
+      </c>
+      <c r="F28" t="s">
+        <v>98</v>
       </c>
       <c r="G28" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>34</v>
       </c>
-      <c r="B29">
-        <v>39250398</v>
+      <c r="B29" t="s">
+        <v>72</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29">
-        <v>2022</v>
+        <v>84</v>
+      </c>
+      <c r="D29" t="s">
+        <v>89</v>
       </c>
       <c r="E29" t="s">
-        <v>55</v>
-      </c>
-      <c r="F29">
-        <v>21721653</v>
+        <v>93</v>
+      </c>
+      <c r="F29" t="s">
+        <v>98</v>
       </c>
       <c r="G29" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>35</v>
       </c>
-      <c r="B30">
-        <v>38549759</v>
+      <c r="B30" t="s">
+        <v>73</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30">
-        <v>2022</v>
+        <v>84</v>
+      </c>
+      <c r="D30" t="s">
+        <v>89</v>
       </c>
       <c r="E30" t="s">
-        <v>55</v>
-      </c>
-      <c r="F30">
-        <v>21721653</v>
+        <v>93</v>
+      </c>
+      <c r="F30" t="s">
+        <v>98</v>
       </c>
       <c r="G30" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>36</v>
       </c>
-      <c r="B31">
-        <v>33810256</v>
+      <c r="B31" t="s">
+        <v>74</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31">
-        <v>2022</v>
+        <v>84</v>
+      </c>
+      <c r="D31" t="s">
+        <v>89</v>
       </c>
       <c r="E31" t="s">
-        <v>55</v>
-      </c>
-      <c r="F31">
-        <v>21721653</v>
+        <v>93</v>
+      </c>
+      <c r="F31" t="s">
+        <v>98</v>
       </c>
       <c r="G31" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>37</v>
       </c>
-      <c r="B32">
-        <v>34090411</v>
+      <c r="B32" t="s">
+        <v>75</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32">
-        <v>2022</v>
+        <v>84</v>
+      </c>
+      <c r="D32" t="s">
+        <v>89</v>
       </c>
       <c r="E32" t="s">
-        <v>55</v>
-      </c>
-      <c r="F32">
-        <v>21721653</v>
+        <v>93</v>
+      </c>
+      <c r="F32" t="s">
+        <v>98</v>
       </c>
       <c r="G32" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>38</v>
       </c>
-      <c r="B33">
-        <v>25999654</v>
+      <c r="B33" t="s">
+        <v>76</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33">
-        <v>2022</v>
+        <v>84</v>
+      </c>
+      <c r="D33" t="s">
+        <v>89</v>
       </c>
       <c r="E33" t="s">
-        <v>55</v>
-      </c>
-      <c r="F33">
-        <v>21721653</v>
+        <v>93</v>
+      </c>
+      <c r="F33" t="s">
+        <v>98</v>
       </c>
       <c r="G33" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>39</v>
       </c>
-      <c r="B34">
-        <v>33937442</v>
+      <c r="B34" t="s">
+        <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34">
-        <v>2022</v>
+        <v>84</v>
+      </c>
+      <c r="D34" t="s">
+        <v>89</v>
       </c>
       <c r="E34" t="s">
-        <v>55</v>
-      </c>
-      <c r="F34">
-        <v>21721653</v>
+        <v>93</v>
+      </c>
+      <c r="F34" t="s">
+        <v>98</v>
       </c>
       <c r="G34" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>40</v>
       </c>
-      <c r="B35">
-        <v>33884904</v>
+      <c r="B35" t="s">
+        <v>78</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35">
-        <v>2022</v>
+        <v>84</v>
+      </c>
+      <c r="D35" t="s">
+        <v>89</v>
       </c>
       <c r="E35" t="s">
-        <v>55</v>
-      </c>
-      <c r="F35">
-        <v>21721653</v>
+        <v>93</v>
+      </c>
+      <c r="F35" t="s">
+        <v>98</v>
       </c>
       <c r="G35" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>7</v>
       </c>
-      <c r="B36">
-        <v>32110582</v>
+      <c r="B36" t="s">
+        <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36">
-        <v>2021</v>
+        <v>85</v>
+      </c>
+      <c r="D36" t="s">
+        <v>88</v>
       </c>
       <c r="E36" t="s">
-        <v>54</v>
-      </c>
-      <c r="F36">
-        <v>13497</v>
+        <v>92</v>
+      </c>
+      <c r="F36" t="s">
+        <v>97</v>
       </c>
       <c r="G36" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>8</v>
       </c>
-      <c r="B37">
-        <v>33959120</v>
+      <c r="B37" t="s">
+        <v>46</v>
       </c>
       <c r="C37" t="s">
-        <v>51</v>
-      </c>
-      <c r="D37">
-        <v>2021</v>
+        <v>86</v>
+      </c>
+      <c r="D37" t="s">
+        <v>88</v>
       </c>
       <c r="E37" t="s">
-        <v>55</v>
-      </c>
-      <c r="F37">
-        <v>21721653</v>
+        <v>93</v>
+      </c>
+      <c r="F37" t="s">
+        <v>98</v>
       </c>
       <c r="G37" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>9</v>
       </c>
-      <c r="B38">
-        <v>34051854</v>
+      <c r="B38" t="s">
+        <v>47</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
-      </c>
-      <c r="D38">
-        <v>2021</v>
+        <v>86</v>
+      </c>
+      <c r="D38" t="s">
+        <v>88</v>
       </c>
       <c r="E38" t="s">
-        <v>55</v>
-      </c>
-      <c r="F38">
-        <v>21721653</v>
+        <v>93</v>
+      </c>
+      <c r="F38" t="s">
+        <v>98</v>
       </c>
       <c r="G38" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>10</v>
       </c>
-      <c r="B39">
-        <v>33183342</v>
+      <c r="B39" t="s">
+        <v>48</v>
       </c>
       <c r="C39" t="s">
-        <v>51</v>
-      </c>
-      <c r="D39">
-        <v>2021</v>
+        <v>86</v>
+      </c>
+      <c r="D39" t="s">
+        <v>88</v>
       </c>
       <c r="E39" t="s">
-        <v>55</v>
-      </c>
-      <c r="F39">
-        <v>21721653</v>
+        <v>93</v>
+      </c>
+      <c r="F39" t="s">
+        <v>98</v>
       </c>
       <c r="G39" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>11</v>
       </c>
-      <c r="B40">
-        <v>33959267</v>
+      <c r="B40" t="s">
+        <v>49</v>
       </c>
       <c r="C40" t="s">
-        <v>51</v>
-      </c>
-      <c r="D40">
-        <v>2021</v>
+        <v>86</v>
+      </c>
+      <c r="D40" t="s">
+        <v>88</v>
       </c>
       <c r="E40" t="s">
-        <v>55</v>
-      </c>
-      <c r="F40">
-        <v>21721653</v>
+        <v>93</v>
+      </c>
+      <c r="F40" t="s">
+        <v>98</v>
       </c>
       <c r="G40" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>12</v>
       </c>
-      <c r="B41">
-        <v>34058963</v>
+      <c r="B41" t="s">
+        <v>50</v>
       </c>
       <c r="C41" t="s">
-        <v>51</v>
-      </c>
-      <c r="D41">
-        <v>2021</v>
+        <v>86</v>
+      </c>
+      <c r="D41" t="s">
+        <v>88</v>
       </c>
       <c r="E41" t="s">
-        <v>55</v>
-      </c>
-      <c r="F41">
-        <v>21721653</v>
+        <v>93</v>
+      </c>
+      <c r="F41" t="s">
+        <v>98</v>
       </c>
       <c r="G41" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>13</v>
       </c>
-      <c r="B42">
-        <v>34004893</v>
+      <c r="B42" t="s">
+        <v>51</v>
       </c>
       <c r="C42" t="s">
-        <v>51</v>
-      </c>
-      <c r="D42">
-        <v>2021</v>
+        <v>86</v>
+      </c>
+      <c r="D42" t="s">
+        <v>88</v>
       </c>
       <c r="E42" t="s">
-        <v>55</v>
-      </c>
-      <c r="F42">
-        <v>21721653</v>
+        <v>93</v>
+      </c>
+      <c r="F42" t="s">
+        <v>98</v>
       </c>
       <c r="G42" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>14</v>
       </c>
-      <c r="B43">
-        <v>32909042</v>
+      <c r="B43" t="s">
+        <v>52</v>
       </c>
       <c r="C43" t="s">
-        <v>51</v>
-      </c>
-      <c r="D43">
-        <v>2021</v>
+        <v>86</v>
+      </c>
+      <c r="D43" t="s">
+        <v>88</v>
       </c>
       <c r="E43" t="s">
-        <v>55</v>
-      </c>
-      <c r="F43">
-        <v>21721653</v>
+        <v>93</v>
+      </c>
+      <c r="F43" t="s">
+        <v>98</v>
       </c>
       <c r="G43" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>15</v>
       </c>
-      <c r="B44">
-        <v>33975535</v>
+      <c r="B44" t="s">
+        <v>53</v>
       </c>
       <c r="C44" t="s">
-        <v>51</v>
-      </c>
-      <c r="D44">
-        <v>2021</v>
+        <v>86</v>
+      </c>
+      <c r="D44" t="s">
+        <v>88</v>
       </c>
       <c r="E44" t="s">
-        <v>55</v>
-      </c>
-      <c r="F44">
-        <v>21721653</v>
+        <v>93</v>
+      </c>
+      <c r="F44" t="s">
+        <v>98</v>
       </c>
       <c r="G44" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>16</v>
       </c>
-      <c r="B45">
-        <v>34159955</v>
+      <c r="B45" t="s">
+        <v>54</v>
       </c>
       <c r="C45" t="s">
-        <v>51</v>
-      </c>
-      <c r="D45">
-        <v>2021</v>
+        <v>86</v>
+      </c>
+      <c r="D45" t="s">
+        <v>88</v>
       </c>
       <c r="E45" t="s">
-        <v>55</v>
-      </c>
-      <c r="F45">
-        <v>21721653</v>
+        <v>93</v>
+      </c>
+      <c r="F45" t="s">
+        <v>98</v>
       </c>
       <c r="G45" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>17</v>
       </c>
-      <c r="B46">
-        <v>33958739</v>
+      <c r="B46" t="s">
+        <v>55</v>
       </c>
       <c r="C46" t="s">
-        <v>51</v>
-      </c>
-      <c r="D46">
-        <v>2021</v>
+        <v>86</v>
+      </c>
+      <c r="D46" t="s">
+        <v>88</v>
       </c>
       <c r="E46" t="s">
-        <v>55</v>
-      </c>
-      <c r="F46">
-        <v>21721653</v>
+        <v>93</v>
+      </c>
+      <c r="F46" t="s">
+        <v>98</v>
       </c>
       <c r="G46" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>18</v>
       </c>
-      <c r="B47">
-        <v>37262747</v>
+      <c r="B47" t="s">
+        <v>56</v>
       </c>
       <c r="C47" t="s">
-        <v>51</v>
-      </c>
-      <c r="D47">
-        <v>2021</v>
+        <v>86</v>
+      </c>
+      <c r="D47" t="s">
+        <v>88</v>
       </c>
       <c r="E47" t="s">
-        <v>55</v>
-      </c>
-      <c r="F47">
-        <v>21721653</v>
+        <v>93</v>
+      </c>
+      <c r="F47" t="s">
+        <v>98</v>
       </c>
       <c r="G47" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>19</v>
       </c>
-      <c r="B48">
-        <v>33434730</v>
+      <c r="B48" t="s">
+        <v>57</v>
       </c>
       <c r="C48" t="s">
-        <v>51</v>
-      </c>
-      <c r="D48">
-        <v>2021</v>
+        <v>86</v>
+      </c>
+      <c r="D48" t="s">
+        <v>88</v>
       </c>
       <c r="E48" t="s">
-        <v>55</v>
-      </c>
-      <c r="F48">
-        <v>21721653</v>
+        <v>93</v>
+      </c>
+      <c r="F48" t="s">
+        <v>98</v>
       </c>
       <c r="G48" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>20</v>
       </c>
-      <c r="B49">
-        <v>33928438</v>
+      <c r="B49" t="s">
+        <v>58</v>
       </c>
       <c r="C49" t="s">
-        <v>51</v>
-      </c>
-      <c r="D49">
-        <v>2021</v>
+        <v>86</v>
+      </c>
+      <c r="D49" t="s">
+        <v>88</v>
       </c>
       <c r="E49" t="s">
-        <v>55</v>
-      </c>
-      <c r="F49">
-        <v>21721653</v>
+        <v>93</v>
+      </c>
+      <c r="F49" t="s">
+        <v>98</v>
       </c>
       <c r="G49" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>21</v>
       </c>
-      <c r="B50">
-        <v>33245450</v>
+      <c r="B50" t="s">
+        <v>59</v>
       </c>
       <c r="C50" t="s">
-        <v>51</v>
-      </c>
-      <c r="D50">
-        <v>2021</v>
+        <v>86</v>
+      </c>
+      <c r="D50" t="s">
+        <v>88</v>
       </c>
       <c r="E50" t="s">
-        <v>55</v>
-      </c>
-      <c r="F50">
-        <v>21721653</v>
+        <v>93</v>
+      </c>
+      <c r="F50" t="s">
+        <v>98</v>
       </c>
       <c r="G50" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>22</v>
       </c>
-      <c r="B51">
-        <v>33895848</v>
+      <c r="B51" t="s">
+        <v>60</v>
       </c>
       <c r="C51" t="s">
-        <v>51</v>
-      </c>
-      <c r="D51">
-        <v>2021</v>
+        <v>86</v>
+      </c>
+      <c r="D51" t="s">
+        <v>88</v>
       </c>
       <c r="E51" t="s">
-        <v>55</v>
-      </c>
-      <c r="F51">
-        <v>21721653</v>
+        <v>93</v>
+      </c>
+      <c r="F51" t="s">
+        <v>98</v>
       </c>
       <c r="G51" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>23</v>
       </c>
-      <c r="B52">
-        <v>33826837</v>
+      <c r="B52" t="s">
+        <v>61</v>
       </c>
       <c r="C52" t="s">
-        <v>51</v>
-      </c>
-      <c r="D52">
-        <v>2021</v>
+        <v>86</v>
+      </c>
+      <c r="D52" t="s">
+        <v>88</v>
       </c>
       <c r="E52" t="s">
-        <v>55</v>
-      </c>
-      <c r="F52">
-        <v>21721653</v>
+        <v>93</v>
+      </c>
+      <c r="F52" t="s">
+        <v>98</v>
       </c>
       <c r="G52" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>24</v>
       </c>
-      <c r="B53">
-        <v>33826863</v>
+      <c r="B53" t="s">
+        <v>62</v>
       </c>
       <c r="C53" t="s">
-        <v>51</v>
-      </c>
-      <c r="D53">
-        <v>2021</v>
+        <v>86</v>
+      </c>
+      <c r="D53" t="s">
+        <v>88</v>
       </c>
       <c r="E53" t="s">
-        <v>55</v>
-      </c>
-      <c r="F53">
-        <v>21721653</v>
+        <v>93</v>
+      </c>
+      <c r="F53" t="s">
+        <v>98</v>
       </c>
       <c r="G53" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>25</v>
       </c>
-      <c r="B54">
-        <v>33761026</v>
+      <c r="B54" t="s">
+        <v>63</v>
       </c>
       <c r="C54" t="s">
-        <v>51</v>
-      </c>
-      <c r="D54">
-        <v>2021</v>
+        <v>86</v>
+      </c>
+      <c r="D54" t="s">
+        <v>88</v>
       </c>
       <c r="E54" t="s">
-        <v>55</v>
-      </c>
-      <c r="F54">
-        <v>21721653</v>
+        <v>93</v>
+      </c>
+      <c r="F54" t="s">
+        <v>98</v>
       </c>
       <c r="G54" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>26</v>
       </c>
-      <c r="B55">
-        <v>33987891</v>
+      <c r="B55" t="s">
+        <v>64</v>
       </c>
       <c r="C55" t="s">
-        <v>51</v>
-      </c>
-      <c r="D55">
-        <v>2021</v>
+        <v>86</v>
+      </c>
+      <c r="D55" t="s">
+        <v>88</v>
       </c>
       <c r="E55" t="s">
-        <v>55</v>
-      </c>
-      <c r="F55">
-        <v>21721653</v>
+        <v>93</v>
+      </c>
+      <c r="F55" t="s">
+        <v>98</v>
       </c>
       <c r="G55" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>27</v>
       </c>
-      <c r="B56">
-        <v>33615837</v>
+      <c r="B56" t="s">
+        <v>65</v>
       </c>
       <c r="C56" t="s">
-        <v>51</v>
-      </c>
-      <c r="D56">
-        <v>2021</v>
+        <v>86</v>
+      </c>
+      <c r="D56" t="s">
+        <v>88</v>
       </c>
       <c r="E56" t="s">
-        <v>55</v>
-      </c>
-      <c r="F56">
-        <v>21721653</v>
+        <v>93</v>
+      </c>
+      <c r="F56" t="s">
+        <v>98</v>
       </c>
       <c r="G56" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>28</v>
       </c>
-      <c r="B57">
-        <v>33969867</v>
+      <c r="B57" t="s">
+        <v>66</v>
       </c>
       <c r="C57" t="s">
-        <v>51</v>
-      </c>
-      <c r="D57">
-        <v>2021</v>
+        <v>86</v>
+      </c>
+      <c r="D57" t="s">
+        <v>88</v>
       </c>
       <c r="E57" t="s">
-        <v>55</v>
-      </c>
-      <c r="F57">
-        <v>21721653</v>
+        <v>93</v>
+      </c>
+      <c r="F57" t="s">
+        <v>98</v>
       </c>
       <c r="G57" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
         <v>29</v>
       </c>
-      <c r="B58">
-        <v>33176712</v>
+      <c r="B58" t="s">
+        <v>67</v>
       </c>
       <c r="C58" t="s">
-        <v>51</v>
-      </c>
-      <c r="D58">
-        <v>2021</v>
+        <v>86</v>
+      </c>
+      <c r="D58" t="s">
+        <v>88</v>
       </c>
       <c r="E58" t="s">
-        <v>55</v>
-      </c>
-      <c r="F58">
-        <v>21721653</v>
+        <v>93</v>
+      </c>
+      <c r="F58" t="s">
+        <v>98</v>
       </c>
       <c r="G58" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
         <v>30</v>
       </c>
-      <c r="B59">
-        <v>33964172</v>
+      <c r="B59" t="s">
+        <v>68</v>
       </c>
       <c r="C59" t="s">
-        <v>51</v>
-      </c>
-      <c r="D59">
-        <v>2021</v>
+        <v>86</v>
+      </c>
+      <c r="D59" t="s">
+        <v>88</v>
       </c>
       <c r="E59" t="s">
-        <v>55</v>
-      </c>
-      <c r="F59">
-        <v>21721653</v>
+        <v>93</v>
+      </c>
+      <c r="F59" t="s">
+        <v>98</v>
       </c>
       <c r="G59" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>31</v>
       </c>
-      <c r="B60">
-        <v>33861507</v>
+      <c r="B60" t="s">
+        <v>69</v>
       </c>
       <c r="C60" t="s">
-        <v>51</v>
-      </c>
-      <c r="D60">
-        <v>2021</v>
+        <v>86</v>
+      </c>
+      <c r="D60" t="s">
+        <v>88</v>
       </c>
       <c r="E60" t="s">
-        <v>55</v>
-      </c>
-      <c r="F60">
-        <v>21721653</v>
+        <v>93</v>
+      </c>
+      <c r="F60" t="s">
+        <v>98</v>
       </c>
       <c r="G60" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>32</v>
       </c>
-      <c r="B61">
-        <v>33850896</v>
+      <c r="B61" t="s">
+        <v>70</v>
       </c>
       <c r="C61" t="s">
-        <v>51</v>
-      </c>
-      <c r="D61">
-        <v>2021</v>
+        <v>86</v>
+      </c>
+      <c r="D61" t="s">
+        <v>88</v>
       </c>
       <c r="E61" t="s">
-        <v>55</v>
-      </c>
-      <c r="F61">
-        <v>21721653</v>
+        <v>93</v>
+      </c>
+      <c r="F61" t="s">
+        <v>98</v>
       </c>
       <c r="G61" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>33</v>
       </c>
-      <c r="B62">
-        <v>37280326</v>
+      <c r="B62" t="s">
+        <v>71</v>
       </c>
       <c r="C62" t="s">
-        <v>51</v>
-      </c>
-      <c r="D62">
-        <v>2021</v>
+        <v>86</v>
+      </c>
+      <c r="D62" t="s">
+        <v>88</v>
       </c>
       <c r="E62" t="s">
-        <v>55</v>
-      </c>
-      <c r="F62">
-        <v>21721653</v>
+        <v>93</v>
+      </c>
+      <c r="F62" t="s">
+        <v>98</v>
       </c>
       <c r="G62" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>34</v>
       </c>
-      <c r="B63">
-        <v>39250398</v>
+      <c r="B63" t="s">
+        <v>72</v>
       </c>
       <c r="C63" t="s">
-        <v>51</v>
-      </c>
-      <c r="D63">
-        <v>2021</v>
+        <v>86</v>
+      </c>
+      <c r="D63" t="s">
+        <v>88</v>
       </c>
       <c r="E63" t="s">
-        <v>55</v>
-      </c>
-      <c r="F63">
-        <v>21721653</v>
+        <v>93</v>
+      </c>
+      <c r="F63" t="s">
+        <v>98</v>
       </c>
       <c r="G63" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>35</v>
       </c>
-      <c r="B64">
-        <v>38549759</v>
+      <c r="B64" t="s">
+        <v>73</v>
       </c>
       <c r="C64" t="s">
-        <v>51</v>
-      </c>
-      <c r="D64">
-        <v>2021</v>
+        <v>86</v>
+      </c>
+      <c r="D64" t="s">
+        <v>88</v>
       </c>
       <c r="E64" t="s">
-        <v>55</v>
-      </c>
-      <c r="F64">
-        <v>21721653</v>
+        <v>93</v>
+      </c>
+      <c r="F64" t="s">
+        <v>98</v>
       </c>
       <c r="G64" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
         <v>36</v>
       </c>
-      <c r="B65">
-        <v>33810256</v>
+      <c r="B65" t="s">
+        <v>74</v>
       </c>
       <c r="C65" t="s">
-        <v>51</v>
-      </c>
-      <c r="D65">
-        <v>2021</v>
+        <v>86</v>
+      </c>
+      <c r="D65" t="s">
+        <v>88</v>
       </c>
       <c r="E65" t="s">
-        <v>55</v>
-      </c>
-      <c r="F65">
-        <v>21721653</v>
+        <v>93</v>
+      </c>
+      <c r="F65" t="s">
+        <v>98</v>
       </c>
       <c r="G65" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
         <v>37</v>
       </c>
-      <c r="B66">
-        <v>34090411</v>
+      <c r="B66" t="s">
+        <v>75</v>
       </c>
       <c r="C66" t="s">
-        <v>51</v>
-      </c>
-      <c r="D66">
-        <v>2021</v>
+        <v>86</v>
+      </c>
+      <c r="D66" t="s">
+        <v>88</v>
       </c>
       <c r="E66" t="s">
-        <v>55</v>
-      </c>
-      <c r="F66">
-        <v>21721653</v>
+        <v>93</v>
+      </c>
+      <c r="F66" t="s">
+        <v>98</v>
       </c>
       <c r="G66" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
         <v>38</v>
       </c>
-      <c r="B67">
-        <v>25999654</v>
+      <c r="B67" t="s">
+        <v>76</v>
       </c>
       <c r="C67" t="s">
-        <v>51</v>
-      </c>
-      <c r="D67">
-        <v>2021</v>
+        <v>86</v>
+      </c>
+      <c r="D67" t="s">
+        <v>88</v>
       </c>
       <c r="E67" t="s">
-        <v>55</v>
-      </c>
-      <c r="F67">
-        <v>21721653</v>
+        <v>93</v>
+      </c>
+      <c r="F67" t="s">
+        <v>98</v>
       </c>
       <c r="G67" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
         <v>39</v>
       </c>
-      <c r="B68">
-        <v>33937442</v>
+      <c r="B68" t="s">
+        <v>77</v>
       </c>
       <c r="C68" t="s">
-        <v>51</v>
-      </c>
-      <c r="D68">
-        <v>2021</v>
+        <v>86</v>
+      </c>
+      <c r="D68" t="s">
+        <v>88</v>
       </c>
       <c r="E68" t="s">
-        <v>55</v>
-      </c>
-      <c r="F68">
-        <v>21721653</v>
+        <v>93</v>
+      </c>
+      <c r="F68" t="s">
+        <v>98</v>
       </c>
       <c r="G68" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
         <v>40</v>
       </c>
-      <c r="B69">
-        <v>33884904</v>
+      <c r="B69" t="s">
+        <v>78</v>
       </c>
       <c r="C69" t="s">
-        <v>51</v>
-      </c>
-      <c r="D69">
-        <v>2021</v>
+        <v>86</v>
+      </c>
+      <c r="D69" t="s">
+        <v>88</v>
       </c>
       <c r="E69" t="s">
-        <v>55</v>
-      </c>
-      <c r="F69">
-        <v>21721653</v>
+        <v>93</v>
+      </c>
+      <c r="F69" t="s">
+        <v>98</v>
       </c>
       <c r="G69" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
         <v>7</v>
       </c>
-      <c r="B70">
-        <v>32110582</v>
+      <c r="B70" t="s">
+        <v>45</v>
       </c>
       <c r="C70" t="s">
-        <v>49</v>
-      </c>
-      <c r="D70">
-        <v>2021</v>
+        <v>84</v>
+      </c>
+      <c r="D70" t="s">
+        <v>88</v>
       </c>
       <c r="E70" t="s">
-        <v>54</v>
-      </c>
-      <c r="F70">
-        <v>13497</v>
+        <v>92</v>
+      </c>
+      <c r="F70" t="s">
+        <v>97</v>
       </c>
       <c r="G70" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
         <v>41</v>
       </c>
-      <c r="B71">
-        <v>31451445</v>
+      <c r="B71" t="s">
+        <v>79</v>
       </c>
       <c r="C71" t="s">
-        <v>52</v>
-      </c>
-      <c r="D71">
-        <v>2023</v>
+        <v>87</v>
+      </c>
+      <c r="D71" t="s">
+        <v>90</v>
       </c>
       <c r="E71" t="s">
-        <v>56</v>
-      </c>
-      <c r="F71">
-        <v>21710533</v>
+        <v>94</v>
+      </c>
+      <c r="F71" t="s">
+        <v>99</v>
       </c>
       <c r="G71" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
         <v>42</v>
       </c>
-      <c r="B72">
-        <v>36463324</v>
+      <c r="B72" t="s">
+        <v>80</v>
       </c>
       <c r="C72" t="s">
-        <v>52</v>
-      </c>
-      <c r="D72">
-        <v>2023</v>
+        <v>87</v>
+      </c>
+      <c r="D72" t="s">
+        <v>90</v>
       </c>
       <c r="E72" t="s">
-        <v>57</v>
-      </c>
-      <c r="F72">
-        <v>47728</v>
+        <v>95</v>
+      </c>
+      <c r="F72" t="s">
+        <v>100</v>
       </c>
       <c r="G72" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
         <v>43</v>
       </c>
-      <c r="B73">
-        <v>26043372</v>
+      <c r="B73" t="s">
+        <v>81</v>
       </c>
       <c r="C73" t="s">
-        <v>52</v>
-      </c>
-      <c r="D73">
-        <v>2023</v>
+        <v>87</v>
+      </c>
+      <c r="D73" t="s">
+        <v>90</v>
       </c>
       <c r="E73" t="s">
-        <v>57</v>
-      </c>
-      <c r="F73">
-        <v>47728</v>
+        <v>95</v>
+      </c>
+      <c r="F73" t="s">
+        <v>100</v>
       </c>
       <c r="G73" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
         <v>43</v>
       </c>
-      <c r="B74">
-        <v>26043372</v>
+      <c r="B74" t="s">
+        <v>81</v>
       </c>
       <c r="C74" t="s">
-        <v>52</v>
-      </c>
-      <c r="D74">
-        <v>2022</v>
+        <v>87</v>
+      </c>
+      <c r="D74" t="s">
+        <v>89</v>
       </c>
       <c r="E74" t="s">
-        <v>57</v>
-      </c>
-      <c r="F74">
-        <v>47728</v>
+        <v>95</v>
+      </c>
+      <c r="F74" t="s">
+        <v>100</v>
       </c>
       <c r="G74" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
         <v>42</v>
       </c>
-      <c r="B75">
-        <v>36463324</v>
+      <c r="B75" t="s">
+        <v>80</v>
       </c>
       <c r="C75" t="s">
-        <v>52</v>
-      </c>
-      <c r="D75">
-        <v>2022</v>
+        <v>87</v>
+      </c>
+      <c r="D75" t="s">
+        <v>89</v>
       </c>
       <c r="E75" t="s">
-        <v>57</v>
-      </c>
-      <c r="F75">
-        <v>47728</v>
+        <v>95</v>
+      </c>
+      <c r="F75" t="s">
+        <v>100</v>
       </c>
       <c r="G75" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
         <v>42</v>
       </c>
-      <c r="B76">
-        <v>36463324</v>
+      <c r="B76" t="s">
+        <v>80</v>
       </c>
       <c r="C76" t="s">
-        <v>51</v>
-      </c>
-      <c r="D76">
-        <v>2021</v>
+        <v>86</v>
+      </c>
+      <c r="D76" t="s">
+        <v>88</v>
       </c>
       <c r="E76" t="s">
-        <v>57</v>
-      </c>
-      <c r="F76">
-        <v>47728</v>
+        <v>95</v>
+      </c>
+      <c r="F76" t="s">
+        <v>100</v>
       </c>
       <c r="G76" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
         <v>42</v>
       </c>
-      <c r="B77">
-        <v>36463324</v>
+      <c r="B77" t="s">
+        <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>51</v>
-      </c>
-      <c r="D77">
-        <v>2021</v>
+        <v>86</v>
+      </c>
+      <c r="D77" t="s">
+        <v>88</v>
       </c>
       <c r="E77" t="s">
-        <v>57</v>
-      </c>
-      <c r="F77">
-        <v>47728</v>
+        <v>95</v>
+      </c>
+      <c r="F77" t="s">
+        <v>100</v>
       </c>
       <c r="G77" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
         <v>43</v>
       </c>
-      <c r="B78">
-        <v>26043372</v>
+      <c r="B78" t="s">
+        <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>51</v>
-      </c>
-      <c r="D78">
-        <v>2021</v>
+        <v>86</v>
+      </c>
+      <c r="D78" t="s">
+        <v>88</v>
       </c>
       <c r="E78" t="s">
-        <v>57</v>
-      </c>
-      <c r="F78">
-        <v>47728</v>
+        <v>95</v>
+      </c>
+      <c r="F78" t="s">
+        <v>100</v>
       </c>
       <c r="G78" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
         <v>43</v>
       </c>
-      <c r="B79">
-        <v>26043372</v>
+      <c r="B79" t="s">
+        <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>51</v>
-      </c>
-      <c r="D79">
-        <v>2021</v>
+        <v>86</v>
+      </c>
+      <c r="D79" t="s">
+        <v>88</v>
       </c>
       <c r="E79" t="s">
-        <v>57</v>
-      </c>
-      <c r="F79">
-        <v>47728</v>
+        <v>95</v>
+      </c>
+      <c r="F79" t="s">
+        <v>100</v>
       </c>
       <c r="G79" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
         <v>43</v>
       </c>
-      <c r="B80">
-        <v>26043372</v>
+      <c r="B80" t="s">
+        <v>81</v>
       </c>
       <c r="C80" t="s">
-        <v>49</v>
-      </c>
-      <c r="D80">
-        <v>2021</v>
+        <v>84</v>
+      </c>
+      <c r="D80" t="s">
+        <v>88</v>
       </c>
       <c r="E80" t="s">
-        <v>57</v>
-      </c>
-      <c r="F80">
-        <v>47728</v>
+        <v>95</v>
+      </c>
+      <c r="F80" t="s">
+        <v>100</v>
       </c>
       <c r="G80" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
         <v>43</v>
       </c>
-      <c r="B81">
-        <v>26043372</v>
+      <c r="B81" t="s">
+        <v>81</v>
       </c>
       <c r="C81" t="s">
-        <v>49</v>
-      </c>
-      <c r="D81">
-        <v>2021</v>
+        <v>84</v>
+      </c>
+      <c r="D81" t="s">
+        <v>88</v>
       </c>
       <c r="E81" t="s">
-        <v>57</v>
-      </c>
-      <c r="F81">
-        <v>47728</v>
+        <v>95</v>
+      </c>
+      <c r="F81" t="s">
+        <v>100</v>
       </c>
       <c r="G81" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
         <v>42</v>
       </c>
-      <c r="B82">
-        <v>36463324</v>
+      <c r="B82" t="s">
+        <v>80</v>
       </c>
       <c r="C82" t="s">
-        <v>49</v>
-      </c>
-      <c r="D82">
-        <v>2021</v>
+        <v>84</v>
+      </c>
+      <c r="D82" t="s">
+        <v>88</v>
       </c>
       <c r="E82" t="s">
-        <v>57</v>
-      </c>
-      <c r="F82">
-        <v>47728</v>
+        <v>95</v>
+      </c>
+      <c r="F82" t="s">
+        <v>100</v>
       </c>
       <c r="G82" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
         <v>42</v>
       </c>
-      <c r="B83">
-        <v>36463324</v>
+      <c r="B83" t="s">
+        <v>80</v>
       </c>
       <c r="C83" t="s">
-        <v>49</v>
-      </c>
-      <c r="D83">
-        <v>2021</v>
+        <v>84</v>
+      </c>
+      <c r="D83" t="s">
+        <v>88</v>
       </c>
       <c r="E83" t="s">
-        <v>57</v>
-      </c>
-      <c r="F83">
-        <v>47728</v>
+        <v>95</v>
+      </c>
+      <c r="F83" t="s">
+        <v>100</v>
       </c>
       <c r="G83" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
         <v>42</v>
       </c>
-      <c r="B84">
-        <v>36463324</v>
+      <c r="B84" t="s">
+        <v>80</v>
       </c>
       <c r="C84" t="s">
-        <v>48</v>
-      </c>
-      <c r="D84">
-        <v>2021</v>
+        <v>83</v>
+      </c>
+      <c r="D84" t="s">
+        <v>88</v>
       </c>
       <c r="E84" t="s">
-        <v>57</v>
-      </c>
-      <c r="F84">
-        <v>47728</v>
+        <v>95</v>
+      </c>
+      <c r="F84" t="s">
+        <v>100</v>
       </c>
       <c r="G84" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
         <v>43</v>
       </c>
-      <c r="B85">
-        <v>26043372</v>
+      <c r="B85" t="s">
+        <v>81</v>
       </c>
       <c r="C85" t="s">
-        <v>48</v>
-      </c>
-      <c r="D85">
-        <v>2021</v>
+        <v>83</v>
+      </c>
+      <c r="D85" t="s">
+        <v>88</v>
       </c>
       <c r="E85" t="s">
-        <v>57</v>
-      </c>
-      <c r="F85">
-        <v>47728</v>
+        <v>95</v>
+      </c>
+      <c r="F85" t="s">
+        <v>100</v>
       </c>
       <c r="G85" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
         <v>42</v>
       </c>
-      <c r="B86">
-        <v>36463324</v>
+      <c r="B86" t="s">
+        <v>80</v>
       </c>
       <c r="C86" t="s">
-        <v>50</v>
-      </c>
-      <c r="D86">
-        <v>2021</v>
+        <v>85</v>
+      </c>
+      <c r="D86" t="s">
+        <v>88</v>
       </c>
       <c r="E86" t="s">
-        <v>57</v>
-      </c>
-      <c r="F86">
-        <v>47728</v>
+        <v>95</v>
+      </c>
+      <c r="F86" t="s">
+        <v>100</v>
       </c>
       <c r="G86" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
         <v>43</v>
       </c>
-      <c r="B87">
-        <v>26043372</v>
+      <c r="B87" t="s">
+        <v>81</v>
       </c>
       <c r="C87" t="s">
-        <v>50</v>
-      </c>
-      <c r="D87">
-        <v>2021</v>
+        <v>85</v>
+      </c>
+      <c r="D87" t="s">
+        <v>88</v>
       </c>
       <c r="E87" t="s">
-        <v>57</v>
-      </c>
-      <c r="F87">
-        <v>47728</v>
+        <v>95</v>
+      </c>
+      <c r="F87" t="s">
+        <v>100</v>
       </c>
       <c r="G87" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
         <v>41</v>
       </c>
-      <c r="B88">
-        <v>31451445</v>
+      <c r="B88" t="s">
+        <v>79</v>
       </c>
       <c r="C88" t="s">
-        <v>52</v>
-      </c>
-      <c r="D88">
-        <v>2021</v>
+        <v>87</v>
+      </c>
+      <c r="D88" t="s">
+        <v>88</v>
       </c>
       <c r="E88" t="s">
-        <v>56</v>
-      </c>
-      <c r="F88">
-        <v>21710533</v>
+        <v>94</v>
+      </c>
+      <c r="F88" t="s">
+        <v>99</v>
       </c>
       <c r="G88" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
         <v>41</v>
       </c>
-      <c r="B89">
-        <v>31451445</v>
+      <c r="B89" t="s">
+        <v>79</v>
       </c>
       <c r="C89" t="s">
-        <v>52</v>
-      </c>
-      <c r="D89">
-        <v>2022</v>
+        <v>87</v>
+      </c>
+      <c r="D89" t="s">
+        <v>89</v>
       </c>
       <c r="E89" t="s">
-        <v>56</v>
-      </c>
-      <c r="F89">
-        <v>21710533</v>
+        <v>94</v>
+      </c>
+      <c r="F89" t="s">
+        <v>99</v>
       </c>
       <c r="G89" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
         <v>44</v>
       </c>
-      <c r="B90">
-        <v>30699474</v>
+      <c r="B90" t="s">
+        <v>82</v>
       </c>
       <c r="C90" t="s">
-        <v>52</v>
-      </c>
-      <c r="D90">
-        <v>2023</v>
+        <v>87</v>
+      </c>
+      <c r="D90" t="s">
+        <v>90</v>
       </c>
       <c r="E90" t="s">
-        <v>58</v>
-      </c>
-      <c r="F90">
-        <v>26343565</v>
+        <v>96</v>
+      </c>
+      <c r="F90" t="s">
+        <v>101</v>
       </c>
       <c r="G90" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
         <v>44</v>
       </c>
-      <c r="B91">
-        <v>30699474</v>
+      <c r="B91" t="s">
+        <v>82</v>
       </c>
       <c r="C91" t="s">
-        <v>52</v>
-      </c>
-      <c r="D91">
-        <v>2021</v>
+        <v>87</v>
+      </c>
+      <c r="D91" t="s">
+        <v>88</v>
       </c>
       <c r="E91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F91">
-        <v>26343565</v>
+        <v>96</v>
+      </c>
+      <c r="F91" t="s">
+        <v>101</v>
       </c>
       <c r="G91" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
         <v>44</v>
       </c>
-      <c r="B92">
-        <v>30699474</v>
+      <c r="B92" t="s">
+        <v>82</v>
       </c>
       <c r="C92" t="s">
-        <v>52</v>
-      </c>
-      <c r="D92">
-        <v>2022</v>
+        <v>87</v>
+      </c>
+      <c r="D92" t="s">
+        <v>89</v>
       </c>
       <c r="E92" t="s">
-        <v>58</v>
-      </c>
-      <c r="F92">
-        <v>26343565</v>
+        <v>96</v>
+      </c>
+      <c r="F92" t="s">
+        <v>101</v>
       </c>
       <c r="G92" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
         <v>44</v>
       </c>
-      <c r="B93">
-        <v>30699474</v>
+      <c r="B93" t="s">
+        <v>82</v>
       </c>
       <c r="C93" t="s">
-        <v>51</v>
-      </c>
-      <c r="D93">
-        <v>2024</v>
+        <v>86</v>
+      </c>
+      <c r="D93" t="s">
+        <v>91</v>
       </c>
       <c r="E93" t="s">
-        <v>58</v>
-      </c>
-      <c r="F93">
-        <v>26343565</v>
+        <v>96</v>
+      </c>
+      <c r="F93" t="s">
+        <v>101</v>
       </c>
       <c r="G93" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2764,22 +2887,22 @@
         <v>41</v>
       </c>
       <c r="B94" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="C94" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="D94" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="E94" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="F94" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="G94" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2787,22 +2910,22 @@
         <v>43</v>
       </c>
       <c r="B95" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="C95" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="D95" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="E95" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="F95" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="G95" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2810,22 +2933,22 @@
         <v>42</v>
       </c>
       <c r="B96" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="C96" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="D96" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="E96" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="F96" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="G96" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/excel_tables/2.2_other_party_orgs_info.xlsx
+++ b/data/excel_tables/2.2_other_party_orgs_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="122">
   <si>
     <t>other_party_org_name</t>
   </si>
@@ -737,7 +737,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:G92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2493,10 +2493,10 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B77" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C77" t="s">
         <v>86</v>
@@ -2522,7 +2522,7 @@
         <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D78" t="s">
         <v>88</v>
@@ -2534,18 +2534,18 @@
         <v>100</v>
       </c>
       <c r="G78" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B79" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D79" t="s">
         <v>88</v>
@@ -2557,18 +2557,18 @@
         <v>100</v>
       </c>
       <c r="G79" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B80" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D80" t="s">
         <v>88</v>
@@ -2580,7 +2580,7 @@
         <v>100</v>
       </c>
       <c r="G80" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2591,7 +2591,7 @@
         <v>81</v>
       </c>
       <c r="C81" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D81" t="s">
         <v>88</v>
@@ -2603,7 +2603,7 @@
         <v>100</v>
       </c>
       <c r="G81" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2614,7 +2614,7 @@
         <v>80</v>
       </c>
       <c r="C82" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D82" t="s">
         <v>88</v>
@@ -2626,18 +2626,18 @@
         <v>100</v>
       </c>
       <c r="G82" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B83" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C83" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D83" t="s">
         <v>88</v>
@@ -2649,305 +2649,213 @@
         <v>100</v>
       </c>
       <c r="G83" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B84" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C84" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D84" t="s">
         <v>88</v>
       </c>
       <c r="E84" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F84" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G84" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B85" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C85" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D85" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E85" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F85" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G85" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B86" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C86" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D86" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E86" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F86" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G86" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B87" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C87" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D87" t="s">
         <v>88</v>
       </c>
       <c r="E87" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F87" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G87" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B88" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C88" t="s">
         <v>87</v>
       </c>
       <c r="D88" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E88" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F88" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G88" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B89" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C89" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D89" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E89" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F89" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G89" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B90" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C90" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D90" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E90" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F90" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G90" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B91" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C91" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D91" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E91" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F91" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G91" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B92" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C92" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D92" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F92" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G92" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
-      <c r="A93" t="s">
-        <v>44</v>
-      </c>
-      <c r="B93" t="s">
-        <v>82</v>
-      </c>
-      <c r="C93" t="s">
-        <v>86</v>
-      </c>
-      <c r="D93" t="s">
-        <v>91</v>
-      </c>
-      <c r="E93" t="s">
-        <v>96</v>
-      </c>
-      <c r="F93" t="s">
-        <v>101</v>
-      </c>
-      <c r="G93" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="A94" t="s">
-        <v>41</v>
-      </c>
-      <c r="B94" t="s">
-        <v>79</v>
-      </c>
-      <c r="C94" t="s">
-        <v>86</v>
-      </c>
-      <c r="D94" t="s">
-        <v>91</v>
-      </c>
-      <c r="E94" t="s">
-        <v>94</v>
-      </c>
-      <c r="F94" t="s">
-        <v>99</v>
-      </c>
-      <c r="G94" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
-      <c r="A95" t="s">
-        <v>43</v>
-      </c>
-      <c r="B95" t="s">
-        <v>81</v>
-      </c>
-      <c r="C95" t="s">
-        <v>86</v>
-      </c>
-      <c r="D95" t="s">
-        <v>91</v>
-      </c>
-      <c r="E95" t="s">
-        <v>95</v>
-      </c>
-      <c r="F95" t="s">
-        <v>100</v>
-      </c>
-      <c r="G95" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
-      <c r="A96" t="s">
-        <v>42</v>
-      </c>
-      <c r="B96" t="s">
-        <v>80</v>
-      </c>
-      <c r="C96" t="s">
-        <v>86</v>
-      </c>
-      <c r="D96" t="s">
-        <v>91</v>
-      </c>
-      <c r="E96" t="s">
-        <v>95</v>
-      </c>
-      <c r="F96" t="s">
-        <v>100</v>
-      </c>
-      <c r="G96" t="s">
         <v>121</v>
       </c>
     </row>

--- a/data/excel_tables/2.2_other_party_orgs_info.xlsx
+++ b/data/excel_tables/2.2_other_party_orgs_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="123">
   <si>
     <t>other_party_org_name</t>
   </si>
@@ -380,6 +380,9 @@
   </si>
   <si>
     <t>26a72960-0e95-11ef-a826-5536b50ce648</t>
+  </si>
+  <si>
+    <t>340093f0-45f2-11ef-b2b8-41c0413be8f6</t>
   </si>
 </sst>
 </file>
@@ -737,7 +740,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G92"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2859,6 +2862,29 @@
         <v>121</v>
       </c>
     </row>
+    <row r="93" spans="1:7">
+      <c r="A93" t="s">
+        <v>44</v>
+      </c>
+      <c r="B93" t="s">
+        <v>82</v>
+      </c>
+      <c r="C93" t="s">
+        <v>84</v>
+      </c>
+      <c r="D93" t="s">
+        <v>91</v>
+      </c>
+      <c r="E93" t="s">
+        <v>96</v>
+      </c>
+      <c r="F93" t="s">
+        <v>101</v>
+      </c>
+      <c r="G93" t="s">
+        <v>122</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/excel_tables/2.2_other_party_orgs_info.xlsx
+++ b/data/excel_tables/2.2_other_party_orgs_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="130">
   <si>
     <t>other_party_org_name</t>
   </si>
@@ -151,6 +151,9 @@
     <t>Підприємство Набат</t>
   </si>
   <si>
+    <t>Підприємство Редакція газети Народна справедливість партії Всеукраїнского обєднання лівих Справедливість</t>
+  </si>
+  <si>
     <t>32110582</t>
   </si>
   <si>
@@ -265,6 +268,9 @@
     <t>30699474</t>
   </si>
   <si>
+    <t>31516376</t>
+  </si>
+  <si>
     <t>3 квартал</t>
   </si>
   <si>
@@ -307,6 +313,9 @@
     <t>СОЮЗ АНАРХІСТІВ УКРАЇНИ</t>
   </si>
   <si>
+    <t>СПРАВЕДЛИВІСТЬ</t>
+  </si>
+  <si>
     <t>00013497</t>
   </si>
   <si>
@@ -322,6 +331,9 @@
     <t>26343565</t>
   </si>
   <si>
+    <t>21716145</t>
+  </si>
+  <si>
     <t>e1fad670-81bc-11ec-bdbe-3bf689b2cb33</t>
   </si>
   <si>
@@ -383,6 +395,15 @@
   </si>
   <si>
     <t>340093f0-45f2-11ef-b2b8-41c0413be8f6</t>
+  </si>
+  <si>
+    <t>a9d7a880-50aa-11ef-b2b8-41c0413be8f6</t>
+  </si>
+  <si>
+    <t>500ea260-556c-11ef-976d-d13028d0d5de</t>
+  </si>
+  <si>
+    <t>a43aa490-564a-11ef-9f9f-af297e478ff7</t>
   </si>
 </sst>
 </file>
@@ -740,7 +761,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G93"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -774,22 +795,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -797,22 +818,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -820,22 +841,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G4" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -843,22 +864,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G5" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -866,22 +887,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G6" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -889,22 +910,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -912,22 +933,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G8" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -935,22 +956,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G9" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -958,22 +979,22 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F10" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G10" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -981,22 +1002,22 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F11" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G11" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1004,22 +1025,22 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F12" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G12" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1027,22 +1048,22 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E13" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F13" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G13" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1050,22 +1071,22 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E14" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G14" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1073,22 +1094,22 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E15" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F15" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G15" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1096,22 +1117,22 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D16" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E16" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F16" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G16" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1119,22 +1140,22 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E17" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F17" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G17" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1142,22 +1163,22 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D18" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E18" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F18" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G18" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1165,22 +1186,22 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D19" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E19" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F19" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G19" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1188,22 +1209,22 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E20" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F20" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G20" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1211,22 +1232,22 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D21" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E21" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F21" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G21" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1234,22 +1255,22 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C22" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D22" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E22" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F22" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G22" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1257,22 +1278,22 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D23" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E23" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F23" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G23" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1280,22 +1301,22 @@
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C24" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D24" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E24" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F24" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G24" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1303,22 +1324,22 @@
         <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C25" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D25" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E25" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F25" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G25" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1326,22 +1347,22 @@
         <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E26" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F26" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G26" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1349,22 +1370,22 @@
         <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C27" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D27" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E27" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F27" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G27" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1372,22 +1393,22 @@
         <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C28" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D28" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E28" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F28" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G28" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1395,22 +1416,22 @@
         <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D29" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E29" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F29" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G29" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1418,22 +1439,22 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C30" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D30" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E30" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F30" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G30" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1441,22 +1462,22 @@
         <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C31" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D31" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E31" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F31" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G31" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1464,22 +1485,22 @@
         <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C32" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D32" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E32" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F32" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G32" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1487,22 +1508,22 @@
         <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D33" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E33" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F33" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G33" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1510,22 +1531,22 @@
         <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C34" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D34" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E34" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F34" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G34" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1533,22 +1554,22 @@
         <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C35" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D35" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E35" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F35" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G35" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1556,22 +1577,22 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D36" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E36" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F36" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G36" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1579,22 +1600,22 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C37" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D37" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E37" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F37" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G37" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1602,22 +1623,22 @@
         <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D38" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E38" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F38" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G38" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1625,22 +1646,22 @@
         <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C39" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D39" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E39" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F39" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G39" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1648,22 +1669,22 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D40" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E40" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F40" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G40" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1671,22 +1692,22 @@
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D41" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E41" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F41" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G41" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1694,22 +1715,22 @@
         <v>13</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C42" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D42" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E42" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F42" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G42" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1717,22 +1738,22 @@
         <v>14</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C43" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D43" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E43" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F43" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G43" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1740,22 +1761,22 @@
         <v>15</v>
       </c>
       <c r="B44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C44" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D44" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E44" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F44" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G44" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1763,22 +1784,22 @@
         <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C45" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D45" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E45" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F45" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G45" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1786,22 +1807,22 @@
         <v>17</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C46" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D46" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E46" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F46" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G46" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1809,22 +1830,22 @@
         <v>18</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C47" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D47" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E47" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F47" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G47" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1832,22 +1853,22 @@
         <v>19</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C48" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D48" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E48" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F48" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G48" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1855,22 +1876,22 @@
         <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C49" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D49" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E49" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F49" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G49" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1878,22 +1899,22 @@
         <v>21</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C50" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D50" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E50" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F50" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G50" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1901,22 +1922,22 @@
         <v>22</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C51" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D51" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E51" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F51" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G51" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1924,22 +1945,22 @@
         <v>23</v>
       </c>
       <c r="B52" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C52" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D52" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E52" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F52" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G52" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1947,22 +1968,22 @@
         <v>24</v>
       </c>
       <c r="B53" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C53" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D53" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E53" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F53" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G53" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1970,22 +1991,22 @@
         <v>25</v>
       </c>
       <c r="B54" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C54" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D54" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E54" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F54" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G54" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1993,22 +2014,22 @@
         <v>26</v>
       </c>
       <c r="B55" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C55" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E55" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F55" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G55" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2016,22 +2037,22 @@
         <v>27</v>
       </c>
       <c r="B56" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C56" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D56" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E56" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F56" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G56" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2039,22 +2060,22 @@
         <v>28</v>
       </c>
       <c r="B57" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C57" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D57" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E57" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F57" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G57" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2062,22 +2083,22 @@
         <v>29</v>
       </c>
       <c r="B58" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C58" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D58" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E58" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F58" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G58" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2085,22 +2106,22 @@
         <v>30</v>
       </c>
       <c r="B59" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C59" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D59" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E59" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F59" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G59" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2108,22 +2129,22 @@
         <v>31</v>
       </c>
       <c r="B60" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C60" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D60" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E60" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F60" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G60" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2131,22 +2152,22 @@
         <v>32</v>
       </c>
       <c r="B61" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C61" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D61" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E61" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F61" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G61" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2154,22 +2175,22 @@
         <v>33</v>
       </c>
       <c r="B62" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C62" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D62" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E62" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F62" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G62" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2177,22 +2198,22 @@
         <v>34</v>
       </c>
       <c r="B63" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C63" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D63" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E63" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F63" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G63" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2200,22 +2221,22 @@
         <v>35</v>
       </c>
       <c r="B64" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C64" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D64" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E64" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F64" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G64" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2223,22 +2244,22 @@
         <v>36</v>
       </c>
       <c r="B65" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C65" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D65" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E65" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F65" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G65" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2246,22 +2267,22 @@
         <v>37</v>
       </c>
       <c r="B66" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C66" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D66" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E66" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F66" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G66" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2269,22 +2290,22 @@
         <v>38</v>
       </c>
       <c r="B67" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C67" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D67" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E67" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F67" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G67" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2292,22 +2313,22 @@
         <v>39</v>
       </c>
       <c r="B68" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C68" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D68" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E68" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F68" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G68" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2315,22 +2336,22 @@
         <v>40</v>
       </c>
       <c r="B69" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C69" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D69" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E69" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F69" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G69" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2338,22 +2359,22 @@
         <v>7</v>
       </c>
       <c r="B70" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C70" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D70" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E70" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F70" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G70" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2361,22 +2382,22 @@
         <v>41</v>
       </c>
       <c r="B71" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C71" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D71" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E71" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F71" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G71" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2384,22 +2405,22 @@
         <v>42</v>
       </c>
       <c r="B72" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C72" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D72" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E72" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F72" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G72" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2407,22 +2428,22 @@
         <v>43</v>
       </c>
       <c r="B73" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C73" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D73" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E73" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F73" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G73" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2430,22 +2451,22 @@
         <v>43</v>
       </c>
       <c r="B74" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C74" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D74" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E74" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F74" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G74" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2453,22 +2474,22 @@
         <v>42</v>
       </c>
       <c r="B75" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C75" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D75" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E75" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F75" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G75" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2476,22 +2497,22 @@
         <v>42</v>
       </c>
       <c r="B76" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C76" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D76" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E76" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F76" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G76" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2499,22 +2520,22 @@
         <v>43</v>
       </c>
       <c r="B77" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C77" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D77" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E77" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F77" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G77" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2522,22 +2543,22 @@
         <v>43</v>
       </c>
       <c r="B78" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C78" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D78" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E78" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F78" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G78" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2545,22 +2566,22 @@
         <v>42</v>
       </c>
       <c r="B79" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D79" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E79" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F79" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G79" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2568,22 +2589,22 @@
         <v>42</v>
       </c>
       <c r="B80" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C80" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D80" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E80" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F80" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G80" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2591,22 +2612,22 @@
         <v>43</v>
       </c>
       <c r="B81" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C81" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D81" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E81" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F81" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G81" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2614,22 +2635,22 @@
         <v>42</v>
       </c>
       <c r="B82" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C82" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D82" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E82" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F82" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G82" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2637,22 +2658,22 @@
         <v>43</v>
       </c>
       <c r="B83" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C83" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D83" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E83" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F83" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G83" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2660,22 +2681,22 @@
         <v>41</v>
       </c>
       <c r="B84" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C84" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D84" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E84" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F84" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G84" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2683,22 +2704,22 @@
         <v>41</v>
       </c>
       <c r="B85" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C85" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D85" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E85" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F85" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G85" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2706,22 +2727,22 @@
         <v>44</v>
       </c>
       <c r="B86" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C86" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D86" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E86" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F86" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G86" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2729,22 +2750,22 @@
         <v>44</v>
       </c>
       <c r="B87" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C87" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D87" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E87" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F87" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G87" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2752,22 +2773,22 @@
         <v>44</v>
       </c>
       <c r="B88" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C88" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D88" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E88" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F88" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G88" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2775,22 +2796,22 @@
         <v>44</v>
       </c>
       <c r="B89" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C89" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D89" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E89" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F89" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G89" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2798,22 +2819,22 @@
         <v>41</v>
       </c>
       <c r="B90" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C90" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D90" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E90" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F90" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G90" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2821,22 +2842,22 @@
         <v>43</v>
       </c>
       <c r="B91" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C91" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D91" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E91" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F91" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G91" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2844,22 +2865,22 @@
         <v>42</v>
       </c>
       <c r="B92" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C92" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D92" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E92" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F92" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G92" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2867,22 +2888,114 @@
         <v>44</v>
       </c>
       <c r="B93" t="s">
+        <v>83</v>
+      </c>
+      <c r="C93" t="s">
+        <v>86</v>
+      </c>
+      <c r="D93" t="s">
+        <v>93</v>
+      </c>
+      <c r="E93" t="s">
+        <v>98</v>
+      </c>
+      <c r="F93" t="s">
+        <v>104</v>
+      </c>
+      <c r="G93" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" t="s">
+        <v>45</v>
+      </c>
+      <c r="B94" t="s">
+        <v>84</v>
+      </c>
+      <c r="C94" t="s">
+        <v>86</v>
+      </c>
+      <c r="D94" t="s">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>99</v>
+      </c>
+      <c r="F94" t="s">
+        <v>105</v>
+      </c>
+      <c r="G94" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" t="s">
+        <v>43</v>
+      </c>
+      <c r="B95" t="s">
         <v>82</v>
       </c>
-      <c r="C93" t="s">
-        <v>84</v>
-      </c>
-      <c r="D93" t="s">
-        <v>91</v>
-      </c>
-      <c r="E93" t="s">
+      <c r="C95" t="s">
+        <v>86</v>
+      </c>
+      <c r="D95" t="s">
+        <v>93</v>
+      </c>
+      <c r="E95" t="s">
+        <v>97</v>
+      </c>
+      <c r="F95" t="s">
+        <v>103</v>
+      </c>
+      <c r="G95" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" t="s">
+        <v>42</v>
+      </c>
+      <c r="B96" t="s">
+        <v>81</v>
+      </c>
+      <c r="C96" t="s">
+        <v>86</v>
+      </c>
+      <c r="D96" t="s">
+        <v>93</v>
+      </c>
+      <c r="E96" t="s">
+        <v>97</v>
+      </c>
+      <c r="F96" t="s">
+        <v>103</v>
+      </c>
+      <c r="G96" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" t="s">
+        <v>41</v>
+      </c>
+      <c r="B97" t="s">
+        <v>80</v>
+      </c>
+      <c r="C97" t="s">
+        <v>86</v>
+      </c>
+      <c r="D97" t="s">
+        <v>93</v>
+      </c>
+      <c r="E97" t="s">
         <v>96</v>
       </c>
-      <c r="F93" t="s">
-        <v>101</v>
-      </c>
-      <c r="G93" t="s">
-        <v>122</v>
+      <c r="F97" t="s">
+        <v>102</v>
+      </c>
+      <c r="G97" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/data/excel_tables/2.2_other_party_orgs_info.xlsx
+++ b/data/excel_tables/2.2_other_party_orgs_info.xlsx
@@ -400,10 +400,10 @@
     <t>a9d7a880-50aa-11ef-b2b8-41c0413be8f6</t>
   </si>
   <si>
+    <t>a43aa490-564a-11ef-9f9f-af297e478ff7</t>
+  </si>
+  <si>
     <t>500ea260-556c-11ef-976d-d13028d0d5de</t>
-  </si>
-  <si>
-    <t>a43aa490-564a-11ef-9f9f-af297e478ff7</t>
   </si>
 </sst>
 </file>
@@ -2931,10 +2931,10 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B95" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C95" t="s">
         <v>86</v>
@@ -2943,10 +2943,10 @@
         <v>93</v>
       </c>
       <c r="E95" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F95" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G95" t="s">
         <v>128</v>
@@ -2954,10 +2954,10 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B96" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C96" t="s">
         <v>86</v>
@@ -2972,15 +2972,15 @@
         <v>103</v>
       </c>
       <c r="G96" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B97" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C97" t="s">
         <v>86</v>
@@ -2989,10 +2989,10 @@
         <v>93</v>
       </c>
       <c r="E97" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F97" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G97" t="s">
         <v>129</v>

--- a/data/excel_tables/2.2_other_party_orgs_info.xlsx
+++ b/data/excel_tables/2.2_other_party_orgs_info.xlsx
@@ -400,10 +400,10 @@
     <t>a9d7a880-50aa-11ef-b2b8-41c0413be8f6</t>
   </si>
   <si>
+    <t>500ea260-556c-11ef-976d-d13028d0d5de</t>
+  </si>
+  <si>
     <t>a43aa490-564a-11ef-9f9f-af297e478ff7</t>
-  </si>
-  <si>
-    <t>500ea260-556c-11ef-976d-d13028d0d5de</t>
   </si>
 </sst>
 </file>
@@ -2931,10 +2931,10 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B95" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C95" t="s">
         <v>86</v>
@@ -2943,10 +2943,10 @@
         <v>93</v>
       </c>
       <c r="E95" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F95" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G95" t="s">
         <v>128</v>
@@ -2954,10 +2954,10 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B96" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C96" t="s">
         <v>86</v>
@@ -2972,15 +2972,15 @@
         <v>103</v>
       </c>
       <c r="G96" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B97" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C97" t="s">
         <v>86</v>
@@ -2989,10 +2989,10 @@
         <v>93</v>
       </c>
       <c r="E97" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F97" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G97" t="s">
         <v>129</v>

--- a/data/excel_tables/2.2_other_party_orgs_info.xlsx
+++ b/data/excel_tables/2.2_other_party_orgs_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="131">
   <si>
     <t>other_party_org_name</t>
   </si>
@@ -404,6 +404,9 @@
   </si>
   <si>
     <t>a43aa490-564a-11ef-9f9f-af297e478ff7</t>
+  </si>
+  <si>
+    <t>d5aa2af0-85a2-11ef-9f9f-af297e478ff7</t>
   </si>
 </sst>
 </file>
@@ -761,7 +764,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:G98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2998,6 +3001,29 @@
         <v>129</v>
       </c>
     </row>
+    <row r="98" spans="1:7">
+      <c r="A98" t="s">
+        <v>44</v>
+      </c>
+      <c r="B98" t="s">
+        <v>83</v>
+      </c>
+      <c r="C98" t="s">
+        <v>85</v>
+      </c>
+      <c r="D98" t="s">
+        <v>93</v>
+      </c>
+      <c r="E98" t="s">
+        <v>98</v>
+      </c>
+      <c r="F98" t="s">
+        <v>104</v>
+      </c>
+      <c r="G98" t="s">
+        <v>130</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/excel_tables/2.2_other_party_orgs_info.xlsx
+++ b/data/excel_tables/2.2_other_party_orgs_info.xlsx
@@ -376,37 +376,37 @@
     <t>a8224490-0380-11ef-bce9-638f8e04ad34</t>
   </si>
   <si>
+    <t>8b11f3c0-03dd-11ef-938a-5514903835ea</t>
+  </si>
+  <si>
+    <t>22527c80-03e5-11ef-a826-5536b50ce648</t>
+  </si>
+  <si>
+    <t>5ee7c530-062c-11ef-938a-5514903835ea</t>
+  </si>
+  <si>
+    <t>2d8673f0-0d6c-11ef-ae0a-87878d7061af</t>
+  </si>
+  <si>
+    <t>26a72960-0e95-11ef-a826-5536b50ce648</t>
+  </si>
+  <si>
+    <t>340093f0-45f2-11ef-b2b8-41c0413be8f6</t>
+  </si>
+  <si>
+    <t>a9d7a880-50aa-11ef-b2b8-41c0413be8f6</t>
+  </si>
+  <si>
+    <t>500ea260-556c-11ef-976d-d13028d0d5de</t>
+  </si>
+  <si>
+    <t>a43aa490-564a-11ef-9f9f-af297e478ff7</t>
+  </si>
+  <si>
+    <t>d5aa2af0-85a2-11ef-9f9f-af297e478ff7</t>
+  </si>
+  <si>
     <t>a2d97000-03ce-11ef-bce9-638f8e04ad34</t>
-  </si>
-  <si>
-    <t>8b11f3c0-03dd-11ef-938a-5514903835ea</t>
-  </si>
-  <si>
-    <t>22527c80-03e5-11ef-a826-5536b50ce648</t>
-  </si>
-  <si>
-    <t>5ee7c530-062c-11ef-938a-5514903835ea</t>
-  </si>
-  <si>
-    <t>2d8673f0-0d6c-11ef-ae0a-87878d7061af</t>
-  </si>
-  <si>
-    <t>26a72960-0e95-11ef-a826-5536b50ce648</t>
-  </si>
-  <si>
-    <t>340093f0-45f2-11ef-b2b8-41c0413be8f6</t>
-  </si>
-  <si>
-    <t>a9d7a880-50aa-11ef-b2b8-41c0413be8f6</t>
-  </si>
-  <si>
-    <t>500ea260-556c-11ef-976d-d13028d0d5de</t>
-  </si>
-  <si>
-    <t>a43aa490-564a-11ef-9f9f-af297e478ff7</t>
-  </si>
-  <si>
-    <t>d5aa2af0-85a2-11ef-9f9f-af297e478ff7</t>
   </si>
 </sst>
 </file>
@@ -2736,7 +2736,7 @@
         <v>89</v>
       </c>
       <c r="D86" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E86" t="s">
         <v>98</v>
@@ -2759,7 +2759,7 @@
         <v>89</v>
       </c>
       <c r="D87" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E87" t="s">
         <v>98</v>
@@ -2779,10 +2779,10 @@
         <v>83</v>
       </c>
       <c r="C88" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D88" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E88" t="s">
         <v>98</v>
@@ -2796,10 +2796,10 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B89" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C89" t="s">
         <v>88</v>
@@ -2808,10 +2808,10 @@
         <v>93</v>
       </c>
       <c r="E89" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F89" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G89" t="s">
         <v>123</v>
@@ -2819,10 +2819,10 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B90" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C90" t="s">
         <v>88</v>
@@ -2831,10 +2831,10 @@
         <v>93</v>
       </c>
       <c r="E90" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F90" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G90" t="s">
         <v>124</v>
@@ -2842,10 +2842,10 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B91" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C91" t="s">
         <v>88</v>
@@ -2860,27 +2860,27 @@
         <v>103</v>
       </c>
       <c r="G91" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B92" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C92" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D92" t="s">
         <v>93</v>
       </c>
       <c r="E92" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F92" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G92" t="s">
         <v>125</v>
@@ -2888,10 +2888,10 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B93" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C93" t="s">
         <v>86</v>
@@ -2900,10 +2900,10 @@
         <v>93</v>
       </c>
       <c r="E93" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F93" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G93" t="s">
         <v>126</v>
@@ -2911,10 +2911,10 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B94" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C94" t="s">
         <v>86</v>
@@ -2923,10 +2923,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F94" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G94" t="s">
         <v>127</v>
@@ -2934,10 +2934,10 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B95" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C95" t="s">
         <v>86</v>
@@ -2952,15 +2952,15 @@
         <v>103</v>
       </c>
       <c r="G95" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B96" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C96" t="s">
         <v>86</v>
@@ -2969,10 +2969,10 @@
         <v>93</v>
       </c>
       <c r="E96" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F96" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G96" t="s">
         <v>128</v>
@@ -2980,22 +2980,22 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B97" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C97" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D97" t="s">
         <v>93</v>
       </c>
       <c r="E97" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F97" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G97" t="s">
         <v>129</v>
@@ -3009,10 +3009,10 @@
         <v>83</v>
       </c>
       <c r="C98" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D98" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E98" t="s">
         <v>98</v>

--- a/data/excel_tables/2.2_other_party_orgs_info.xlsx
+++ b/data/excel_tables/2.2_other_party_orgs_info.xlsx
@@ -376,6 +376,9 @@
     <t>a8224490-0380-11ef-bce9-638f8e04ad34</t>
   </si>
   <si>
+    <t>a2d97000-03ce-11ef-bce9-638f8e04ad34</t>
+  </si>
+  <si>
     <t>8b11f3c0-03dd-11ef-938a-5514903835ea</t>
   </si>
   <si>
@@ -404,9 +407,6 @@
   </si>
   <si>
     <t>d5aa2af0-85a2-11ef-9f9f-af297e478ff7</t>
-  </si>
-  <si>
-    <t>a2d97000-03ce-11ef-bce9-638f8e04ad34</t>
   </si>
 </sst>
 </file>
@@ -2736,7 +2736,7 @@
         <v>89</v>
       </c>
       <c r="D86" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E86" t="s">
         <v>98</v>
@@ -2759,7 +2759,7 @@
         <v>89</v>
       </c>
       <c r="D87" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E87" t="s">
         <v>98</v>
@@ -2779,10 +2779,10 @@
         <v>83</v>
       </c>
       <c r="C88" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D88" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E88" t="s">
         <v>98</v>
@@ -2796,10 +2796,10 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B89" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C89" t="s">
         <v>88</v>
@@ -2808,10 +2808,10 @@
         <v>93</v>
       </c>
       <c r="E89" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F89" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G89" t="s">
         <v>123</v>
@@ -2819,10 +2819,10 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B90" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C90" t="s">
         <v>88</v>
@@ -2831,10 +2831,10 @@
         <v>93</v>
       </c>
       <c r="E90" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F90" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G90" t="s">
         <v>124</v>
@@ -2842,10 +2842,10 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B91" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C91" t="s">
         <v>88</v>
@@ -2860,27 +2860,27 @@
         <v>103</v>
       </c>
       <c r="G91" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B92" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C92" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D92" t="s">
         <v>93</v>
       </c>
       <c r="E92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F92" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G92" t="s">
         <v>125</v>
@@ -2888,10 +2888,10 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B93" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C93" t="s">
         <v>86</v>
@@ -2900,10 +2900,10 @@
         <v>93</v>
       </c>
       <c r="E93" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F93" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G93" t="s">
         <v>126</v>
@@ -2911,10 +2911,10 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B94" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C94" t="s">
         <v>86</v>
@@ -2923,10 +2923,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F94" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G94" t="s">
         <v>127</v>
@@ -2934,10 +2934,10 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B95" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C95" t="s">
         <v>86</v>
@@ -2952,15 +2952,15 @@
         <v>103</v>
       </c>
       <c r="G95" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B96" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C96" t="s">
         <v>86</v>
@@ -2969,10 +2969,10 @@
         <v>93</v>
       </c>
       <c r="E96" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F96" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G96" t="s">
         <v>128</v>
@@ -2980,22 +2980,22 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B97" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C97" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D97" t="s">
         <v>93</v>
       </c>
       <c r="E97" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F97" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G97" t="s">
         <v>129</v>
@@ -3009,10 +3009,10 @@
         <v>83</v>
       </c>
       <c r="C98" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D98" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E98" t="s">
         <v>98</v>

--- a/data/excel_tables/2.2_other_party_orgs_info.xlsx
+++ b/data/excel_tables/2.2_other_party_orgs_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="133">
   <si>
     <t>other_party_org_name</t>
   </si>
@@ -407,6 +407,12 @@
   </si>
   <si>
     <t>d5aa2af0-85a2-11ef-9f9f-af297e478ff7</t>
+  </si>
+  <si>
+    <t>8abd93a0-9d27-11ef-976d-d13028d0d5de</t>
+  </si>
+  <si>
+    <t>db663f70-9dd9-11ef-9f9f-af297e478ff7</t>
   </si>
 </sst>
 </file>
@@ -764,7 +770,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G98"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3024,6 +3030,75 @@
         <v>130</v>
       </c>
     </row>
+    <row r="99" spans="1:7">
+      <c r="A99" t="s">
+        <v>42</v>
+      </c>
+      <c r="B99" t="s">
+        <v>81</v>
+      </c>
+      <c r="C99" t="s">
+        <v>85</v>
+      </c>
+      <c r="D99" t="s">
+        <v>93</v>
+      </c>
+      <c r="E99" t="s">
+        <v>97</v>
+      </c>
+      <c r="F99" t="s">
+        <v>103</v>
+      </c>
+      <c r="G99" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" t="s">
+        <v>43</v>
+      </c>
+      <c r="B100" t="s">
+        <v>82</v>
+      </c>
+      <c r="C100" t="s">
+        <v>85</v>
+      </c>
+      <c r="D100" t="s">
+        <v>93</v>
+      </c>
+      <c r="E100" t="s">
+        <v>97</v>
+      </c>
+      <c r="F100" t="s">
+        <v>103</v>
+      </c>
+      <c r="G100" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" t="s">
+        <v>41</v>
+      </c>
+      <c r="B101" t="s">
+        <v>80</v>
+      </c>
+      <c r="C101" t="s">
+        <v>85</v>
+      </c>
+      <c r="D101" t="s">
+        <v>93</v>
+      </c>
+      <c r="E101" t="s">
+        <v>96</v>
+      </c>
+      <c r="F101" t="s">
+        <v>102</v>
+      </c>
+      <c r="G101" t="s">
+        <v>132</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/excel_tables/2.2_other_party_orgs_info.xlsx
+++ b/data/excel_tables/2.2_other_party_orgs_info.xlsx
@@ -346,73 +346,73 @@
     <t>c43dfc50-22be-11ec-945d-214b0bac8091</t>
   </si>
   <si>
+    <t>0e252b20-ead3-11ee-a826-5536b50ce648</t>
+  </si>
+  <si>
+    <t>097e3920-eaa3-11ee-ae0a-87878d7061af</t>
+  </si>
+  <si>
+    <t>425c96b0-eaad-11ee-bce9-638f8e04ad34</t>
+  </si>
+  <si>
+    <t>9032f690-0182-11ef-938a-5514903835ea</t>
+  </si>
+  <si>
+    <t>a38ae5e0-0182-11ef-95c4-e7bfad33aba2</t>
+  </si>
+  <si>
+    <t>b2cb7830-0182-11ef-ae0a-87878d7061af</t>
+  </si>
+  <si>
+    <t>c5f838d0-0182-11ef-95c4-e7bfad33aba2</t>
+  </si>
+  <si>
+    <t>1da92b80-02ef-11ef-ae0a-87878d7061af</t>
+  </si>
+  <si>
+    <t>a8224490-0380-11ef-bce9-638f8e04ad34</t>
+  </si>
+  <si>
+    <t>a2d97000-03ce-11ef-bce9-638f8e04ad34</t>
+  </si>
+  <si>
+    <t>8b11f3c0-03dd-11ef-938a-5514903835ea</t>
+  </si>
+  <si>
+    <t>22527c80-03e5-11ef-a826-5536b50ce648</t>
+  </si>
+  <si>
+    <t>5ee7c530-062c-11ef-938a-5514903835ea</t>
+  </si>
+  <si>
+    <t>2d8673f0-0d6c-11ef-ae0a-87878d7061af</t>
+  </si>
+  <si>
+    <t>26a72960-0e95-11ef-a826-5536b50ce648</t>
+  </si>
+  <si>
+    <t>340093f0-45f2-11ef-b2b8-41c0413be8f6</t>
+  </si>
+  <si>
+    <t>a9d7a880-50aa-11ef-b2b8-41c0413be8f6</t>
+  </si>
+  <si>
+    <t>500ea260-556c-11ef-976d-d13028d0d5de</t>
+  </si>
+  <si>
+    <t>a43aa490-564a-11ef-9f9f-af297e478ff7</t>
+  </si>
+  <si>
+    <t>d5aa2af0-85a2-11ef-9f9f-af297e478ff7</t>
+  </si>
+  <si>
+    <t>8abd93a0-9d27-11ef-976d-d13028d0d5de</t>
+  </si>
+  <si>
+    <t>db663f70-9dd9-11ef-9f9f-af297e478ff7</t>
+  </si>
+  <si>
     <t>aa6f1480-2a66-11ec-945d-214b0bac8091</t>
-  </si>
-  <si>
-    <t>0e252b20-ead3-11ee-a826-5536b50ce648</t>
-  </si>
-  <si>
-    <t>097e3920-eaa3-11ee-ae0a-87878d7061af</t>
-  </si>
-  <si>
-    <t>425c96b0-eaad-11ee-bce9-638f8e04ad34</t>
-  </si>
-  <si>
-    <t>9032f690-0182-11ef-938a-5514903835ea</t>
-  </si>
-  <si>
-    <t>a38ae5e0-0182-11ef-95c4-e7bfad33aba2</t>
-  </si>
-  <si>
-    <t>b2cb7830-0182-11ef-ae0a-87878d7061af</t>
-  </si>
-  <si>
-    <t>c5f838d0-0182-11ef-95c4-e7bfad33aba2</t>
-  </si>
-  <si>
-    <t>1da92b80-02ef-11ef-ae0a-87878d7061af</t>
-  </si>
-  <si>
-    <t>a8224490-0380-11ef-bce9-638f8e04ad34</t>
-  </si>
-  <si>
-    <t>a2d97000-03ce-11ef-bce9-638f8e04ad34</t>
-  </si>
-  <si>
-    <t>8b11f3c0-03dd-11ef-938a-5514903835ea</t>
-  </si>
-  <si>
-    <t>22527c80-03e5-11ef-a826-5536b50ce648</t>
-  </si>
-  <si>
-    <t>5ee7c530-062c-11ef-938a-5514903835ea</t>
-  </si>
-  <si>
-    <t>2d8673f0-0d6c-11ef-ae0a-87878d7061af</t>
-  </si>
-  <si>
-    <t>26a72960-0e95-11ef-a826-5536b50ce648</t>
-  </si>
-  <si>
-    <t>340093f0-45f2-11ef-b2b8-41c0413be8f6</t>
-  </si>
-  <si>
-    <t>a9d7a880-50aa-11ef-b2b8-41c0413be8f6</t>
-  </si>
-  <si>
-    <t>500ea260-556c-11ef-976d-d13028d0d5de</t>
-  </si>
-  <si>
-    <t>a43aa490-564a-11ef-9f9f-af297e478ff7</t>
-  </si>
-  <si>
-    <t>d5aa2af0-85a2-11ef-9f9f-af297e478ff7</t>
-  </si>
-  <si>
-    <t>8abd93a0-9d27-11ef-976d-d13028d0d5de</t>
-  </si>
-  <si>
-    <t>db663f70-9dd9-11ef-9f9f-af297e478ff7</t>
   </si>
 </sst>
 </file>
@@ -2365,22 +2365,22 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B70" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="C70" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D70" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E70" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F70" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G70" t="s">
         <v>110</v>
@@ -2388,10 +2388,10 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B71" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C71" t="s">
         <v>89</v>
@@ -2400,10 +2400,10 @@
         <v>92</v>
       </c>
       <c r="E71" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F71" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G71" t="s">
         <v>111</v>
@@ -2411,10 +2411,10 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B72" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C72" t="s">
         <v>89</v>
@@ -2429,7 +2429,7 @@
         <v>103</v>
       </c>
       <c r="G72" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2443,7 +2443,7 @@
         <v>89</v>
       </c>
       <c r="D73" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E73" t="s">
         <v>97</v>
@@ -2457,10 +2457,10 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B74" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C74" t="s">
         <v>89</v>
@@ -2475,7 +2475,7 @@
         <v>103</v>
       </c>
       <c r="G74" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2486,10 +2486,10 @@
         <v>81</v>
       </c>
       <c r="C75" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D75" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" t="s">
         <v>97</v>
@@ -2503,10 +2503,10 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B76" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C76" t="s">
         <v>88</v>
@@ -2521,7 +2521,7 @@
         <v>103</v>
       </c>
       <c r="G76" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2532,7 +2532,7 @@
         <v>82</v>
       </c>
       <c r="C77" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D77" t="s">
         <v>90</v>
@@ -2549,10 +2549,10 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B78" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C78" t="s">
         <v>86</v>
@@ -2567,7 +2567,7 @@
         <v>103</v>
       </c>
       <c r="G78" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2578,7 +2578,7 @@
         <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D79" t="s">
         <v>90</v>
@@ -2595,10 +2595,10 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B80" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C80" t="s">
         <v>85</v>
@@ -2613,18 +2613,18 @@
         <v>103</v>
       </c>
       <c r="G80" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B81" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C81" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D81" t="s">
         <v>90</v>
@@ -2641,10 +2641,10 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B82" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C82" t="s">
         <v>87</v>
@@ -2659,27 +2659,27 @@
         <v>103</v>
       </c>
       <c r="G82" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B83" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C83" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D83" t="s">
         <v>90</v>
       </c>
       <c r="E83" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F83" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G83" t="s">
         <v>117</v>
@@ -2696,7 +2696,7 @@
         <v>89</v>
       </c>
       <c r="D84" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E84" t="s">
         <v>96</v>
@@ -2710,22 +2710,22 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B85" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C85" t="s">
         <v>89</v>
       </c>
       <c r="D85" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E85" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F85" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G85" t="s">
         <v>119</v>
@@ -2742,7 +2742,7 @@
         <v>89</v>
       </c>
       <c r="D86" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E86" t="s">
         <v>98</v>
@@ -2765,7 +2765,7 @@
         <v>89</v>
       </c>
       <c r="D87" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E87" t="s">
         <v>98</v>
@@ -2785,10 +2785,10 @@
         <v>83</v>
       </c>
       <c r="C88" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D88" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E88" t="s">
         <v>98</v>
@@ -2802,10 +2802,10 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B89" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C89" t="s">
         <v>88</v>
@@ -2814,10 +2814,10 @@
         <v>93</v>
       </c>
       <c r="E89" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F89" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G89" t="s">
         <v>123</v>
@@ -2825,10 +2825,10 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B90" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C90" t="s">
         <v>88</v>
@@ -2837,10 +2837,10 @@
         <v>93</v>
       </c>
       <c r="E90" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F90" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G90" t="s">
         <v>124</v>
@@ -2848,10 +2848,10 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B91" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C91" t="s">
         <v>88</v>
@@ -2866,27 +2866,27 @@
         <v>103</v>
       </c>
       <c r="G91" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B92" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C92" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D92" t="s">
         <v>93</v>
       </c>
       <c r="E92" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F92" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G92" t="s">
         <v>125</v>
@@ -2894,10 +2894,10 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B93" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C93" t="s">
         <v>86</v>
@@ -2906,10 +2906,10 @@
         <v>93</v>
       </c>
       <c r="E93" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F93" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G93" t="s">
         <v>126</v>
@@ -2917,10 +2917,10 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B94" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C94" t="s">
         <v>86</v>
@@ -2929,10 +2929,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F94" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G94" t="s">
         <v>127</v>
@@ -2940,10 +2940,10 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B95" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C95" t="s">
         <v>86</v>
@@ -2958,15 +2958,15 @@
         <v>103</v>
       </c>
       <c r="G95" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B96" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C96" t="s">
         <v>86</v>
@@ -2975,10 +2975,10 @@
         <v>93</v>
       </c>
       <c r="E96" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F96" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G96" t="s">
         <v>128</v>
@@ -2986,22 +2986,22 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B97" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C97" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D97" t="s">
         <v>93</v>
       </c>
       <c r="E97" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F97" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G97" t="s">
         <v>129</v>
@@ -3009,10 +3009,10 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B98" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C98" t="s">
         <v>85</v>
@@ -3021,10 +3021,10 @@
         <v>93</v>
       </c>
       <c r="E98" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F98" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G98" t="s">
         <v>130</v>
@@ -3032,10 +3032,10 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B99" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C99" t="s">
         <v>85</v>
@@ -3050,15 +3050,15 @@
         <v>103</v>
       </c>
       <c r="G99" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B100" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C100" t="s">
         <v>85</v>
@@ -3067,10 +3067,10 @@
         <v>93</v>
       </c>
       <c r="E100" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F100" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G100" t="s">
         <v>131</v>
@@ -3078,22 +3078,22 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B101" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="C101" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D101" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E101" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F101" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G101" t="s">
         <v>132</v>

--- a/data/excel_tables/2.2_other_party_orgs_info.xlsx
+++ b/data/excel_tables/2.2_other_party_orgs_info.xlsx
@@ -346,6 +346,9 @@
     <t>c43dfc50-22be-11ec-945d-214b0bac8091</t>
   </si>
   <si>
+    <t>aa6f1480-2a66-11ec-945d-214b0bac8091</t>
+  </si>
+  <si>
     <t>0e252b20-ead3-11ee-a826-5536b50ce648</t>
   </si>
   <si>
@@ -410,9 +413,6 @@
   </si>
   <si>
     <t>db663f70-9dd9-11ef-9f9f-af297e478ff7</t>
-  </si>
-  <si>
-    <t>aa6f1480-2a66-11ec-945d-214b0bac8091</t>
   </si>
 </sst>
 </file>
@@ -2365,22 +2365,22 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B70" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="C70" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D70" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E70" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F70" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G70" t="s">
         <v>110</v>
@@ -2388,10 +2388,10 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B71" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C71" t="s">
         <v>89</v>
@@ -2400,10 +2400,10 @@
         <v>92</v>
       </c>
       <c r="E71" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F71" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G71" t="s">
         <v>111</v>
@@ -2411,10 +2411,10 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B72" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C72" t="s">
         <v>89</v>
@@ -2429,7 +2429,7 @@
         <v>103</v>
       </c>
       <c r="G72" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2443,7 +2443,7 @@
         <v>89</v>
       </c>
       <c r="D73" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E73" t="s">
         <v>97</v>
@@ -2457,10 +2457,10 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B74" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C74" t="s">
         <v>89</v>
@@ -2475,7 +2475,7 @@
         <v>103</v>
       </c>
       <c r="G74" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2486,10 +2486,10 @@
         <v>81</v>
       </c>
       <c r="C75" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D75" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E75" t="s">
         <v>97</v>
@@ -2503,10 +2503,10 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B76" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C76" t="s">
         <v>88</v>
@@ -2521,7 +2521,7 @@
         <v>103</v>
       </c>
       <c r="G76" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2532,7 +2532,7 @@
         <v>82</v>
       </c>
       <c r="C77" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D77" t="s">
         <v>90</v>
@@ -2549,10 +2549,10 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B78" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C78" t="s">
         <v>86</v>
@@ -2567,7 +2567,7 @@
         <v>103</v>
       </c>
       <c r="G78" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2578,7 +2578,7 @@
         <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D79" t="s">
         <v>90</v>
@@ -2595,10 +2595,10 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B80" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C80" t="s">
         <v>85</v>
@@ -2613,18 +2613,18 @@
         <v>103</v>
       </c>
       <c r="G80" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B81" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C81" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D81" t="s">
         <v>90</v>
@@ -2641,10 +2641,10 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C82" t="s">
         <v>87</v>
@@ -2659,27 +2659,27 @@
         <v>103</v>
       </c>
       <c r="G82" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B83" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C83" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D83" t="s">
         <v>90</v>
       </c>
       <c r="E83" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F83" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G83" t="s">
         <v>117</v>
@@ -2696,7 +2696,7 @@
         <v>89</v>
       </c>
       <c r="D84" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E84" t="s">
         <v>96</v>
@@ -2710,22 +2710,22 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B85" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C85" t="s">
         <v>89</v>
       </c>
       <c r="D85" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E85" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F85" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G85" t="s">
         <v>119</v>
@@ -2742,7 +2742,7 @@
         <v>89</v>
       </c>
       <c r="D86" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E86" t="s">
         <v>98</v>
@@ -2765,7 +2765,7 @@
         <v>89</v>
       </c>
       <c r="D87" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E87" t="s">
         <v>98</v>
@@ -2785,10 +2785,10 @@
         <v>83</v>
       </c>
       <c r="C88" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D88" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E88" t="s">
         <v>98</v>
@@ -2802,10 +2802,10 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B89" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C89" t="s">
         <v>88</v>
@@ -2814,10 +2814,10 @@
         <v>93</v>
       </c>
       <c r="E89" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F89" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G89" t="s">
         <v>123</v>
@@ -2825,10 +2825,10 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B90" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C90" t="s">
         <v>88</v>
@@ -2837,10 +2837,10 @@
         <v>93</v>
       </c>
       <c r="E90" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F90" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G90" t="s">
         <v>124</v>
@@ -2848,10 +2848,10 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B91" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C91" t="s">
         <v>88</v>
@@ -2866,27 +2866,27 @@
         <v>103</v>
       </c>
       <c r="G91" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B92" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C92" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D92" t="s">
         <v>93</v>
       </c>
       <c r="E92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F92" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G92" t="s">
         <v>125</v>
@@ -2894,10 +2894,10 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B93" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C93" t="s">
         <v>86</v>
@@ -2906,10 +2906,10 @@
         <v>93</v>
       </c>
       <c r="E93" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F93" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G93" t="s">
         <v>126</v>
@@ -2917,10 +2917,10 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B94" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C94" t="s">
         <v>86</v>
@@ -2929,10 +2929,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F94" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G94" t="s">
         <v>127</v>
@@ -2940,10 +2940,10 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B95" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C95" t="s">
         <v>86</v>
@@ -2958,15 +2958,15 @@
         <v>103</v>
       </c>
       <c r="G95" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B96" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C96" t="s">
         <v>86</v>
@@ -2975,10 +2975,10 @@
         <v>93</v>
       </c>
       <c r="E96" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F96" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G96" t="s">
         <v>128</v>
@@ -2986,22 +2986,22 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B97" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C97" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D97" t="s">
         <v>93</v>
       </c>
       <c r="E97" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F97" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G97" t="s">
         <v>129</v>
@@ -3009,10 +3009,10 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B98" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C98" t="s">
         <v>85</v>
@@ -3021,10 +3021,10 @@
         <v>93</v>
       </c>
       <c r="E98" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F98" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G98" t="s">
         <v>130</v>
@@ -3032,10 +3032,10 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B99" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C99" t="s">
         <v>85</v>
@@ -3050,15 +3050,15 @@
         <v>103</v>
       </c>
       <c r="G99" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B100" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C100" t="s">
         <v>85</v>
@@ -3067,10 +3067,10 @@
         <v>93</v>
       </c>
       <c r="E100" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F100" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G100" t="s">
         <v>131</v>
@@ -3078,22 +3078,22 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B101" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="C101" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D101" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E101" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F101" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G101" t="s">
         <v>132</v>

--- a/data/excel_tables/2.2_other_party_orgs_info.xlsx
+++ b/data/excel_tables/2.2_other_party_orgs_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="105">
   <si>
     <t>other_party_org_name</t>
   </si>
@@ -148,12 +148,6 @@
     <t>Смілянська міська організація Партії Зелених України</t>
   </si>
   <si>
-    <t>Підприємство Набат</t>
-  </si>
-  <si>
-    <t>Підприємство Редакція газети Народна справедливість партії Всеукраїнского обєднання лівих Справедливість</t>
-  </si>
-  <si>
     <t>32110582</t>
   </si>
   <si>
@@ -265,12 +259,6 @@
     <t>26043372</t>
   </si>
   <si>
-    <t>30699474</t>
-  </si>
-  <si>
-    <t>31516376</t>
-  </si>
-  <si>
     <t>3 квартал</t>
   </si>
   <si>
@@ -295,9 +283,6 @@
     <t>2023</t>
   </si>
   <si>
-    <t>2024</t>
-  </si>
-  <si>
     <t>ПРОГРЕСИВНА СОЦІАЛІСТИЧНА ПАРТІЯ УКРАЇНИ</t>
   </si>
   <si>
@@ -310,12 +295,6 @@
     <t>ПАРТІЯ ЗЕЛЕНИХ УКРАЇНИ</t>
   </si>
   <si>
-    <t>СОЮЗ АНАРХІСТІВ УКРАЇНИ</t>
-  </si>
-  <si>
-    <t>СПРАВЕДЛИВІСТЬ</t>
-  </si>
-  <si>
     <t>00013497</t>
   </si>
   <si>
@@ -328,12 +307,6 @@
     <t>00047728</t>
   </si>
   <si>
-    <t>26343565</t>
-  </si>
-  <si>
-    <t>21716145</t>
-  </si>
-  <si>
     <t>e1fad670-81bc-11ec-bdbe-3bf689b2cb33</t>
   </si>
   <si>
@@ -356,63 +329,6 @@
   </si>
   <si>
     <t>425c96b0-eaad-11ee-bce9-638f8e04ad34</t>
-  </si>
-  <si>
-    <t>9032f690-0182-11ef-938a-5514903835ea</t>
-  </si>
-  <si>
-    <t>a38ae5e0-0182-11ef-95c4-e7bfad33aba2</t>
-  </si>
-  <si>
-    <t>b2cb7830-0182-11ef-ae0a-87878d7061af</t>
-  </si>
-  <si>
-    <t>c5f838d0-0182-11ef-95c4-e7bfad33aba2</t>
-  </si>
-  <si>
-    <t>1da92b80-02ef-11ef-ae0a-87878d7061af</t>
-  </si>
-  <si>
-    <t>a8224490-0380-11ef-bce9-638f8e04ad34</t>
-  </si>
-  <si>
-    <t>a2d97000-03ce-11ef-bce9-638f8e04ad34</t>
-  </si>
-  <si>
-    <t>8b11f3c0-03dd-11ef-938a-5514903835ea</t>
-  </si>
-  <si>
-    <t>22527c80-03e5-11ef-a826-5536b50ce648</t>
-  </si>
-  <si>
-    <t>5ee7c530-062c-11ef-938a-5514903835ea</t>
-  </si>
-  <si>
-    <t>2d8673f0-0d6c-11ef-ae0a-87878d7061af</t>
-  </si>
-  <si>
-    <t>26a72960-0e95-11ef-a826-5536b50ce648</t>
-  </si>
-  <si>
-    <t>340093f0-45f2-11ef-b2b8-41c0413be8f6</t>
-  </si>
-  <si>
-    <t>a9d7a880-50aa-11ef-b2b8-41c0413be8f6</t>
-  </si>
-  <si>
-    <t>500ea260-556c-11ef-976d-d13028d0d5de</t>
-  </si>
-  <si>
-    <t>a43aa490-564a-11ef-9f9f-af297e478ff7</t>
-  </si>
-  <si>
-    <t>d5aa2af0-85a2-11ef-9f9f-af297e478ff7</t>
-  </si>
-  <si>
-    <t>8abd93a0-9d27-11ef-976d-d13028d0d5de</t>
-  </si>
-  <si>
-    <t>db663f70-9dd9-11ef-9f9f-af297e478ff7</t>
   </si>
 </sst>
 </file>
@@ -770,7 +686,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -804,22 +720,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="G2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -827,22 +743,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F3" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G3" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -850,22 +766,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -873,22 +789,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G5" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -896,22 +812,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G6" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -919,22 +835,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F7" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -942,22 +858,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -965,22 +881,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G9" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -988,22 +904,22 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E10" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F10" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G10" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1011,22 +927,22 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E11" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F11" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G11" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1034,22 +950,22 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D12" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E12" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F12" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G12" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1057,22 +973,22 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E13" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F13" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G13" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1080,22 +996,22 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E14" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F14" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G14" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1103,22 +1019,22 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E15" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F15" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G15" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1126,22 +1042,22 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D16" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E16" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F16" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G16" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1149,22 +1065,22 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D17" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E17" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F17" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G17" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1172,22 +1088,22 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E18" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F18" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G18" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1195,22 +1111,22 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D19" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E19" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F19" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G19" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1218,22 +1134,22 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E20" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F20" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G20" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1241,22 +1157,22 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D21" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E21" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F21" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G21" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1264,22 +1180,22 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D22" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E22" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F22" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G22" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1287,22 +1203,22 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D23" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E23" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F23" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G23" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1310,22 +1226,22 @@
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C24" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D24" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E24" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F24" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G24" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1333,22 +1249,22 @@
         <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D25" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E25" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F25" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G25" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1356,22 +1272,22 @@
         <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C26" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D26" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E26" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F26" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G26" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1379,22 +1295,22 @@
         <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C27" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D27" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E27" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F27" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G27" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1402,22 +1318,22 @@
         <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C28" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D28" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E28" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F28" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G28" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1425,22 +1341,22 @@
         <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C29" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D29" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E29" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F29" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G29" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1448,22 +1364,22 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C30" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D30" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E30" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F30" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G30" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1471,22 +1387,22 @@
         <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C31" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D31" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E31" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F31" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G31" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1494,22 +1410,22 @@
         <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C32" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D32" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E32" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F32" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G32" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1517,22 +1433,22 @@
         <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C33" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D33" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E33" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F33" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G33" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1540,22 +1456,22 @@
         <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C34" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D34" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E34" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F34" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G34" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1563,22 +1479,22 @@
         <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E35" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F35" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G35" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1586,22 +1502,22 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D36" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E36" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F36" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="G36" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1609,22 +1525,22 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C37" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D37" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E37" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F37" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G37" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1632,22 +1548,22 @@
         <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C38" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D38" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E38" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F38" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G38" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1655,22 +1571,22 @@
         <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C39" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D39" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E39" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F39" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G39" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1678,22 +1594,22 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C40" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E40" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F40" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G40" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1701,22 +1617,22 @@
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C41" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D41" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E41" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F41" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G41" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1724,22 +1640,22 @@
         <v>13</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C42" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D42" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E42" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F42" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G42" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1747,22 +1663,22 @@
         <v>14</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C43" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D43" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E43" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F43" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G43" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1770,22 +1686,22 @@
         <v>15</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C44" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D44" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E44" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F44" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G44" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1793,22 +1709,22 @@
         <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C45" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D45" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E45" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F45" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G45" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1816,22 +1732,22 @@
         <v>17</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C46" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D46" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E46" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F46" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G46" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1839,22 +1755,22 @@
         <v>18</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C47" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D47" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E47" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F47" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G47" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1862,22 +1778,22 @@
         <v>19</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C48" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D48" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E48" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F48" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G48" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1885,22 +1801,22 @@
         <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C49" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D49" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E49" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F49" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G49" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1908,22 +1824,22 @@
         <v>21</v>
       </c>
       <c r="B50" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C50" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D50" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E50" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F50" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G50" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1931,22 +1847,22 @@
         <v>22</v>
       </c>
       <c r="B51" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C51" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D51" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E51" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F51" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G51" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1954,22 +1870,22 @@
         <v>23</v>
       </c>
       <c r="B52" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C52" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D52" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E52" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F52" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G52" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1977,22 +1893,22 @@
         <v>24</v>
       </c>
       <c r="B53" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C53" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D53" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E53" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F53" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G53" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2000,22 +1916,22 @@
         <v>25</v>
       </c>
       <c r="B54" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C54" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D54" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E54" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F54" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G54" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2023,22 +1939,22 @@
         <v>26</v>
       </c>
       <c r="B55" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C55" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D55" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E55" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F55" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G55" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2046,22 +1962,22 @@
         <v>27</v>
       </c>
       <c r="B56" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C56" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D56" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E56" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F56" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G56" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2069,22 +1985,22 @@
         <v>28</v>
       </c>
       <c r="B57" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C57" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E57" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F57" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G57" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2092,22 +2008,22 @@
         <v>29</v>
       </c>
       <c r="B58" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C58" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D58" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E58" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F58" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G58" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2115,22 +2031,22 @@
         <v>30</v>
       </c>
       <c r="B59" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C59" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D59" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E59" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F59" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G59" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2138,22 +2054,22 @@
         <v>31</v>
       </c>
       <c r="B60" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C60" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D60" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E60" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F60" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G60" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2161,22 +2077,22 @@
         <v>32</v>
       </c>
       <c r="B61" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C61" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D61" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E61" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F61" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G61" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2184,22 +2100,22 @@
         <v>33</v>
       </c>
       <c r="B62" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C62" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D62" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E62" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F62" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G62" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2207,22 +2123,22 @@
         <v>34</v>
       </c>
       <c r="B63" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C63" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D63" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E63" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F63" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G63" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2230,22 +2146,22 @@
         <v>35</v>
       </c>
       <c r="B64" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C64" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D64" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E64" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F64" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G64" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2253,22 +2169,22 @@
         <v>36</v>
       </c>
       <c r="B65" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C65" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D65" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E65" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F65" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G65" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2276,22 +2192,22 @@
         <v>37</v>
       </c>
       <c r="B66" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C66" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D66" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E66" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F66" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G66" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2299,22 +2215,22 @@
         <v>38</v>
       </c>
       <c r="B67" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C67" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D67" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E67" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F67" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G67" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2322,22 +2238,22 @@
         <v>39</v>
       </c>
       <c r="B68" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C68" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D68" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E68" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F68" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G68" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2345,22 +2261,22 @@
         <v>40</v>
       </c>
       <c r="B69" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C69" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D69" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E69" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F69" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G69" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2368,22 +2284,22 @@
         <v>7</v>
       </c>
       <c r="B70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C70" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D70" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E70" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F70" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="G70" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2391,22 +2307,22 @@
         <v>41</v>
       </c>
       <c r="B71" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C71" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D71" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E71" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F71" t="s">
+        <v>95</v>
+      </c>
+      <c r="G71" t="s">
         <v>102</v>
-      </c>
-      <c r="G71" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2414,22 +2330,22 @@
         <v>42</v>
       </c>
       <c r="B72" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C72" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D72" t="s">
+        <v>88</v>
+      </c>
+      <c r="E72" t="s">
         <v>92</v>
       </c>
-      <c r="E72" t="s">
-        <v>97</v>
-      </c>
       <c r="F72" t="s">
+        <v>96</v>
+      </c>
+      <c r="G72" t="s">
         <v>103</v>
-      </c>
-      <c r="G72" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2437,22 +2353,22 @@
         <v>43</v>
       </c>
       <c r="B73" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C73" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D73" t="s">
+        <v>88</v>
+      </c>
+      <c r="E73" t="s">
         <v>92</v>
       </c>
-      <c r="E73" t="s">
-        <v>97</v>
-      </c>
       <c r="F73" t="s">
+        <v>96</v>
+      </c>
+      <c r="G73" t="s">
         <v>103</v>
-      </c>
-      <c r="G73" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2460,22 +2376,22 @@
         <v>43</v>
       </c>
       <c r="B74" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C74" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D74" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E74" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F74" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G74" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2483,620 +2399,22 @@
         <v>42</v>
       </c>
       <c r="B75" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C75" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D75" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E75" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F75" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G75" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76" t="s">
-        <v>42</v>
-      </c>
-      <c r="B76" t="s">
-        <v>81</v>
-      </c>
-      <c r="C76" t="s">
-        <v>88</v>
-      </c>
-      <c r="D76" t="s">
-        <v>90</v>
-      </c>
-      <c r="E76" t="s">
-        <v>97</v>
-      </c>
-      <c r="F76" t="s">
-        <v>103</v>
-      </c>
-      <c r="G76" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="A77" t="s">
-        <v>43</v>
-      </c>
-      <c r="B77" t="s">
-        <v>82</v>
-      </c>
-      <c r="C77" t="s">
-        <v>88</v>
-      </c>
-      <c r="D77" t="s">
-        <v>90</v>
-      </c>
-      <c r="E77" t="s">
-        <v>97</v>
-      </c>
-      <c r="F77" t="s">
-        <v>103</v>
-      </c>
-      <c r="G77" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="A78" t="s">
-        <v>43</v>
-      </c>
-      <c r="B78" t="s">
-        <v>82</v>
-      </c>
-      <c r="C78" t="s">
-        <v>86</v>
-      </c>
-      <c r="D78" t="s">
-        <v>90</v>
-      </c>
-      <c r="E78" t="s">
-        <v>97</v>
-      </c>
-      <c r="F78" t="s">
-        <v>103</v>
-      </c>
-      <c r="G78" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="A79" t="s">
-        <v>42</v>
-      </c>
-      <c r="B79" t="s">
-        <v>81</v>
-      </c>
-      <c r="C79" t="s">
-        <v>86</v>
-      </c>
-      <c r="D79" t="s">
-        <v>90</v>
-      </c>
-      <c r="E79" t="s">
-        <v>97</v>
-      </c>
-      <c r="F79" t="s">
-        <v>103</v>
-      </c>
-      <c r="G79" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="A80" t="s">
-        <v>42</v>
-      </c>
-      <c r="B80" t="s">
-        <v>81</v>
-      </c>
-      <c r="C80" t="s">
-        <v>85</v>
-      </c>
-      <c r="D80" t="s">
-        <v>90</v>
-      </c>
-      <c r="E80" t="s">
-        <v>97</v>
-      </c>
-      <c r="F80" t="s">
-        <v>103</v>
-      </c>
-      <c r="G80" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="A81" t="s">
-        <v>43</v>
-      </c>
-      <c r="B81" t="s">
-        <v>82</v>
-      </c>
-      <c r="C81" t="s">
-        <v>85</v>
-      </c>
-      <c r="D81" t="s">
-        <v>90</v>
-      </c>
-      <c r="E81" t="s">
-        <v>97</v>
-      </c>
-      <c r="F81" t="s">
-        <v>103</v>
-      </c>
-      <c r="G81" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82" t="s">
-        <v>42</v>
-      </c>
-      <c r="B82" t="s">
-        <v>81</v>
-      </c>
-      <c r="C82" t="s">
-        <v>87</v>
-      </c>
-      <c r="D82" t="s">
-        <v>90</v>
-      </c>
-      <c r="E82" t="s">
-        <v>97</v>
-      </c>
-      <c r="F82" t="s">
-        <v>103</v>
-      </c>
-      <c r="G82" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83" t="s">
-        <v>43</v>
-      </c>
-      <c r="B83" t="s">
-        <v>82</v>
-      </c>
-      <c r="C83" t="s">
-        <v>87</v>
-      </c>
-      <c r="D83" t="s">
-        <v>90</v>
-      </c>
-      <c r="E83" t="s">
-        <v>97</v>
-      </c>
-      <c r="F83" t="s">
-        <v>103</v>
-      </c>
-      <c r="G83" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
-      <c r="A84" t="s">
-        <v>41</v>
-      </c>
-      <c r="B84" t="s">
-        <v>80</v>
-      </c>
-      <c r="C84" t="s">
-        <v>89</v>
-      </c>
-      <c r="D84" t="s">
-        <v>90</v>
-      </c>
-      <c r="E84" t="s">
-        <v>96</v>
-      </c>
-      <c r="F84" t="s">
-        <v>102</v>
-      </c>
-      <c r="G84" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="A85" t="s">
-        <v>41</v>
-      </c>
-      <c r="B85" t="s">
-        <v>80</v>
-      </c>
-      <c r="C85" t="s">
-        <v>89</v>
-      </c>
-      <c r="D85" t="s">
-        <v>91</v>
-      </c>
-      <c r="E85" t="s">
-        <v>96</v>
-      </c>
-      <c r="F85" t="s">
-        <v>102</v>
-      </c>
-      <c r="G85" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86" t="s">
-        <v>44</v>
-      </c>
-      <c r="B86" t="s">
-        <v>83</v>
-      </c>
-      <c r="C86" t="s">
-        <v>89</v>
-      </c>
-      <c r="D86" t="s">
-        <v>92</v>
-      </c>
-      <c r="E86" t="s">
-        <v>98</v>
-      </c>
-      <c r="F86" t="s">
         <v>104</v>
-      </c>
-      <c r="G86" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87" t="s">
-        <v>44</v>
-      </c>
-      <c r="B87" t="s">
-        <v>83</v>
-      </c>
-      <c r="C87" t="s">
-        <v>89</v>
-      </c>
-      <c r="D87" t="s">
-        <v>90</v>
-      </c>
-      <c r="E87" t="s">
-        <v>98</v>
-      </c>
-      <c r="F87" t="s">
-        <v>104</v>
-      </c>
-      <c r="G87" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
-      <c r="A88" t="s">
-        <v>44</v>
-      </c>
-      <c r="B88" t="s">
-        <v>83</v>
-      </c>
-      <c r="C88" t="s">
-        <v>89</v>
-      </c>
-      <c r="D88" t="s">
-        <v>91</v>
-      </c>
-      <c r="E88" t="s">
-        <v>98</v>
-      </c>
-      <c r="F88" t="s">
-        <v>104</v>
-      </c>
-      <c r="G88" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="A89" t="s">
-        <v>44</v>
-      </c>
-      <c r="B89" t="s">
-        <v>83</v>
-      </c>
-      <c r="C89" t="s">
-        <v>88</v>
-      </c>
-      <c r="D89" t="s">
-        <v>93</v>
-      </c>
-      <c r="E89" t="s">
-        <v>98</v>
-      </c>
-      <c r="F89" t="s">
-        <v>104</v>
-      </c>
-      <c r="G89" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="A90" t="s">
-        <v>41</v>
-      </c>
-      <c r="B90" t="s">
-        <v>80</v>
-      </c>
-      <c r="C90" t="s">
-        <v>88</v>
-      </c>
-      <c r="D90" t="s">
-        <v>93</v>
-      </c>
-      <c r="E90" t="s">
-        <v>96</v>
-      </c>
-      <c r="F90" t="s">
-        <v>102</v>
-      </c>
-      <c r="G90" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
-      <c r="A91" t="s">
-        <v>43</v>
-      </c>
-      <c r="B91" t="s">
-        <v>82</v>
-      </c>
-      <c r="C91" t="s">
-        <v>88</v>
-      </c>
-      <c r="D91" t="s">
-        <v>93</v>
-      </c>
-      <c r="E91" t="s">
-        <v>97</v>
-      </c>
-      <c r="F91" t="s">
-        <v>103</v>
-      </c>
-      <c r="G91" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="A92" t="s">
-        <v>42</v>
-      </c>
-      <c r="B92" t="s">
-        <v>81</v>
-      </c>
-      <c r="C92" t="s">
-        <v>88</v>
-      </c>
-      <c r="D92" t="s">
-        <v>93</v>
-      </c>
-      <c r="E92" t="s">
-        <v>97</v>
-      </c>
-      <c r="F92" t="s">
-        <v>103</v>
-      </c>
-      <c r="G92" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
-      <c r="A93" t="s">
-        <v>44</v>
-      </c>
-      <c r="B93" t="s">
-        <v>83</v>
-      </c>
-      <c r="C93" t="s">
-        <v>86</v>
-      </c>
-      <c r="D93" t="s">
-        <v>93</v>
-      </c>
-      <c r="E93" t="s">
-        <v>98</v>
-      </c>
-      <c r="F93" t="s">
-        <v>104</v>
-      </c>
-      <c r="G93" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="A94" t="s">
-        <v>45</v>
-      </c>
-      <c r="B94" t="s">
-        <v>84</v>
-      </c>
-      <c r="C94" t="s">
-        <v>86</v>
-      </c>
-      <c r="D94" t="s">
-        <v>93</v>
-      </c>
-      <c r="E94" t="s">
-        <v>99</v>
-      </c>
-      <c r="F94" t="s">
-        <v>105</v>
-      </c>
-      <c r="G94" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
-      <c r="A95" t="s">
-        <v>43</v>
-      </c>
-      <c r="B95" t="s">
-        <v>82</v>
-      </c>
-      <c r="C95" t="s">
-        <v>86</v>
-      </c>
-      <c r="D95" t="s">
-        <v>93</v>
-      </c>
-      <c r="E95" t="s">
-        <v>97</v>
-      </c>
-      <c r="F95" t="s">
-        <v>103</v>
-      </c>
-      <c r="G95" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
-      <c r="A96" t="s">
-        <v>42</v>
-      </c>
-      <c r="B96" t="s">
-        <v>81</v>
-      </c>
-      <c r="C96" t="s">
-        <v>86</v>
-      </c>
-      <c r="D96" t="s">
-        <v>93</v>
-      </c>
-      <c r="E96" t="s">
-        <v>97</v>
-      </c>
-      <c r="F96" t="s">
-        <v>103</v>
-      </c>
-      <c r="G96" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
-      <c r="A97" t="s">
-        <v>41</v>
-      </c>
-      <c r="B97" t="s">
-        <v>80</v>
-      </c>
-      <c r="C97" t="s">
-        <v>86</v>
-      </c>
-      <c r="D97" t="s">
-        <v>93</v>
-      </c>
-      <c r="E97" t="s">
-        <v>96</v>
-      </c>
-      <c r="F97" t="s">
-        <v>102</v>
-      </c>
-      <c r="G97" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
-      <c r="A98" t="s">
-        <v>44</v>
-      </c>
-      <c r="B98" t="s">
-        <v>83</v>
-      </c>
-      <c r="C98" t="s">
-        <v>85</v>
-      </c>
-      <c r="D98" t="s">
-        <v>93</v>
-      </c>
-      <c r="E98" t="s">
-        <v>98</v>
-      </c>
-      <c r="F98" t="s">
-        <v>104</v>
-      </c>
-      <c r="G98" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
-      <c r="A99" t="s">
-        <v>42</v>
-      </c>
-      <c r="B99" t="s">
-        <v>81</v>
-      </c>
-      <c r="C99" t="s">
-        <v>85</v>
-      </c>
-      <c r="D99" t="s">
-        <v>93</v>
-      </c>
-      <c r="E99" t="s">
-        <v>97</v>
-      </c>
-      <c r="F99" t="s">
-        <v>103</v>
-      </c>
-      <c r="G99" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="A100" t="s">
-        <v>43</v>
-      </c>
-      <c r="B100" t="s">
-        <v>82</v>
-      </c>
-      <c r="C100" t="s">
-        <v>85</v>
-      </c>
-      <c r="D100" t="s">
-        <v>93</v>
-      </c>
-      <c r="E100" t="s">
-        <v>97</v>
-      </c>
-      <c r="F100" t="s">
-        <v>103</v>
-      </c>
-      <c r="G100" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
-      <c r="A101" t="s">
-        <v>41</v>
-      </c>
-      <c r="B101" t="s">
-        <v>80</v>
-      </c>
-      <c r="C101" t="s">
-        <v>85</v>
-      </c>
-      <c r="D101" t="s">
-        <v>93</v>
-      </c>
-      <c r="E101" t="s">
-        <v>96</v>
-      </c>
-      <c r="F101" t="s">
-        <v>102</v>
-      </c>
-      <c r="G101" t="s">
-        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/data/excel_tables/2.2_other_party_orgs_info.xlsx
+++ b/data/excel_tables/2.2_other_party_orgs_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="133">
   <si>
     <t>other_party_org_name</t>
   </si>
@@ -148,6 +148,12 @@
     <t>Смілянська міська організація Партії Зелених України</t>
   </si>
   <si>
+    <t>Підприємство Набат</t>
+  </si>
+  <si>
+    <t>Підприємство Редакція газети Народна справедливість партії Всеукраїнского обєднання лівих Справедливість</t>
+  </si>
+  <si>
     <t>32110582</t>
   </si>
   <si>
@@ -259,6 +265,12 @@
     <t>26043372</t>
   </si>
   <si>
+    <t>30699474</t>
+  </si>
+  <si>
+    <t>31516376</t>
+  </si>
+  <si>
     <t>3 квартал</t>
   </si>
   <si>
@@ -283,6 +295,9 @@
     <t>2023</t>
   </si>
   <si>
+    <t>2024</t>
+  </si>
+  <si>
     <t>ПРОГРЕСИВНА СОЦІАЛІСТИЧНА ПАРТІЯ УКРАЇНИ</t>
   </si>
   <si>
@@ -295,6 +310,12 @@
     <t>ПАРТІЯ ЗЕЛЕНИХ УКРАЇНИ</t>
   </si>
   <si>
+    <t>СОЮЗ АНАРХІСТІВ УКРАЇНИ</t>
+  </si>
+  <si>
+    <t>СПРАВЕДЛИВІСТЬ</t>
+  </si>
+  <si>
     <t>00013497</t>
   </si>
   <si>
@@ -307,6 +328,12 @@
     <t>00047728</t>
   </si>
   <si>
+    <t>26343565</t>
+  </si>
+  <si>
+    <t>21716145</t>
+  </si>
+  <si>
     <t>e1fad670-81bc-11ec-bdbe-3bf689b2cb33</t>
   </si>
   <si>
@@ -329,6 +356,63 @@
   </si>
   <si>
     <t>425c96b0-eaad-11ee-bce9-638f8e04ad34</t>
+  </si>
+  <si>
+    <t>9032f690-0182-11ef-938a-5514903835ea</t>
+  </si>
+  <si>
+    <t>a38ae5e0-0182-11ef-95c4-e7bfad33aba2</t>
+  </si>
+  <si>
+    <t>b2cb7830-0182-11ef-ae0a-87878d7061af</t>
+  </si>
+  <si>
+    <t>c5f838d0-0182-11ef-95c4-e7bfad33aba2</t>
+  </si>
+  <si>
+    <t>1da92b80-02ef-11ef-ae0a-87878d7061af</t>
+  </si>
+  <si>
+    <t>a8224490-0380-11ef-bce9-638f8e04ad34</t>
+  </si>
+  <si>
+    <t>a2d97000-03ce-11ef-bce9-638f8e04ad34</t>
+  </si>
+  <si>
+    <t>8b11f3c0-03dd-11ef-938a-5514903835ea</t>
+  </si>
+  <si>
+    <t>22527c80-03e5-11ef-a826-5536b50ce648</t>
+  </si>
+  <si>
+    <t>5ee7c530-062c-11ef-938a-5514903835ea</t>
+  </si>
+  <si>
+    <t>2d8673f0-0d6c-11ef-ae0a-87878d7061af</t>
+  </si>
+  <si>
+    <t>26a72960-0e95-11ef-a826-5536b50ce648</t>
+  </si>
+  <si>
+    <t>340093f0-45f2-11ef-b2b8-41c0413be8f6</t>
+  </si>
+  <si>
+    <t>a9d7a880-50aa-11ef-b2b8-41c0413be8f6</t>
+  </si>
+  <si>
+    <t>500ea260-556c-11ef-976d-d13028d0d5de</t>
+  </si>
+  <si>
+    <t>a43aa490-564a-11ef-9f9f-af297e478ff7</t>
+  </si>
+  <si>
+    <t>d5aa2af0-85a2-11ef-9f9f-af297e478ff7</t>
+  </si>
+  <si>
+    <t>8abd93a0-9d27-11ef-976d-d13028d0d5de</t>
+  </si>
+  <si>
+    <t>db663f70-9dd9-11ef-9f9f-af297e478ff7</t>
   </si>
 </sst>
 </file>
@@ -686,7 +770,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -720,22 +804,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -743,22 +827,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E3" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F3" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G3" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -766,22 +850,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F4" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G4" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -789,22 +873,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E5" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G5" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -812,22 +896,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -835,22 +919,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G7" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -858,22 +942,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E8" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G8" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -881,22 +965,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E9" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G9" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -904,22 +988,22 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D10" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E10" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -927,22 +1011,22 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E11" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F11" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G11" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -950,22 +1034,22 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D12" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E12" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F12" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G12" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -973,22 +1057,22 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E13" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F13" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G13" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -996,22 +1080,22 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D14" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E14" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F14" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G14" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1019,22 +1103,22 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D15" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E15" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F15" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G15" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1042,22 +1126,22 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D16" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E16" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F16" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G16" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1065,22 +1149,22 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D17" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E17" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F17" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G17" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1088,22 +1172,22 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D18" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E18" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F18" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G18" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1111,22 +1195,22 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D19" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E19" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F19" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G19" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1134,22 +1218,22 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D20" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E20" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F20" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G20" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1157,22 +1241,22 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D21" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E21" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F21" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G21" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1180,22 +1264,22 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D22" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E22" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F22" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G22" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1203,22 +1287,22 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D23" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E23" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F23" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G23" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1226,22 +1310,22 @@
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C24" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D24" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E24" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F24" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G24" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1249,22 +1333,22 @@
         <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D25" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E25" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F25" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G25" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1272,22 +1356,22 @@
         <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D26" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E26" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F26" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G26" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1295,22 +1379,22 @@
         <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C27" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D27" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E27" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F27" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G27" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1318,22 +1402,22 @@
         <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D28" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E28" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F28" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G28" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1341,22 +1425,22 @@
         <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C29" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D29" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E29" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F29" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G29" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1364,22 +1448,22 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C30" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D30" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E30" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F30" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G30" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1387,22 +1471,22 @@
         <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C31" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D31" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E31" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F31" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G31" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1410,22 +1494,22 @@
         <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C32" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D32" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E32" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F32" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G32" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1433,22 +1517,22 @@
         <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C33" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D33" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E33" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F33" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G33" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1456,22 +1540,22 @@
         <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C34" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D34" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E34" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F34" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G34" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1479,22 +1563,22 @@
         <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C35" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D35" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E35" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F35" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G35" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1502,22 +1586,22 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D36" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E36" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F36" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G36" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1525,22 +1609,22 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C37" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D37" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E37" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F37" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G37" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1548,22 +1632,22 @@
         <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D38" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E38" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F38" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G38" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1571,22 +1655,22 @@
         <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C39" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D39" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E39" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F39" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G39" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1594,22 +1678,22 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D40" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E40" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F40" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G40" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1617,22 +1701,22 @@
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D41" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E41" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F41" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G41" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1640,22 +1724,22 @@
         <v>13</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C42" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D42" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E42" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F42" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G42" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1663,22 +1747,22 @@
         <v>14</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C43" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D43" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E43" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F43" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G43" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1686,22 +1770,22 @@
         <v>15</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C44" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D44" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E44" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F44" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G44" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1709,22 +1793,22 @@
         <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C45" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D45" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E45" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F45" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G45" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1732,22 +1816,22 @@
         <v>17</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C46" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D46" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E46" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F46" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G46" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1755,22 +1839,22 @@
         <v>18</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C47" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D47" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E47" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F47" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G47" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1778,22 +1862,22 @@
         <v>19</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C48" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D48" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E48" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F48" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G48" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1801,22 +1885,22 @@
         <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C49" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D49" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E49" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F49" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G49" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1824,22 +1908,22 @@
         <v>21</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C50" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D50" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E50" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F50" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G50" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1847,22 +1931,22 @@
         <v>22</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C51" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D51" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E51" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F51" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G51" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1870,22 +1954,22 @@
         <v>23</v>
       </c>
       <c r="B52" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C52" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D52" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E52" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F52" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G52" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1893,22 +1977,22 @@
         <v>24</v>
       </c>
       <c r="B53" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C53" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E53" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F53" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G53" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1916,22 +2000,22 @@
         <v>25</v>
       </c>
       <c r="B54" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C54" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D54" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E54" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F54" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G54" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1939,22 +2023,22 @@
         <v>26</v>
       </c>
       <c r="B55" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C55" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D55" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E55" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F55" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G55" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1962,22 +2046,22 @@
         <v>27</v>
       </c>
       <c r="B56" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C56" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D56" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E56" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F56" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G56" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1985,22 +2069,22 @@
         <v>28</v>
       </c>
       <c r="B57" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C57" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D57" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E57" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F57" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G57" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2008,22 +2092,22 @@
         <v>29</v>
       </c>
       <c r="B58" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C58" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D58" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E58" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F58" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G58" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2031,22 +2115,22 @@
         <v>30</v>
       </c>
       <c r="B59" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C59" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D59" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E59" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F59" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G59" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2054,22 +2138,22 @@
         <v>31</v>
       </c>
       <c r="B60" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C60" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D60" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E60" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F60" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G60" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2077,22 +2161,22 @@
         <v>32</v>
       </c>
       <c r="B61" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C61" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D61" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E61" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F61" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G61" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2100,22 +2184,22 @@
         <v>33</v>
       </c>
       <c r="B62" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C62" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D62" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E62" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F62" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G62" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2123,22 +2207,22 @@
         <v>34</v>
       </c>
       <c r="B63" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C63" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D63" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E63" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F63" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G63" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2146,22 +2230,22 @@
         <v>35</v>
       </c>
       <c r="B64" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C64" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D64" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E64" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F64" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G64" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2169,22 +2253,22 @@
         <v>36</v>
       </c>
       <c r="B65" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C65" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D65" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E65" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F65" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G65" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2192,22 +2276,22 @@
         <v>37</v>
       </c>
       <c r="B66" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C66" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D66" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E66" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F66" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G66" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2215,22 +2299,22 @@
         <v>38</v>
       </c>
       <c r="B67" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C67" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D67" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E67" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F67" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G67" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2238,22 +2322,22 @@
         <v>39</v>
       </c>
       <c r="B68" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C68" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D68" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E68" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F68" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G68" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2261,22 +2345,22 @@
         <v>40</v>
       </c>
       <c r="B69" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C69" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D69" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E69" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F69" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G69" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2284,22 +2368,22 @@
         <v>7</v>
       </c>
       <c r="B70" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C70" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D70" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E70" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F70" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G70" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2307,22 +2391,22 @@
         <v>41</v>
       </c>
       <c r="B71" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C71" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D71" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E71" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F71" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G71" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2330,22 +2414,22 @@
         <v>42</v>
       </c>
       <c r="B72" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C72" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D72" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E72" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F72" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="G72" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2353,22 +2437,22 @@
         <v>43</v>
       </c>
       <c r="B73" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C73" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D73" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E73" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F73" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="G73" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2376,22 +2460,22 @@
         <v>43</v>
       </c>
       <c r="B74" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C74" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D74" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E74" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F74" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="G74" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2399,22 +2483,620 @@
         <v>42</v>
       </c>
       <c r="B75" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C75" t="s">
+        <v>89</v>
+      </c>
+      <c r="D75" t="s">
+        <v>91</v>
+      </c>
+      <c r="E75" t="s">
+        <v>97</v>
+      </c>
+      <c r="F75" t="s">
+        <v>103</v>
+      </c>
+      <c r="G75" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" t="s">
+        <v>42</v>
+      </c>
+      <c r="B76" t="s">
+        <v>81</v>
+      </c>
+      <c r="C76" t="s">
+        <v>88</v>
+      </c>
+      <c r="D76" t="s">
+        <v>90</v>
+      </c>
+      <c r="E76" t="s">
+        <v>97</v>
+      </c>
+      <c r="F76" t="s">
+        <v>103</v>
+      </c>
+      <c r="G76" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" t="s">
+        <v>43</v>
+      </c>
+      <c r="B77" t="s">
+        <v>82</v>
+      </c>
+      <c r="C77" t="s">
+        <v>88</v>
+      </c>
+      <c r="D77" t="s">
+        <v>90</v>
+      </c>
+      <c r="E77" t="s">
+        <v>97</v>
+      </c>
+      <c r="F77" t="s">
+        <v>103</v>
+      </c>
+      <c r="G77" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" t="s">
+        <v>43</v>
+      </c>
+      <c r="B78" t="s">
+        <v>82</v>
+      </c>
+      <c r="C78" t="s">
+        <v>86</v>
+      </c>
+      <c r="D78" t="s">
+        <v>90</v>
+      </c>
+      <c r="E78" t="s">
+        <v>97</v>
+      </c>
+      <c r="F78" t="s">
+        <v>103</v>
+      </c>
+      <c r="G78" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" t="s">
+        <v>42</v>
+      </c>
+      <c r="B79" t="s">
+        <v>81</v>
+      </c>
+      <c r="C79" t="s">
+        <v>86</v>
+      </c>
+      <c r="D79" t="s">
+        <v>90</v>
+      </c>
+      <c r="E79" t="s">
+        <v>97</v>
+      </c>
+      <c r="F79" t="s">
+        <v>103</v>
+      </c>
+      <c r="G79" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" t="s">
+        <v>42</v>
+      </c>
+      <c r="B80" t="s">
+        <v>81</v>
+      </c>
+      <c r="C80" t="s">
         <v>85</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D80" t="s">
+        <v>90</v>
+      </c>
+      <c r="E80" t="s">
+        <v>97</v>
+      </c>
+      <c r="F80" t="s">
+        <v>103</v>
+      </c>
+      <c r="G80" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" t="s">
+        <v>43</v>
+      </c>
+      <c r="B81" t="s">
+        <v>82</v>
+      </c>
+      <c r="C81" t="s">
+        <v>85</v>
+      </c>
+      <c r="D81" t="s">
+        <v>90</v>
+      </c>
+      <c r="E81" t="s">
+        <v>97</v>
+      </c>
+      <c r="F81" t="s">
+        <v>103</v>
+      </c>
+      <c r="G81" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" t="s">
+        <v>42</v>
+      </c>
+      <c r="B82" t="s">
+        <v>81</v>
+      </c>
+      <c r="C82" t="s">
         <v>87</v>
       </c>
-      <c r="E75" t="s">
+      <c r="D82" t="s">
+        <v>90</v>
+      </c>
+      <c r="E82" t="s">
+        <v>97</v>
+      </c>
+      <c r="F82" t="s">
+        <v>103</v>
+      </c>
+      <c r="G82" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" t="s">
+        <v>43</v>
+      </c>
+      <c r="B83" t="s">
+        <v>82</v>
+      </c>
+      <c r="C83" t="s">
+        <v>87</v>
+      </c>
+      <c r="D83" t="s">
+        <v>90</v>
+      </c>
+      <c r="E83" t="s">
+        <v>97</v>
+      </c>
+      <c r="F83" t="s">
+        <v>103</v>
+      </c>
+      <c r="G83" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" t="s">
+        <v>41</v>
+      </c>
+      <c r="B84" t="s">
+        <v>80</v>
+      </c>
+      <c r="C84" t="s">
+        <v>89</v>
+      </c>
+      <c r="D84" t="s">
+        <v>90</v>
+      </c>
+      <c r="E84" t="s">
+        <v>96</v>
+      </c>
+      <c r="F84" t="s">
+        <v>102</v>
+      </c>
+      <c r="G84" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" t="s">
+        <v>41</v>
+      </c>
+      <c r="B85" t="s">
+        <v>80</v>
+      </c>
+      <c r="C85" t="s">
+        <v>89</v>
+      </c>
+      <c r="D85" t="s">
+        <v>91</v>
+      </c>
+      <c r="E85" t="s">
+        <v>96</v>
+      </c>
+      <c r="F85" t="s">
+        <v>102</v>
+      </c>
+      <c r="G85" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" t="s">
+        <v>44</v>
+      </c>
+      <c r="B86" t="s">
+        <v>83</v>
+      </c>
+      <c r="C86" t="s">
+        <v>89</v>
+      </c>
+      <c r="D86" t="s">
         <v>92</v>
       </c>
-      <c r="F75" t="s">
+      <c r="E86" t="s">
+        <v>98</v>
+      </c>
+      <c r="F86" t="s">
+        <v>104</v>
+      </c>
+      <c r="G86" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" t="s">
+        <v>44</v>
+      </c>
+      <c r="B87" t="s">
+        <v>83</v>
+      </c>
+      <c r="C87" t="s">
+        <v>89</v>
+      </c>
+      <c r="D87" t="s">
+        <v>90</v>
+      </c>
+      <c r="E87" t="s">
+        <v>98</v>
+      </c>
+      <c r="F87" t="s">
+        <v>104</v>
+      </c>
+      <c r="G87" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" t="s">
+        <v>44</v>
+      </c>
+      <c r="B88" t="s">
+        <v>83</v>
+      </c>
+      <c r="C88" t="s">
+        <v>89</v>
+      </c>
+      <c r="D88" t="s">
+        <v>91</v>
+      </c>
+      <c r="E88" t="s">
+        <v>98</v>
+      </c>
+      <c r="F88" t="s">
+        <v>104</v>
+      </c>
+      <c r="G88" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" t="s">
+        <v>44</v>
+      </c>
+      <c r="B89" t="s">
+        <v>83</v>
+      </c>
+      <c r="C89" t="s">
+        <v>88</v>
+      </c>
+      <c r="D89" t="s">
+        <v>93</v>
+      </c>
+      <c r="E89" t="s">
+        <v>98</v>
+      </c>
+      <c r="F89" t="s">
+        <v>104</v>
+      </c>
+      <c r="G89" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" t="s">
+        <v>41</v>
+      </c>
+      <c r="B90" t="s">
+        <v>80</v>
+      </c>
+      <c r="C90" t="s">
+        <v>88</v>
+      </c>
+      <c r="D90" t="s">
+        <v>93</v>
+      </c>
+      <c r="E90" t="s">
         <v>96</v>
       </c>
-      <c r="G75" t="s">
+      <c r="F90" t="s">
+        <v>102</v>
+      </c>
+      <c r="G90" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" t="s">
+        <v>43</v>
+      </c>
+      <c r="B91" t="s">
+        <v>82</v>
+      </c>
+      <c r="C91" t="s">
+        <v>88</v>
+      </c>
+      <c r="D91" t="s">
+        <v>93</v>
+      </c>
+      <c r="E91" t="s">
+        <v>97</v>
+      </c>
+      <c r="F91" t="s">
+        <v>103</v>
+      </c>
+      <c r="G91" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" t="s">
+        <v>42</v>
+      </c>
+      <c r="B92" t="s">
+        <v>81</v>
+      </c>
+      <c r="C92" t="s">
+        <v>88</v>
+      </c>
+      <c r="D92" t="s">
+        <v>93</v>
+      </c>
+      <c r="E92" t="s">
+        <v>97</v>
+      </c>
+      <c r="F92" t="s">
+        <v>103</v>
+      </c>
+      <c r="G92" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" t="s">
+        <v>44</v>
+      </c>
+      <c r="B93" t="s">
+        <v>83</v>
+      </c>
+      <c r="C93" t="s">
+        <v>86</v>
+      </c>
+      <c r="D93" t="s">
+        <v>93</v>
+      </c>
+      <c r="E93" t="s">
+        <v>98</v>
+      </c>
+      <c r="F93" t="s">
         <v>104</v>
+      </c>
+      <c r="G93" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" t="s">
+        <v>45</v>
+      </c>
+      <c r="B94" t="s">
+        <v>84</v>
+      </c>
+      <c r="C94" t="s">
+        <v>86</v>
+      </c>
+      <c r="D94" t="s">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>99</v>
+      </c>
+      <c r="F94" t="s">
+        <v>105</v>
+      </c>
+      <c r="G94" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" t="s">
+        <v>43</v>
+      </c>
+      <c r="B95" t="s">
+        <v>82</v>
+      </c>
+      <c r="C95" t="s">
+        <v>86</v>
+      </c>
+      <c r="D95" t="s">
+        <v>93</v>
+      </c>
+      <c r="E95" t="s">
+        <v>97</v>
+      </c>
+      <c r="F95" t="s">
+        <v>103</v>
+      </c>
+      <c r="G95" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" t="s">
+        <v>42</v>
+      </c>
+      <c r="B96" t="s">
+        <v>81</v>
+      </c>
+      <c r="C96" t="s">
+        <v>86</v>
+      </c>
+      <c r="D96" t="s">
+        <v>93</v>
+      </c>
+      <c r="E96" t="s">
+        <v>97</v>
+      </c>
+      <c r="F96" t="s">
+        <v>103</v>
+      </c>
+      <c r="G96" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" t="s">
+        <v>41</v>
+      </c>
+      <c r="B97" t="s">
+        <v>80</v>
+      </c>
+      <c r="C97" t="s">
+        <v>86</v>
+      </c>
+      <c r="D97" t="s">
+        <v>93</v>
+      </c>
+      <c r="E97" t="s">
+        <v>96</v>
+      </c>
+      <c r="F97" t="s">
+        <v>102</v>
+      </c>
+      <c r="G97" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" t="s">
+        <v>44</v>
+      </c>
+      <c r="B98" t="s">
+        <v>83</v>
+      </c>
+      <c r="C98" t="s">
+        <v>85</v>
+      </c>
+      <c r="D98" t="s">
+        <v>93</v>
+      </c>
+      <c r="E98" t="s">
+        <v>98</v>
+      </c>
+      <c r="F98" t="s">
+        <v>104</v>
+      </c>
+      <c r="G98" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" t="s">
+        <v>42</v>
+      </c>
+      <c r="B99" t="s">
+        <v>81</v>
+      </c>
+      <c r="C99" t="s">
+        <v>85</v>
+      </c>
+      <c r="D99" t="s">
+        <v>93</v>
+      </c>
+      <c r="E99" t="s">
+        <v>97</v>
+      </c>
+      <c r="F99" t="s">
+        <v>103</v>
+      </c>
+      <c r="G99" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" t="s">
+        <v>43</v>
+      </c>
+      <c r="B100" t="s">
+        <v>82</v>
+      </c>
+      <c r="C100" t="s">
+        <v>85</v>
+      </c>
+      <c r="D100" t="s">
+        <v>93</v>
+      </c>
+      <c r="E100" t="s">
+        <v>97</v>
+      </c>
+      <c r="F100" t="s">
+        <v>103</v>
+      </c>
+      <c r="G100" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" t="s">
+        <v>41</v>
+      </c>
+      <c r="B101" t="s">
+        <v>80</v>
+      </c>
+      <c r="C101" t="s">
+        <v>85</v>
+      </c>
+      <c r="D101" t="s">
+        <v>93</v>
+      </c>
+      <c r="E101" t="s">
+        <v>96</v>
+      </c>
+      <c r="F101" t="s">
+        <v>102</v>
+      </c>
+      <c r="G101" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/data/excel_tables/2.2_other_party_orgs_info.xlsx
+++ b/data/excel_tables/2.2_other_party_orgs_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="134">
   <si>
     <t>other_party_org_name</t>
   </si>
@@ -413,6 +413,9 @@
   </si>
   <si>
     <t>db663f70-9dd9-11ef-9f9f-af297e478ff7</t>
+  </si>
+  <si>
+    <t>8281cf20-c749-11ef-976d-d13028d0d5de</t>
   </si>
 </sst>
 </file>
@@ -770,7 +773,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3099,6 +3102,29 @@
         <v>132</v>
       </c>
     </row>
+    <row r="102" spans="1:7">
+      <c r="A102" t="s">
+        <v>45</v>
+      </c>
+      <c r="B102" t="s">
+        <v>84</v>
+      </c>
+      <c r="C102" t="s">
+        <v>85</v>
+      </c>
+      <c r="D102" t="s">
+        <v>93</v>
+      </c>
+      <c r="E102" t="s">
+        <v>99</v>
+      </c>
+      <c r="F102" t="s">
+        <v>105</v>
+      </c>
+      <c r="G102" t="s">
+        <v>133</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/excel_tables/2.2_other_party_orgs_info.xlsx
+++ b/data/excel_tables/2.2_other_party_orgs_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="135">
   <si>
     <t>other_party_org_name</t>
   </si>
@@ -301,7 +301,7 @@
     <t>ПРОГРЕСИВНА СОЦІАЛІСТИЧНА ПАРТІЯ УКРАЇНИ</t>
   </si>
   <si>
-    <t>ЖІНКИ ЗА МАЙБУТНЄ</t>
+    <t>СОЦІАЛЬНО-КОНСЕРВАТИВНА ПАРТІЯ УКРАЇНИ ҐЕРЦЬ</t>
   </si>
   <si>
     <t>УКРАЇНСЬКА НАРОДНА ПАРТІЯ</t>
@@ -416,6 +416,9 @@
   </si>
   <si>
     <t>8281cf20-c749-11ef-976d-d13028d0d5de</t>
+  </si>
+  <si>
+    <t>71f07dc0-d74b-11ef-8519-99527ea3bb0b</t>
   </si>
 </sst>
 </file>
@@ -773,7 +776,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G102"/>
+  <dimension ref="A1:G103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3125,6 +3128,29 @@
         <v>133</v>
       </c>
     </row>
+    <row r="103" spans="1:7">
+      <c r="A103" t="s">
+        <v>44</v>
+      </c>
+      <c r="B103" t="s">
+        <v>83</v>
+      </c>
+      <c r="C103" t="s">
+        <v>87</v>
+      </c>
+      <c r="D103" t="s">
+        <v>93</v>
+      </c>
+      <c r="E103" t="s">
+        <v>98</v>
+      </c>
+      <c r="F103" t="s">
+        <v>104</v>
+      </c>
+      <c r="G103" t="s">
+        <v>134</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/excel_tables/2.2_other_party_orgs_info.xlsx
+++ b/data/excel_tables/2.2_other_party_orgs_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="143">
   <si>
     <t>other_party_org_name</t>
   </si>
@@ -154,6 +154,9 @@
     <t>Підприємство Редакція газети Народна справедливість партії Всеукраїнского обєднання лівих Справедливість</t>
   </si>
   <si>
+    <t>Редакція газети Україна і світ сьогодні</t>
+  </si>
+  <si>
     <t>32110582</t>
   </si>
   <si>
@@ -271,6 +274,9 @@
     <t>31516376</t>
   </si>
   <si>
+    <t>30020328</t>
+  </si>
+  <si>
     <t>3 квартал</t>
   </si>
   <si>
@@ -316,6 +322,9 @@
     <t>СПРАВЕДЛИВІСТЬ</t>
   </si>
   <si>
+    <t>НАРОДНО-ДЕМОКРАТИЧНА ПАРТІЯ (НДП)</t>
+  </si>
+  <si>
     <t>00013497</t>
   </si>
   <si>
@@ -334,6 +343,9 @@
     <t>21716145</t>
   </si>
   <si>
+    <t>00013267</t>
+  </si>
+  <si>
     <t>e1fad670-81bc-11ec-bdbe-3bf689b2cb33</t>
   </si>
   <si>
@@ -419,6 +431,18 @@
   </si>
   <si>
     <t>71f07dc0-d74b-11ef-8519-99527ea3bb0b</t>
+  </si>
+  <si>
+    <t>c2ac46a0-de43-11ef-a7f9-4fd7247b299f</t>
+  </si>
+  <si>
+    <t>d8b8db20-def2-11ef-9c87-13513ebc86d2</t>
+  </si>
+  <si>
+    <t>0574a3e0-df2c-11ef-a7f9-4fd7247b299f</t>
+  </si>
+  <si>
+    <t>a6010da0-e70e-11ef-90d5-ff8d5b0be14c</t>
   </si>
 </sst>
 </file>
@@ -776,7 +800,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G103"/>
+  <dimension ref="A1:G108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -810,22 +834,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -833,22 +857,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -856,22 +880,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G4" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -879,22 +903,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G5" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -902,22 +926,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F6" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G6" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -925,22 +949,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -948,22 +972,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F8" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G8" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -971,22 +995,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -994,22 +1018,22 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F10" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G10" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1017,22 +1041,22 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F11" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G11" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1040,22 +1064,22 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F12" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G12" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1063,22 +1087,22 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D13" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F13" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G13" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1086,22 +1110,22 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E14" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F14" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G14" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1109,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F15" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G15" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1132,22 +1156,22 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E16" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F16" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G16" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1155,22 +1179,22 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F17" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G17" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1178,22 +1202,22 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D18" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E18" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F18" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G18" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1201,22 +1225,22 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E19" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F19" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G19" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1224,22 +1248,22 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D20" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E20" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F20" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G20" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1247,22 +1271,22 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C21" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D21" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E21" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F21" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G21" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1270,22 +1294,22 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D22" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E22" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F22" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G22" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1293,22 +1317,22 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D23" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E23" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F23" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G23" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1316,22 +1340,22 @@
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D24" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E24" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F24" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G24" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1339,22 +1363,22 @@
         <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D25" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E25" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F25" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G25" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1362,22 +1386,22 @@
         <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D26" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E26" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F26" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G26" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1385,22 +1409,22 @@
         <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D27" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E27" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F27" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G27" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1408,22 +1432,22 @@
         <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C28" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D28" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E28" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F28" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G28" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1431,22 +1455,22 @@
         <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C29" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D29" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E29" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F29" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G29" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1454,22 +1478,22 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C30" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D30" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E30" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F30" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G30" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1477,22 +1501,22 @@
         <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C31" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D31" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E31" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F31" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G31" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1500,22 +1524,22 @@
         <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C32" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D32" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E32" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F32" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G32" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1523,22 +1547,22 @@
         <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D33" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E33" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F33" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G33" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1546,22 +1570,22 @@
         <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C34" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D34" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E34" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F34" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G34" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1569,22 +1593,22 @@
         <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C35" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D35" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E35" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F35" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G35" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1592,22 +1616,22 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C36" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D36" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E36" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F36" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G36" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1615,22 +1639,22 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C37" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D37" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E37" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F37" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G37" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1638,22 +1662,22 @@
         <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C38" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D38" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E38" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F38" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G38" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1661,22 +1685,22 @@
         <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D39" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E39" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F39" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G39" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1684,22 +1708,22 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C40" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D40" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E40" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F40" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G40" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1707,22 +1731,22 @@
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C41" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D41" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E41" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F41" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G41" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1730,22 +1754,22 @@
         <v>13</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C42" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D42" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E42" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F42" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G42" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1753,22 +1777,22 @@
         <v>14</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C43" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D43" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E43" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F43" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G43" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1776,22 +1800,22 @@
         <v>15</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C44" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D44" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E44" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F44" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G44" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1799,22 +1823,22 @@
         <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C45" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D45" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E45" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F45" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G45" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1822,22 +1846,22 @@
         <v>17</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C46" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D46" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E46" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F46" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G46" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1845,22 +1869,22 @@
         <v>18</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C47" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D47" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E47" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F47" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G47" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1868,22 +1892,22 @@
         <v>19</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C48" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D48" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E48" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F48" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G48" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1891,22 +1915,22 @@
         <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C49" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D49" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E49" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F49" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G49" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1914,22 +1938,22 @@
         <v>21</v>
       </c>
       <c r="B50" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C50" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D50" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E50" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F50" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G50" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1937,22 +1961,22 @@
         <v>22</v>
       </c>
       <c r="B51" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C51" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D51" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E51" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F51" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G51" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1960,22 +1984,22 @@
         <v>23</v>
       </c>
       <c r="B52" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C52" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D52" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E52" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F52" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G52" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1983,22 +2007,22 @@
         <v>24</v>
       </c>
       <c r="B53" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C53" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D53" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E53" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F53" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G53" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2006,22 +2030,22 @@
         <v>25</v>
       </c>
       <c r="B54" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C54" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D54" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E54" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F54" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G54" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2029,22 +2053,22 @@
         <v>26</v>
       </c>
       <c r="B55" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C55" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D55" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E55" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F55" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G55" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2052,22 +2076,22 @@
         <v>27</v>
       </c>
       <c r="B56" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C56" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D56" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E56" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F56" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G56" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2075,22 +2099,22 @@
         <v>28</v>
       </c>
       <c r="B57" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C57" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E57" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F57" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G57" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2098,22 +2122,22 @@
         <v>29</v>
       </c>
       <c r="B58" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C58" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D58" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E58" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F58" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G58" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2121,22 +2145,22 @@
         <v>30</v>
       </c>
       <c r="B59" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C59" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D59" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E59" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F59" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G59" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2144,22 +2168,22 @@
         <v>31</v>
       </c>
       <c r="B60" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C60" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D60" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E60" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F60" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G60" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2167,22 +2191,22 @@
         <v>32</v>
       </c>
       <c r="B61" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C61" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D61" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E61" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F61" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G61" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2190,22 +2214,22 @@
         <v>33</v>
       </c>
       <c r="B62" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C62" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D62" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E62" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F62" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G62" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2213,22 +2237,22 @@
         <v>34</v>
       </c>
       <c r="B63" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C63" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D63" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E63" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F63" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G63" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2236,22 +2260,22 @@
         <v>35</v>
       </c>
       <c r="B64" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C64" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D64" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E64" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F64" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G64" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2259,22 +2283,22 @@
         <v>36</v>
       </c>
       <c r="B65" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C65" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D65" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E65" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F65" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G65" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2282,22 +2306,22 @@
         <v>37</v>
       </c>
       <c r="B66" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C66" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D66" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E66" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F66" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G66" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2305,22 +2329,22 @@
         <v>38</v>
       </c>
       <c r="B67" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C67" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D67" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E67" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F67" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G67" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2328,22 +2352,22 @@
         <v>39</v>
       </c>
       <c r="B68" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C68" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D68" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E68" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F68" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G68" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2351,22 +2375,22 @@
         <v>40</v>
       </c>
       <c r="B69" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C69" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D69" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E69" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F69" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G69" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2374,22 +2398,22 @@
         <v>7</v>
       </c>
       <c r="B70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C70" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D70" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E70" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F70" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G70" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2397,22 +2421,22 @@
         <v>41</v>
       </c>
       <c r="B71" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C71" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D71" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E71" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F71" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G71" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2420,22 +2444,22 @@
         <v>42</v>
       </c>
       <c r="B72" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C72" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D72" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E72" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F72" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G72" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2443,22 +2467,22 @@
         <v>43</v>
       </c>
       <c r="B73" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C73" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D73" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E73" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F73" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G73" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2466,22 +2490,22 @@
         <v>43</v>
       </c>
       <c r="B74" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C74" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D74" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E74" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F74" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G74" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2489,22 +2513,22 @@
         <v>42</v>
       </c>
       <c r="B75" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C75" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D75" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E75" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F75" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G75" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2512,22 +2536,22 @@
         <v>42</v>
       </c>
       <c r="B76" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C76" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D76" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E76" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F76" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G76" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2535,22 +2559,22 @@
         <v>43</v>
       </c>
       <c r="B77" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C77" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D77" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E77" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F77" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G77" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2558,22 +2582,22 @@
         <v>43</v>
       </c>
       <c r="B78" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C78" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D78" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E78" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F78" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G78" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2581,22 +2605,22 @@
         <v>42</v>
       </c>
       <c r="B79" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D79" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E79" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F79" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G79" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2604,22 +2628,22 @@
         <v>42</v>
       </c>
       <c r="B80" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C80" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D80" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E80" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F80" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G80" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2627,22 +2651,22 @@
         <v>43</v>
       </c>
       <c r="B81" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C81" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D81" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E81" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F81" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G81" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2650,22 +2674,22 @@
         <v>42</v>
       </c>
       <c r="B82" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C82" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D82" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E82" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F82" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G82" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2673,22 +2697,22 @@
         <v>43</v>
       </c>
       <c r="B83" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C83" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D83" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E83" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F83" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G83" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2696,22 +2720,22 @@
         <v>41</v>
       </c>
       <c r="B84" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C84" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D84" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E84" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F84" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G84" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2719,22 +2743,22 @@
         <v>41</v>
       </c>
       <c r="B85" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C85" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D85" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E85" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F85" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G85" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2742,22 +2766,22 @@
         <v>44</v>
       </c>
       <c r="B86" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C86" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D86" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E86" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F86" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G86" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2765,22 +2789,22 @@
         <v>44</v>
       </c>
       <c r="B87" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C87" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D87" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E87" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F87" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G87" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2788,22 +2812,22 @@
         <v>44</v>
       </c>
       <c r="B88" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C88" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D88" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E88" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F88" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G88" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2811,22 +2835,22 @@
         <v>44</v>
       </c>
       <c r="B89" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C89" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D89" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E89" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F89" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G89" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2834,22 +2858,22 @@
         <v>41</v>
       </c>
       <c r="B90" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C90" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D90" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E90" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F90" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G90" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2857,22 +2881,22 @@
         <v>43</v>
       </c>
       <c r="B91" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C91" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D91" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E91" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F91" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G91" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2880,22 +2904,22 @@
         <v>42</v>
       </c>
       <c r="B92" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C92" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D92" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E92" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F92" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G92" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2903,22 +2927,22 @@
         <v>44</v>
       </c>
       <c r="B93" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C93" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D93" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E93" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F93" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G93" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2926,22 +2950,22 @@
         <v>45</v>
       </c>
       <c r="B94" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C94" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D94" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E94" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F94" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G94" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2949,22 +2973,22 @@
         <v>43</v>
       </c>
       <c r="B95" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C95" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D95" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E95" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F95" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G95" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2972,22 +2996,22 @@
         <v>42</v>
       </c>
       <c r="B96" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C96" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D96" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F96" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G96" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2995,22 +3019,22 @@
         <v>41</v>
       </c>
       <c r="B97" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C97" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D97" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E97" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F97" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G97" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -3018,22 +3042,22 @@
         <v>44</v>
       </c>
       <c r="B98" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C98" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D98" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E98" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F98" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G98" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -3041,22 +3065,22 @@
         <v>42</v>
       </c>
       <c r="B99" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C99" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D99" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E99" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F99" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G99" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -3064,22 +3088,22 @@
         <v>43</v>
       </c>
       <c r="B100" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C100" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D100" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E100" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F100" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G100" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -3087,22 +3111,22 @@
         <v>41</v>
       </c>
       <c r="B101" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C101" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D101" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E101" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F101" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G101" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -3110,22 +3134,22 @@
         <v>45</v>
       </c>
       <c r="B102" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C102" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D102" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E102" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F102" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G102" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -3133,22 +3157,137 @@
         <v>44</v>
       </c>
       <c r="B103" t="s">
+        <v>84</v>
+      </c>
+      <c r="C103" t="s">
+        <v>89</v>
+      </c>
+      <c r="D103" t="s">
+        <v>95</v>
+      </c>
+      <c r="E103" t="s">
+        <v>100</v>
+      </c>
+      <c r="F103" t="s">
+        <v>107</v>
+      </c>
+      <c r="G103" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" t="s">
+        <v>46</v>
+      </c>
+      <c r="B104" t="s">
+        <v>86</v>
+      </c>
+      <c r="C104" t="s">
+        <v>89</v>
+      </c>
+      <c r="D104" t="s">
+        <v>95</v>
+      </c>
+      <c r="E104" t="s">
+        <v>102</v>
+      </c>
+      <c r="F104" t="s">
+        <v>109</v>
+      </c>
+      <c r="G104" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" t="s">
+        <v>45</v>
+      </c>
+      <c r="B105" t="s">
+        <v>85</v>
+      </c>
+      <c r="C105" t="s">
+        <v>89</v>
+      </c>
+      <c r="D105" t="s">
+        <v>95</v>
+      </c>
+      <c r="E105" t="s">
+        <v>101</v>
+      </c>
+      <c r="F105" t="s">
+        <v>108</v>
+      </c>
+      <c r="G105" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" t="s">
+        <v>42</v>
+      </c>
+      <c r="B106" t="s">
+        <v>82</v>
+      </c>
+      <c r="C106" t="s">
+        <v>89</v>
+      </c>
+      <c r="D106" t="s">
+        <v>95</v>
+      </c>
+      <c r="E106" t="s">
+        <v>99</v>
+      </c>
+      <c r="F106" t="s">
+        <v>106</v>
+      </c>
+      <c r="G106" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" t="s">
+        <v>43</v>
+      </c>
+      <c r="B107" t="s">
         <v>83</v>
       </c>
-      <c r="C103" t="s">
-        <v>87</v>
-      </c>
-      <c r="D103" t="s">
-        <v>93</v>
-      </c>
-      <c r="E103" t="s">
+      <c r="C107" t="s">
+        <v>89</v>
+      </c>
+      <c r="D107" t="s">
+        <v>95</v>
+      </c>
+      <c r="E107" t="s">
+        <v>99</v>
+      </c>
+      <c r="F107" t="s">
+        <v>106</v>
+      </c>
+      <c r="G107" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" t="s">
+        <v>41</v>
+      </c>
+      <c r="B108" t="s">
+        <v>81</v>
+      </c>
+      <c r="C108" t="s">
+        <v>89</v>
+      </c>
+      <c r="D108" t="s">
+        <v>95</v>
+      </c>
+      <c r="E108" t="s">
         <v>98</v>
       </c>
-      <c r="F103" t="s">
-        <v>104</v>
-      </c>
-      <c r="G103" t="s">
-        <v>134</v>
+      <c r="F108" t="s">
+        <v>105</v>
+      </c>
+      <c r="G108" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data/excel_tables/2.2_other_party_orgs_info.xlsx
+++ b/data/excel_tables/2.2_other_party_orgs_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="146">
   <si>
     <t>other_party_org_name</t>
   </si>
@@ -304,6 +304,9 @@
     <t>2024</t>
   </si>
   <si>
+    <t>2025</t>
+  </si>
+  <si>
     <t>ПРОГРЕСИВНА СОЦІАЛІСТИЧНА ПАРТІЯ УКРАЇНИ</t>
   </si>
   <si>
@@ -443,6 +446,12 @@
   </si>
   <si>
     <t>a6010da0-e70e-11ef-90d5-ff8d5b0be14c</t>
+  </si>
+  <si>
+    <t>4b8c0570-1132-11f0-8519-99527ea3bb0b</t>
+  </si>
+  <si>
+    <t>ea73c8c0-1557-11f0-90d5-ff8d5b0be14c</t>
   </si>
 </sst>
 </file>
@@ -800,7 +809,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G108"/>
+  <dimension ref="A1:G110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -843,13 +852,13 @@
         <v>92</v>
       </c>
       <c r="E2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -866,13 +875,13 @@
         <v>93</v>
       </c>
       <c r="E3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -889,13 +898,13 @@
         <v>93</v>
       </c>
       <c r="E4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -912,13 +921,13 @@
         <v>93</v>
       </c>
       <c r="E5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -935,13 +944,13 @@
         <v>93</v>
       </c>
       <c r="E6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -958,13 +967,13 @@
         <v>93</v>
       </c>
       <c r="E7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -981,13 +990,13 @@
         <v>93</v>
       </c>
       <c r="E8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1004,13 +1013,13 @@
         <v>93</v>
       </c>
       <c r="E9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1027,13 +1036,13 @@
         <v>93</v>
       </c>
       <c r="E10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1050,13 +1059,13 @@
         <v>93</v>
       </c>
       <c r="E11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1073,13 +1082,13 @@
         <v>93</v>
       </c>
       <c r="E12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1096,13 +1105,13 @@
         <v>93</v>
       </c>
       <c r="E13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1119,13 +1128,13 @@
         <v>93</v>
       </c>
       <c r="E14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1142,13 +1151,13 @@
         <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1165,13 +1174,13 @@
         <v>93</v>
       </c>
       <c r="E16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G16" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1188,13 +1197,13 @@
         <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1211,13 +1220,13 @@
         <v>93</v>
       </c>
       <c r="E18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1234,13 +1243,13 @@
         <v>93</v>
       </c>
       <c r="E19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1257,13 +1266,13 @@
         <v>93</v>
       </c>
       <c r="E20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1280,13 +1289,13 @@
         <v>93</v>
       </c>
       <c r="E21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F21" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1303,13 +1312,13 @@
         <v>93</v>
       </c>
       <c r="E22" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F22" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G22" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1326,13 +1335,13 @@
         <v>93</v>
       </c>
       <c r="E23" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F23" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G23" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1349,13 +1358,13 @@
         <v>93</v>
       </c>
       <c r="E24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G24" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1372,13 +1381,13 @@
         <v>93</v>
       </c>
       <c r="E25" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G25" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1395,13 +1404,13 @@
         <v>93</v>
       </c>
       <c r="E26" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F26" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G26" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1418,13 +1427,13 @@
         <v>93</v>
       </c>
       <c r="E27" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G27" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1441,13 +1450,13 @@
         <v>93</v>
       </c>
       <c r="E28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F28" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G28" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1464,13 +1473,13 @@
         <v>93</v>
       </c>
       <c r="E29" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F29" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G29" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1487,13 +1496,13 @@
         <v>93</v>
       </c>
       <c r="E30" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F30" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G30" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1510,13 +1519,13 @@
         <v>93</v>
       </c>
       <c r="E31" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F31" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G31" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1533,13 +1542,13 @@
         <v>93</v>
       </c>
       <c r="E32" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F32" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G32" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1556,13 +1565,13 @@
         <v>93</v>
       </c>
       <c r="E33" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F33" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G33" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1579,13 +1588,13 @@
         <v>93</v>
       </c>
       <c r="E34" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F34" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G34" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1602,13 +1611,13 @@
         <v>93</v>
       </c>
       <c r="E35" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F35" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G35" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1625,13 +1634,13 @@
         <v>92</v>
       </c>
       <c r="E36" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F36" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G36" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1648,13 +1657,13 @@
         <v>92</v>
       </c>
       <c r="E37" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F37" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G37" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1671,13 +1680,13 @@
         <v>92</v>
       </c>
       <c r="E38" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F38" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G38" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1694,13 +1703,13 @@
         <v>92</v>
       </c>
       <c r="E39" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F39" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G39" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1717,13 +1726,13 @@
         <v>92</v>
       </c>
       <c r="E40" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F40" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G40" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1740,13 +1749,13 @@
         <v>92</v>
       </c>
       <c r="E41" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F41" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G41" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1763,13 +1772,13 @@
         <v>92</v>
       </c>
       <c r="E42" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F42" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G42" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1786,13 +1795,13 @@
         <v>92</v>
       </c>
       <c r="E43" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F43" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G43" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1809,13 +1818,13 @@
         <v>92</v>
       </c>
       <c r="E44" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F44" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G44" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1832,13 +1841,13 @@
         <v>92</v>
       </c>
       <c r="E45" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F45" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G45" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1855,13 +1864,13 @@
         <v>92</v>
       </c>
       <c r="E46" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F46" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G46" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1878,13 +1887,13 @@
         <v>92</v>
       </c>
       <c r="E47" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F47" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G47" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1901,13 +1910,13 @@
         <v>92</v>
       </c>
       <c r="E48" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F48" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G48" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1924,13 +1933,13 @@
         <v>92</v>
       </c>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F49" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G49" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1947,13 +1956,13 @@
         <v>92</v>
       </c>
       <c r="E50" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F50" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G50" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1970,13 +1979,13 @@
         <v>92</v>
       </c>
       <c r="E51" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F51" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G51" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1993,13 +2002,13 @@
         <v>92</v>
       </c>
       <c r="E52" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F52" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G52" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2016,13 +2025,13 @@
         <v>92</v>
       </c>
       <c r="E53" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F53" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G53" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2039,13 +2048,13 @@
         <v>92</v>
       </c>
       <c r="E54" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F54" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G54" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2062,13 +2071,13 @@
         <v>92</v>
       </c>
       <c r="E55" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F55" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G55" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2085,13 +2094,13 @@
         <v>92</v>
       </c>
       <c r="E56" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F56" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G56" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2108,13 +2117,13 @@
         <v>92</v>
       </c>
       <c r="E57" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F57" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G57" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2131,13 +2140,13 @@
         <v>92</v>
       </c>
       <c r="E58" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F58" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G58" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2154,13 +2163,13 @@
         <v>92</v>
       </c>
       <c r="E59" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F59" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G59" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2177,13 +2186,13 @@
         <v>92</v>
       </c>
       <c r="E60" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F60" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G60" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2200,13 +2209,13 @@
         <v>92</v>
       </c>
       <c r="E61" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F61" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G61" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2223,13 +2232,13 @@
         <v>92</v>
       </c>
       <c r="E62" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F62" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G62" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2246,13 +2255,13 @@
         <v>92</v>
       </c>
       <c r="E63" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F63" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G63" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2269,13 +2278,13 @@
         <v>92</v>
       </c>
       <c r="E64" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F64" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G64" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2292,13 +2301,13 @@
         <v>92</v>
       </c>
       <c r="E65" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F65" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G65" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2315,13 +2324,13 @@
         <v>92</v>
       </c>
       <c r="E66" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F66" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G66" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2338,13 +2347,13 @@
         <v>92</v>
       </c>
       <c r="E67" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F67" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G67" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2361,13 +2370,13 @@
         <v>92</v>
       </c>
       <c r="E68" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F68" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G68" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2384,13 +2393,13 @@
         <v>92</v>
       </c>
       <c r="E69" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F69" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G69" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2407,13 +2416,13 @@
         <v>92</v>
       </c>
       <c r="E70" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F70" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G70" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2430,13 +2439,13 @@
         <v>94</v>
       </c>
       <c r="E71" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F71" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G71" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2453,13 +2462,13 @@
         <v>94</v>
       </c>
       <c r="E72" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F72" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G72" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2476,13 +2485,13 @@
         <v>94</v>
       </c>
       <c r="E73" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F73" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G73" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2499,13 +2508,13 @@
         <v>93</v>
       </c>
       <c r="E74" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F74" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G74" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2522,13 +2531,13 @@
         <v>93</v>
       </c>
       <c r="E75" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F75" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G75" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2545,13 +2554,13 @@
         <v>92</v>
       </c>
       <c r="E76" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F76" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G76" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2568,13 +2577,13 @@
         <v>92</v>
       </c>
       <c r="E77" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F77" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G77" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2591,13 +2600,13 @@
         <v>92</v>
       </c>
       <c r="E78" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F78" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G78" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2614,13 +2623,13 @@
         <v>92</v>
       </c>
       <c r="E79" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F79" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G79" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2637,13 +2646,13 @@
         <v>92</v>
       </c>
       <c r="E80" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F80" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G80" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2660,13 +2669,13 @@
         <v>92</v>
       </c>
       <c r="E81" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F81" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G81" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2683,13 +2692,13 @@
         <v>92</v>
       </c>
       <c r="E82" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F82" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G82" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2706,13 +2715,13 @@
         <v>92</v>
       </c>
       <c r="E83" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F83" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G83" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2729,13 +2738,13 @@
         <v>92</v>
       </c>
       <c r="E84" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F84" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G84" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2752,13 +2761,13 @@
         <v>93</v>
       </c>
       <c r="E85" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F85" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G85" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2775,13 +2784,13 @@
         <v>94</v>
       </c>
       <c r="E86" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F86" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G86" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2798,13 +2807,13 @@
         <v>92</v>
       </c>
       <c r="E87" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F87" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G87" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2821,13 +2830,13 @@
         <v>93</v>
       </c>
       <c r="E88" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F88" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G88" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2844,13 +2853,13 @@
         <v>95</v>
       </c>
       <c r="E89" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F89" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G89" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2867,13 +2876,13 @@
         <v>95</v>
       </c>
       <c r="E90" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F90" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G90" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2890,13 +2899,13 @@
         <v>95</v>
       </c>
       <c r="E91" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F91" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G91" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2913,13 +2922,13 @@
         <v>95</v>
       </c>
       <c r="E92" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F92" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G92" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2936,13 +2945,13 @@
         <v>95</v>
       </c>
       <c r="E93" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F93" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G93" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2959,13 +2968,13 @@
         <v>95</v>
       </c>
       <c r="E94" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F94" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G94" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2982,13 +2991,13 @@
         <v>95</v>
       </c>
       <c r="E95" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F95" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G95" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -3005,13 +3014,13 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F96" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G96" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3028,13 +3037,13 @@
         <v>95</v>
       </c>
       <c r="E97" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F97" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G97" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -3051,13 +3060,13 @@
         <v>95</v>
       </c>
       <c r="E98" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F98" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G98" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -3074,13 +3083,13 @@
         <v>95</v>
       </c>
       <c r="E99" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F99" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G99" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -3097,13 +3106,13 @@
         <v>95</v>
       </c>
       <c r="E100" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F100" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G100" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -3120,13 +3129,13 @@
         <v>95</v>
       </c>
       <c r="E101" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F101" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G101" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -3143,13 +3152,13 @@
         <v>95</v>
       </c>
       <c r="E102" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F102" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G102" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -3166,13 +3175,13 @@
         <v>95</v>
       </c>
       <c r="E103" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F103" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G103" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -3189,13 +3198,13 @@
         <v>95</v>
       </c>
       <c r="E104" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F104" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G104" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -3212,13 +3221,13 @@
         <v>95</v>
       </c>
       <c r="E105" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F105" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G105" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -3235,13 +3244,13 @@
         <v>95</v>
       </c>
       <c r="E106" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F106" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G106" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -3258,13 +3267,13 @@
         <v>95</v>
       </c>
       <c r="E107" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F107" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G107" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -3281,13 +3290,59 @@
         <v>95</v>
       </c>
       <c r="E108" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F108" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G108" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" t="s">
+        <v>46</v>
+      </c>
+      <c r="B109" t="s">
+        <v>86</v>
+      </c>
+      <c r="C109" t="s">
+        <v>90</v>
+      </c>
+      <c r="D109" t="s">
+        <v>96</v>
+      </c>
+      <c r="E109" t="s">
+        <v>103</v>
+      </c>
+      <c r="F109" t="s">
+        <v>110</v>
+      </c>
+      <c r="G109" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" t="s">
+        <v>44</v>
+      </c>
+      <c r="B110" t="s">
+        <v>84</v>
+      </c>
+      <c r="C110" t="s">
+        <v>90</v>
+      </c>
+      <c r="D110" t="s">
+        <v>96</v>
+      </c>
+      <c r="E110" t="s">
+        <v>101</v>
+      </c>
+      <c r="F110" t="s">
+        <v>108</v>
+      </c>
+      <c r="G110" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
